--- a/QALD9-Plus-testing/CoT-entity-aligned/CoT-dbpedia-wikidata/CoT_llama_wikidata_results_analysis.xlsx
+++ b/QALD9-Plus-testing/CoT-entity-aligned/CoT-dbpedia-wikidata/CoT_llama_wikidata_results_analysis.xlsx
@@ -1,42 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Master Thesis\SPARQL-Query-Translation-QALD9\QALD9-Plus-testing\CoT-entity-aligned\CoT-dbpedia-wikidata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD75331A-F9D7-497D-BAEF-B7B8653AEBB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$101</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="462">
   <si>
     <t>Question</t>
   </si>
   <si>
-    <t>SPARQL Query (Generated)</t>
-  </si>
-  <si>
-    <t>Gold Label Query</t>
-  </si>
-  <si>
-    <t>Gold Label Answers</t>
-  </si>
-  <si>
-    <t>Query Answers</t>
-  </si>
-  <si>
-    <t>Error Message</t>
+    <t>SPARQL_Query_Generated</t>
+  </si>
+  <si>
+    <t>Gold_Label_Query</t>
+  </si>
+  <si>
+    <t>Query_Answers_Generated</t>
+  </si>
+  <si>
+    <t>Gold_Label_Answers</t>
+  </si>
+  <si>
+    <t>Error_Message</t>
   </si>
   <si>
     <t>Correct</t>
   </si>
   <si>
+    <t>Error Category</t>
+  </si>
+  <si>
     <t>Who is the founder of Penguin Books?</t>
   </si>
   <si>
@@ -346,14 +358,7 @@
     <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P86 wd:Q2808. ?uri rdf:type wdt:Q2743. }</t>
   </si>
   <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT ?developer WHERE { wd:Q40984 wdt:P178 ?developer. }</t>
+    <t>SELECT ?developer WHERE { wd:Q40984 wdt:P178 ?developer. }</t>
   </si>
   <si>
     <t>PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri a wikidata:Q476028 ; wikidata:P118 wikidata:Q82595 . }</t>
@@ -362,54 +367,19 @@
     <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wdp: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?x wdt:P57 wdp:Q16297 . ?x wdt:P161 ?uri . }</t>
   </si>
   <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q8502&gt; ; &lt;http://www.wikidata.org/entity/P2044&gt; ?elevation . } ORDER BY DESC(?elevation) OFFSET 0 LIMIT 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT (COUNT(DISTINCT ?film) AS ?c) WHERE { ?film a &lt;http://www.wikidata.org/entity/Q11424&gt; ; &lt;http://www.wikidata.org/entity/P161&gt; &lt;http://www.wikidata.org/entity/Q38111&gt; . }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-`SELECT DISTINCT ?date WHERE {` ` ?event wdt:P31 wd:Q145243.` ` ?event wdt:P106 wd:Q53713.` ` ?event wdt:P580 ?date.` ` SERVICE wikibase:label { bd:serviceParam wikibase:language "en". }` `}`</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?uri WHERE { ?uri ?p ?o ; ?p &lt;http://www.wikidata.org/entity/P161&gt; ; ?o &lt;http://www.wikidata.org/entity/Q34851&gt; . FILTER (?p = &lt;http://www.wikidata.org/entity/P161&gt; &amp;&amp; ?o = &lt;http://www.wikidata.org/entity/Q34851&gt;) UNION ?uri ?p ?o ; ?p &lt;http://www.wikidata.org/entity/P161&gt; ; ?o &lt;http://www.wikidata.org/entity/Q151973&gt; . }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q49740&gt; &lt;http://www.wikidata.org/entity/P178&gt; ?uri }</t>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q8502&gt; ; &lt;http://www.wikidata.org/entity/P2044&gt; ?elevation . } ORDER BY DESC(?elevation) OFFSET 0 LIMIT 1</t>
+  </si>
+  <si>
+    <t>SELECT (COUNT(DISTINCT ?film) AS ?c) WHERE { ?film a &lt;http://www.wikidata.org/entity/Q11424&gt; ; &lt;http://www.wikidata.org/entity/P161&gt; &lt;http://www.wikidata.org/entity/Q38111&gt; . }</t>
+  </si>
+  <si>
+    <t>`SELECT DISTINCT ?date WHERE {` ` ?event wdt:P31 wd:Q145243.` ` ?event wdt:P106 wd:Q53713.` ` ?event wdt:P580 ?date.` ` SERVICE wikibase:label { bd:serviceParam wikibase:language "en". }` `}`</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri ?p ?o ; ?p &lt;http://www.wikidata.org/entity/P161&gt; ; ?o &lt;http://www.wikidata.org/entity/Q34851&gt; . FILTER (?p = &lt;http://www.wikidata.org/entity/P161&gt; &amp;&amp; ?o = &lt;http://www.wikidata.org/entity/Q34851&gt;) UNION ?uri ?p ?o ; ?p &lt;http://www.wikidata.org/entity/P161&gt; ; ?o &lt;http://www.wikidata.org/entity/Q151973&gt; . }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q49740&gt; &lt;http://www.wikidata.org/entity/P178&gt; ?uri }</t>
   </si>
   <si>
     <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?n WHERE { wdt:Q2608065 wdt:P2769 ?n . }</t>
@@ -430,14 +400,7 @@
     <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q241665 wdt:P569 ?uri }</t>
   </si>
   <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?item WHERE { ?item wdt:P509 ?cause . GROUP BY ?cause HAVING (COUNT(DISTINCT ?item) &gt; (SELECT MAX(COUNT(DISTINCT ?item)) AS max_count FROM { OPTIONAL { ?item wdt:P509 ?cause . } } GROUP BY ?cause)) ORDER BY DESC(COUNT(DISTINCT ?item)) OFFSET 0 LIMIT 1 }</t>
+    <t>SELECT DISTINCT ?item WHERE { ?item wdt:P509 ?cause . GROUP BY ?cause HAVING (COUNT(DISTINCT ?item) &gt; (SELECT MAX(COUNT(DISTINCT ?item)) AS max_count FROM { OPTIONAL { ?item wdt:P509 ?cause . } } GROUP BY ?cause)) ORDER BY DESC(COUNT(DISTINCT ?item)) OFFSET 0 LIMIT 1 }</t>
   </si>
   <si>
     <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?num WHERE { wd:Q1207989 wdt:P2048 ?num . }</t>
@@ -452,14 +415,7 @@
     <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?owner WHERE { wdt:P127 wd:Q22686 ?owner . }</t>
   </si>
   <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P26&gt; &lt;http://www.wikidata.org/entity/Q37079&gt; . }</t>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P26&gt; &lt;http://www.wikidata.org/entity/Q37079&gt; . }</t>
   </si>
   <si>
     <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?population WHERE { wdt:Q5401 wdt:P1082 ?population . }</t>
@@ -480,50 +436,22 @@
     <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?x WHERE { wd:Q692 P570 ?x } LIMIT 1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?uri WHERE { ?uri rdfs:subClassOf ?class ; wdt:P448 wdt:P17 . ?class wdt:P31 wd:Q41291 . wdt:P17 wd:Q177477 . }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q23442&gt; ; &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q17&gt; . }</t>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri rdfs:subClassOf ?class ; wdt:P448 wdt:P17 . ?class wdt:P31 wd:Q41291 . wdt:P17 wd:Q177477 . }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q23442&gt; ; &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q17&gt; . }</t>
   </si>
   <si>
     <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q131007 wdt:P178 ?uri }</t>
   </si>
   <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { VALUES ?industry { "http://www.wikidata.org/entity/Q854995", "http://www.wikidata.org/entity/Q37038", "http://www.wikidata.org/entity/Q1286627" } ?uri a &lt;http://www.wikidata.org/entity/Q4830453&gt; . ?uri &lt;http://www.wikidata.org/entity/P452&gt; ?industry . SERVICE wikibase:label { bd:serviceParam wikibase:language "en". } FILTER ( regex(?industry, "advertising", "i") ) }</t>
+    <t>SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { VALUES ?industry { "http://www.wikidata.org/entity/Q854995", "http://www.wikidata.org/entity/Q37038", "http://www.wikidata.org/entity/Q1286627" } ?uri a &lt;http://www.wikidata.org/entity/Q4830453&gt; . ?uri &lt;http://www.wikidata.org/entity/P452&gt; ?industry . SERVICE wikibase:label { bd:serviceParam wikibase:language "en". } FILTER ( regex(?industry, "advertising", "i") ) }</t>
   </si>
   <si>
     <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?university WHERE { wd:Q567 wdt:P69 ?university . }</t>
   </si>
   <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?show WHERE { ?show wd:P161 wd:Q485310 }</t>
+    <t>SELECT DISTINCT ?show WHERE { ?show wd:P161 wd:Q485310 }</t>
   </si>
   <si>
     <t>PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; PREFIX wikidata-prop: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wikidata-prop:P161 wikidata:Q37079 . }</t>
@@ -532,40 +460,19 @@
     <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q513 wdt:P131 ?uri . ?uri wdt:P31 wd:Q6256 . }</t>
   </si>
   <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q9696&gt; &lt;http://www.wikidata.org/entity/P20&gt; ?uri }</t>
+    <t>SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q9696&gt; &lt;http://www.wikidata.org/entity/P20&gt; ?uri }</t>
   </si>
   <si>
     <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q125006 wdt:P177 ?uri }</t>
   </si>
   <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?uri WHERE { ?uri a http://www.wikidata.org/entity/Q10843402 ; P19 http://www.wikidata.org/entity/Q649 . }</t>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri a http://www.wikidata.org/entity/Q10843402 ; P19 http://www.wikidata.org/entity/Q649 . }</t>
   </si>
   <si>
     <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type wd:Film ; wdt:P161 wd:Q103894 ; wdt:P577 ?date . } ORDER BY DESC(?date) LIMIT 1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q8502&gt; ; &lt;http://www.wikidata.org/entity/P2044&gt; ?elevation . FILTER ( ?elevation &lt; &lt;http://dbpedia.org/resource/Mount Everest&gt;'s elevation &gt; ) ORDER BY DESC(?elevation) OFFSET 1 LIMIT 1 }</t>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q8502&gt; ; &lt;http://www.wikidata.org/entity/P2044&gt; ?elevation . FILTER ( ?elevation &lt; &lt;http://dbpedia.org/resource/Mount Everest&gt;'s elevation &gt; ) ORDER BY DESC(?elevation) OFFSET 1 LIMIT 1 }</t>
   </si>
   <si>
     <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?pop WHERE { wd:Q85 wdt:P1082 ?pop }</t>
@@ -583,27 +490,13 @@
     <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { wd:Q5806 wdt:P17 ?uri }</t>
   </si>
   <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?height WHERE { wd:Q76717 wdt:P2048 ?height . }</t>
+    <t>SELECT DISTINCT ?height WHERE { wd:Q76717 wdt:P2048 ?height . }</t>
   </si>
   <si>
     <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q1163227 wdt:P50 ?uri }</t>
   </si>
   <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?genre WHERE { &lt;http://www.wikidata.org/entity/Q189080&gt; &lt;http://www.wikidata.org/entity/P136&gt; ?genre }</t>
+    <t>SELECT DISTINCT ?genre WHERE { &lt;http://www.wikidata.org/entity/Q189080&gt; &lt;http://www.wikidata.org/entity/P136&gt; ?genre }</t>
   </si>
   <si>
     <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?place WHERE { wdt:Q40912 wdt:P19 ?place }</t>
@@ -615,14 +508,7 @@
     <t>PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wikidata:type wikidata:Q15416 . ?uri wikidata:P170 wikidata:Q8704 . }</t>
   </si>
   <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?uri WHERE { ?uri a http://www.wikidata.org/entity/Q1445650 ; http://www.wikidata.org/entity/P17 http://www.wikidata.org/entity/Q34 . }</t>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri a http://www.wikidata.org/entity/Q1445650 ; http://www.wikidata.org/entity/P17 http://www.wikidata.org/entity/Q34 . }</t>
   </si>
   <si>
     <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?ni WHERE { wd:Q312 wdt:P2295 ?ni . }</t>
@@ -640,24 +526,10 @@
     <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?num WHERE { ?s wdt:P2048 ?num . ?s wd:Q41421 . }</t>
   </si>
   <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P57&gt; &lt;http://www.wikidata.org/entity/Q43203&gt; ; &lt;http://www.wikidata.org/entity/P161&gt; &lt;http://www.wikidata.org/entity/Q43203&gt; . }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P38&gt; &lt;http://www.wikidata.org/entity/Q861690&gt; . }</t>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P57&gt; &lt;http://www.wikidata.org/entity/Q43203&gt; ; &lt;http://www.wikidata.org/entity/P161&gt; &lt;http://www.wikidata.org/entity/Q43203&gt; . }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P38&gt; &lt;http://www.wikidata.org/entity/Q861690&gt; . }</t>
   </si>
   <si>
     <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?pIraq WHERE { wd:Q796 wdt:P1082 ?pIraq }</t>
@@ -675,14 +547,7 @@
     <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q3235867 (wd:P50 / wd:P50) ?person . ?person (wd:P135 / wd:P135) ?uri . }</t>
   </si>
   <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q33999&gt; . ?uri &lt;http://www.wikidata.org/entity/P19&gt; ?place . OPTIONAL { ?place &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q43287&gt; } UNION ?uri &lt;http://www.wikidata.org/entity/P19&gt; ?place . ?place &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q43287&gt; . }</t>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q33999&gt; . ?uri &lt;http://www.wikidata.org/entity/P19&gt; ?place . OPTIONAL { ?place &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q43287&gt; } UNION ?uri &lt;http://www.wikidata.org/entity/P19&gt; ?place . ?place &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q43287&gt; . }</t>
   </si>
   <si>
     <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?uri WHERE { wd:Q125006 wdt:P84 ?uri . }</t>
@@ -706,34 +571,13 @@
     <t>PREFIX wikibase: &lt;http://wikiba.se/ontology#&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wikibase:birthPlace wd:Q1741 . ?uri wikibase:deathPlace wd:Q64 . }</t>
   </si>
   <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q12280&gt; ; &lt;http://www.wikidata.org/entity/P177&gt; &lt;http://www.wikidata.org/entity/Q1142326&gt; . }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P106&gt; ?x . ?x &lt;http://www.wikidata.org/entity/P50&gt; ?uri . ?x &lt;http://www.wikidata.org/entity/P577&gt; ?y . ?y &lt;http://www.wikidata.org/entity/P31&gt; &lt;http://www.wikidata.org/entity/Q571&gt; . } ORDER BY DESC(COUNT(?x)) OFFSET 0 LIMIT 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q15416&gt; ; &lt;http://www.wikidata.org/entity/P170&gt; ?creator . FILTER ( ?creator = &lt;http://www.wikidata.org/entity/Q25014&gt; ) }</t>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q12280&gt; ; &lt;http://www.wikidata.org/entity/P177&gt; &lt;http://www.wikidata.org/entity/Q1142326&gt; . }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P106&gt; ?x . ?x &lt;http://www.wikidata.org/entity/P50&gt; ?uri . ?x &lt;http://www.wikidata.org/entity/P577&gt; ?y . ?y &lt;http://www.wikidata.org/entity/P31&gt; &lt;http://www.wikidata.org/entity/Q571&gt; . } ORDER BY DESC(COUNT(?x)) OFFSET 0 LIMIT 1</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q15416&gt; ; &lt;http://www.wikidata.org/entity/P170&gt; ?creator . FILTER ( ?creator = &lt;http://www.wikidata.org/entity/Q25014&gt; ) }</t>
   </si>
   <si>
     <t>PREFIX wikibase: &lt;http://wikiba.se/ontology#&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?writer WHERE { ?writer wikibase:entityType wd:Q36180 ; ?award wikibase:statementProperty wd:P166 ; ?award wikibase:statementSubject wd:Q37922 . }</t>
@@ -742,24 +586,10 @@
     <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?discoverer WHERE { wd:Q596 wdt:P61 ?discoverer . }</t>
   </si>
   <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 wd:Q5280538 . ?uri wdt:P106 wd:Q806349 . ?uri wdt:P1303 wd:Q119621 . ?uri wdt:P1303 wd:Q8338 . }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q3665646&gt; ; &lt;http://www.wikidata.org/entity/P2048&gt; ?n FILTER ( ?n &gt; 2.0 ) }</t>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 wd:Q5280538 . ?uri wdt:P106 wd:Q806349 . ?uri wdt:P1303 wd:Q119621 . ?uri wdt:P1303 wd:Q8338 . }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q3665646&gt; ; &lt;http://www.wikidata.org/entity/P2048&gt; ?n FILTER ( ?n &gt; 2.0 ) }</t>
   </si>
   <si>
     <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?film wdt:P161 wd:Q40523 ; wdt:P161 wd:Q48410 . FILTER (?film = ?film) }</t>
@@ -768,47 +598,19 @@
     <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?uri WHERE { wd:Q1020 wdt:P36 ?uri . }</t>
   </si>
   <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q937857&gt; ; &lt;http://www.wikidata.org/entity/P19&gt; &lt;http://www.wikidata.org/entity/Q233&gt; . }</t>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q937857&gt; ; &lt;http://www.wikidata.org/entity/P19&gt; &lt;http://www.wikidata.org/entity/Q233&gt; . }</t>
   </si>
   <si>
     <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?capital WHERE { wd:Q1009 wdt:P36 ?capital }</t>
   </si>
   <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri wdt:P373 [] . ?uri wikibase:sourceId ?dbpediaSource . ?dbpediaSource wdt:P31 &lt;http://www.wikidata.org/entity/Q9143&gt; . }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/statement/Q11631&gt; . ?uri &lt;http://www.wikidata.org/entity/P27&gt; &lt;http://www.wikidata.org/entity/Q2184&gt; . UNION ?uri &lt;http://www.wikidata.org/entity/P27&gt; &lt;http://www.wikidata.org/entity/Q15180&gt; . }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT ?uri WHERE { wd:Q5930 wdt:P170 ?uri }</t>
+    <t>SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri wdt:P373 [] . ?uri wikibase:sourceId ?dbpediaSource . ?dbpediaSource wdt:P31 &lt;http://www.wikidata.org/entity/Q9143&gt; . }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/statement/Q11631&gt; . ?uri &lt;http://www.wikidata.org/entity/P27&gt; &lt;http://www.wikidata.org/entity/Q2184&gt; . UNION ?uri &lt;http://www.wikidata.org/entity/P27&gt; &lt;http://www.wikidata.org/entity/Q15180&gt; . }</t>
+  </si>
+  <si>
+    <t>SELECT ?uri WHERE { wd:Q5930 wdt:P170 ?uri }</t>
   </si>
   <si>
     <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?population WHERE { wd:Q1489 ?population wdt:P1082 . }</t>
@@ -823,54 +625,19 @@
     <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?tarea WHERE { wd:Q1198 wd:P2046 ?tarea . }</t>
   </si>
   <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?number WHERE { &lt;http://www.wikidata.org/entity/Q70096636&gt; &lt;http://www.wikidata.org/entity/P1128&gt; ?number. FILTER (isNumber(?number)) }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?n WHERE { ?s dbo:wikiPageID ?pgid. ?s dbo:wikiPageID/ dbo:serviceLink ?wikidataid. FILTER(?wikidataid = "http://www.wikidata.org/entity/Q104123"). ?s wdt:P2769 ?n. }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q11424&gt; ; &lt;http://www.wikidata.org/entity/P161&gt; ?movie . }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q11424&gt; ; &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q5257925&gt; . }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT ?country WHERE { &lt;http://www.wikidata.org/entity/Q105981852&gt; &lt;http://www.wikidata.org/entity/P17&gt; ?country . SERVICE wikibase:label { bd:serviceParam wikibase:language "en". } }</t>
+    <t>SELECT DISTINCT ?number WHERE { &lt;http://www.wikidata.org/entity/Q70096636&gt; &lt;http://www.wikidata.org/entity/P1128&gt; ?number. FILTER (isNumber(?number)) }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?n WHERE { ?s dbo:wikiPageID ?pgid. ?s dbo:wikiPageID/ dbo:serviceLink ?wikidataid. FILTER(?wikidataid = "http://www.wikidata.org/entity/Q104123"). ?s wdt:P2769 ?n. }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q11424&gt; ; &lt;http://www.wikidata.org/entity/P161&gt; ?movie . }</t>
+  </si>
+  <si>
+    <t>SELECT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q11424&gt; ; &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q5257925&gt; . }</t>
+  </si>
+  <si>
+    <t>SELECT ?country WHERE { &lt;http://www.wikidata.org/entity/Q105981852&gt; &lt;http://www.wikidata.org/entity/P17&gt; ?country . SERVICE wikibase:label { bd:serviceParam wikibase:language "en". } }</t>
   </si>
   <si>
     <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type wdt:Q6256 ; wdt:P2046 ?n . FILTER (?n &gt; 0) ORDER BY DESC(?n) LIMIT 1 }</t>
@@ -879,14 +646,7 @@
     <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?Almamater WHERE { wd:Q567 wdt:P69 ?Almamater }</t>
   </si>
   <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?creator WHERE { wd:Q111135 wdt:P170 ?creator }</t>
+    <t>SELECT DISTINCT ?creator WHERE { wd:Q111135 wdt:P170 ?creator }</t>
   </si>
   <si>
     <t>SELECT ?o1 WHERE { &lt;http://www.wikidata.org/entity/Q1336200&gt;  &lt;http://www.wikidata.org/prop/direct/P112&gt;  ?o1 .  }</t>
@@ -1192,6 +952,72 @@
     <t>['http://www.wikidata.org/entity/Q1263483']</t>
   </si>
   <si>
+    <t>['Query failed']</t>
+  </si>
+  <si>
+    <t>['No answer']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q110154', 'http://www.wikidata.org/entity/Q116281', 'http://www.wikidata.org/entity/Q1209826', 'http://www.wikidata.org/entity/Q1320797', 'http://www.wikidata.org/entity/Q1338682', 'http://www.wikidata.org/entity/Q1396278', 'http://www.wikidata.org/entity/Q152773', 'http://www.wikidata.org/entity/Q16296', 'http://www.wikidata.org/entity/Q16297', 'http://www.wikidata.org/entity/Q16345', 'http://www.wikidata.org/entity/Q16349', 'http://www.wikidata.org/entity/Q1720634', 'http://www.wikidata.org/entity/Q18211660', 'http://www.wikidata.org/entity/Q190523', 'http://www.wikidata.org/entity/Q2263306', 'http://www.wikidata.org/entity/Q230038', 'http://www.wikidata.org/entity/Q231576', 'http://www.wikidata.org/entity/Q234114', 'http://www.wikidata.org/entity/Q23466', 'http://www.wikidata.org/entity/Q238168', 'http://www.wikidata.org/entity/Q2439878', 'http://www.wikidata.org/entity/Q2451563', 'http://www.wikidata.org/entity/Q254038', 'http://www.wikidata.org/entity/Q266391', 'http://www.wikidata.org/entity/Q2667506', 'http://www.wikidata.org/entity/Q272214', 'http://www.wikidata.org/entity/Q2805350', 'http://www.wikidata.org/entity/Q2933924', 'http://www.wikidata.org/entity/Q2965115', 'http://www.wikidata.org/entity/Q311699', 'http://www.wikidata.org/entity/Q313789', 'http://www.wikidata.org/entity/Q3177047', 'http://www.wikidata.org/entity/Q318412', 'http://www.wikidata.org/entity/Q3300864', 'http://www.wikidata.org/entity/Q3441429', 'http://www.wikidata.org/entity/Q346595', 'http://www.wikidata.org/entity/Q348445', 'http://www.wikidata.org/entity/Q3559413', 'http://www.wikidata.org/entity/Q356846', 'http://www.wikidata.org/entity/Q363271', 'http://www.wikidata.org/entity/Q366012', 'http://www.wikidata.org/entity/Q376176', 'http://www.wikidata.org/entity/Q378538', 'http://www.wikidata.org/entity/Q3852420', 'http://www.wikidata.org/entity/Q3877584', 'http://www.wikidata.org/entity/Q42329064', 'http://www.wikidata.org/entity/Q442025', 'http://www.wikidata.org/entity/Q444217', 'http://www.wikidata.org/entity/Q461794', 'http://www.wikidata.org/entity/Q504028', 'http://www.wikidata.org/entity/Q5115837', 'http://www.wikidata.org/entity/Q5213941', 'http://www.wikidata.org/entity/Q5407123', 'http://www.wikidata.org/entity/Q550778', 'http://www.wikidata.org/entity/Q552103', 'http://www.wikidata.org/entity/Q6066272', 'http://www.wikidata.org/entity/Q6308308', 'http://www.wikidata.org/entity/Q6811353']</t>
+  </si>
+  <si>
+    <t>['101']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q116635', 'http://www.wikidata.org/entity/Q4175282', 'http://www.wikidata.org/entity/Q97154']</t>
+  </si>
+  <si>
+    <t>['1735-10-30T00:00:00Z']</t>
+  </si>
+  <si>
+    <t>['447706209']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q154804', 'http://www.wikidata.org/entity/Q49738', 'http://www.wikidata.org/entity/Q56230681', 'http://www.wikidata.org/entity/Q56230686']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q1055332', 'http://www.wikidata.org/entity/Q107646713', 'http://www.wikidata.org/entity/Q108946', 'http://www.wikidata.org/entity/Q110138', 'http://www.wikidata.org/entity/Q110203', 'http://www.wikidata.org/entity/Q110278', 'http://www.wikidata.org/entity/Q1105359', 'http://www.wikidata.org/entity/Q1187607', 'http://www.wikidata.org/entity/Q1213746', 'http://www.wikidata.org/entity/Q126421540', 'http://www.wikidata.org/entity/Q129677718', 'http://www.wikidata.org/entity/Q1325589', 'http://www.wikidata.org/entity/Q1353728', 'http://www.wikidata.org/entity/Q1356213', 'http://www.wikidata.org/entity/Q159054', 'http://www.wikidata.org/entity/Q1741232', 'http://www.wikidata.org/entity/Q17548046', 'http://www.wikidata.org/entity/Q18811617', 'http://www.wikidata.org/entity/Q188845', 'http://www.wikidata.org/entity/Q18914855', 'http://www.wikidata.org/entity/Q202028', 'http://www.wikidata.org/entity/Q207130', 'http://www.wikidata.org/entity/Q20755860', 'http://www.wikidata.org/entity/Q209481', 'http://www.wikidata.org/entity/Q21168538', 'http://www.wikidata.org/entity/Q2324652', 'http://www.wikidata.org/entity/Q23759268', 'http://www.wikidata.org/entity/Q244604', 'http://www.wikidata.org/entity/Q288173', 'http://www.wikidata.org/entity/Q29261993', 'http://www.wikidata.org/entity/Q31202708', 'http://www.wikidata.org/entity/Q318910', 'http://www.wikidata.org/entity/Q3190085', 'http://www.wikidata.org/entity/Q329131', 'http://www.wikidata.org/entity/Q367163', 'http://www.wikidata.org/entity/Q380981', 'http://www.wikidata.org/entity/Q388408', 'http://www.wikidata.org/entity/Q470916', 'http://www.wikidata.org/entity/Q471159', 'http://www.wikidata.org/entity/Q498910', 'http://www.wikidata.org/entity/Q505790', 'http://www.wikidata.org/entity/Q509913', 'http://www.wikidata.org/entity/Q576635', 'http://www.wikidata.org/entity/Q588420', 'http://www.wikidata.org/entity/Q590252', 'http://www.wikidata.org/entity/Q591709', 'http://www.wikidata.org/entity/Q593099', 'http://www.wikidata.org/entity/Q603696', 'http://www.wikidata.org/entity/Q61876370', 'http://www.wikidata.org/entity/Q61876374', 'http://www.wikidata.org/entity/Q628154', 'http://www.wikidata.org/entity/Q638544', 'http://www.wikidata.org/entity/Q651060', 'http://www.wikidata.org/entity/Q679918', 'http://www.wikidata.org/entity/Q765677', 'http://www.wikidata.org/entity/Q77949688', 'http://www.wikidata.org/entity/Q821692', 'http://www.wikidata.org/entity/Q839341']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q212862']</t>
+  </si>
+  <si>
+    <t>['9606916']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q100331972', 'http://www.wikidata.org/entity/Q100394144', 'http://www.wikidata.org/entity/Q101218635', 'http://www.wikidata.org/entity/Q102256598', 'http://www.wikidata.org/entity/Q102390777', 'http://www.wikidata.org/entity/Q104483225', 'http://www.wikidata.org/entity/Q10533007', 'http://www.wikidata.org/entity/Q105389038', 'http://www.wikidata.org/entity/Q106157237', 'http://www.wikidata.org/entity/Q106243894', 'http://www.wikidata.org/entity/Q106363582', 'http://www.wikidata.org/entity/Q106798081', 'http://www.wikidata.org/entity/Q107310844', 'http://www.wikidata.org/entity/Q107344844', 'http://www.wikidata.org/entity/Q107369220', 'http://www.wikidata.org/entity/Q107750113', 'http://www.wikidata.org/entity/Q108108930', 'http://www.wikidata.org/entity/Q108142616', 'http://www.wikidata.org/entity/Q108143520', 'http://www.wikidata.org/entity/Q108305316', 'http://www.wikidata.org/entity/Q108419496', 'http://www.wikidata.org/entity/Q108420335', 'http://www.wikidata.org/entity/Q108528226', 'http://www.wikidata.org/entity/Q108801572', 'http://www.wikidata.org/entity/Q110024583', 'http://www.wikidata.org/entity/Q110257591', 'http://www.wikidata.org/entity/Q110438288', 'http://www.wikidata.org/entity/Q11102047', 'http://www.wikidata.org/entity/Q111279614', 'http://www.wikidata.org/entity/Q111378638', 'http://www.wikidata.org/entity/Q1115126', 'http://www.wikidata.org/entity/Q112460780', 'http://www.wikidata.org/entity/Q113045473', 'http://www.wikidata.org/entity/Q113074033', 'http://www.wikidata.org/entity/Q113184346', 'http://www.wikidata.org/entity/Q113232042', 'http://www.wikidata.org/entity/Q113737899', 'http://www.wikidata.org/entity/Q113749117', 'http://www.wikidata.org/entity/Q113772754', 'http://www.wikidata.org/entity/Q113807740', 'http://www.wikidata.org/entity/Q113834191', 'http://www.wikidata.org/entity/Q113843326', 'http://www.wikidata.org/entity/Q114089100', 'http://www.wikidata.org/entity/Q114235854', 'http://www.wikidata.org/entity/Q114616578', 'http://www.wikidata.org/entity/Q1147661', 'http://www.wikidata.org/entity/Q115110628', 'http://www.wikidata.org/entity/Q115180838', 'http://www.wikidata.org/entity/Q115864917', 'http://www.wikidata.org/entity/Q116759188', 'http://www.wikidata.org/entity/Q116765917', 'http://www.wikidata.org/entity/Q117198007', 'http://www.wikidata.org/entity/Q118487290', 'http://www.wikidata.org/entity/Q118762757', 'http://www.wikidata.org/entity/Q11931920', 'http://www.wikidata.org/entity/Q120961856', 'http://www.wikidata.org/entity/Q121300453', 'http://www.wikidata.org/entity/Q121378646', 'http://www.wikidata.org/entity/Q122228916', 'http://www.wikidata.org/entity/Q123117223', 'http://www.wikidata.org/entity/Q123183318', 'http://www.wikidata.org/entity/Q123189154', 'http://www.wikidata.org/entity/Q123196316', 'http://www.wikidata.org/entity/Q123247882', 'http://www.wikidata.org/entity/Q123282585', 'http://www.wikidata.org/entity/Q123403159', 'http://www.wikidata.org/entity/Q125352819', 'http://www.wikidata.org/entity/Q126363974', 'http://www.wikidata.org/entity/Q128183151', 'http://www.wikidata.org/entity/Q128693220', 'http://www.wikidata.org/entity/Q12873118', 'http://www.wikidata.org/entity/Q12873662', 'http://www.wikidata.org/entity/Q12873744', 'http://www.wikidata.org/entity/Q12874350', 'http://www.wikidata.org/entity/Q12875108', 'http://www.wikidata.org/entity/Q12875311', 'http://www.wikidata.org/entity/Q12875336', 'http://www.wikidata.org/entity/Q12878284', 'http://www.wikidata.org/entity/Q12878447', 'http://www.wikidata.org/entity/Q12880672', 'http://www.wikidata.org/entity/Q12880675', 'http://www.wikidata.org/entity/Q12880677', 'http://www.wikidata.org/entity/Q12881079', 'http://www.wikidata.org/entity/Q12885766', 'http://www.wikidata.org/entity/Q130305674', 'http://www.wikidata.org/entity/Q130632515', 'http://www.wikidata.org/entity/Q130632553', 'http://www.wikidata.org/entity/Q130718161', 'http://www.wikidata.org/entity/Q1329371', 'http://www.wikidata.org/entity/Q13411107', 'http://www.wikidata.org/entity/Q1349114', 'http://www.wikidata.org/entity/Q14153584', 'http://www.wikidata.org/entity/Q14229034', 'http://www.wikidata.org/entity/Q1439570', 'http://www.wikidata.org/entity/Q14500317', 'http://www.wikidata.org/entity/Q14625005', 'http://www.wikidata.org/entity/Q15002185', 'http://www.wikidata.org/entity/Q1509428', 'http://www.wikidata.org/entity/Q15274548', 'http://www.wikidata.org/entity/Q15433778', 'http://www.wikidata.org/entity/Q15651684', 'http://www.wikidata.org/entity/Q15707552', 'http://www.wikidata.org/entity/Q1581009', 'http://www.wikidata.org/entity/Q15983065', 'http://www.wikidata.org/entity/Q15994196', 'http://www.wikidata.org/entity/Q1601376', 'http://www.wikidata.org/entity/Q160478', 'http://www.wikidata.org/entity/Q16199868', 'http://www.wikidata.org/entity/Q16235535', 'http://www.wikidata.org/entity/Q16327244', 'http://www.wikidata.org/entity/Q16327733', 'http://www.wikidata.org/entity/Q16328616', 'http://www.wikidata.org/entity/Q16328851', 'http://www.wikidata.org/entity/Q16328867', 'http://www.wikidata.org/entity/Q16329078', 'http://www.wikidata.org/entity/Q16329346', 'http://www.wikidata.org/entity/Q16330120', 'http://www.wikidata.org/entity/Q16330682', 'http://www.wikidata.org/entity/Q16331916', 'http://www.wikidata.org/entity/Q16332287', 'http://www.wikidata.org/entity/Q16332578', 'http://www.wikidata.org/entity/Q16332651', 'http://www.wikidata.org/entity/Q16512450', 'http://www.wikidata.org/entity/Q16512492', 'http://www.wikidata.org/entity/Q165319', 'http://www.wikidata.org/entity/Q16644246', 'http://www.wikidata.org/entity/Q16711496', 'http://www.wikidata.org/entity/Q16711498', 'http://www.wikidata.org/entity/Q16853551', 'http://www.wikidata.org/entity/Q16874283', 'http://www.wikidata.org/entity/Q16937833', 'http://www.wikidata.org/entity/Q17000036', 'http://www.wikidata.org/entity/Q17315716', 'http://www.wikidata.org/entity/Q17350265', 'http://www.wikidata.org/entity/Q17420765', 'http://www.wikidata.org/entity/Q17420770', 'http://www.wikidata.org/entity/Q1755825', 'http://www.wikidata.org/entity/Q18234229', 'http://www.wikidata.org/entity/Q18335504', 'http://www.wikidata.org/entity/Q18340746', 'http://www.wikidata.org/entity/Q18340750', 'http://www.wikidata.org/entity/Q18392960', 'http://www.wikidata.org/entity/Q18397296', 'http://www.wikidata.org/entity/Q18599700', 'http://www.wikidata.org/entity/Q18599759', 'http://www.wikidata.org/entity/Q1917293', 'http://www.wikidata.org/entity/Q19612083', 'http://www.wikidata.org/entity/Q19672743', 'http://www.wikidata.org/entity/Q19758235', 'http://www.wikidata.org/entity/Q19862442', 'http://www.wikidata.org/entity/Q1987990', 'http://www.wikidata.org/entity/Q19886218', 'http://www.wikidata.org/entity/Q1991236', 'http://www.wikidata.org/entity/Q19939295', 'http://www.wikidata.org/entity/Q19941936', 'http://www.wikidata.org/entity/Q19953561', 'http://www.wikidata.org/entity/Q20011734', 'http://www.wikidata.org/entity/Q20090771', 'http://www.wikidata.org/entity/Q202404', 'http://www.wikidata.org/entity/Q20641089', 'http://www.wikidata.org/entity/Q20648370', 'http://www.wikidata.org/entity/Q20745244', 'http://www.wikidata.org/entity/Q2078267', 'http://www.wikidata.org/entity/Q20897762', 'http://www.wikidata.org/entity/Q20986533', 'http://www.wikidata.org/entity/Q21027277', 'http://www.wikidata.org/entity/Q21031023', 'http://www.wikidata.org/entity/Q21066359', 'http://www.wikidata.org/entity/Q21067158', 'http://www.wikidata.org/entity/Q21114808', 'http://www.wikidata.org/entity/Q21207862', 'http://www.wikidata.org/entity/Q21295004', 'http://www.wikidata.org/entity/Q214622', 'http://www.wikidata.org/entity/Q21620727', 'http://www.wikidata.org/entity/Q21620925', 'http://www.wikidata.org/entity/Q21621189', 'http://www.wikidata.org/entity/Q21996798', 'http://www.wikidata.org/entity/Q2261557', 'http://www.wikidata.org/entity/Q22812105', 'http://www.wikidata.org/entity/Q22958899', 'http://www.wikidata.org/entity/Q23001049', 'http://www.wikidata.org/entity/Q2359693', 'http://www.wikidata.org/entity/Q23677559', 'http://www.wikidata.org/entity/Q23726787', 'http://www.wikidata.org/entity/Q23928168', 'http://www.wikidata.org/entity/Q23928180', 'http://www.wikidata.org/entity/Q24006617', 'http://www.wikidata.org/entity/Q24045397', 'http://www.wikidata.org/entity/Q2460964', 'http://www.wikidata.org/entity/Q25909395', 'http://www.wikidata.org/entity/Q2615465', 'http://www.wikidata.org/entity/Q26703027', 'http://www.wikidata.org/entity/Q26829002', 'http://www.wikidata.org/entity/Q27975949', 'http://www.wikidata.org/entity/Q28106080', 'http://www.wikidata.org/entity/Q28745301', 'http://www.wikidata.org/entity/Q289307', 'http://www.wikidata.org/entity/Q2912337', 'http://www.wikidata.org/entity/Q29346418', 'http://www.wikidata.org/entity/Q301', 'http://www.wikidata.org/entity/Q3057494', 'http://www.wikidata.org/entity/Q30887619', 'http://www.wikidata.org/entity/Q310712', 'http://www.wikidata.org/entity/Q3136115', 'http://www.wikidata.org/entity/Q3229712', 'http://www.wikidata.org/entity/Q3296541', 'http://www.wikidata.org/entity/Q330232', 'http://www.wikidata.org/entity/Q330897', 'http://www.wikidata.org/entity/Q3314731', 'http://www.wikidata.org/entity/Q3341850', 'http://www.wikidata.org/entity/Q343292', 'http://www.wikidata.org/entity/Q353059', 'http://www.wikidata.org/entity/Q3556566', 'http://www.wikidata.org/entity/Q3558422', 'http://www.wikidata.org/entity/Q3562201', 'http://www.wikidata.org/entity/Q3564132', 'http://www.wikidata.org/entity/Q3565521', 'http://www.wikidata.org/entity/Q3566247', 'http://www.wikidata.org/entity/Q368044', 'http://www.wikidata.org/entity/Q3699388', 'http://www.wikidata.org/entity/Q3731188', 'http://www.wikidata.org/entity/Q3776568', 'http://www.wikidata.org/entity/Q38127864', 'http://www.wikidata.org/entity/Q382090', 'http://www.wikidata.org/entity/Q3839783', 'http://www.wikidata.org/entity/Q3876538', 'http://www.wikidata.org/entity/Q3935791', 'http://www.wikidata.org/entity/Q40203914', 'http://www.wikidata.org/entity/Q4065802', 'http://www.wikidata.org/entity/Q4104376', 'http://www.wikidata.org/entity/Q41660974', 'http://www.wikidata.org/entity/Q4172824', 'http://www.wikidata.org/entity/Q4172835', 'http://www.wikidata.org/entity/Q4308314', 'http://www.wikidata.org/entity/Q438440', 'http://www.wikidata.org/entity/Q440558', 'http://www.wikidata.org/entity/Q463405', 'http://www.wikidata.org/entity/Q4675877', 'http://www.wikidata.org/entity/Q4751927', 'http://www.wikidata.org/entity/Q4762991', 'http://www.wikidata.org/entity/Q4763003', 'http://www.wikidata.org/entity/Q4789952', 'http://www.wikidata.org/entity/Q4796489', 'http://www.wikidata.org/entity/Q48232422', 'http://www.wikidata.org/entity/Q48976256', 'http://www.wikidata.org/entity/Q5113522', 'http://www.wikidata.org/entity/Q52498604', 'http://www.wikidata.org/entity/Q52573880', 'http://www.wikidata.org/entity/Q5277663', 'http://www.wikidata.org/entity/Q535221', 'http://www.wikidata.org/entity/Q537976', 'http://www.wikidata.org/entity/Q53864990', 'http://www.wikidata.org/entity/Q541682', 'http://www.wikidata.org/entity/Q54803547', 'http://www.wikidata.org/entity/Q55078491', 'http://www.wikidata.org/entity/Q55351080', 'http://www.wikidata.org/entity/Q5546866', 'http://www.wikidata.org/entity/Q5548437', 'http://www.wikidata.org/entity/Q56021315', 'http://www.wikidata.org/entity/Q56628168', 'http://www.wikidata.org/entity/Q56852961', 'http://www.wikidata.org/entity/Q5802175', 'http://www.wikidata.org/entity/Q58198309', 'http://www.wikidata.org/entity/Q58503135', 'http://www.wikidata.org/entity/Q58755716', 'http://www.wikidata.org/entity/Q59512002', 'http://www.wikidata.org/entity/Q59614661', 'http://www.wikidata.org/entity/Q6001459', 'http://www.wikidata.org/entity/Q60286852', 'http://www.wikidata.org/entity/Q6038194', 'http://www.wikidata.org/entity/Q6038808', 'http://www.wikidata.org/entity/Q60582822', 'http://www.wikidata.org/entity/Q60583087', 'http://www.wikidata.org/entity/Q60677632', 'http://www.wikidata.org/entity/Q6081551', 'http://www.wikidata.org/entity/Q6084720', 'http://www.wikidata.org/entity/Q6155960', 'http://www.wikidata.org/entity/Q62591624', 'http://www.wikidata.org/entity/Q62603850', 'http://www.wikidata.org/entity/Q63254170', 'http://www.wikidata.org/entity/Q63982897', 'http://www.wikidata.org/entity/Q64615787', 'http://www.wikidata.org/entity/Q6467637', 'http://www.wikidata.org/entity/Q6517023', 'http://www.wikidata.org/entity/Q65273468', 'http://www.wikidata.org/entity/Q657600', 'http://www.wikidata.org/entity/Q65926208', 'http://www.wikidata.org/entity/Q65961421', 'http://www.wikidata.org/entity/Q6751216', 'http://www.wikidata.org/entity/Q6751217', 'http://www.wikidata.org/entity/Q6751225', 'http://www.wikidata.org/entity/Q6761479', 'http://www.wikidata.org/entity/Q6761597', 'http://www.wikidata.org/entity/Q6795819', 'http://www.wikidata.org/entity/Q6835691', 'http://www.wikidata.org/entity/Q6863224', 'http://www.wikidata.org/entity/Q68867937', 'http://www.wikidata.org/entity/Q704707', 'http://www.wikidata.org/entity/Q7067631', 'http://www.wikidata.org/entity/Q70843750', 'http://www.wikidata.org/entity/Q71013124', 'http://www.wikidata.org/entity/Q718276', 'http://www.wikidata.org/entity/Q719110', 'http://www.wikidata.org/entity/Q7312347', 'http://www.wikidata.org/entity/Q7363221', 'http://www.wikidata.org/entity/Q748140', 'http://www.wikidata.org/entity/Q767151', 'http://www.wikidata.org/entity/Q77038923', 'http://www.wikidata.org/entity/Q7781871', 'http://www.wikidata.org/entity/Q77846610', 'http://www.wikidata.org/entity/Q7925550', 'http://www.wikidata.org/entity/Q81217357', 'http://www.wikidata.org/entity/Q81678162', 'http://www.wikidata.org/entity/Q821985', 'http://www.wikidata.org/entity/Q82291289', 'http://www.wikidata.org/entity/Q84048201', 'http://www.wikidata.org/entity/Q87652519', 'http://www.wikidata.org/entity/Q88314564', 'http://www.wikidata.org/entity/Q88360684', 'http://www.wikidata.org/entity/Q88361390', 'http://www.wikidata.org/entity/Q88380768', 'http://www.wikidata.org/entity/Q88383715', 'http://www.wikidata.org/entity/Q88488624', 'http://www.wikidata.org/entity/Q88657263', 'http://www.wikidata.org/entity/Q88710225', 'http://www.wikidata.org/entity/Q88710463', 'http://www.wikidata.org/entity/Q88796507', 'http://www.wikidata.org/entity/Q89259891', 'http://www.wikidata.org/entity/Q90157181', 'http://www.wikidata.org/entity/Q9033451', 'http://www.wikidata.org/entity/Q91442809', 'http://www.wikidata.org/entity/Q92781', 'http://www.wikidata.org/entity/Q93233224', 'http://www.wikidata.org/entity/Q9340768', 'http://www.wikidata.org/entity/Q93737213', 'http://www.wikidata.org/entity/Q93785423', 'http://www.wikidata.org/entity/Q94329', 'http://www.wikidata.org/entity/Q95203707', 'http://www.wikidata.org/entity/Q95309443', 'http://www.wikidata.org/entity/Q95329588', 'http://www.wikidata.org/entity/Q95349620', 'http://www.wikidata.org/entity/Q96176197', 'http://www.wikidata.org/entity/Q96395743', 'http://www.wikidata.org/entity/Q969675', 'http://www.wikidata.org/entity/Q97486765', 'http://www.wikidata.org/entity/Q98216546', 'http://www.wikidata.org/entity/Q98792917', 'http://www.wikidata.org/entity/Q98831182', 'http://www.wikidata.org/entity/Q98836152', 'http://www.wikidata.org/entity/Q99167687']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q210669']</t>
+  </si>
+  <si>
+    <t>['96995000000']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q4799733']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q16']</t>
+  </si>
+  <si>
+    <t>['38274618']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q77237']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q1009788', 'http://www.wikidata.org/entity/Q1055332', 'http://www.wikidata.org/entity/Q107325', 'http://www.wikidata.org/entity/Q115175910', 'http://www.wikidata.org/entity/Q1185312', 'http://www.wikidata.org/entity/Q1198750', 'http://www.wikidata.org/entity/Q1199648', 'http://www.wikidata.org/entity/Q1307044', 'http://www.wikidata.org/entity/Q1421355', 'http://www.wikidata.org/entity/Q1471358', 'http://www.wikidata.org/entity/Q16207076', 'http://www.wikidata.org/entity/Q1749974', 'http://www.wikidata.org/entity/Q182692', 'http://www.wikidata.org/entity/Q184768', 'http://www.wikidata.org/entity/Q1968139', 'http://www.wikidata.org/entity/Q202326', 'http://www.wikidata.org/entity/Q2309964', 'http://www.wikidata.org/entity/Q2408534', 'http://www.wikidata.org/entity/Q2547631', 'http://www.wikidata.org/entity/Q28222734', 'http://www.wikidata.org/entity/Q3620669', 'http://www.wikidata.org/entity/Q3993102', 'http://www.wikidata.org/entity/Q4243278', 'http://www.wikidata.org/entity/Q47703', 'http://www.wikidata.org/entity/Q553194', 'http://www.wikidata.org/entity/Q639387', 'http://www.wikidata.org/entity/Q7716410', 'http://www.wikidata.org/entity/Q785351', 'http://www.wikidata.org/entity/Q845102', 'http://www.wikidata.org/entity/Q858584', 'http://www.wikidata.org/entity/Q903257', 'http://www.wikidata.org/entity/Q977372']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q14280']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q3876']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q313048', 'http://www.wikidata.org/entity/Q464282']</t>
+  </si>
+  <si>
     <t>['http://www.wikidata.org/entity/Q103474', 'http://www.wikidata.org/entity/Q105702', 'http://www.wikidata.org/entity/Q108297', 'http://www.wikidata.org/entity/Q110624336', 'http://www.wikidata.org/entity/Q1434632', 'http://www.wikidata.org/entity/Q181086', 'http://www.wikidata.org/entity/Q186341', 'http://www.wikidata.org/entity/Q209481', 'http://www.wikidata.org/entity/Q2164458', 'http://www.wikidata.org/entity/Q243439', 'http://www.wikidata.org/entity/Q426628', 'http://www.wikidata.org/entity/Q471716', 'http://www.wikidata.org/entity/Q536560', 'http://www.wikidata.org/entity/Q592072', 'http://www.wikidata.org/entity/Q747936', 'http://www.wikidata.org/entity/Q929157', 'http://www.wikidata.org/entity/Q936477']</t>
   </si>
   <si>
@@ -1243,15 +1069,9 @@
     <t>['http://www.wikidata.org/entity/Q12152']</t>
   </si>
   <si>
-    <t>['101']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q102174232']</t>
   </si>
   <si>
-    <t>['http://www.wikidata.org/entity/Q116635', 'http://www.wikidata.org/entity/Q4175282', 'http://www.wikidata.org/entity/Q97154']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q2462124']</t>
   </si>
   <si>
@@ -1264,12 +1084,6 @@
     <t>['http://www.wikidata.org/entity/Q9215']</t>
   </si>
   <si>
-    <t>['1735-10-30T00:00:00Z']</t>
-  </si>
-  <si>
-    <t>['447706209']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q39099']</t>
   </si>
   <si>
@@ -1294,18 +1108,12 @@
     <t>['http://www.wikidata.org/entity/Q1500187', 'http://www.wikidata.org/entity/Q16004491', 'http://www.wikidata.org/entity/Q4022709', 'http://www.wikidata.org/entity/Q3224576', 'http://www.wikidata.org/entity/Q1500187', 'http://www.wikidata.org/entity/Q1964370', 'http://www.wikidata.org/entity/Q6944937', 'http://www.wikidata.org/entity/Q7548538', 'http://www.wikidata.org/entity/Q7722777', 'http://www.wikidata.org/entity/Q8907426', 'http://www.wikidata.org/entity/Q6988215', 'http://www.wikidata.org/entity/Q842253', 'http://www.wikidata.org/entity/Q937913', 'http://www.wikidata.org/entity/Q104630896', 'http://www.wikidata.org/entity/Q112417328', 'http://www.wikidata.org/entity/Q25340369', 'http://www.wikidata.org/entity/Q3063140', 'http://www.wikidata.org/entity/Q147235']</t>
   </si>
   <si>
-    <t>['http://www.wikidata.org/entity/Q1055332', 'http://www.wikidata.org/entity/Q107646713', 'http://www.wikidata.org/entity/Q108946', 'http://www.wikidata.org/entity/Q110138', 'http://www.wikidata.org/entity/Q110203', 'http://www.wikidata.org/entity/Q110278', 'http://www.wikidata.org/entity/Q1105359', 'http://www.wikidata.org/entity/Q1187607', 'http://www.wikidata.org/entity/Q1213746', 'http://www.wikidata.org/entity/Q126421540', 'http://www.wikidata.org/entity/Q129677718', 'http://www.wikidata.org/entity/Q1325589', 'http://www.wikidata.org/entity/Q1353728', 'http://www.wikidata.org/entity/Q1356213', 'http://www.wikidata.org/entity/Q159054', 'http://www.wikidata.org/entity/Q1741232', 'http://www.wikidata.org/entity/Q17548046', 'http://www.wikidata.org/entity/Q18811617', 'http://www.wikidata.org/entity/Q188845', 'http://www.wikidata.org/entity/Q18914855', 'http://www.wikidata.org/entity/Q202028', 'http://www.wikidata.org/entity/Q207130', 'http://www.wikidata.org/entity/Q20755860', 'http://www.wikidata.org/entity/Q209481', 'http://www.wikidata.org/entity/Q21168538', 'http://www.wikidata.org/entity/Q2324652', 'http://www.wikidata.org/entity/Q23759268', 'http://www.wikidata.org/entity/Q244604', 'http://www.wikidata.org/entity/Q288173', 'http://www.wikidata.org/entity/Q29261993', 'http://www.wikidata.org/entity/Q31202708', 'http://www.wikidata.org/entity/Q318910', 'http://www.wikidata.org/entity/Q3190085', 'http://www.wikidata.org/entity/Q329131', 'http://www.wikidata.org/entity/Q367163', 'http://www.wikidata.org/entity/Q380981', 'http://www.wikidata.org/entity/Q388408', 'http://www.wikidata.org/entity/Q470916', 'http://www.wikidata.org/entity/Q471159', 'http://www.wikidata.org/entity/Q498910', 'http://www.wikidata.org/entity/Q505790', 'http://www.wikidata.org/entity/Q509913', 'http://www.wikidata.org/entity/Q576635', 'http://www.wikidata.org/entity/Q588420', 'http://www.wikidata.org/entity/Q590252', 'http://www.wikidata.org/entity/Q591709', 'http://www.wikidata.org/entity/Q593099', 'http://www.wikidata.org/entity/Q603696', 'http://www.wikidata.org/entity/Q61876370', 'http://www.wikidata.org/entity/Q61876374', 'http://www.wikidata.org/entity/Q628154', 'http://www.wikidata.org/entity/Q638544', 'http://www.wikidata.org/entity/Q651060', 'http://www.wikidata.org/entity/Q679918', 'http://www.wikidata.org/entity/Q765677', 'http://www.wikidata.org/entity/Q77949688', 'http://www.wikidata.org/entity/Q821692', 'http://www.wikidata.org/entity/Q839341']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q148', 'http://www.wikidata.org/entity/Q837']</t>
   </si>
   <si>
     <t>['http://www.wikidata.org/entity/Q3896131']</t>
   </si>
   <si>
-    <t>['http://www.wikidata.org/entity/Q212862']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q1031959', 'http://www.wikidata.org/entity/Q107353823', 'http://www.wikidata.org/entity/Q107634702', 'http://www.wikidata.org/entity/Q107638361', 'http://www.wikidata.org/entity/Q108305735', 'http://www.wikidata.org/entity/Q10860087', 'http://www.wikidata.org/entity/Q108658638', 'http://www.wikidata.org/entity/Q11750372', 'http://www.wikidata.org/entity/Q124302084', 'http://www.wikidata.org/entity/Q124313747', 'http://www.wikidata.org/entity/Q1439850', 'http://www.wikidata.org/entity/Q14504132', 'http://www.wikidata.org/entity/Q14560946', 'http://www.wikidata.org/entity/Q16054123', 'http://www.wikidata.org/entity/Q16221402', 'http://www.wikidata.org/entity/Q17154793', 'http://www.wikidata.org/entity/Q17523891', 'http://www.wikidata.org/entity/Q17644417', 'http://www.wikidata.org/entity/Q18021520', 'http://www.wikidata.org/entity/Q18639533', 'http://www.wikidata.org/entity/Q19578089', 'http://www.wikidata.org/entity/Q19867395', 'http://www.wikidata.org/entity/Q19915730', 'http://www.wikidata.org/entity/Q20862334', 'http://www.wikidata.org/entity/Q21094770', 'http://www.wikidata.org/entity/Q2113545', 'http://www.wikidata.org/entity/Q21622402', 'http://www.wikidata.org/entity/Q21623147', 'http://www.wikidata.org/entity/Q2356473', 'http://www.wikidata.org/entity/Q2372089', 'http://www.wikidata.org/entity/Q2391239', 'http://www.wikidata.org/entity/Q24048969', 'http://www.wikidata.org/entity/Q242776', 'http://www.wikidata.org/entity/Q24955683', 'http://www.wikidata.org/entity/Q2509125', 'http://www.wikidata.org/entity/Q2567381', 'http://www.wikidata.org/entity/Q26229689', 'http://www.wikidata.org/entity/Q26236434', 'http://www.wikidata.org/entity/Q26250653', 'http://www.wikidata.org/entity/Q2668457', 'http://www.wikidata.org/entity/Q27063571', 'http://www.wikidata.org/entity/Q2734147', 'http://www.wikidata.org/entity/Q27538037', 'http://www.wikidata.org/entity/Q2754815', 'http://www.wikidata.org/entity/Q27805393', 'http://www.wikidata.org/entity/Q27995584', 'http://www.wikidata.org/entity/Q2901829', 'http://www.wikidata.org/entity/Q29021564', 'http://www.wikidata.org/entity/Q299747', 'http://www.wikidata.org/entity/Q3049594', 'http://www.wikidata.org/entity/Q33259050', 'http://www.wikidata.org/entity/Q3801963', 'http://www.wikidata.org/entity/Q3870583', 'http://www.wikidata.org/entity/Q4015878', 'http://www.wikidata.org/entity/Q4113367', 'http://www.wikidata.org/entity/Q4244582', 'http://www.wikidata.org/entity/Q460043', 'http://www.wikidata.org/entity/Q4715115', 'http://www.wikidata.org/entity/Q4715355', 'http://www.wikidata.org/entity/Q4715366', 'http://www.wikidata.org/entity/Q4715396', 'http://www.wikidata.org/entity/Q4715965', 'http://www.wikidata.org/entity/Q4721350', 'http://www.wikidata.org/entity/Q4730244', 'http://www.wikidata.org/entity/Q4751854', 'http://www.wikidata.org/entity/Q4759167', 'http://www.wikidata.org/entity/Q4759191', 'http://www.wikidata.org/entity/Q4767053', 'http://www.wikidata.org/entity/Q4797426', 'http://www.wikidata.org/entity/Q50221013', 'http://www.wikidata.org/entity/Q508250', 'http://www.wikidata.org/entity/Q5219224', 'http://www.wikidata.org/entity/Q5219549', 'http://www.wikidata.org/entity/Q5348229', 'http://www.wikidata.org/entity/Q556111', 'http://www.wikidata.org/entity/Q55972891', 'http://www.wikidata.org/entity/Q56043337', 'http://www.wikidata.org/entity/Q56073370', 'http://www.wikidata.org/entity/Q57114357', 'http://www.wikidata.org/entity/Q6069817', 'http://www.wikidata.org/entity/Q6069906', 'http://www.wikidata.org/entity/Q65589494', 'http://www.wikidata.org/entity/Q66317885', 'http://www.wikidata.org/entity/Q6761242', 'http://www.wikidata.org/entity/Q6763800', 'http://www.wikidata.org/entity/Q6763906', 'http://www.wikidata.org/entity/Q6968363', 'http://www.wikidata.org/entity/Q6968364', 'http://www.wikidata.org/entity/Q7035893', 'http://www.wikidata.org/entity/Q7038078', 'http://www.wikidata.org/entity/Q7086047', 'http://www.wikidata.org/entity/Q7086663', 'http://www.wikidata.org/entity/Q7086674', 'http://www.wikidata.org/entity/Q7263180', 'http://www.wikidata.org/entity/Q7454107', 'http://www.wikidata.org/entity/Q7680835', 'http://www.wikidata.org/entity/Q7910781', 'http://www.wikidata.org/entity/Q7910881', 'http://www.wikidata.org/entity/Q7910896', 'http://www.wikidata.org/entity/Q7929719', 'http://www.wikidata.org/entity/Q7929757', 'http://www.wikidata.org/entity/Q7929832', 'http://www.wikidata.org/entity/Q7938430', 'http://www.wikidata.org/entity/Q7938643', 'http://www.wikidata.org/entity/Q8051367', 'http://www.wikidata.org/entity/Q8053274', 'http://www.wikidata.org/entity/Q87832143', 'http://www.wikidata.org/entity/Q9146400', 'http://www.wikidata.org/entity/Q9323051']</t>
   </si>
   <si>
@@ -1315,9 +1123,6 @@
     <t>['http://www.wikidata.org/entity/Q5159490']</t>
   </si>
   <si>
-    <t>['9606916']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q100331972', 'http://www.wikidata.org/entity/Q100394144', 'http://www.wikidata.org/entity/Q101218635', 'http://www.wikidata.org/entity/Q102256598', 'http://www.wikidata.org/entity/Q102390777', 'http://www.wikidata.org/entity/Q104483225', 'http://www.wikidata.org/entity/Q10533007', 'http://www.wikidata.org/entity/Q105389038', 'http://www.wikidata.org/entity/Q106157237', 'http://www.wikidata.org/entity/Q106243894', 'http://www.wikidata.org/entity/Q106363582', 'http://www.wikidata.org/entity/Q106798081', 'http://www.wikidata.org/entity/Q107310844', 'http://www.wikidata.org/entity/Q107344844', 'http://www.wikidata.org/entity/Q107369220', 'http://www.wikidata.org/entity/Q107750113', 'http://www.wikidata.org/entity/Q108108930', 'http://www.wikidata.org/entity/Q108142616', 'http://www.wikidata.org/entity/Q108143520', 'http://www.wikidata.org/entity/Q108305316', 'http://www.wikidata.org/entity/Q108419496', 'http://www.wikidata.org/entity/Q108420335', 'http://www.wikidata.org/entity/Q108528226', 'http://www.wikidata.org/entity/Q108801572', 'http://www.wikidata.org/entity/Q110024583', 'http://www.wikidata.org/entity/Q110257591', 'http://www.wikidata.org/entity/Q110438288', 'http://www.wikidata.org/entity/Q11102047', 'http://www.wikidata.org/entity/Q111279614', 'http://www.wikidata.org/entity/Q111378638', 'http://www.wikidata.org/entity/Q1115126', 'http://www.wikidata.org/entity/Q112460780', 'http://www.wikidata.org/entity/Q113045473', 'http://www.wikidata.org/entity/Q113074033', 'http://www.wikidata.org/entity/Q113184346', 'http://www.wikidata.org/entity/Q113232042', 'http://www.wikidata.org/entity/Q113737899', 'http://www.wikidata.org/entity/Q113749117', 'http://www.wikidata.org/entity/Q113772754', 'http://www.wikidata.org/entity/Q113807740', 'http://www.wikidata.org/entity/Q113834191', 'http://www.wikidata.org/entity/Q113843326', 'http://www.wikidata.org/entity/Q114089100', 'http://www.wikidata.org/entity/Q114235854', 'http://www.wikidata.org/entity/Q114616578', 'http://www.wikidata.org/entity/Q1147661', 'http://www.wikidata.org/entity/Q115110628', 'http://www.wikidata.org/entity/Q115180838', 'http://www.wikidata.org/entity/Q115864917', 'http://www.wikidata.org/entity/Q116759188', 'http://www.wikidata.org/entity/Q116765917', 'http://www.wikidata.org/entity/Q117198007', 'http://www.wikidata.org/entity/Q118487290', 'http://www.wikidata.org/entity/Q118762757', 'http://www.wikidata.org/entity/Q11931920', 'http://www.wikidata.org/entity/Q120961856', 'http://www.wikidata.org/entity/Q121300453', 'http://www.wikidata.org/entity/Q121378646', 'http://www.wikidata.org/entity/Q122228916', 'http://www.wikidata.org/entity/Q123117223', 'http://www.wikidata.org/entity/Q123183318', 'http://www.wikidata.org/entity/Q123189154', 'http://www.wikidata.org/entity/Q123196316', 'http://www.wikidata.org/entity/Q123247882', 'http://www.wikidata.org/entity/Q123281296', 'http://www.wikidata.org/entity/Q123282585', 'http://www.wikidata.org/entity/Q123403159', 'http://www.wikidata.org/entity/Q125352819', 'http://www.wikidata.org/entity/Q126363974', 'http://www.wikidata.org/entity/Q128183151', 'http://www.wikidata.org/entity/Q128693220', 'http://www.wikidata.org/entity/Q12873118', 'http://www.wikidata.org/entity/Q12873662', 'http://www.wikidata.org/entity/Q12873744', 'http://www.wikidata.org/entity/Q12874350', 'http://www.wikidata.org/entity/Q12875108', 'http://www.wikidata.org/entity/Q12875311', 'http://www.wikidata.org/entity/Q12875336', 'http://www.wikidata.org/entity/Q12878284', 'http://www.wikidata.org/entity/Q12878447', 'http://www.wikidata.org/entity/Q12880672', 'http://www.wikidata.org/entity/Q12880675', 'http://www.wikidata.org/entity/Q12880677', 'http://www.wikidata.org/entity/Q12881079', 'http://www.wikidata.org/entity/Q12885766', 'http://www.wikidata.org/entity/Q130305674', 'http://www.wikidata.org/entity/Q130632515', 'http://www.wikidata.org/entity/Q130632553', 'http://www.wikidata.org/entity/Q130718161', 'http://www.wikidata.org/entity/Q1329371', 'http://www.wikidata.org/entity/Q13411107', 'http://www.wikidata.org/entity/Q1349114', 'http://www.wikidata.org/entity/Q14153584', 'http://www.wikidata.org/entity/Q14229034', 'http://www.wikidata.org/entity/Q1439570', 'http://www.wikidata.org/entity/Q14500317', 'http://www.wikidata.org/entity/Q14625005', 'http://www.wikidata.org/entity/Q15002185', 'http://www.wikidata.org/entity/Q1509428', 'http://www.wikidata.org/entity/Q15274548', 'http://www.wikidata.org/entity/Q15433778', 'http://www.wikidata.org/entity/Q15651684', 'http://www.wikidata.org/entity/Q15707552', 'http://www.wikidata.org/entity/Q1581009', 'http://www.wikidata.org/entity/Q15983065', 'http://www.wikidata.org/entity/Q15994196', 'http://www.wikidata.org/entity/Q1601376', 'http://www.wikidata.org/entity/Q160478', 'http://www.wikidata.org/entity/Q16199868', 'http://www.wikidata.org/entity/Q16235535', 'http://www.wikidata.org/entity/Q16327244', 'http://www.wikidata.org/entity/Q16327733', 'http://www.wikidata.org/entity/Q16328616', 'http://www.wikidata.org/entity/Q16328851', 'http://www.wikidata.org/entity/Q16328867', 'http://www.wikidata.org/entity/Q16329078', 'http://www.wikidata.org/entity/Q16329346', 'http://www.wikidata.org/entity/Q16330120', 'http://www.wikidata.org/entity/Q16330682', 'http://www.wikidata.org/entity/Q16331916', 'http://www.wikidata.org/entity/Q16332287', 'http://www.wikidata.org/entity/Q16332578', 'http://www.wikidata.org/entity/Q16332651', 'http://www.wikidata.org/entity/Q16512450', 'http://www.wikidata.org/entity/Q16512492', 'http://www.wikidata.org/entity/Q165319', 'http://www.wikidata.org/entity/Q16644246', 'http://www.wikidata.org/entity/Q16711496', 'http://www.wikidata.org/entity/Q16711498', 'http://www.wikidata.org/entity/Q16853551', 'http://www.wikidata.org/entity/Q16874283', 'http://www.wikidata.org/entity/Q16937833', 'http://www.wikidata.org/entity/Q17000036', 'http://www.wikidata.org/entity/Q17315716', 'http://www.wikidata.org/entity/Q17350265', 'http://www.wikidata.org/entity/Q17420765', 'http://www.wikidata.org/entity/Q17420770', 'http://www.wikidata.org/entity/Q1755825', 'http://www.wikidata.org/entity/Q18234229', 'http://www.wikidata.org/entity/Q18335504', 'http://www.wikidata.org/entity/Q18340746', 'http://www.wikidata.org/entity/Q18340750', 'http://www.wikidata.org/entity/Q18392960', 'http://www.wikidata.org/entity/Q18397296', 'http://www.wikidata.org/entity/Q18599700', 'http://www.wikidata.org/entity/Q18599759', 'http://www.wikidata.org/entity/Q1917293', 'http://www.wikidata.org/entity/Q19612083', 'http://www.wikidata.org/entity/Q19672743', 'http://www.wikidata.org/entity/Q19758235', 'http://www.wikidata.org/entity/Q19862442', 'http://www.wikidata.org/entity/Q1987990', 'http://www.wikidata.org/entity/Q19886218', 'http://www.wikidata.org/entity/Q1991236', 'http://www.wikidata.org/entity/Q19939295', 'http://www.wikidata.org/entity/Q19941936', 'http://www.wikidata.org/entity/Q19953561', 'http://www.wikidata.org/entity/Q20011734', 'http://www.wikidata.org/entity/Q20090771', 'http://www.wikidata.org/entity/Q202404', 'http://www.wikidata.org/entity/Q20641089', 'http://www.wikidata.org/entity/Q20648370', 'http://www.wikidata.org/entity/Q20745244', 'http://www.wikidata.org/entity/Q2078267', 'http://www.wikidata.org/entity/Q20897762', 'http://www.wikidata.org/entity/Q20986533', 'http://www.wikidata.org/entity/Q21027277', 'http://www.wikidata.org/entity/Q21031023', 'http://www.wikidata.org/entity/Q21066359', 'http://www.wikidata.org/entity/Q21067158', 'http://www.wikidata.org/entity/Q21114808', 'http://www.wikidata.org/entity/Q21207862', 'http://www.wikidata.org/entity/Q21295004', 'http://www.wikidata.org/entity/Q214622', 'http://www.wikidata.org/entity/Q21620727', 'http://www.wikidata.org/entity/Q21620925', 'http://www.wikidata.org/entity/Q21621189', 'http://www.wikidata.org/entity/Q21996798', 'http://www.wikidata.org/entity/Q2261557', 'http://www.wikidata.org/entity/Q22812105', 'http://www.wikidata.org/entity/Q22958899', 'http://www.wikidata.org/entity/Q23001049', 'http://www.wikidata.org/entity/Q2359693', 'http://www.wikidata.org/entity/Q23677559', 'http://www.wikidata.org/entity/Q23726787', 'http://www.wikidata.org/entity/Q23928168', 'http://www.wikidata.org/entity/Q23928180', 'http://www.wikidata.org/entity/Q24006617', 'http://www.wikidata.org/entity/Q24045397', 'http://www.wikidata.org/entity/Q2460964', 'http://www.wikidata.org/entity/Q25909395', 'http://www.wikidata.org/entity/Q2615465', 'http://www.wikidata.org/entity/Q26703027', 'http://www.wikidata.org/entity/Q26829002', 'http://www.wikidata.org/entity/Q27975949', 'http://www.wikidata.org/entity/Q28106080', 'http://www.wikidata.org/entity/Q28745301', 'http://www.wikidata.org/entity/Q289307', 'http://www.wikidata.org/entity/Q2912337', 'http://www.wikidata.org/entity/Q29346418', 'http://www.wikidata.org/entity/Q301', 'http://www.wikidata.org/entity/Q3057494', 'http://www.wikidata.org/entity/Q30887619', 'http://www.wikidata.org/entity/Q310712', 'http://www.wikidata.org/entity/Q3136115', 'http://www.wikidata.org/entity/Q3229712', 'http://www.wikidata.org/entity/Q3296541', 'http://www.wikidata.org/entity/Q330232', 'http://www.wikidata.org/entity/Q330897', 'http://www.wikidata.org/entity/Q3314731', 'http://www.wikidata.org/entity/Q3341850', 'http://www.wikidata.org/entity/Q343292', 'http://www.wikidata.org/entity/Q353059', 'http://www.wikidata.org/entity/Q3556566', 'http://www.wikidata.org/entity/Q3558422', 'http://www.wikidata.org/entity/Q3562201', 'http://www.wikidata.org/entity/Q3564132', 'http://www.wikidata.org/entity/Q3565521', 'http://www.wikidata.org/entity/Q3566247', 'http://www.wikidata.org/entity/Q368044', 'http://www.wikidata.org/entity/Q3699388', 'http://www.wikidata.org/entity/Q3731188', 'http://www.wikidata.org/entity/Q3776568', 'http://www.wikidata.org/entity/Q38127864', 'http://www.wikidata.org/entity/Q382090', 'http://www.wikidata.org/entity/Q3839783', 'http://www.wikidata.org/entity/Q3876538', 'http://www.wikidata.org/entity/Q3935791', 'http://www.wikidata.org/entity/Q40203914', 'http://www.wikidata.org/entity/Q4065802', 'http://www.wikidata.org/entity/Q4104376', 'http://www.wikidata.org/entity/Q41660974', 'http://www.wikidata.org/entity/Q4172824', 'http://www.wikidata.org/entity/Q4172835', 'http://www.wikidata.org/entity/Q4308314', 'http://www.wikidata.org/entity/Q438440', 'http://www.wikidata.org/entity/Q440558', 'http://www.wikidata.org/entity/Q463405', 'http://www.wikidata.org/entity/Q4675877', 'http://www.wikidata.org/entity/Q4751927', 'http://www.wikidata.org/entity/Q4762991', 'http://www.wikidata.org/entity/Q4763003', 'http://www.wikidata.org/entity/Q4789952', 'http://www.wikidata.org/entity/Q4796489', 'http://www.wikidata.org/entity/Q48232422', 'http://www.wikidata.org/entity/Q48976256', 'http://www.wikidata.org/entity/Q5113522', 'http://www.wikidata.org/entity/Q52498604', 'http://www.wikidata.org/entity/Q52573880', 'http://www.wikidata.org/entity/Q5277663', 'http://www.wikidata.org/entity/Q535221', 'http://www.wikidata.org/entity/Q537976', 'http://www.wikidata.org/entity/Q53864990', 'http://www.wikidata.org/entity/Q541682', 'http://www.wikidata.org/entity/Q54803547', 'http://www.wikidata.org/entity/Q55078491', 'http://www.wikidata.org/entity/Q55351080', 'http://www.wikidata.org/entity/Q5546866', 'http://www.wikidata.org/entity/Q5548437', 'http://www.wikidata.org/entity/Q56021315', 'http://www.wikidata.org/entity/Q56628168', 'http://www.wikidata.org/entity/Q56852961', 'http://www.wikidata.org/entity/Q5802175', 'http://www.wikidata.org/entity/Q58198309', 'http://www.wikidata.org/entity/Q58503135', 'http://www.wikidata.org/entity/Q58755716', 'http://www.wikidata.org/entity/Q59512002', 'http://www.wikidata.org/entity/Q59614661', 'http://www.wikidata.org/entity/Q6001459', 'http://www.wikidata.org/entity/Q60286852', 'http://www.wikidata.org/entity/Q6038194', 'http://www.wikidata.org/entity/Q6038808', 'http://www.wikidata.org/entity/Q60582822', 'http://www.wikidata.org/entity/Q60583087', 'http://www.wikidata.org/entity/Q60677632', 'http://www.wikidata.org/entity/Q6081551', 'http://www.wikidata.org/entity/Q6084720', 'http://www.wikidata.org/entity/Q6155960', 'http://www.wikidata.org/entity/Q62591624', 'http://www.wikidata.org/entity/Q62603850', 'http://www.wikidata.org/entity/Q63254170', 'http://www.wikidata.org/entity/Q63982897', 'http://www.wikidata.org/entity/Q64615787', 'http://www.wikidata.org/entity/Q6467637', 'http://www.wikidata.org/entity/Q6517023', 'http://www.wikidata.org/entity/Q65273468', 'http://www.wikidata.org/entity/Q657600', 'http://www.wikidata.org/entity/Q65926208', 'http://www.wikidata.org/entity/Q65961421', 'http://www.wikidata.org/entity/Q6751216', 'http://www.wikidata.org/entity/Q6751217', 'http://www.wikidata.org/entity/Q6751225', 'http://www.wikidata.org/entity/Q6761479', 'http://www.wikidata.org/entity/Q6761597', 'http://www.wikidata.org/entity/Q6795819', 'http://www.wikidata.org/entity/Q6835691', 'http://www.wikidata.org/entity/Q6863224', 'http://www.wikidata.org/entity/Q68867937', 'http://www.wikidata.org/entity/Q704707', 'http://www.wikidata.org/entity/Q7067631', 'http://www.wikidata.org/entity/Q70843750', 'http://www.wikidata.org/entity/Q71013124', 'http://www.wikidata.org/entity/Q718276', 'http://www.wikidata.org/entity/Q719110', 'http://www.wikidata.org/entity/Q7312347', 'http://www.wikidata.org/entity/Q7363221', 'http://www.wikidata.org/entity/Q748140', 'http://www.wikidata.org/entity/Q767151', 'http://www.wikidata.org/entity/Q77038923', 'http://www.wikidata.org/entity/Q7781871', 'http://www.wikidata.org/entity/Q77846610', 'http://www.wikidata.org/entity/Q7925550', 'http://www.wikidata.org/entity/Q81217357', 'http://www.wikidata.org/entity/Q81678162', 'http://www.wikidata.org/entity/Q821985', 'http://www.wikidata.org/entity/Q82291289', 'http://www.wikidata.org/entity/Q84048201', 'http://www.wikidata.org/entity/Q87652519', 'http://www.wikidata.org/entity/Q88314564', 'http://www.wikidata.org/entity/Q88360684', 'http://www.wikidata.org/entity/Q88361390', 'http://www.wikidata.org/entity/Q88380768', 'http://www.wikidata.org/entity/Q88383715', 'http://www.wikidata.org/entity/Q88488624', 'http://www.wikidata.org/entity/Q88657263', 'http://www.wikidata.org/entity/Q88710225', 'http://www.wikidata.org/entity/Q88710463', 'http://www.wikidata.org/entity/Q88796507', 'http://www.wikidata.org/entity/Q89259891', 'http://www.wikidata.org/entity/Q90157181', 'http://www.wikidata.org/entity/Q9033451', 'http://www.wikidata.org/entity/Q91442809', 'http://www.wikidata.org/entity/Q92781', 'http://www.wikidata.org/entity/Q93233224', 'http://www.wikidata.org/entity/Q9340768', 'http://www.wikidata.org/entity/Q93737213', 'http://www.wikidata.org/entity/Q93785423', 'http://www.wikidata.org/entity/Q94329', 'http://www.wikidata.org/entity/Q95203707', 'http://www.wikidata.org/entity/Q95309443', 'http://www.wikidata.org/entity/Q95329588', 'http://www.wikidata.org/entity/Q95349620', 'http://www.wikidata.org/entity/Q96176197', 'http://www.wikidata.org/entity/Q96395743', 'http://www.wikidata.org/entity/Q969675', 'http://www.wikidata.org/entity/Q97486765', 'http://www.wikidata.org/entity/Q98216546', 'http://www.wikidata.org/entity/Q98792917', 'http://www.wikidata.org/entity/Q98831182', 'http://www.wikidata.org/entity/Q98836152', 'http://www.wikidata.org/entity/Q99167687']</t>
   </si>
   <si>
@@ -1333,9 +1138,6 @@
     <t>['180']</t>
   </si>
   <si>
-    <t>['http://www.wikidata.org/entity/Q210669']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q11366', 'http://www.wikidata.org/entity/Q11399', 'http://www.wikidata.org/entity/Q1428637', 'http://www.wikidata.org/entity/Q1641839', 'http://www.wikidata.org/entity/Q181861', 'http://www.wikidata.org/entity/Q186472', 'http://www.wikidata.org/entity/Q206159', 'http://www.wikidata.org/entity/Q217467', 'http://www.wikidata.org/entity/Q27190', 'http://www.wikidata.org/entity/Q650316', 'http://www.wikidata.org/entity/Q76092', 'http://www.wikidata.org/entity/Q885561']</t>
   </si>
   <si>
@@ -1351,18 +1153,9 @@
     <t>['http://www.wikidata.org/entity/Q1348730', 'http://www.wikidata.org/entity/Q39864', 'http://www.wikidata.org/entity/Q40317']</t>
   </si>
   <si>
-    <t>['96995000000']</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q4799733']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q1362', 'http://www.wikidata.org/entity/Q3037', 'http://www.wikidata.org/entity/Q37400', 'http://www.wikidata.org/entity/Q5838', 'http://www.wikidata.org/entity/Q9270', 'http://www.wikidata.org/entity/Q956', 'http://www.wikidata.org/entity/Q987']</t>
   </si>
   <si>
-    <t>['http://www.wikidata.org/entity/Q16']</t>
-  </si>
-  <si>
     <t>['198']</t>
   </si>
   <si>
@@ -1372,9 +1165,6 @@
     <t>['http://www.wikidata.org/entity/Q1007', 'http://www.wikidata.org/entity/Q1008', 'http://www.wikidata.org/entity/Q1032', 'http://www.wikidata.org/entity/Q1041', 'http://www.wikidata.org/entity/Q18408563', 'http://www.wikidata.org/entity/Q1929699', 'http://www.wikidata.org/entity/Q2386787', 'http://www.wikidata.org/entity/Q5148343', 'http://www.wikidata.org/entity/Q5148520', 'http://www.wikidata.org/entity/Q620942', 'http://www.wikidata.org/entity/Q862701', 'http://www.wikidata.org/entity/Q912', 'http://www.wikidata.org/entity/Q945', 'http://www.wikidata.org/entity/Q962', 'http://www.wikidata.org/entity/Q965']</t>
   </si>
   <si>
-    <t>['38274618']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q100271515', 'http://www.wikidata.org/entity/Q100329955', 'http://www.wikidata.org/entity/Q100597341', 'http://www.wikidata.org/entity/Q100740692', 'http://www.wikidata.org/entity/Q100860934', 'http://www.wikidata.org/entity/Q1009535', 'http://www.wikidata.org/entity/Q101026979', 'http://www.wikidata.org/entity/Q101545880', 'http://www.wikidata.org/entity/Q101627559', 'http://www.wikidata.org/entity/Q1016833', 'http://www.wikidata.org/entity/Q101706322', 'http://www.wikidata.org/entity/Q102276948', 'http://www.wikidata.org/entity/Q102398478', 'http://www.wikidata.org/entity/Q10244', 'http://www.wikidata.org/entity/Q10253', 'http://www.wikidata.org/entity/Q1025481', 'http://www.wikidata.org/entity/Q10259922', 'http://www.wikidata.org/entity/Q10265921', 'http://www.wikidata.org/entity/Q10265947', 'http://www.wikidata.org/entity/Q10274', 'http://www.wikidata.org/entity/Q10281749', 'http://www.wikidata.org/entity/Q10281751', 'http://www.wikidata.org/entity/Q10281780', 'http://www.wikidata.org/entity/Q10281783', 'http://www.wikidata.org/entity/Q10281787', 'http://www.wikidata.org/entity/Q10281793', 'http://www.wikidata.org/entity/Q10281798', 'http://www.wikidata.org/entity/Q10283187', 'http://www.wikidata.org/entity/Q10313072', 'http://www.wikidata.org/entity/Q10329424', 'http://www.wikidata.org/entity/Q1033140', 'http://www.wikidata.org/entity/Q103407630', 'http://www.wikidata.org/entity/Q103408482', 'http://www.wikidata.org/entity/Q1034573', 'http://www.wikidata.org/entity/Q103461996', 'http://www.wikidata.org/entity/Q10379695', 'http://www.wikidata.org/entity/Q103821550', 'http://www.wikidata.org/entity/Q1038328', 'http://www.wikidata.org/entity/Q103956800', 'http://www.wikidata.org/entity/Q10398273', 'http://www.wikidata.org/entity/Q103987830', 'http://www.wikidata.org/entity/Q104013369', 'http://www.wikidata.org/entity/Q104051143', 'http://www.wikidata.org/entity/Q10405623', 'http://www.wikidata.org/entity/Q10405661', 'http://www.wikidata.org/entity/Q10411424', 'http://www.wikidata.org/entity/Q10412386', 'http://www.wikidata.org/entity/Q10416096', 'http://www.wikidata.org/entity/Q10418897', 'http://www.wikidata.org/entity/Q104224166', 'http://www.wikidata.org/entity/Q1043596', 'http://www.wikidata.org/entity/Q104601590', 'http://www.wikidata.org/entity/Q104625773', 'http://www.wikidata.org/entity/Q104758920', 'http://www.wikidata.org/entity/Q10481350', 'http://www.wikidata.org/entity/Q104842151', 'http://www.wikidata.org/entity/Q104842171', 'http://www.wikidata.org/entity/Q104844735', 'http://www.wikidata.org/entity/Q104853673', 'http://www.wikidata.org/entity/Q104861126', 'http://www.wikidata.org/entity/Q10488275', 'http://www.wikidata.org/entity/Q1049141', 'http://www.wikidata.org/entity/Q104920297', 'http://www.wikidata.org/entity/Q10494624', 'http://www.wikidata.org/entity/Q10495385', 'http://www.wikidata.org/entity/Q10495964', 'http://www.wikidata.org/entity/Q10496086', 'http://www.wikidata.org/entity/Q10501512', 'http://www.wikidata.org/entity/Q1050292', 'http://www.wikidata.org/entity/Q105043914', 'http://www.wikidata.org/entity/Q105047091', 'http://www.wikidata.org/entity/Q105047582', 'http://www.wikidata.org/entity/Q105047587', 'http://www.wikidata.org/entity/Q105121443', 'http://www.wikidata.org/entity/Q105271464', 'http://www.wikidata.org/entity/Q105360445', 'http://www.wikidata.org/entity/Q105393636', 'http://www.wikidata.org/entity/Q105393711', 'http://www.wikidata.org/entity/Q105394069', 'http://www.wikidata.org/entity/Q10541207', 'http://www.wikidata.org/entity/Q10541293', 'http://www.wikidata.org/entity/Q1054558', 'http://www.wikidata.org/entity/Q1054975', 'http://www.wikidata.org/entity/Q10560877', 'http://www.wikidata.org/entity/Q105663779', 'http://www.wikidata.org/entity/Q105742385', 'http://www.wikidata.org/entity/Q105742388', 'http://www.wikidata.org/entity/Q10586365', 'http://www.wikidata.org/entity/Q1058840', 'http://www.wikidata.org/entity/Q105888686', 'http://www.wikidata.org/entity/Q1059995', 'http://www.wikidata.org/entity/Q106010', 'http://www.wikidata.org/entity/Q10601007', 'http://www.wikidata.org/entity/Q10601355', 'http://www.wikidata.org/entity/Q106019359', 'http://www.wikidata.org/entity/Q106043577', 'http://www.wikidata.org/entity/Q106078232', 'http://www.wikidata.org/entity/Q106113886', 'http://www.wikidata.org/entity/Q106200291', 'http://www.wikidata.org/entity/Q106240773', 'http://www.wikidata.org/entity/Q106290028', 'http://www.wikidata.org/entity/Q106307776', 'http://www.wikidata.org/entity/Q10631904', 'http://www.wikidata.org/entity/Q106331005', 'http://www.wikidata.org/entity/Q106333', 'http://www.wikidata.org/entity/Q106349026', 'http://www.wikidata.org/entity/Q106369745', 'http://www.wikidata.org/entity/Q106436015', 'http://www.wikidata.org/entity/Q106462957', 'http://www.wikidata.org/entity/Q106505905', 'http://www.wikidata.org/entity/Q106658464', 'http://www.wikidata.org/entity/Q106658575', 'http://www.wikidata.org/entity/Q106658749', 'http://www.wikidata.org/entity/Q106658879', 'http://www.wikidata.org/entity/Q106659060', 'http://www.wikidata.org/entity/Q106663543', 'http://www.wikidata.org/entity/Q106663566', 'http://www.wikidata.org/entity/Q106663587', 'http://www.wikidata.org/entity/Q106663613', 'http://www.wikidata.org/entity/Q106663745', 'http://www.wikidata.org/entity/Q106663779', 'http://www.wikidata.org/entity/Q106663799', 'http://www.wikidata.org/entity/Q106664025', 'http://www.wikidata.org/entity/Q106664072', 'http://www.wikidata.org/entity/Q106664114', 'http://www.wikidata.org/entity/Q10666884', 'http://www.wikidata.org/entity/Q106675733', 'http://www.wikidata.org/entity/Q106689897', 'http://www.wikidata.org/entity/Q10669318', 'http://www.wikidata.org/entity/Q10669370', 'http://www.wikidata.org/entity/Q10669371', 'http://www.wikidata.org/entity/Q106698317', 'http://www.wikidata.org/entity/Q106708800', 'http://www.wikidata.org/entity/Q106806190', 'http://www.wikidata.org/entity/Q106810895', 'http://www.wikidata.org/entity/Q106855753', 'http://www.wikidata.org/entity/Q10685840', 'http://www.wikidata.org/entity/Q10689144', 'http://www.wikidata.org/entity/Q10689145', 'http://www.wikidata.org/entity/Q10689146', 'http://www.wikidata.org/entity/Q106899527', 'http://www.wikidata.org/entity/Q10698576', 'http://www.wikidata.org/entity/Q10698931', 'http://www.wikidata.org/entity/Q10698932', 'http://www.wikidata.org/entity/Q10698935', 'http://www.wikidata.org/entity/Q10698936', 'http://www.wikidata.org/entity/Q10698937', 'http://www.wikidata.org/entity/Q10699347', 'http://www.wikidata.org/entity/Q107015910', 'http://www.wikidata.org/entity/Q10701677', 'http://www.wikidata.org/entity/Q10701968', 'http://www.wikidata.org/entity/Q1070318', 'http://www.wikidata.org/entity/Q1070437', 'http://www.wikidata.org/entity/Q107139413', 'http://www.wikidata.org/entity/Q10714715', 'http://www.wikidata.org/entity/Q10726425', 'http://www.wikidata.org/entity/Q10726998', 'http://www.wikidata.org/entity/Q107296290', 'http://www.wikidata.org/entity/Q107309593', 'http://www.wikidata.org/entity/Q107438167', 'http://www.wikidata.org/entity/Q107486932', 'http://www.wikidata.org/entity/Q107643630', 'http://www.wikidata.org/entity/Q107718805', 'http://www.wikidata.org/entity/Q107739995', 'http://www.wikidata.org/entity/Q108010714', 'http://www.wikidata.org/entity/Q108101493', 'http://www.wikidata.org/entity/Q108120675', 'http://www.wikidata.org/entity/Q108131371', 'http://www.wikidata.org/entity/Q108131396', 'http://www.wikidata.org/entity/Q108177441', 'http://www.wikidata.org/entity/Q108183111', 'http://www.wikidata.org/entity/Q108219988', 'http://www.wikidata.org/entity/Q108265918', 'http://www.wikidata.org/entity/Q108305674', 'http://www.wikidata.org/entity/Q108315106', 'http://www.wikidata.org/entity/Q108333212', 'http://www.wikidata.org/entity/Q108338128', 'http://www.wikidata.org/entity/Q108367189', 'http://www.wikidata.org/entity/Q108392466', 'http://www.wikidata.org/entity/Q108404671', 'http://www.wikidata.org/entity/Q108424805', 'http://www.wikidata.org/entity/Q108447771', 'http://www.wikidata.org/entity/Q108456662', 'http://www.wikidata.org/entity/Q108540687', 'http://www.wikidata.org/entity/Q10854390', 'http://www.wikidata.org/entity/Q10854401', 'http://www.wikidata.org/entity/Q10855559', 'http://www.wikidata.org/entity/Q108581891', 'http://www.wikidata.org/entity/Q10862448', 'http://www.wikidata.org/entity/Q108660772', 'http://www.wikidata.org/entity/Q10868404', 'http://www.wikidata.org/entity/Q108730127', 'http://www.wikidata.org/entity/Q108745010', 'http://www.wikidata.org/entity/Q108749396', 'http://www.wikidata.org/entity/Q108749484', 'http://www.wikidata.org/entity/Q108783890', 'http://www.wikidata.org/entity/Q108803354', 'http://www.wikidata.org/entity/Q108803791', 'http://www.wikidata.org/entity/Q108814176', 'http://www.wikidata.org/entity/Q10881633', 'http://www.wikidata.org/entity/Q108923501', 'http://www.wikidata.org/entity/Q108927805', 'http://www.wikidata.org/entity/Q108936669', 'http://www.wikidata.org/entity/Q108936865', 'http://www.wikidata.org/entity/Q1090024', 'http://www.wikidata.org/entity/Q10901070', 'http://www.wikidata.org/entity/Q109040869', 'http://www.wikidata.org/entity/Q10909572', 'http://www.wikidata.org/entity/Q109121006', 'http://www.wikidata.org/entity/Q1091428', 'http://www.wikidata.org/entity/Q10921475', 'http://www.wikidata.org/entity/Q10921477', 'http://www.wikidata.org/entity/Q109285268', 'http://www.wikidata.org/entity/Q109310919', 'http://www.wikidata.org/entity/Q109311258', 'http://www.wikidata.org/entity/Q109311824', 'http://www.wikidata.org/entity/Q109329448', 'http://www.wikidata.org/entity/Q109329455', 'http://www.wikidata.org/entity/Q109356066', 'http://www.wikidata.org/entity/Q109381834', 'http://www.wikidata.org/entity/Q109381883', 'http://www.wikidata.org/entity/Q109440429', 'http://www.wikidata.org/entity/Q109455204', 'http://www.wikidata.org/entity/Q109500716', 'http://www.wikidata.org/entity/Q1095258', 'http://www.wikidata.org/entity/Q10955171', 'http://www.wikidata.org/entity/Q109558468', 'http://www.wikidata.org/entity/Q109593799', 'http://www.wikidata.org/entity/Q109609391', 'http://www.wikidata.org/entity/Q10964022', 'http://www.wikidata.org/entity/Q109727087', 'http://www.wikidata.org/entity/Q109796906', 'http://www.wikidata.org/entity/Q109827527', 'http://www.wikidata.org/entity/Q109838056', 'http://www.wikidata.org/entity/Q10985961', 'http://www.wikidata.org/entity/Q109908577', 'http://www.wikidata.org/entity/Q109923166', 'http://www.wikidata.org/entity/Q11002663', 'http://www.wikidata.org/entity/Q110064747', 'http://www.wikidata.org/entity/Q110091424', 'http://www.wikidata.org/entity/Q110128398', 'http://www.wikidata.org/entity/Q110192210', 'http://www.wikidata.org/entity/Q110206440', 'http://www.wikidata.org/entity/Q110239836', 'http://www.wikidata.org/entity/Q110246928', 'http://www.wikidata.org/entity/Q110413817', 'http://www.wikidata.org/entity/Q1105149', 'http://www.wikidata.org/entity/Q110639888', 'http://www.wikidata.org/entity/Q110707177', 'http://www.wikidata.org/entity/Q110712627', 'http://www.wikidata.org/entity/Q110738072', 'http://www.wikidata.org/entity/Q1107928', 'http://www.wikidata.org/entity/Q110804043', 'http://www.wikidata.org/entity/Q11095193', 'http://www.wikidata.org/entity/Q110962934', 'http://www.wikidata.org/entity/Q111149458', 'http://www.wikidata.org/entity/Q111162467', 'http://www.wikidata.org/entity/Q111191757', 'http://www.wikidata.org/entity/Q111202983', 'http://www.wikidata.org/entity/Q111242836', 'http://www.wikidata.org/entity/Q111242852', 'http://www.wikidata.org/entity/Q111333928', 'http://www.wikidata.org/entity/Q111551849', 'http://www.wikidata.org/entity/Q111551982', 'http://www.wikidata.org/entity/Q111552242', 'http://www.wikidata.org/entity/Q11156396', 'http://www.wikidata.org/entity/Q11156590', 'http://www.wikidata.org/entity/Q11156602', 'http://www.wikidata.org/entity/Q111574867', 'http://www.wikidata.org/entity/Q111585601', 'http://www.wikidata.org/entity/Q111586257', 'http://www.wikidata.org/entity/Q111588212', 'http://www.wikidata.org/entity/Q111588631', 'http://www.wikidata.org/entity/Q111591927', 'http://www.wikidata.org/entity/Q111592030', 'http://www.wikidata.org/entity/Q111592221', 'http://www.wikidata.org/entity/Q111592231', 'http://www.wikidata.org/entity/Q111592392', 'http://www.wikidata.org/entity/Q111593121', 'http://www.wikidata.org/entity/Q111599061', 'http://www.wikidata.org/entity/Q111605534', 'http://www.wikidata.org/entity/Q111605537', 'http://www.wikidata.org/entity/Q111605672', 'http://www.wikidata.org/entity/Q111605780', 'http://www.wikidata.org/entity/Q111619857', 'http://www.wikidata.org/entity/Q111621136', 'http://www.wikidata.org/entity/Q111633412', 'http://www.wikidata.org/entity/Q111639188', 'http://www.wikidata.org/entity/Q111639464', 'http://www.wikidata.org/entity/Q111639796', 'http://www.wikidata.org/entity/Q111640394', 'http://www.wikidata.org/entity/Q111644691', 'http://www.wikidata.org/entity/Q111644855', 'http://www.wikidata.org/entity/Q111646483', 'http://www.wikidata.org/entity/Q111646603', 'http://www.wikidata.org/entity/Q111646902', 'http://www.wikidata.org/entity/Q111646942', 'http://www.wikidata.org/entity/Q111647178', 'http://www.wikidata.org/entity/Q111647244', 'http://www.wikidata.org/entity/Q111648147', 'http://www.wikidata.org/entity/Q111648327', 'http://www.wikidata.org/entity/Q111648357', 'http://www.wikidata.org/entity/Q111649462', 'http://www.wikidata.org/entity/Q111649590', 'http://www.wikidata.org/entity/Q111649647', 'http://www.wikidata.org/entity/Q111649691', 'http://www.wikidata.org/entity/Q111649876', 'http://www.wikidata.org/entity/Q111649919', 'http://www.wikidata.org/entity/Q111653594', 'http://www.wikidata.org/entity/Q111653613', 'http://www.wikidata.org/entity/Q111653631', 'http://www.wikidata.org/entity/Q111653637', 'http://www.wikidata.org/entity/Q111653675', 'http://www.wikidata.org/entity/Q111653779', 'http://www.wikidata.org/entity/Q111653938', 'http://www.wikidata.org/entity/Q111653958', 'http://www.wikidata.org/entity/Q111653969', 'http://www.wikidata.org/entity/Q111654007', 'http://www.wikidata.org/entity/Q111654040', 'http://www.wikidata.org/entity/Q111654093', 'http://www.wikidata.org/entity/Q111654098', 'http://www.wikidata.org/entity/Q111654121', 'http://www.wikidata.org/entity/Q111654136', 'http://www.wikidata.org/entity/Q111654241', 'http://www.wikidata.org/entity/Q111654346', 'http://www.wikidata.org/entity/Q111654469', 'http://www.wikidata.org/entity/Q111654484', 'http://www.wikidata.org/entity/Q111655654', 'http://www.wikidata.org/entity/Q111658731', 'http://www.wikidata.org/entity/Q111658801', 'http://www.wikidata.org/entity/Q111658833', 'http://www.wikidata.org/entity/Q111658927', 'http://www.wikidata.org/entity/Q111661297', 'http://www.wikidata.org/entity/Q111661840', 'http://www.wikidata.org/entity/Q111661872', 'http://www.wikidata.org/entity/Q111661886', 'http://www.wikidata.org/entity/Q111662034', 'http://www.wikidata.org/entity/Q111662035', 'http://www.wikidata.org/entity/Q111662040', 'http://www.wikidata.org/entity/Q111662133', 'http://www.wikidata.org/entity/Q111663221', 'http://www.wikidata.org/entity/Q111665328', 'http://www.wikidata.org/entity/Q111665519', 'http://www.wikidata.org/entity/Q111666301', 'http://www.wikidata.org/entity/Q111670117', 'http://www.wikidata.org/entity/Q111670231', 'http://www.wikidata.org/entity/Q111670397', 'http://www.wikidata.org/entity/Q111670481', 'http://www.wikidata.org/entity/Q111670617', 'http://www.wikidata.org/entity/Q111670624', 'http://www.wikidata.org/entity/Q111670628', 'http://www.wikidata.org/entity/Q111671698', 'http://www.wikidata.org/entity/Q111671968', 'http://www.wikidata.org/entity/Q111672442', 'http://www.wikidata.org/entity/Q111675204', 'http://www.wikidata.org/entity/Q111675217', 'http://www.wikidata.org/entity/Q111675293', 'http://www.wikidata.org/entity/Q111675405', 'http://www.wikidata.org/entity/Q111675518', 'http://www.wikidata.org/entity/Q111675816', 'http://www.wikidata.org/entity/Q111676530', 'http://www.wikidata.org/entity/Q111676789', 'http://www.wikidata.org/entity/Q111676828', 'http://www.wikidata.org/entity/Q111676959', 'http://www.wikidata.org/entity/Q111679720', 'http://www.wikidata.org/entity/Q111679753', 'http://www.wikidata.org/entity/Q111679830', 'http://www.wikidata.org/entity/Q111679840', 'http://www.wikidata.org/entity/Q111679871', 'http://www.wikidata.org/entity/Q111679978', 'http://www.wikidata.org/entity/Q111680097', 'http://www.wikidata.org/entity/Q111680142', 'http://www.wikidata.org/entity/Q111680149', 'http://www.wikidata.org/entity/Q111680197', 'http://www.wikidata.org/entity/Q111680221', 'http://www.wikidata.org/entity/Q111680229', 'http://www.wikidata.org/entity/Q111693657', 'http://www.wikidata.org/entity/Q111693675', 'http://www.wikidata.org/entity/Q111693696', 'http://www.wikidata.org/entity/Q111693773', 'http://www.wikidata.org/entity/Q111693781', 'http://www.wikidata.org/entity/Q111693947', 'http://www.wikidata.org/entity/Q111694017', 'http://www.wikidata.org/entity/Q111695525', 'http://www.wikidata.org/entity/Q111702011', 'http://www.wikidata.org/entity/Q111702051', 'http://www.wikidata.org/entity/Q111702063', 'http://www.wikidata.org/entity/Q111705727', 'http://www.wikidata.org/entity/Q111708136', 'http://www.wikidata.org/entity/Q111711151', 'http://www.wikidata.org/entity/Q111711160', 'http://www.wikidata.org/entity/Q111711162', 'http://www.wikidata.org/entity/Q111711184', 'http://www.wikidata.org/entity/Q111711222', 'http://www.wikidata.org/entity/Q111711264', 'http://www.wikidata.org/entity/Q111711268', 'http://www.wikidata.org/entity/Q111711270', 'http://www.wikidata.org/entity/Q111711273', 'http://www.wikidata.org/entity/Q111711278', 'http://www.wikidata.org/entity/Q111711311', 'http://www.wikidata.org/entity/Q111711342', 'http://www.wikidata.org/entity/Q111711421', 'http://www.wikidata.org/entity/Q111711540', 'http://www.wikidata.org/entity/Q111711547', 'http://www.wikidata.org/entity/Q111711661', 'http://www.wikidata.org/entity/Q111711757', 'http://www.wikidata.org/entity/Q111711903', 'http://www.wikidata.org/entity/Q111711907', 'http://www.wikidata.org/entity/Q111712005', 'http://www.wikidata.org/entity/Q111712010', 'http://www.wikidata.org/entity/Q111712059', 'http://www.wikidata.org/entity/Q111712123', 'http://www.wikidata.org/entity/Q111716408', 'http://www.wikidata.org/entity/Q111719293', 'http://www.wikidata.org/entity/Q111725575', 'http://www.wikidata.org/entity/Q111725911', 'http://www.wikidata.org/entity/Q111725919', 'http://www.wikidata.org/entity/Q111726390', 'http://www.wikidata.org/entity/Q111726615', 'http://www.wikidata.org/entity/Q111726617', 'http://www.wikidata.org/entity/Q111726635', 'http://www.wikidata.org/entity/Q111726669', 'http://www.wikidata.org/entity/Q111726714', 'http://www.wikidata.org/entity/Q111726768', 'http://www.wikidata.org/entity/Q111726774', 'http://www.wikidata.org/entity/Q111726793', 'http://www.wikidata.org/entity/Q111726805', 'http://www.wikidata.org/entity/Q111732603', 'http://www.wikidata.org/entity/Q111734330', 'http://www.wikidata.org/entity/Q111734453', 'http://www.wikidata.org/entity/Q111734646', 'http://www.wikidata.org/entity/Q111734661', 'http://www.wikidata.org/entity/Q111734681', 'http://www.wikidata.org/entity/Q111734708', 'http://www.wikidata.org/entity/Q111734879', 'http://www.wikidata.org/entity/Q111734906', 'http://www.wikidata.org/entity/Q111734910', 'http://www.wikidata.org/entity/Q111734978', 'http://www.wikidata.org/entity/Q111735009', 'http://www.wikidata.org/entity/Q111735146', 'http://www.wikidata.org/entity/Q111735183', 'http://www.wikidata.org/entity/Q111735311', 'http://www.wikidata.org/entity/Q111738073', 'http://www.wikidata.org/entity/Q111738315', 'http://www.wikidata.org/entity/Q111738552', 'http://www.wikidata.org/entity/Q111738564', 'http://www.wikidata.org/entity/Q111738762', 'http://www.wikidata.org/entity/Q111738881', 'http://www.wikidata.org/entity/Q111743473', 'http://www.wikidata.org/entity/Q111743614', 'http://www.wikidata.org/entity/Q111743635', 'http://www.wikidata.org/entity/Q111743658', 'http://www.wikidata.org/entity/Q111743894', 'http://www.wikidata.org/entity/Q111743903', 'http://www.wikidata.org/entity/Q111743905', 'http://www.wikidata.org/entity/Q111743922', 'http://www.wikidata.org/entity/Q111744105', 'http://www.wikidata.org/entity/Q111744185', 'http://www.wikidata.org/entity/Q111744196', 'http://www.wikidata.org/entity/Q111744206', 'http://www.wikidata.org/entity/Q111744231', 'http://www.wikidata.org/entity/Q111744233', 'http://www.wikidata.org/entity/Q111744287', 'http://www.wikidata.org/entity/Q111750057', 'http://www.wikidata.org/entity/Q111750098', 'http://www.wikidata.org/entity/Q111750104', 'http://www.wikidata.org/entity/Q111750108', 'http://www.wikidata.org/entity/Q111750391', 'http://www.wikidata.org/entity/Q111750396', 'http://www.wikidata.org/entity/Q111750414', 'http://www.wikidata.org/entity/Q111750482', 'http://www.wikidata.org/entity/Q111750486', 'http://www.wikidata.org/entity/Q111750538', 'http://www.wikidata.org/entity/Q111750619', 'http://www.wikidata.org/entity/Q111750632', 'http://www.wikidata.org/entity/Q111750636', 'http://www.wikidata.org/entity/Q111750803', 'http://www.wikidata.org/entity/Q111772339', 'http://www.wikidata.org/entity/Q111772429', 'http://www.wikidata.org/entity/Q111772455', 'http://www.wikidata.org/entity/Q111772465', 'http://www.wikidata.org/entity/Q111772467', 'http://www.wikidata.org/entity/Q111772470', 'http://www.wikidata.org/entity/Q111772479', 'http://www.wikidata.org/entity/Q111772481', 'http://www.wikidata.org/entity/Q111772492', 'http://www.wikidata.org/entity/Q111772538', 'http://www.wikidata.org/entity/Q111772542', 'http://www.wikidata.org/entity/Q111772579', 'http://www.wikidata.org/entity/Q111772903', 'http://www.wikidata.org/entity/Q111774488', 'http://www.wikidata.org/entity/Q111774855', 'http://www.wikidata.org/entity/Q111775976', 'http://www.wikidata.org/entity/Q111781307', 'http://www.wikidata.org/entity/Q111781313', 'http://www.wikidata.org/entity/Q111781415', 'http://www.wikidata.org/entity/Q111782305', 'http://www.wikidata.org/entity/Q111782406', 'http://www.wikidata.org/entity/Q111792237', 'http://www.wikidata.org/entity/Q111792287', 'http://www.wikidata.org/entity/Q111792297', 'http://www.wikidata.org/entity/Q111792422', 'http://www.wikidata.org/entity/Q111792427', 'http://www.wikidata.org/entity/Q111792455', 'http://www.wikidata.org/entity/Q111792652', 'http://www.wikidata.org/entity/Q111792657', 'http://www.wikidata.org/entity/Q111792669', 'http://www.wikidata.org/entity/Q111795166', 'http://www.wikidata.org/entity/Q111795170', 'http://www.wikidata.org/entity/Q111795181', 'http://www.wikidata.org/entity/Q111795190', 'http://www.wikidata.org/entity/Q111795208', 'http://www.wikidata.org/entity/Q111795217', 'http://www.wikidata.org/entity/Q111795226', 'http://www.wikidata.org/entity/Q111795230', 'http://www.wikidata.org/entity/Q111795234', 'http://www.wikidata.org/entity/Q111795238', 'http://www.wikidata.org/entity/Q111798789', 'http://www.wikidata.org/entity/Q111799191', 'http://www.wikidata.org/entity/Q111799265', 'http://www.wikidata.org/entity/Q111799326', 'http://www.wikidata.org/entity/Q111799364', 'http://www.wikidata.org/entity/Q111799715', 'http://www.wikidata.org/entity/Q111800151', 'http://www.wikidata.org/entity/Q111800560', 'http://www.wikidata.org/entity/Q111800590', 'http://www.wikidata.org/entity/Q111800661', 'http://www.wikidata.org/entity/Q111800678', 'http://www.wikidata.org/entity/Q111800735', 'http://www.wikidata.org/entity/Q111800758', 'http://www.wikidata.org/entity/Q111801201', 'http://www.wikidata.org/entity/Q111801219', 'http://www.wikidata.org/entity/Q111801257', 'http://www.wikidata.org/entity/Q111801366', 'http://www.wikidata.org/entity/Q111801395', 'http://www.wikidata.org/entity/Q111801411', 'http://www.wikidata.org/entity/Q111801450', 'http://www.wikidata.org/entity/Q111801507', 'http://www.wikidata.org/entity/Q111801550', 'http://www.wikidata.org/entity/Q111810594', 'http://www.wikidata.org/entity/Q111810721', 'http://www.wikidata.org/entity/Q111811564', 'http://www.wikidata.org/entity/Q111811624', 'http://www.wikidata.org/entity/Q111811681', 'http://www.wikidata.org/entity/Q111812563', 'http://www.wikidata.org/entity/Q111812584', 'http://www.wikidata.org/entity/Q111812855', 'http://www.wikidata.org/entity/Q111816790', 'http://www.wikidata.org/entity/Q111817714', 'http://www.wikidata.org/entity/Q111817744', 'http://www.wikidata.org/entity/Q111817829', 'http://www.wikidata.org/entity/Q111817846', 'http://www.wikidata.org/entity/Q111817920', 'http://www.wikidata.org/entity/Q111818123', 'http://www.wikidata.org/entity/Q111824276', 'http://www.wikidata.org/entity/Q111824296', 'http://www.wikidata.org/entity/Q111824414', 'http://www.wikidata.org/entity/Q111824439', 'http://www.wikidata.org/entity/Q111824771', 'http://www.wikidata.org/entity/Q111824800', 'http://www.wikidata.org/entity/Q111824823', 'http://www.wikidata.org/entity/Q111824918', 'http://www.wikidata.org/entity/Q111825400', 'http://www.wikidata.org/entity/Q111825424', 'http://www.wikidata.org/entity/Q111825449', 'http://www.wikidata.org/entity/Q111825554', 'http://www.wikidata.org/entity/Q111825613', 'http://www.wikidata.org/entity/Q111825677', 'http://www.wikidata.org/entity/Q111825713', 'http://www.wikidata.org/entity/Q111825832', 'http://www.wikidata.org/entity/Q111826063', 'http://www.wikidata.org/entity/Q111826089', 'http://www.wikidata.org/entity/Q111830034', 'http://www.wikidata.org/entity/Q111830188', 'http://www.wikidata.org/entity/Q111837290', 'http://www.wikidata.org/entity/Q111837438', 'http://www.wikidata.org/entity/Q111837464', 'http://www.wikidata.org/entity/Q111837474', 'http://www.wikidata.org/entity/Q111837785', 'http://www.wikidata.org/entity/Q111837834', 'http://www.wikidata.org/entity/Q111837845', 'http://www.wikidata.org/entity/Q111837855', 'http://www.wikidata.org/entity/Q111837912', 'http://www.wikidata.org/entity/Q111837991', 'http://www.wikidata.org/entity/Q111846538', 'http://www.wikidata.org/entity/Q111848069', 'http://www.wikidata.org/entity/Q111848409', 'http://www.wikidata.org/entity/Q111848456', 'http://www.wikidata.org/entity/Q111848558', 'http://www.wikidata.org/entity/Q111848588', 'http://www.wikidata.org/entity/Q111848721', 'http://www.wikidata.org/entity/Q111848749', 'http://www.wikidata.org/entity/Q111848889', 'http://www.wikidata.org/entity/Q111848989', 'http://www.wikidata.org/entity/Q111850874', 'http://www.wikidata.org/entity/Q111903596', 'http://www.wikidata.org/entity/Q111903847', 'http://www.wikidata.org/entity/Q111903850', 'http://www.wikidata.org/entity/Q111903876', 'http://www.wikidata.org/entity/Q111903878', 'http://www.wikidata.org/entity/Q111903929', 'http://www.wikidata.org/entity/Q111903935', 'http://www.wikidata.org/entity/Q111903958', 'http://www.wikidata.org/entity/Q111904025', 'http://www.wikidata.org/entity/Q111904053', 'http://www.wikidata.org/entity/Q111904059', 'http://www.wikidata.org/entity/Q111904155', 'http://www.wikidata.org/entity/Q111905212', 'http://www.wikidata.org/entity/Q111905225', 'http://www.wikidata.org/entity/Q111905272', 'http://www.wikidata.org/entity/Q111906585', 'http://www.wikidata.org/entity/Q111906632', 'http://www.wikidata.org/entity/Q111906707', 'http://www.wikidata.org/entity/Q111907290', 'http://www.wikidata.org/entity/Q111907317', 'http://www.wikidata.org/entity/Q111908878', 'http://www.wikidata.org/entity/Q111908880', 'http://www.wikidata.org/entity/Q111908884', 'http://www.wikidata.org/entity/Q111908910', 'http://www.wikidata.org/entity/Q111909231', 'http://www.wikidata.org/entity/Q111909314', 'http://www.wikidata.org/entity/Q111909357', 'http://www.wikidata.org/entity/Q111909361', 'http://www.wikidata.org/entity/Q111909369', 'http://www.wikidata.org/entity/Q111909483', 'http://www.wikidata.org/entity/Q111909520', 'http://www.wikidata.org/entity/Q111909557', 'http://www.wikidata.org/entity/Q111909632', 'http://www.wikidata.org/entity/Q111909656', 'http://www.wikidata.org/entity/Q111909659', 'http://www.wikidata.org/entity/Q111909665', 'http://www.wikidata.org/entity/Q111909679', 'http://www.wikidata.org/entity/Q111909683', 'http://www.wikidata.org/entity/Q111909686', 'http://www.wikidata.org/entity/Q111914764', 'http://www.wikidata.org/entity/Q111918622', 'http://www.wikidata.org/entity/Q111968636', 'http://www.wikidata.org/entity/Q111972328', 'http://www.wikidata.org/entity/Q111972588', 'http://www.wikidata.org/entity/Q111972596', 'http://www.wikidata.org/entity/Q111972626', 'http://www.wikidata.org/entity/Q111972641', 'http://www.wikidata.org/entity/Q111972655', 'http://www.wikidata.org/entity/Q111972667', 'http://www.wikidata.org/entity/Q111972760', 'http://www.wikidata.org/entity/Q111972775', 'http://www.wikidata.org/entity/Q111981575', 'http://www.wikidata.org/entity/Q111981578', 'http://www.wikidata.org/entity/Q111981586', 'http://www.wikidata.org/entity/Q111981600', 'http://www.wikidata.org/entity/Q111981655', 'http://www.wikidata.org/entity/Q111981806', 'http://www.wikidata.org/entity/Q111984435', 'http://www.wikidata.org/entity/Q111993442', 'http://www.wikidata.org/entity/Q111993561', 'http://www.wikidata.org/entity/Q112028016', 'http://www.wikidata.org/entity/Q112028058', 'http://www.wikidata.org/entity/Q112030707', 'http://www.wikidata.org/entity/Q112037464', 'http://www.wikidata.org/entity/Q112038287', 'http://www.wikidata.org/entity/Q112040430', 'http://www.wikidata.org/entity/Q112045555', 'http://www.wikidata.org/entity/Q11205278', 'http://www.wikidata.org/entity/Q112053302', 'http://www.wikidata.org/entity/Q112055', 'http://www.wikidata.org/entity/Q112059989', 'http://www.wikidata.org/entity/Q112063713', 'http://www.wikidata.org/entity/Q112075710', 'http://www.wikidata.org/entity/Q112087493', 'http://www.wikidata.org/entity/Q112127159', 'http://www.wikidata.org/entity/Q112127176', 'http://www.wikidata.org/entity/Q112183440', 'http://www.wikidata.org/entity/Q112183753', 'http://www.wikidata.org/entity/Q112190885', 'http://www.wikidata.org/entity/Q11219195', 'http://www.wikidata.org/entity/Q112263083', 'http://www.wikidata.org/entity/Q112292803', 'http://www.wikidata.org/entity/Q11237670', 'http://www.wikidata.org/entity/Q11244589', 'http://www.wikidata.org/entity/Q11255045', 'http://www.wikidata.org/entity/Q112613424', 'http://www.wikidata.org/entity/Q112630989', 'http://www.wikidata.org/entity/Q112667083', 'http://www.wikidata.org/entity/Q112667550', 'http://www.wikidata.org/entity/Q112667845', 'http://www.wikidata.org/entity/Q112667901', 'http://www.wikidata.org/entity/Q112669313', 'http://www.wikidata.org/entity/Q112669383', 'http://www.wikidata.org/entity/Q112674649', 'http://www.wikidata.org/entity/Q112678738', 'http://www.wikidata.org/entity/Q112681996', 'http://www.wikidata.org/entity/Q11269', 'http://www.wikidata.org/entity/Q112746421', 'http://www.wikidata.org/entity/Q112747808', 'http://www.wikidata.org/entity/Q112748137', 'http://www.wikidata.org/entity/Q112769957', 'http://www.wikidata.org/entity/Q11277431', 'http://www.wikidata.org/entity/Q11278649', 'http://www.wikidata.org/entity/Q1128065', 'http://www.wikidata.org/entity/Q112894936', 'http://www.wikidata.org/entity/Q112894949', 'http://www.wikidata.org/entity/Q112894986', 'http://www.wikidata.org/entity/Q112971391', 'http://www.wikidata.org/entity/Q112971396', 'http://www.wikidata.org/entity/Q112971410', 'http://www.wikidata.org/entity/Q112971413', 'http://www.wikidata.org/entity/Q113015050', 'http://www.wikidata.org/entity/Q113040064', 'http://www.wikidata.org/entity/Q113072738', 'http://www.wikidata.org/entity/Q113090457', 'http://www.wikidata.org/entity/Q113114857', 'http://www.wikidata.org/entity/Q1131707', 'http://www.wikidata.org/entity/Q113232600', 'http://www.wikidata.org/entity/Q113272299', 'http://www.wikidata.org/entity/Q113272409', 'http://www.wikidata.org/entity/Q113272932', 'http://www.wikidata.org/entity/Q113325889', 'http://www.wikidata.org/entity/Q113383597', 'http://www.wikidata.org/entity/Q113406974', 'http://www.wikidata.org/entity/Q113458549', 'http://www.wikidata.org/entity/Q113458586', 'http://www.wikidata.org/entity/Q113470219', 'http://www.wikidata.org/entity/Q113470239', 'http://www.wikidata.org/entity/Q113470340', 'http://www.wikidata.org/entity/Q113470387', 'http://www.wikidata.org/entity/Q113470512', 'http://www.wikidata.org/entity/Q113470522', 'http://www.wikidata.org/entity/Q113470532', 'http://www.wikidata.org/entity/Q113485231', 'http://www.wikidata.org/entity/Q113499373', 'http://www.wikidata.org/entity/Q113499420', 'http://www.wikidata</t>
   </si>
   <si>
@@ -1390,9 +1180,6 @@
     <t>['http://www.wikidata.org/entity/Q1000089', 'http://www.wikidata.org/entity/Q100028', 'http://www.wikidata.org/entity/Q1000309', 'http://www.wikidata.org/entity/Q1000631', 'http://www.wikidata.org/entity/Q1001088', 'http://www.wikidata.org/entity/Q1001175', 'http://www.wikidata.org/entity/Q100122', 'http://www.wikidata.org/entity/Q1001257', 'http://www.wikidata.org/entity/Q1001304', 'http://www.wikidata.org/entity/Q100149495', 'http://www.wikidata.org/entity/Q100151770', 'http://www.wikidata.org/entity/Q100152085', 'http://www.wikidata.org/entity/Q100175', 'http://www.wikidata.org/entity/Q100220', 'http://www.wikidata.org/entity/Q100224', 'http://www.wikidata.org/entity/Q100227', 'http://www.wikidata.org/entity/Q100248945', 'http://www.wikidata.org/entity/Q100251', 'http://www.wikidata.org/entity/Q100264', 'http://www.wikidata.org/entity/Q100269', 'http://www.wikidata.org/entity/Q100277164', 'http://www.wikidata.org/entity/Q100293', 'http://www.wikidata.org/entity/Q100299', 'http://www.wikidata.org/entity/Q100318', 'http://www.wikidata.org/entity/Q100322', 'http://www.wikidata.org/entity/Q100333', 'http://www.wikidata.org/entity/Q100337', 'http://www.wikidata.org/entity/Q100338', 'http://www.wikidata.org/entity/Q100347140', 'http://www.wikidata.org/entity/Q100356', 'http://www.wikidata.org/entity/Q100361853', 'http://www.wikidata.org/entity/Q100395', 'http://www.wikidata.org/entity/Q100414', 'http://www.wikidata.org/entity/Q100415', 'http://www.wikidata.org/entity/Q100417', 'http://www.wikidata.org/entity/Q100422', 'http://www.wikidata.org/entity/Q100451', 'http://www.wikidata.org/entity/Q1004594', 'http://www.wikidata.org/entity/Q1004736', 'http://www.wikidata.org/entity/Q100491593', 'http://www.wikidata.org/entity/Q100506', 'http://www.wikidata.org/entity/Q100535', 'http://www.wikidata.org/entity/Q100545', 'http://www.wikidata.org/entity/Q100562', 'http://www.wikidata.org/entity/Q100571', 'http://www.wikidata.org/entity/Q100572', 'http://www.wikidata.org/entity/Q100602', 'http://www.wikidata.org/entity/Q100658', 'http://www.wikidata.org/entity/Q100673', 'http://www.wikidata.org/entity/Q100675530', 'http://www.wikidata.org/entity/Q100708', 'http://www.wikidata.org/entity/Q100781', 'http://www.wikidata.org/entity/Q100784561', 'http://www.wikidata.org/entity/Q100841', 'http://www.wikidata.org/entity/Q100844', 'http://www.wikidata.org/entity/Q100893', 'http://www.wikidata.org/entity/Q100903', 'http://www.wikidata.org/entity/Q100954855', 'http://www.wikidata.org/entity/Q100981152', 'http://www.wikidata.org/entity/Q100989', 'http://www.wikidata.org/entity/Q100989640', 'http://www.wikidata.org/entity/Q101019', 'http://www.wikidata.org/entity/Q101059', 'http://www.wikidata.org/entity/Q101079', 'http://www.wikidata.org/entity/Q101094', 'http://www.wikidata.org/entity/Q101104', 'http://www.wikidata.org/entity/Q101112792', 'http://www.wikidata.org/entity/Q101120', 'http://www.wikidata.org/entity/Q101149', 'http://www.wikidata.org/entity/Q101171', 'http://www.wikidata.org/entity/Q101177', 'http://www.wikidata.org/entity/Q101189', 'http://www.wikidata.org/entity/Q101200085', 'http://www.wikidata.org/entity/Q101203', 'http://www.wikidata.org/entity/Q101209739', 'http://www.wikidata.org/entity/Q101210090', 'http://www.wikidata.org/entity/Q101218', 'http://www.wikidata.org/entity/Q101223', 'http://www.wikidata.org/entity/Q101228', 'http://www.wikidata.org/entity/Q101231', 'http://www.wikidata.org/entity/Q101238', 'http://www.wikidata.org/entity/Q101243', 'http://www.wikidata.org/entity/Q101243079', 'http://www.wikidata.org/entity/Q101252599', 'http://www.wikidata.org/entity/Q101267', 'http://www.wikidata.org/entity/Q101347', 'http://www.wikidata.org/entity/Q101380', 'http://www.wikidata.org/entity/Q101381', 'http://www.wikidata.org/entity/Q101392', 'http://www.wikidata.org/entity/Q101434', 'http://www.wikidata.org/entity/Q10147562', 'http://www.wikidata.org/entity/Q101476', 'http://www.wikidata.org/entity/Q101507816', 'http://www.wikidata.org/entity/Q101524', 'http://www.wikidata.org/entity/Q101554634', 'http://www.wikidata.org/entity/Q101598', 'http://www.wikidata.org/entity/Q101615', 'http://www.wikidata.org/entity/Q101618', 'http://www.wikidata.org/entity/Q1016445', 'http://www.wikidata.org/entity/Q1016492', 'http://www.wikidata.org/entity/Q101705', 'http://www.wikidata.org/entity/Q101719', 'http://www.wikidata.org/entity/Q101720', 'http://www.wikidata.org/entity/Q101734', 'http://www.wikidata.org/entity/Q101768', 'http://www.wikidata.org/entity/Q101775', 'http://www.wikidata.org/entity/Q101782', 'http://www.wikidata.org/entity/Q101840', 'http://www.wikidata.org/entity/Q101855', 'http://www.wikidata.org/entity/Q101888', 'http://www.wikidata.org/entity/Q101897', 'http://www.wikidata.org/entity/Q1019017', 'http://www.wikidata.org/entity/Q1019427', 'http://www.wikidata.org/entity/Q101969', 'http://www.wikidata.org/entity/Q101973', 'http://www.wikidata.org/entity/Q102047618', 'http://www.wikidata.org/entity/Q102050', 'http://www.wikidata.org/entity/Q1020684', 'http://www.wikidata.org/entity/Q1020694', 'http://www.wikidata.org/entity/Q102109528', 'http://www.wikidata.org/entity/Q102115662', 'http://www.wikidata.org/entity/Q102127', 'http://www.wikidata.org/entity/Q102140621', 'http://www.wikidata.org/entity/Q102260', 'http://www.wikidata.org/entity/Q102280', 'http://www.wikidata.org/entity/Q102287149', 'http://www.wikidata.org/entity/Q102288', 'http://www.wikidata.org/entity/Q102294', 'http://www.wikidata.org/entity/Q102302', 'http://www.wikidata.org/entity/Q102332', 'http://www.wikidata.org/entity/Q102337', 'http://www.wikidata.org/entity/Q102352', 'http://www.wikidata.org/entity/Q102354', 'http://www.wikidata.org/entity/Q102356959', 'http://www.wikidata.org/entity/Q102363', 'http://www.wikidata.org/entity/Q102374', 'http://www.wikidata.org/entity/Q102450', 'http://www.wikidata.org/entity/Q102504', 'http://www.wikidata.org/entity/Q102530', 'http://www.wikidata.org/entity/Q102572', 'http://www.wikidata.org/entity/Q102574', 'http://www.wikidata.org/entity/Q102606', 'http://www.wikidata.org/entity/Q102611', 'http://www.wikidata.org/entity/Q102627', 'http://www.wikidata.org/entity/Q102630', 'http://www.wikidata.org/entity/Q102633', 'http://www.wikidata.org/entity/Q102635', 'http://www.wikidata.org/entity/Q1026499', 'http://www.wikidata.org/entity/Q102650', 'http://www.wikidata.org/entity/Q102651', 'http://www.wikidata.org/entity/Q102672', 'http://www.wikidata.org/entity/Q102678', 'http://www.wikidata.org/entity/Q102693', 'http://www.wikidata.org/entity/Q102712', 'http://www.wikidata.org/entity/Q102743', 'http://www.wikidata.org/entity/Q102783', 'http://www.wikidata.org/entity/Q102796', 'http://www.wikidata.org/entity/Q102802', 'http://www.wikidata.org/entity/Q1028813', 'http://www.wikidata.org/entity/Q1028955', 'http://www.wikidata.org/entity/Q102923', 'http://www.wikidata.org/entity/Q102929', 'http://www.wikidata.org/entity/Q102936', 'http://www.wikidata.org/entity/Q102937', 'http://www.wikidata.org/entity/Q102947', 'http://www.wikidata.org/entity/Q102961', 'http://www.wikidata.org/entity/Q102976', 'http://www.wikidata.org/entity/Q102990', 'http://www.wikidata.org/entity/Q1029964', 'http://www.wikidata.org/entity/Q102998', 'http://www.wikidata.org/entity/Q103000', 'http://www.wikidata.org/entity/Q103002', 'http://www.wikidata.org/entity/Q1030539', 'http://www.wikidata.org/entity/Q103158', 'http://www.wikidata.org/entity/Q1031845', 'http://www.wikidata.org/entity/Q103197', 'http://www.wikidata.org/entity/Q103223179', 'http://www.wikidata.org/entity/Q103256', 'http://www.wikidata.org/entity/Q103271', 'http://www.wikidata.org/entity/Q103361', 'http://www.wikidata.org/entity/Q103362', 'http://www.wikidata.org/entity/Q103391', 'http://www.wikidata.org/entity/Q103394', 'http://www.wikidata.org/entity/Q103415', 'http://www.wikidata.org/entity/Q103416', 'http://www.wikidata.org/entity/Q103430', 'http://www.wikidata.org/entity/Q103433', 'http://www.wikidata.org/entity/Q103476', 'http://www.wikidata.org/entity/Q103544', 'http://www.wikidata.org/entity/Q103611', 'http://www.wikidata.org/entity/Q1036168', 'http://www.wikidata.org/entity/Q103623', 'http://www.wikidata.org/entity/Q103637', 'http://www.wikidata.org/entity/Q103643', 'http://www.wikidata.org/entity/Q103656', 'http://www.wikidata.org/entity/Q103696', 'http://www.wikidata.org/entity/Q103702', 'http://www.wikidata.org/entity/Q103718', 'http://www.wikidata.org/entity/Q103727', 'http://www.wikidata.org/entity/Q103746', 'http://www.wikidata.org/entity/Q103755600', 'http://www.wikidata.org/entity/Q103760', 'http://www.wikidata.org/entity/Q103775022', 'http://www.wikidata.org/entity/Q103805', 'http://www.wikidata.org/entity/Q103827144', 'http://www.wikidata.org/entity/Q103844323', 'http://www.wikidata.org/entity/Q103845', 'http://www.wikidata.org/entity/Q103851', 'http://www.wikidata.org/entity/Q103863', 'http://www.wikidata.org/entity/Q103868', 'http://www.wikidata.org/entity/Q1038953', 'http://www.wikidata.org/entity/Q103920', 'http://www.wikidata.org/entity/Q1039299', 'http://www.wikidata.org/entity/Q103948', 'http://www.wikidata.org/entity/Q103961', 'http://www.wikidata.org/entity/Q103980542', 'http://www.wikidata.org/entity/Q103986', 'http://www.wikidata.org/entity/Q1039868', 'http://www.wikidata.org/entity/Q104006', 'http://www.wikidata.org/entity/Q104006972', 'http://www.wikidata.org/entity/Q104008', 'http://www.wikidata.org/entity/Q1040432', 'http://www.wikidata.org/entity/Q104084', 'http://www.wikidata.org/entity/Q104094', 'http://www.wikidata.org/entity/Q104120371', 'http://www.wikidata.org/entity/Q104121', 'http://www.wikidata.org/entity/Q104141', 'http://www.wikidata.org/entity/Q1041500', 'http://www.wikidata.org/entity/Q1041514', 'http://www.wikidata.org/entity/Q104153430', 'http://www.wikidata.org/entity/Q1041535', 'http://www.wikidata.org/entity/Q104154734', 'http://www.wikidata.org/entity/Q104155641', 'http://www.wikidata.org/entity/Q104155750', 'http://www.wikidata.org/entity/Q1041559', 'http://www.wikidata.org/entity/Q104156172', 'http://www.wikidata.org/entity/Q104156463', 'http://www.wikidata.org/entity/Q104157044', 'http://www.wikidata.org/entity/Q1041582', 'http://www.wikidata.org/entity/Q104160134', 'http://www.wikidata.org/entity/Q104161808', 'http://www.wikidata.org/entity/Q104162235', 'http://www.wikidata.org/entity/Q104172860', 'http://www.wikidata.org/entity/Q104176819', 'http://www.wikidata.org/entity/Q104178588', 'http://www.wikidata.org/entity/Q104180930', 'http://www.wikidata.org/entity/Q1041870', 'http://www.wikidata.org/entity/Q104196', 'http://www.wikidata.org/entity/Q104198093', 'http://www.wikidata.org/entity/Q104198269', 'http://www.wikidata.org/entity/Q104208', 'http://www.wikidata.org/entity/Q104211573', 'http://www.wikidata.org/entity/Q104212560', 'http://www.wikidata.org/entity/Q104213', 'http://www.wikidata.org/entity/Q104218050', 'http://www.wikidata.org/entity/Q1043589', 'http://www.wikidata.org/entity/Q1043681', 'http://www.wikidata.org/entity/Q1043709', 'http://www.wikidata.org/entity/Q104371', 'http://www.wikidata.org/entity/Q104383260', 'http://www.wikidata.org/entity/Q104383283', 'http://www.wikidata.org/entity/Q104385', 'http://www.wikidata.org/entity/Q104418200', 'http://www.wikidata.org/entity/Q104427', 'http://www.wikidata.org/entity/Q1044342', 'http://www.wikidata.org/entity/Q1044346', 'http://www.wikidata.org/entity/Q1044348', 'http://www.wikidata.org/entity/Q104437885', 'http://www.wikidata.org/entity/Q104439569', 'http://www.wikidata.org/entity/Q1044477', 'http://www.wikidata.org/entity/Q1044494', 'http://www.wikidata.org/entity/Q1044514', 'http://www.wikidata.org/entity/Q1044559', 'http://www.wikidata.org/entity/Q104468053', 'http://www.wikidata.org/entity/Q104476', 'http://www.wikidata.org/entity/Q104520659', 'http://www.wikidata.org/entity/Q104521370', 'http://www.wikidata.org/entity/Q104522001', 'http://www.wikidata.org/entity/Q104523', 'http://www.wikidata.org/entity/Q104544', 'http://www.wikidata.org/entity/Q1045477', 'http://www.wikidata.org/entity/Q104568', 'http://www.wikidata.org/entity/Q1045680', 'http://www.wikidata.org/entity/Q1045683', 'http://www.wikidata.org/entity/Q1045722', 'http://www.wikidata.org/entity/Q104576', 'http://www.wikidata.org/entity/Q104578', 'http://www.wikidata.org/entity/Q104579681', 'http://www.wikidata.org/entity/Q104587770', 'http://www.wikidata.org/entity/Q104590907', 'http://www.wikidata.org/entity/Q104599978', 'http://www.wikidata.org/entity/Q104601', 'http://www.wikidata.org/entity/Q104604', 'http://www.wikidata.org/entity/Q104604553', 'http://www.wikidata.org/entity/Q104613862', 'http://www.wikidata.org/entity/Q104615564', 'http://www.wikidata.org/entity/Q104626181', 'http://www.wikidata.org/entity/Q104631795', 'http://www.wikidata.org/entity/Q104659505', 'http://www.wikidata.org/entity/Q104663127', 'http://www.wikidata.org/entity/Q104665', 'http://www.wikidata.org/entity/Q104665277', 'http://www.wikidata.org/entity/Q104667', 'http://www.wikidata.org/entity/Q104670', 'http://www.wikidata.org/entity/Q104696788', 'http://www.wikidata.org/entity/Q104700634', 'http://www.wikidata.org/entity/Q104702', 'http://www.wikidata.org/entity/Q104730', 'http://www.wikidata.org/entity/Q104737', 'http://www.wikidata.org/entity/Q104741', 'http://www.wikidata.org/entity/Q104760625', 'http://www.wikidata.org/entity/Q104762922', 'http://www.wikidata.org/entity/Q104764834', 'http://www.wikidata.org/entity/Q104764873', 'http://www.wikidata.org/entity/Q104764874', 'http://www.wikidata.org/entity/Q104764949', 'http://www.wikidata.org/entity/Q104764974', 'http://www.wikidata.org/entity/Q104765018', 'http://www.wikidata.org/entity/Q104766', 'http://www.wikidata.org/entity/Q104782393', 'http://www.wikidata.org/entity/Q104787', 'http://www.wikidata.org/entity/Q104815', 'http://www.wikidata.org/entity/Q104832', 'http://www.wikidata.org/entity/Q104845706', 'http://www.wikidata.org/entity/Q104866', 'http://www.wikidata.org/entity/Q104869469', 'http://www.wikidata.org/entity/Q104876', 'http://www.wikidata.org/entity/Q104878044', 'http://www.wikidata.org/entity/Q104879', 'http://www.wikidata.org/entity/Q104884382', 'http://www.wikidata.org/entity/Q104902', 'http://www.wikidata.org/entity/Q104923', 'http://www.wikidata.org/entity/Q104925', 'http://www.wikidata.org/entity/Q104925281', 'http://www.wikidata.org/entity/Q104929865', 'http://www.wikidata.org/entity/Q104977', 'http://www.wikidata.org/entity/Q105047008', 'http://www.wikidata.org/entity/Q105047482', 'http://www.wikidata.org/entity/Q105052', 'http://www.wikidata.org/entity/Q105058', 'http://www.wikidata.org/entity/Q105064646', 'http://www.wikidata.org/entity/Q105065', 'http://www.wikidata.org/entity/Q105070220', 'http://www.wikidata.org/entity/Q105082', 'http://www.wikidata.org/entity/Q105102', 'http://www.wikidata.org/entity/Q105104', 'http://www.wikidata.org/entity/Q1051091', 'http://www.wikidata.org/entity/Q1051126', 'http://www.wikidata.org/entity/Q105114', 'http://www.wikidata.org/entity/Q105116505', 'http://www.wikidata.org/entity/Q105118747', 'http://www.wikidata.org/entity/Q105129', 'http://www.wikidata.org/entity/Q105133286', 'http://www.wikidata.org/entity/Q105134406', 'http://www.wikidata.org/entity/Q105136295', 'http://www.wikidata.org/entity/Q105138', 'http://www.wikidata.org/entity/Q105147', 'http://www.wikidata.org/entity/Q105149', 'http://www.wikidata.org/entity/Q105166', 'http://www.wikidata.org/entity/Q105193', 'http://www.wikidata.org/entity/Q1051939', 'http://www.wikidata.org/entity/Q105199568', 'http://www.wikidata.org/entity/Q1052372', 'http://www.wikidata.org/entity/Q105283', 'http://www.wikidata.org/entity/Q105297', 'http://www.wikidata.org/entity/Q105309404', 'http://www.wikidata.org/entity/Q105336746', 'http://www.wikidata.org/entity/Q105338506', 'http://www.wikidata.org/entity/Q105373', 'http://www.wikidata.org/entity/Q105391976', 'http://www.wikidata.org/entity/Q105451432', 'http://www.wikidata.org/entity/Q105478', 'http://www.wikidata.org/entity/Q105491', 'http://www.wikidata.org/entity/Q105494121', 'http://www.wikidata.org/entity/Q105549643', 'http://www.wikidata.org/entity/Q105549794', 'http://www.wikidata.org/entity/Q105559', 'http://www.wikidata.org/entity/Q105585136', 'http://www.wikidata.org/entity/Q105607', 'http://www.wikidata.org/entity/Q105610', 'http://www.wikidata.org/entity/Q105613', 'http://www.wikidata.org/entity/Q105613248', 'http://www.wikidata.org/entity/Q105627147', 'http://www.wikidata.org/entity/Q105631', 'http://www.wikidata.org/entity/Q10563757', 'http://www.wikidata.org/entity/Q105642', 'http://www.wikidata.org/entity/Q105665', 'http://www.wikidata.org/entity/Q105671328', 'http://www.wikidata.org/entity/Q105675820', 'http://www.wikidata.org/entity/Q105679', 'http://www.wikidata.org/entity/Q105681', 'http://www.wikidata.org/entity/Q105691', 'http://www.wikidata.org/entity/Q105716', 'http://www.wikidata.org/entity/Q105716679', 'http://www.wikidata.org/entity/Q105724333', 'http://www.wikidata.org/entity/Q105737724', 'http://www.wikidata.org/entity/Q105754846', 'http://www.wikidata.org/entity/Q105755335', 'http://www.wikidata.org/entity/Q105767098', 'http://www.wikidata.org/entity/Q105770', 'http://www.wikidata.org/entity/Q105770599', 'http://www.wikidata.org/entity/Q105785', 'http://www.wikidata.org/entity/Q105832784', 'http://www.wikidata.org/entity/Q105848334', 'http://www.wikidata.org/entity/Q105901', 'http://www.wikidata.org/entity/Q105914', 'http://www.wikidata.org/entity/Q105915', 'http://www.wikidata.org/entity/Q105918', 'http://www.wikidata.org/entity/Q105925', 'http://www.wikidata.org/entity/Q105944757', 'http://www.wikidata.org/entity/Q105992322', 'http://www.wikidata.org/entity/Q105992955', 'http://www.wikidata.org/entity/Q106000338', 'http://www.wikidata.org/entity/Q106006759', 'http://www.wikidata.org/entity/Q106035', 'http://www.wikidata.org/entity/Q106041', 'http://www.wikidata.org/entity/Q106061', 'http://www.wikidata.org/entity/Q106098372', 'http://www.wikidata.org/entity/Q106126', 'http://www.wikidata.org/entity/Q106127', 'http://www.wikidata.org/entity/Q106135271', 'http://www.wikidata.org/entity/Q106159611', 'http://www.wikidata.org/entity/Q106177', 'http://www.wikidata.org/entity/Q106188490', 'http://www.wikidata.org/entity/Q106223560', 'http://www.wikidata.org/entity/Q106254', 'http://www.wikidata.org/entity/Q106260', 'http://www.wikidata.org/entity/Q106298187', 'http://www.wikidata.org/entity/Q106311564', 'http://www.wikidata.org/entity/Q106311574', 'http://www.wikidata.org/entity/Q106322507', 'http://www.wikidata.org/entity/Q106323314', 'http://www.wikidata.org/entity/Q106358178', 'http://www.wikidata.org/entity/Q106368', 'http://www.wikidata.org/entity/Q106373', 'http://www.wikidata.org/entity/Q106390', 'http://www.wikidata.org/entity/Q106393', 'http://www.wikidata.org/entity/Q106395745', 'http://www.wikidata.org/entity/Q106412', 'http://www.wikidata.org/entity/Q106423', 'http://www.wikidata.org/entity/Q106438', 'http://www.wikidata.org/entity/Q106455', 'http://www.wikidata.org/entity/Q106460', 'http://www.wikidata.org/entity/Q106461', 'http://www.wikidata.org/entity/Q106479', 'http://www.wikidata.org/entity/Q106493', 'http://www.wikidata.org/entity/Q106496', 'http://www.wikidata.org/entity/Q106512329', 'http://www.wikidata.org/entity/Q106518946', 'http://www.wikidata.org/entity/Q106519848', 'http://www.wikidata.org/entity/Q1065321', 'http://www.wikidata.org/entity/Q106548568', 'http://www.wikidata.org/entity/Q106553', 'http://www.wikidata.org/entity/Q106564535', 'http://www.wikidata.org/entity/Q106572', 'http://www.wikidata.org/entity/Q106578', 'http://www.wikidata.org/entity/Q106594046', 'http://www.wikidata.org/entity/Q106595246', 'http://www.wikidata.org/entity/Q106631203', 'http://www.wikidata.org/entity/Q106637474', 'http://www.wikidata.org/entity/Q106661', 'http://www.wikidata.org/entity/Q106664319', 'http://www.wikidata.org/entity/Q106675767', 'http://www.wikidata.org/entity/Q106689558', 'http://www.wikidata.org/entity/Q1067102', 'http://www.wikidata.org/entity/Q1067206', 'http://www.wikidata.org/entity/Q1067219', 'http://www.wikidata.org/entity/Q1067238', 'http://www.wikidata.org/entity/Q1067243', 'http://www.wikidata.org/entity/Q1067327', 'http://www.wikidata.org/entity/Q1067337', 'http://www.wikidata.org/entity/Q106744', 'http://www.wikidata.org/entity/Q1067500', 'http://www.wikidata.org/entity/Q1067523', 'http://www.wikidata.org/entity/Q106754', 'http://www.wikidata.org/entity/Q106768194', 'http://www.wikidata.org/entity/Q106799', 'http://www.wikidata.org/entity/Q106819841', 'http://www.wikidata.org/entity/Q106831105', 'http://www.wikidata.org/entity/Q106841995', 'http://www.wikidata.org/entity/Q106869', 'http://www.wikidata.org/entity/Q106878335', 'http://www.wikidata.org/entity/Q106890375', 'http://www.wikidata.org/entity/Q106936826', 'http://www.wikidata.org/entity/Q106939', 'http://www.wikidata.org/entity/Q107036249', 'http://www.wikidata.org/entity/Q107045040', 'http://www.wikidata.org/entity/Q107112297', 'http://www.wikidata.org/entity/Q1071648', 'http://www.wikidata.org/entity/Q107190753', 'http://www.wikidata.org/entity/Q107204799', 'http://www.wikidata.org/entity/Q107219', 'http://www.wikidata.org/entity/Q107274', 'http://www.wikidata.org/entity/Q107286074', 'http://www.wikidata.org/entity/Q107291', 'http://www.wikidata.org/entity/Q1073163', 'http://www.wikidata.org/entity/Q107345', 'http://www.wikidata.org/entity/Q107349965', 'http://www.wikidata.org/entity/Q107350', 'http://www.wikidata.org/entity/Q107362784', 'http://www.wikidata.org/entity/Q107364', 'http://www.wikidata.org/entity/Q107375', 'http://www.wikidata.org/entity/Q107379896', 'http://www.wikidata.org/entity/Q107410916', 'http://www.wikidata.org/entity/Q107438', 'http://www.wikidata.org/entity/Q107474234', 'http://www.wikidata.org/entity/Q107483', 'http://www.wikidata.org/entity/Q107500877', 'http://www.wikidata.org/entity/Q107514', 'http://www.wikidata.org/entity/Q107538718', 'http://www.wikidata.org/entity/Q107583', 'http://www.wikidata.org/entity/Q107599', 'http://www.wikidata.org/entity/Q107605', 'http://www.wikidata.org/entity/Q107609122', 'http://www.wikidata.org/entity/Q107628', 'http://www.wikidata.org/entity/Q107630', 'http://www.wikidata.org/entity/Q107646', 'http://www.wikidata.org/entity/Q107651', 'http://www.wikidata.org/entity/Q107679210', 'http://www.wikidata.org/entity/Q107683', 'http://www.wikidata.org/entity/Q107711622', 'http://www.wikidata.org/entity/Q107740134', 'http://www.wikidata.org/entity/Q107743', 'http://www.wikidata.org/entity/Q107753', 'http://www.wikidata.org/entity/Q107782', 'http://www.wikidata.org/entity/Q107788', 'http://www.wikidata.org/entity/Q107790473', 'http://www.wikidata.org/entity/Q1078028', 'http://www.wikidata.org/entity/Q107805', 'http://www.wikidata.org/entity/Q1078106', 'http://www.wikidata.org/entity/Q1078277', 'http://www.wikidata.org/entity/Q107849', 'http://www.wikidata.org/entity/Q107869', 'http://www.wikidata.org/entity/Q1078911', 'http://www.wikidata.org/entity/Q107924', 'http://www.wikidata.org/entity/Q1079558', 'http://www.wikidata.org/entity/Q107973784', 'http://www.wikidata.org/entity/Q107983', 'http://www.wikidata.org/entity/Q107987303', 'http://www.wikidata.org/entity/Q1080253', 'http://www.wikidata.org/entity/Q108029097', 'http://www.wikidata.org/entity/Q1080329', 'http://www.wikidata.org/entity/Q108035', 'http://www.wikidata.org/entity/Q1080540', 'http://www.wikidata.org/entity/Q108057', 'http://www.wikidata.org/entity/Q1080623', 'http://www.wikidata.org/entity/Q1080649', 'http://www.wikidata.org/entity/Q108070', 'http://www.wikidata.org/entity/Q1080716', 'http://www.wikidata.org/entity/Q1080732', 'http://www.wikidata.org/entity/Q1080816', 'http://www.wikidata.org/entity/Q1080819', 'http://www.wikidata.org/entity/Q108097', 'http://www.wikidata.org/entity/Q108104', 'http://www.wikidata.org/entity/Q1081113', 'http://www.wikidata.org/entity/Q108114', 'http://www.wikidata.org/entity/Q108127805', 'http://www.wikidata.org/entity/Q1081287', 'http://www.wikidata.org/entity/Q1081437', 'http://www.wikidata.org/entity/Q108153', 'http://www.wikidata.org/entity/Q1081561', 'http://www.wikidata.org/entity/Q1081599', 'http://www.wikidata.org/entity/Q1081610', 'http://www.wikidata.org/entity/Q108164', 'http://www.wikidata.org/entity/Q1081758', 'http://www.wikidata.org/entity/Q108176', 'http://www.wikidata.org/entity/Q108192', 'http://www.wikidata.org/entity/Q108196632', 'http://www.wikidata.org/entity/Q108201130', 'http://www.wikidata.org/entity/Q108202', 'http://www.wikidata.org/entity/Q1082198', 'http://www.wikidata.org/entity/Q1082288', 'http://www.wikidata.org/entity/Q108230', 'http://www.wikidata.org/entity/Q108233', 'http://www.wikidata.org/entity/Q108236', 'http://www.wikidata.org/entity/Q108255', 'http://www.wikidata.org/entity/Q1082640', 'http://www.wikidata.org/entity/Q1082673', 'http://www.wikidata.org/entity/Q1082749', 'http://www.wikidata.org/entity/Q1082754', 'http://www.wikidata.org/entity/Q1082761', 'http://www.wikidata.org/entity/Q1082798', 'http://www.wikidata.org/entity/Q108285546', 'http://www.wikidata.org/entity/Q108287276', 'http://www.wikidata.org/entity/Q1082880', 'http://www.wikidata.org/entity/Q108294049', 'http://www.wikidata.org/entity/Q108294329', 'http://www.wikidata.org/entity/Q108294870', 'http://www.wikidata.org/entity/Q108296218', 'http://www.wikidata.org/entity/Q108296809', 'http://www.wikidata.org/entity/Q108302', 'http://www.wikidata.org/entity/Q108306', 'http://www.wikidata.org/entity/Q1083077', 'http://www.wikidata.org/entity/Q1083086', 'http://www.wikidata.org/entity/Q1083099', 'http://www.wikidata.org/entity/Q108311', 'http://www.wikidata.org/entity/Q1083125', 'http://www.wikidata.org/entity/Q1083162', 'http://www.wikidata.org/entity/Q1083168', 'http://www.wikidata.org/entity/Q108319856', 'http://www.wikidata.org/entity/Q1083435', 'http://www.wikidata.org/entity/Q1083539', 'http://www.wikidata.org/entity/Q1083559', 'http://www.wikidata.org/entity/Q1083566', 'http://www.wikidata.org/entity/Q108358', 'http://www.wikidata.org/entity/Q1083583', 'http://www.wikidata.org/entity/Q1083622', 'http://www.wikidata.org/entity/Q1083624', 'http://www.wikidata.org/entity/Q1083644', 'http://www.wikidata.org/entity/Q108365', 'http://www.wikidata.org/entity/Q1083730', 'http://www.wikidata.org/entity/Q108378294', 'http://www.wikidata.org/entity/Q1083806', 'http://www.wikidata.org/entity/Q1083827', 'http://www.wikidata.org/entity/Q108393', 'http://www.wikidata.org/entity/Q108434', 'http://www.wikidata.org/entity/Q108436220', 'http://www.wikidata.org/entity/Q1084549', 'http://www.wikidata.org/entity/Q1084557', 'http://www.wikidata.org/entity/Q1084596', 'http://www.wikidata.org/entity/Q108469', 'http://www.wikidata.org/entity/Q1084818', 'http://www.wikidata.org/entity/Q1084956', 'http://www.wikidata.org/entity/Q1084985', 'http://www.wikidata.org/entity/Q1085038', 'http://www.wikidata.org/entity/Q108504516', 'http://www.wikidata.org/entity/Q1085172', 'http://www.wikidata.org/entity/Q1085185', 'http://www.wikidata.org/entity/Q1085225', 'http://www.wikidata.org/entity/Q1085257', 'http://www.wikidata.org/entity/Q108526446', 'http://www.wikidata.org/entity/Q1085341', 'http://www.wikidata.org/entity/Q1085356', 'http://www.wikidata.org/entity/Q1085410', 'http://www.wikidata.org/entity/Q108554', 'http://www.wikidata.org/entity/Q108595256', 'http://www.wikidata.org/entity/Q1086005', 'http://www.wikidata.org/entity/Q108617', 'http://www.wikidata.org/entity/Q108617374', 'http://www.wikidata.org/entity/Q108630', 'http://www.wikidata.org/entity/Q1086472', 'http://www.wikidata.org/entity/Q108660', 'http://www.wikidata.org/entity/Q108662429', 'http://www.wikidata.org/entity/Q108665648', 'http://www.wikidata.org/entity/Q1086799', 'http://www.wikidata.org/entity/Q108693451', 'http://www.wikidata.org/entity/Q108733443', 'http://www.wikidata.org/entity/Q108760927', 'http://www.wikidata.org/entity/Q108763', 'http://www.wikidata.org/entity/Q108773', 'http://www.wikidata.org/entity/Q108792', 'http://www.wikidata.org/entity/Q108803590', 'http://www.wikidata.org/entity/Q108805554', 'http://www.wikidata.org/entity/Q108811390', 'http://www.wikidata.org/entity/Q108828331', 'http://www.wikidata.org/entity/Q108839248', 'http://www.wikidata.org/entity/Q108845', 'http://www.wikidata.org/entity/Q108853', 'http://www.wikidata.org/entity/Q108861150', 'http://www.wikidata.org/entity/Q108861193', 'http://www.wikidata.org/entity/Q108862137', 'http://www.wikidata.org/entity/Q108867', 'http://www.wikidata.org/entity/Q108872482', 'http://www.wikidata.org/entity/Q108873', 'http://www.wikidata.org/entity/Q108873296', 'http://www.wikidata.org/entity/Q108884586', 'http://www.wikidata.org/entity/Q108914380', 'http://www.wikidata.org/entity/Q108920', 'http://www.wikidata.org/entity/Q108928', 'http://www.wikidata.org/entity/Q108936', 'http://www.wikidata.org/entity/Q108942', 'http://www.wikidata.org/entity/Q108964', 'http://www.wikidata.org/entity/Q108965', 'http://www.wikidata.org/entity/Q108972', 'http://www.wikidata.org/entity/Q108978', 'http://www.wikidata.org/entity/Q108984', 'http://www.wikidata.org/entity/Q108987', 'http://www.wikidata.org/entity/Q108989', 'http://www.wikidata.org/entity/Q109001', 'http://www.wikidata.org/entity/Q109028', 'http://www.wikidata.org/entity/Q109050', 'http://www.wikidata.org/entity/Q109104', 'http://www.wikidata.org/entity/Q109123', 'http://www.wikidata.org/entity/Q109124517', 'http://www.wikidata.org/entity/Q109127', 'http://www.wikidata.org/entity/Q109131', 'http://www.wikidata.org/entity/Q109141', 'http://www.wikidata.org/entity/Q109148', 'http://www.wikidata.org/entity/Q1091893', 'http://www.wikidata.org/entity/Q1091975', 'http://www.wikidata.org/entity/Q109200280', 'http://www.wikidata.org/entity/Q109211', 'http://www.wikidata.org/entity/Q109225', 'http://www.wikidata.org/entity/Q1092317', 'http://www.wikidata.org/entity/Q109252043', 'http://www.wikidata.org/entity/Q109253595', 'http://www.wikidata.org/entity/Q109271422', 'http://www.wikidata.org/entity/Q109286', 'http://www.wikidata.org/entity/Q109304', 'http://www.wikidata.org/entity/Q109306', 'http://www.wikidata.org/entity/Q109316729', 'http://www.wikidata.org/entity/Q109335', 'http://www.wikidata.org/entity/Q109355446', 'http://www.wikidata.org/entity/Q109356764', 'http://www.wikidata.org/entity/Q109357', 'http://www.wikidata.org/entity/Q109358', 'http://www.wikidata.org/entity/Q109366', 'http://www.wikidata.org/entity/Q109375705', 'http://www.wikidata.org/entity/Q109382417', 'http://www.wikidata.org/entity/Q109443', 'http://www.wikidata.org/entity/Q109444', 'http://www.wikidata.org/entity/Q1094818', 'http://www.wikidata.org/entity/Q109492', 'http://www.wikidata.org/entity/Q109505', 'http://www.wikidata.org/entity/Q109507264', 'http://www.wikidata.org/entity/Q109516', 'http://www.wikidata.org/entity/Q109526534', 'http://www.wikidata.org/entity/Q109534', 'http://www.wikidata.org/entity/Q109551709', 'http://www.wikidata.org/entity/Q109556', 'http://www.wikidata.org/entity/Q109566877', 'http://www.wikidata.org/entity/Q109581', 'http://www.wikidata.org/entity/Q109587133', 'http://www.wikidata.org/entity/Q109595', 'http://www.wikidata.org/entity/Q109603', 'http://www.wikidata.org/entity/Q109608', 'http://www.wikidata.org/entity/Q109619', 'http://www.wikidata.org/entity/Q109623', 'http://www.wikidata.org/entity/Q109628', 'http://www.wikidata.org/entity/Q109629', 'http://www.wikidata.org/entity/Q109648', 'http://www.wikidata.org/entity/Q109650102', 'http://www.wikidata.org/entity/Q109653134', 'http://www.wikidata.org/entity/Q109656492', 'http://www.wikidata.org/entity/Q109718', 'http://www.wikidata.org/entity/Q109720', 'http://www.wikidata.org/entity/Q1097341', 'http://www.wikidata.org/entity/Q1097365', 'http://www.wikidata.org/entity/Q1097434', 'http://www.wikidata.org/entity/Q1097461', 'http://www.wikidata.org/entity/Q1097463', 'http://www.wikidata.org/entity/Q1097471', 'http://www.wikidata.org/entity/Q1097480', 'http://www.wikidata.org/entity/Q1097526', 'http://www.wikidata.org/entity/Q1097527', 'http://www.wikidata.org/entity/Q1097592', 'http://www.wikidata.org/entity/Q1097610', 'http://www.wikidata.org/entity/Q1097620', 'http://www.wikidata.org/entity/Q1097640', 'http://www.wikidata.org/entity/Q1097686', 'http://www.wikidata.org/entity/Q1097701', 'http://www.wikidata.org/entity/Q1097712', 'http://www.wikidata.org/entity/Q1097756', 'http://www.wikidata.org/entity/Q1097774', 'http://www.wikidata.org/entity/Q109778', 'http://www.wikidata.org/entity/Q1097857', 'http://www.wikidata.org/entity/Q1097863', 'http://www.wikidata.org/entity/Q1097915', 'http://www.wikidata.org/entity/Q109796', 'http://www.wikidata.org/entity/Q1</t>
   </si>
   <si>
-    <t>['http://www.wikidata.org/entity/Q77237']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q57577']</t>
   </si>
   <si>
@@ -1423,9 +1210,6 @@
     <t>['http://www.wikidata.org/entity/Q102483', 'http://www.wikidata.org/entity/Q1153825', 'http://www.wikidata.org/entity/Q121180', 'http://www.wikidata.org/entity/Q123469', 'http://www.wikidata.org/entity/Q127349', 'http://www.wikidata.org/entity/Q129155', 'http://www.wikidata.org/entity/Q129173', 'http://www.wikidata.org/entity/Q129187', 'http://www.wikidata.org/entity/Q131318', 'http://www.wikidata.org/entity/Q131326', 'http://www.wikidata.org/entity/Q131487', 'http://www.wikidata.org/entity/Q131549', 'http://www.wikidata.org/entity/Q132589', 'http://www.wikidata.org/entity/Q132684', 'http://www.wikidata.org/entity/Q132695', 'http://www.wikidata.org/entity/Q132701', 'http://www.wikidata.org/entity/Q132723', 'http://www.wikidata.org/entity/Q133042', 'http://www.wikidata.org/entity/Q134641', 'http://www.wikidata.org/entity/Q134644', 'http://www.wikidata.org/entity/Q1403', 'http://www.wikidata.org/entity/Q159552', 'http://www.wikidata.org/entity/Q160478', 'http://www.wikidata.org/entity/Q165823', 'http://www.wikidata.org/entity/Q18143', 'http://www.wikidata.org/entity/Q222944', 'http://www.wikidata.org/entity/Q225554', 'http://www.wikidata.org/entity/Q226525', 'http://www.wikidata.org/entity/Q23434', 'http://www.wikidata.org/entity/Q2344210', 'http://www.wikidata.org/entity/Q234819', 'http://www.wikidata.org/entity/Q241248', 'http://www.wikidata.org/entity/Q25351', 'http://www.wikidata.org/entity/Q254032', 'http://www.wikidata.org/entity/Q25973', 'http://www.wikidata.org/entity/Q272855', 'http://www.wikidata.org/entity/Q274334', 'http://www.wikidata.org/entity/Q317877', 'http://www.wikidata.org/entity/Q33760', 'http://www.wikidata.org/entity/Q34189', 'http://www.wikidata.org/entity/Q34474', 'http://www.wikidata.org/entity/Q34670', 'http://www.wikidata.org/entity/Q34743', 'http://www.wikidata.org/entity/Q37030', 'http://www.wikidata.org/entity/Q37060', 'http://www.wikidata.org/entity/Q37327', 'http://www.wikidata.org/entity/Q37767', 'http://www.wikidata.org/entity/Q38049', 'http://www.wikidata.org/entity/Q38392', 'http://www.wikidata.org/entity/Q392', 'http://www.wikidata.org/entity/Q39212', 'http://www.wikidata.org/entity/Q39803', 'http://www.wikidata.org/entity/Q40213', 'http://www.wikidata.org/entity/Q40826', 'http://www.wikidata.org/entity/Q40874', 'http://www.wikidata.org/entity/Q41042', 'http://www.wikidata.org/entity/Q41223', 'http://www.wikidata.org/entity/Q41488', 'http://www.wikidata.org/entity/Q41502', 'http://www.wikidata.org/entity/Q42037', 'http://www.wikidata.org/entity/Q42122', 'http://www.wikidata.org/entity/Q42156', 'http://www.wikidata.org/entity/Q42247', 'http://www.wikidata.org/entity/Q42398', 'http://www.wikidata.org/entity/Q42443', 'http://www.wikidata.org/entity/Q42552', 'http://www.wikidata.org/entity/Q42596', 'http://www.wikidata.org/entity/Q42747', 'http://www.wikidata.org/entity/Q43293', 'http://www.wikidata.org/entity/Q43440', 'http://www.wikidata.org/entity/Q43523', 'http://www.wikidata.org/entity/Q43736', 'http://www.wikidata.org/entity/Q44107', 'http://www.wikidata.org/entity/Q44183', 'http://www.wikidata.org/entity/Q443868', 'http://www.wikidata.org/entity/Q44519', 'http://www.wikidata.org/entity/Q44593', 'http://www.wikidata.org/entity/Q45970', 'http://www.wikidata.org/entity/Q46405', 'http://www.wikidata.org/entity/Q46602', 'http://www.wikidata.org/entity/Q46739', 'http://www.wikidata.org/entity/Q47162', 'http://www.wikidata.org/entity/Q47243', 'http://www.wikidata.org/entity/Q47484', 'http://www.wikidata.org/entity/Q47561', 'http://www.wikidata.org/entity/Q47619', 'http://www.wikidata.org/entity/Q47695', 'http://www.wikidata.org/entity/Q47755', 'http://www.wikidata.org/entity/Q49747', 'http://www.wikidata.org/entity/Q5646626', 'http://www.wikidata.org/entity/Q57074', 'http://www.wikidata.org/entity/Q5878', 'http://www.wikidata.org/entity/Q6538', 'http://www.wikidata.org/entity/Q7176', 'http://www.wikidata.org/entity/Q72334', 'http://www.wikidata.org/entity/Q7241', 'http://www.wikidata.org/entity/Q75603', 'http://www.wikidata.org/entity/Q75612', 'http://www.wikidata.org/entity/Q76487', 'http://www.wikidata.org/entity/Q765', 'http://www.wikidata.org/entity/Q7728', 'http://www.wikidata.org/entity/Q80064', 'http://www.wikidata.org/entity/Q80095', 'http://www.wikidata.org/entity/Q80321', 'http://www.wikidata.org/entity/Q80871', 'http://www.wikidata.org/entity/Q80889', 'http://www.wikidata.org/entity/Q80900', 'http://www.wikidata.org/entity/Q81685', 'http://www.wikidata.org/entity/Q82248', 'http://www.wikidata.org/entity/Q83038', 'http://www.wikidata.org/entity/Q83059', 'http://www.wikidata.org/entity/Q83184', 'http://www.wikidata.org/entity/Q862', 'http://www.wikidata.org/entity/Q8998', 'http://www.wikidata.org/entity/Q93137', 'http://www.wikidata.org/entity/Q93157', 'http://www.wikidata.org/entity/Q93356', 'http://www.wikidata.org/entity/Q9364']</t>
   </si>
   <si>
-    <t>['http://www.wikidata.org/entity/Q14280']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q100249671', 'http://www.wikidata.org/entity/Q1026959', 'http://www.wikidata.org/entity/Q1027629', 'http://www.wikidata.org/entity/Q1036753', 'http://www.wikidata.org/entity/Q1039172', 'http://www.wikidata.org/entity/Q1050088', 'http://www.wikidata.org/entity/Q106959617', 'http://www.wikidata.org/entity/Q109094', 'http://www.wikidata.org/entity/Q110182609', 'http://www.wikidata.org/entity/Q1103685', 'http://www.wikidata.org/entity/Q11290964', 'http://www.wikidata.org/entity/Q1138796', 'http://www.wikidata.org/entity/Q11409656', 'http://www.wikidata.org/entity/Q11473196', 'http://www.wikidata.org/entity/Q116745984', 'http://www.wikidata.org/entity/Q1173729', 'http://www.wikidata.org/entity/Q1238872', 'http://www.wikidata.org/entity/Q124042030', 'http://www.wikidata.org/entity/Q12469951', 'http://www.wikidata.org/entity/Q1248972', 'http://www.wikidata.org/entity/Q1266275', 'http://www.wikidata.org/entity/Q1282429', 'http://www.wikidata.org/entity/Q1282945', 'http://www.wikidata.org/entity/Q1282967', 'http://www.wikidata.org/entity/Q130324694', 'http://www.wikidata.org/entity/Q1308870', 'http://www.wikidata.org/entity/Q1311188', 'http://www.wikidata.org/entity/Q1318323', 'http://www.wikidata.org/entity/Q1347472', 'http://www.wikidata.org/entity/Q13571046', 'http://www.wikidata.org/entity/Q13571677', 'http://www.wikidata.org/entity/Q1364120', 'http://www.wikidata.org/entity/Q1412239', 'http://www.wikidata.org/entity/Q144622', 'http://www.wikidata.org/entity/Q1452661', 'http://www.wikidata.org/entity/Q1453118', 'http://www.wikidata.org/entity/Q14545268', 'http://www.wikidata.org/entity/Q1454645', 'http://www.wikidata.org/entity/Q1535887', 'http://www.wikidata.org/entity/Q15453836', 'http://www.wikidata.org/entity/Q15485363', 'http://www.wikidata.org/entity/Q1557440', 'http://www.wikidata.org/entity/Q15815145', 'http://www.wikidata.org/entity/Q1583816', 'http://www.wikidata.org/entity/Q15840407', 'http://www.wikidata.org/entity/Q15851160', 'http://www.wikidata.org/entity/Q16017359', 'http://www.wikidata.org/entity/Q1607887', 'http://www.wikidata.org/entity/Q16090563', 'http://www.wikidata.org/entity/Q161753', 'http://www.wikidata.org/entity/Q1622068', 'http://www.wikidata.org/entity/Q1631802', 'http://www.wikidata.org/entity/Q163861', 'http://www.wikidata.org/entity/Q1675549', 'http://www.wikidata.org/entity/Q1678838', 'http://www.wikidata.org/entity/Q1687893', 'http://www.wikidata.org/entity/Q1689131', 'http://www.wikidata.org/entity/Q1689347', 'http://www.wikidata.org/entity/Q1691548', 'http://www.wikidata.org/entity/Q1701204', 'http://www.wikidata.org/entity/Q1701748', 'http://www.wikidata.org/entity/Q1702274', 'http://www.wikidata.org/entity/Q1703633', 'http://www.wikidata.org/entity/Q17306038', 'http://www.wikidata.org/entity/Q17352853', 'http://www.wikidata.org/entity/Q1738588', 'http://www.wikidata.org/entity/Q1738949', 'http://www.wikidata.org/entity/Q1740093', 'http://www.wikidata.org/entity/Q1745395', 'http://www.wikidata.org/entity/Q177824', 'http://www.wikidata.org/entity/Q1779', 'http://www.wikidata.org/entity/Q1791341', 'http://www.wikidata.org/entity/Q1806037', 'http://www.wikidata.org/entity/Q1820504', 'http://www.wikidata.org/entity/Q18410973', 'http://www.wikidata.org/entity/Q1872759', 'http://www.wikidata.org/entity/Q188046', 'http://www.wikidata.org/entity/Q1902146', 'http://www.wikidata.org/entity/Q1903353', 'http://www.wikidata.org/entity/Q1912807', 'http://www.wikidata.org/entity/Q1917393', 'http://www.wikidata.org/entity/Q19275122', 'http://www.wikidata.org/entity/Q1935815', 'http://www.wikidata.org/entity/Q193645', 'http://www.wikidata.org/entity/Q19561422', 'http://www.wikidata.org/entity/Q19629147', 'http://www.wikidata.org/entity/Q1971146', 'http://www.wikidata.org/entity/Q19832476', 'http://www.wikidata.org/entity/Q199406', 'http://www.wikidata.org/entity/Q19960682', 'http://www.wikidata.org/entity/Q19962541', 'http://www.wikidata.org/entity/Q19968522', 'http://www.wikidata.org/entity/Q201500', 'http://www.wikidata.org/entity/Q2041252', 'http://www.wikidata.org/entity/Q204943', 'http://www.wikidata.org/entity/Q2061143', 'http://www.wikidata.org/entity/Q2075755', 'http://www.wikidata.org/entity/Q210173', 'http://www.wikidata.org/entity/Q210289', 'http://www.wikidata.org/entity/Q2216444', 'http://www.wikidata.org/entity/Q222798', 'http://www.wikidata.org/entity/Q22670541', 'http://www.wikidata.org/entity/Q22958430', 'http://www.wikidata.org/entity/Q2302261', 'http://www.wikidata.org/entity/Q2347504', 'http://www.wikidata.org/entity/Q23874600', 'http://www.wikidata.org/entity/Q2396601', 'http://www.wikidata.org/entity/Q2401961', 'http://www.wikidata.org/entity/Q2405288', 'http://www.wikidata.org/entity/Q2478090', 'http://www.wikidata.org/entity/Q2544934', 'http://www.wikidata.org/entity/Q26196818', 'http://www.wikidata.org/entity/Q2645829', 'http://www.wikidata.org/entity/Q2686238', 'http://www.wikidata.org/entity/Q273076', 'http://www.wikidata.org/entity/Q276068', 'http://www.wikidata.org/entity/Q27916182', 'http://www.wikidata.org/entity/Q313368', 'http://www.wikidata.org/entity/Q313529', 'http://www.wikidata.org/entity/Q313868', 'http://www.wikidata.org/entity/Q3196381', 'http://www.wikidata.org/entity/Q322210', 'http://www.wikidata.org/entity/Q329362', 'http://www.wikidata.org/entity/Q344822', 'http://www.wikidata.org/entity/Q355481', 'http://www.wikidata.org/entity/Q356715', 'http://www.wikidata.org/entity/Q376146', 'http://www.wikidata.org/entity/Q432924', 'http://www.wikidata.org/entity/Q436176', 'http://www.wikidata.org/entity/Q465105', 'http://www.wikidata.org/entity/Q4760598', 'http://www.wikidata.org/entity/Q4767267', 'http://www.wikidata.org/entity/Q4797599', 'http://www.wikidata.org/entity/Q4833896', 'http://www.wikidata.org/entity/Q491100', 'http://www.wikidata.org/entity/Q4911881', 'http://www.wikidata.org/entity/Q492677', 'http://www.wikidata.org/entity/Q495464', 'http://www.wikidata.org/entity/Q49575', 'http://www.wikidata.org/entity/Q4998586', 'http://www.wikidata.org/entity/Q510651', 'http://www.wikidata.org/entity/Q5214487', 'http://www.wikidata.org/entity/Q5220273', 'http://www.wikidata.org/entity/Q523899', 'http://www.wikidata.org/entity/Q5263018', 'http://www.wikidata.org/entity/Q528340', 'http://www.wikidata.org/entity/Q5290919', 'http://www.wikidata.org/entity/Q539159', 'http://www.wikidata.org/entity/Q5392650', 'http://www.wikidata.org/entity/Q5394010', 'http://www.wikidata.org/entity/Q539883', 'http://www.wikidata.org/entity/Q545464', 'http://www.wikidata.org/entity/Q54957569', 'http://www.wikidata.org/entity/Q5508594', 'http://www.wikidata.org/entity/Q5525190', 'http://www.wikidata.org/entity/Q5531061', 'http://www.wikidata.org/entity/Q558118', 'http://www.wikidata.org/entity/Q562871', 'http://www.wikidata.org/entity/Q5736141', 'http://www.wikidata.org/entity/Q590792', 'http://www.wikidata.org/entity/Q600700', 'http://www.wikidata.org/entity/Q6074256', 'http://www.wikidata.org/entity/Q612855', 'http://www.wikidata.org/entity/Q6175185', 'http://www.wikidata.org/entity/Q6208919', 'http://www.wikidata.org/entity/Q6221178', 'http://www.wikidata.org/entity/Q6224104', 'http://www.wikidata.org/entity/Q6240203', 'http://www.wikidata.org/entity/Q6309190', 'http://www.wikidata.org/entity/Q64683137', 'http://www.wikidata.org/entity/Q64985242', 'http://www.wikidata.org/entity/Q65028314', 'http://www.wikidata.org/entity/Q65028506', 'http://www.wikidata.org/entity/Q65032384', 'http://www.wikidata.org/entity/Q65034989', 'http://www.wikidata.org/entity/Q65034994', 'http://www.wikidata.org/entity/Q658636', 'http://www.wikidata.org/entity/Q6687998', 'http://www.wikidata.org/entity/Q668856', 'http://www.wikidata.org/entity/Q675810', 'http://www.wikidata.org/entity/Q6793340', 'http://www.wikidata.org/entity/Q6846424', 'http://www.wikidata.org/entity/Q6849142', 'http://www.wikidata.org/entity/Q7052586', 'http://www.wikidata.org/entity/Q70552207', 'http://www.wikidata.org/entity/Q7087874', 'http://www.wikidata.org/entity/Q708990', 'http://www.wikidata.org/entity/Q711921', 'http://www.wikidata.org/entity/Q713273', 'http://www.wikidata.org/entity/Q727418', 'http://www.wikidata.org/entity/Q7298839', 'http://www.wikidata.org/entity/Q737521', 'http://www.wikidata.org/entity/Q743585', 'http://www.wikidata.org/entity/Q7441108', 'http://www.wikidata.org/entity/Q7524109', 'http://www.wikidata.org/entity/Q7614243', 'http://www.wikidata.org/entity/Q7694080', 'http://www.wikidata.org/entity/Q772645', 'http://www.wikidata.org/entity/Q776453', 'http://www.wikidata.org/entity/Q7781439', 'http://www.wikidata.org/entity/Q7781727', 'http://www.wikidata.org/entity/Q7924906', 'http://www.wikidata.org/entity/Q7982390', 'http://www.wikidata.org/entity/Q8009347', 'http://www.wikidata.org/entity/Q807401', 'http://www.wikidata.org/entity/Q808916', 'http://www.wikidata.org/entity/Q861545', 'http://www.wikidata.org/entity/Q861938', 'http://www.wikidata.org/entity/Q870113', 'http://www.wikidata.org/entity/Q887760', 'http://www.wikidata.org/entity/Q888472', 'http://www.wikidata.org/entity/Q888620', 'http://www.wikidata.org/entity/Q888671', 'http://www.wikidata.org/entity/Q895829', 'http://www.wikidata.org/entity/Q923409', 'http://www.wikidata.org/entity/Q93341', 'http://www.wikidata.org/entity/Q936536', 'http://www.wikidata.org/entity/Q973166', 'http://www.wikidata.org/entity/Q975609', 'http://www.wikidata.org/entity/Q98308750', 'http://www.wikidata.org/entity/Q99438820']</t>
   </si>
   <si>
@@ -1456,9 +1240,6 @@
     <t>['9209944']</t>
   </si>
   <si>
-    <t>['http://www.wikidata.org/entity/Q313048', 'http://www.wikidata.org/entity/Q464282']</t>
-  </si>
-  <si>
     <t>['381488']</t>
   </si>
   <si>
@@ -1487,27 +1268,6 @@
   </si>
   <si>
     <t>['http://www.wikidata.org/entity/Q2420722']</t>
-  </si>
-  <si>
-    <t>['Query failed']</t>
-  </si>
-  <si>
-    <t>['No answer']</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q110154', 'http://www.wikidata.org/entity/Q116281', 'http://www.wikidata.org/entity/Q1209826', 'http://www.wikidata.org/entity/Q1320797', 'http://www.wikidata.org/entity/Q1338682', 'http://www.wikidata.org/entity/Q1396278', 'http://www.wikidata.org/entity/Q152773', 'http://www.wikidata.org/entity/Q16296', 'http://www.wikidata.org/entity/Q16297', 'http://www.wikidata.org/entity/Q16345', 'http://www.wikidata.org/entity/Q16349', 'http://www.wikidata.org/entity/Q1720634', 'http://www.wikidata.org/entity/Q18211660', 'http://www.wikidata.org/entity/Q190523', 'http://www.wikidata.org/entity/Q2263306', 'http://www.wikidata.org/entity/Q230038', 'http://www.wikidata.org/entity/Q231576', 'http://www.wikidata.org/entity/Q234114', 'http://www.wikidata.org/entity/Q23466', 'http://www.wikidata.org/entity/Q238168', 'http://www.wikidata.org/entity/Q2439878', 'http://www.wikidata.org/entity/Q2451563', 'http://www.wikidata.org/entity/Q254038', 'http://www.wikidata.org/entity/Q266391', 'http://www.wikidata.org/entity/Q2667506', 'http://www.wikidata.org/entity/Q272214', 'http://www.wikidata.org/entity/Q2805350', 'http://www.wikidata.org/entity/Q2933924', 'http://www.wikidata.org/entity/Q2965115', 'http://www.wikidata.org/entity/Q311699', 'http://www.wikidata.org/entity/Q313789', 'http://www.wikidata.org/entity/Q3177047', 'http://www.wikidata.org/entity/Q318412', 'http://www.wikidata.org/entity/Q3300864', 'http://www.wikidata.org/entity/Q3441429', 'http://www.wikidata.org/entity/Q346595', 'http://www.wikidata.org/entity/Q348445', 'http://www.wikidata.org/entity/Q3559413', 'http://www.wikidata.org/entity/Q356846', 'http://www.wikidata.org/entity/Q363271', 'http://www.wikidata.org/entity/Q366012', 'http://www.wikidata.org/entity/Q376176', 'http://www.wikidata.org/entity/Q378538', 'http://www.wikidata.org/entity/Q3852420', 'http://www.wikidata.org/entity/Q3877584', 'http://www.wikidata.org/entity/Q42329064', 'http://www.wikidata.org/entity/Q442025', 'http://www.wikidata.org/entity/Q444217', 'http://www.wikidata.org/entity/Q461794', 'http://www.wikidata.org/entity/Q504028', 'http://www.wikidata.org/entity/Q5115837', 'http://www.wikidata.org/entity/Q5213941', 'http://www.wikidata.org/entity/Q5407123', 'http://www.wikidata.org/entity/Q550778', 'http://www.wikidata.org/entity/Q552103', 'http://www.wikidata.org/entity/Q6066272', 'http://www.wikidata.org/entity/Q6308308', 'http://www.wikidata.org/entity/Q6811353']</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q154804', 'http://www.wikidata.org/entity/Q49738', 'http://www.wikidata.org/entity/Q56230681', 'http://www.wikidata.org/entity/Q56230686']</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q100331972', 'http://www.wikidata.org/entity/Q100394144', 'http://www.wikidata.org/entity/Q101218635', 'http://www.wikidata.org/entity/Q102256598', 'http://www.wikidata.org/entity/Q102390777', 'http://www.wikidata.org/entity/Q104483225', 'http://www.wikidata.org/entity/Q10533007', 'http://www.wikidata.org/entity/Q105389038', 'http://www.wikidata.org/entity/Q106157237', 'http://www.wikidata.org/entity/Q106243894', 'http://www.wikidata.org/entity/Q106363582', 'http://www.wikidata.org/entity/Q106798081', 'http://www.wikidata.org/entity/Q107310844', 'http://www.wikidata.org/entity/Q107344844', 'http://www.wikidata.org/entity/Q107369220', 'http://www.wikidata.org/entity/Q107750113', 'http://www.wikidata.org/entity/Q108108930', 'http://www.wikidata.org/entity/Q108142616', 'http://www.wikidata.org/entity/Q108143520', 'http://www.wikidata.org/entity/Q108305316', 'http://www.wikidata.org/entity/Q108419496', 'http://www.wikidata.org/entity/Q108420335', 'http://www.wikidata.org/entity/Q108528226', 'http://www.wikidata.org/entity/Q108801572', 'http://www.wikidata.org/entity/Q110024583', 'http://www.wikidata.org/entity/Q110257591', 'http://www.wikidata.org/entity/Q110438288', 'http://www.wikidata.org/entity/Q11102047', 'http://www.wikidata.org/entity/Q111279614', 'http://www.wikidata.org/entity/Q111378638', 'http://www.wikidata.org/entity/Q1115126', 'http://www.wikidata.org/entity/Q112460780', 'http://www.wikidata.org/entity/Q113045473', 'http://www.wikidata.org/entity/Q113074033', 'http://www.wikidata.org/entity/Q113184346', 'http://www.wikidata.org/entity/Q113232042', 'http://www.wikidata.org/entity/Q113737899', 'http://www.wikidata.org/entity/Q113749117', 'http://www.wikidata.org/entity/Q113772754', 'http://www.wikidata.org/entity/Q113807740', 'http://www.wikidata.org/entity/Q113834191', 'http://www.wikidata.org/entity/Q113843326', 'http://www.wikidata.org/entity/Q114089100', 'http://www.wikidata.org/entity/Q114235854', 'http://www.wikidata.org/entity/Q114616578', 'http://www.wikidata.org/entity/Q1147661', 'http://www.wikidata.org/entity/Q115110628', 'http://www.wikidata.org/entity/Q115180838', 'http://www.wikidata.org/entity/Q115864917', 'http://www.wikidata.org/entity/Q116759188', 'http://www.wikidata.org/entity/Q116765917', 'http://www.wikidata.org/entity/Q117198007', 'http://www.wikidata.org/entity/Q118487290', 'http://www.wikidata.org/entity/Q118762757', 'http://www.wikidata.org/entity/Q11931920', 'http://www.wikidata.org/entity/Q120961856', 'http://www.wikidata.org/entity/Q121300453', 'http://www.wikidata.org/entity/Q121378646', 'http://www.wikidata.org/entity/Q122228916', 'http://www.wikidata.org/entity/Q123117223', 'http://www.wikidata.org/entity/Q123183318', 'http://www.wikidata.org/entity/Q123189154', 'http://www.wikidata.org/entity/Q123196316', 'http://www.wikidata.org/entity/Q123247882', 'http://www.wikidata.org/entity/Q123282585', 'http://www.wikidata.org/entity/Q123403159', 'http://www.wikidata.org/entity/Q125352819', 'http://www.wikidata.org/entity/Q126363974', 'http://www.wikidata.org/entity/Q128183151', 'http://www.wikidata.org/entity/Q128693220', 'http://www.wikidata.org/entity/Q12873118', 'http://www.wikidata.org/entity/Q12873662', 'http://www.wikidata.org/entity/Q12873744', 'http://www.wikidata.org/entity/Q12874350', 'http://www.wikidata.org/entity/Q12875108', 'http://www.wikidata.org/entity/Q12875311', 'http://www.wikidata.org/entity/Q12875336', 'http://www.wikidata.org/entity/Q12878284', 'http://www.wikidata.org/entity/Q12878447', 'http://www.wikidata.org/entity/Q12880672', 'http://www.wikidata.org/entity/Q12880675', 'http://www.wikidata.org/entity/Q12880677', 'http://www.wikidata.org/entity/Q12881079', 'http://www.wikidata.org/entity/Q12885766', 'http://www.wikidata.org/entity/Q130305674', 'http://www.wikidata.org/entity/Q130632515', 'http://www.wikidata.org/entity/Q130632553', 'http://www.wikidata.org/entity/Q130718161', 'http://www.wikidata.org/entity/Q1329371', 'http://www.wikidata.org/entity/Q13411107', 'http://www.wikidata.org/entity/Q1349114', 'http://www.wikidata.org/entity/Q14153584', 'http://www.wikidata.org/entity/Q14229034', 'http://www.wikidata.org/entity/Q1439570', 'http://www.wikidata.org/entity/Q14500317', 'http://www.wikidata.org/entity/Q14625005', 'http://www.wikidata.org/entity/Q15002185', 'http://www.wikidata.org/entity/Q1509428', 'http://www.wikidata.org/entity/Q15274548', 'http://www.wikidata.org/entity/Q15433778', 'http://www.wikidata.org/entity/Q15651684', 'http://www.wikidata.org/entity/Q15707552', 'http://www.wikidata.org/entity/Q1581009', 'http://www.wikidata.org/entity/Q15983065', 'http://www.wikidata.org/entity/Q15994196', 'http://www.wikidata.org/entity/Q1601376', 'http://www.wikidata.org/entity/Q160478', 'http://www.wikidata.org/entity/Q16199868', 'http://www.wikidata.org/entity/Q16235535', 'http://www.wikidata.org/entity/Q16327244', 'http://www.wikidata.org/entity/Q16327733', 'http://www.wikidata.org/entity/Q16328616', 'http://www.wikidata.org/entity/Q16328851', 'http://www.wikidata.org/entity/Q16328867', 'http://www.wikidata.org/entity/Q16329078', 'http://www.wikidata.org/entity/Q16329346', 'http://www.wikidata.org/entity/Q16330120', 'http://www.wikidata.org/entity/Q16330682', 'http://www.wikidata.org/entity/Q16331916', 'http://www.wikidata.org/entity/Q16332287', 'http://www.wikidata.org/entity/Q16332578', 'http://www.wikidata.org/entity/Q16332651', 'http://www.wikidata.org/entity/Q16512450', 'http://www.wikidata.org/entity/Q16512492', 'http://www.wikidata.org/entity/Q165319', 'http://www.wikidata.org/entity/Q16644246', 'http://www.wikidata.org/entity/Q16711496', 'http://www.wikidata.org/entity/Q16711498', 'http://www.wikidata.org/entity/Q16853551', 'http://www.wikidata.org/entity/Q16874283', 'http://www.wikidata.org/entity/Q16937833', 'http://www.wikidata.org/entity/Q17000036', 'http://www.wikidata.org/entity/Q17315716', 'http://www.wikidata.org/entity/Q17350265', 'http://www.wikidata.org/entity/Q17420765', 'http://www.wikidata.org/entity/Q17420770', 'http://www.wikidata.org/entity/Q1755825', 'http://www.wikidata.org/entity/Q18234229', 'http://www.wikidata.org/entity/Q18335504', 'http://www.wikidata.org/entity/Q18340746', 'http://www.wikidata.org/entity/Q18340750', 'http://www.wikidata.org/entity/Q18392960', 'http://www.wikidata.org/entity/Q18397296', 'http://www.wikidata.org/entity/Q18599700', 'http://www.wikidata.org/entity/Q18599759', 'http://www.wikidata.org/entity/Q1917293', 'http://www.wikidata.org/entity/Q19612083', 'http://www.wikidata.org/entity/Q19672743', 'http://www.wikidata.org/entity/Q19758235', 'http://www.wikidata.org/entity/Q19862442', 'http://www.wikidata.org/entity/Q1987990', 'http://www.wikidata.org/entity/Q19886218', 'http://www.wikidata.org/entity/Q1991236', 'http://www.wikidata.org/entity/Q19939295', 'http://www.wikidata.org/entity/Q19941936', 'http://www.wikidata.org/entity/Q19953561', 'http://www.wikidata.org/entity/Q20011734', 'http://www.wikidata.org/entity/Q20090771', 'http://www.wikidata.org/entity/Q202404', 'http://www.wikidata.org/entity/Q20641089', 'http://www.wikidata.org/entity/Q20648370', 'http://www.wikidata.org/entity/Q20745244', 'http://www.wikidata.org/entity/Q2078267', 'http://www.wikidata.org/entity/Q20897762', 'http://www.wikidata.org/entity/Q20986533', 'http://www.wikidata.org/entity/Q21027277', 'http://www.wikidata.org/entity/Q21031023', 'http://www.wikidata.org/entity/Q21066359', 'http://www.wikidata.org/entity/Q21067158', 'http://www.wikidata.org/entity/Q21114808', 'http://www.wikidata.org/entity/Q21207862', 'http://www.wikidata.org/entity/Q21295004', 'http://www.wikidata.org/entity/Q214622', 'http://www.wikidata.org/entity/Q21620727', 'http://www.wikidata.org/entity/Q21620925', 'http://www.wikidata.org/entity/Q21621189', 'http://www.wikidata.org/entity/Q21996798', 'http://www.wikidata.org/entity/Q2261557', 'http://www.wikidata.org/entity/Q22812105', 'http://www.wikidata.org/entity/Q22958899', 'http://www.wikidata.org/entity/Q23001049', 'http://www.wikidata.org/entity/Q2359693', 'http://www.wikidata.org/entity/Q23677559', 'http://www.wikidata.org/entity/Q23726787', 'http://www.wikidata.org/entity/Q23928168', 'http://www.wikidata.org/entity/Q23928180', 'http://www.wikidata.org/entity/Q24006617', 'http://www.wikidata.org/entity/Q24045397', 'http://www.wikidata.org/entity/Q2460964', 'http://www.wikidata.org/entity/Q25909395', 'http://www.wikidata.org/entity/Q2615465', 'http://www.wikidata.org/entity/Q26703027', 'http://www.wikidata.org/entity/Q26829002', 'http://www.wikidata.org/entity/Q27975949', 'http://www.wikidata.org/entity/Q28106080', 'http://www.wikidata.org/entity/Q28745301', 'http://www.wikidata.org/entity/Q289307', 'http://www.wikidata.org/entity/Q2912337', 'http://www.wikidata.org/entity/Q29346418', 'http://www.wikidata.org/entity/Q301', 'http://www.wikidata.org/entity/Q3057494', 'http://www.wikidata.org/entity/Q30887619', 'http://www.wikidata.org/entity/Q310712', 'http://www.wikidata.org/entity/Q3136115', 'http://www.wikidata.org/entity/Q3229712', 'http://www.wikidata.org/entity/Q3296541', 'http://www.wikidata.org/entity/Q330232', 'http://www.wikidata.org/entity/Q330897', 'http://www.wikidata.org/entity/Q3314731', 'http://www.wikidata.org/entity/Q3341850', 'http://www.wikidata.org/entity/Q343292', 'http://www.wikidata.org/entity/Q353059', 'http://www.wikidata.org/entity/Q3556566', 'http://www.wikidata.org/entity/Q3558422', 'http://www.wikidata.org/entity/Q3562201', 'http://www.wikidata.org/entity/Q3564132', 'http://www.wikidata.org/entity/Q3565521', 'http://www.wikidata.org/entity/Q3566247', 'http://www.wikidata.org/entity/Q368044', 'http://www.wikidata.org/entity/Q3699388', 'http://www.wikidata.org/entity/Q3731188', 'http://www.wikidata.org/entity/Q3776568', 'http://www.wikidata.org/entity/Q38127864', 'http://www.wikidata.org/entity/Q382090', 'http://www.wikidata.org/entity/Q3839783', 'http://www.wikidata.org/entity/Q3876538', 'http://www.wikidata.org/entity/Q3935791', 'http://www.wikidata.org/entity/Q40203914', 'http://www.wikidata.org/entity/Q4065802', 'http://www.wikidata.org/entity/Q4104376', 'http://www.wikidata.org/entity/Q41660974', 'http://www.wikidata.org/entity/Q4172824', 'http://www.wikidata.org/entity/Q4172835', 'http://www.wikidata.org/entity/Q4308314', 'http://www.wikidata.org/entity/Q438440', 'http://www.wikidata.org/entity/Q440558', 'http://www.wikidata.org/entity/Q463405', 'http://www.wikidata.org/entity/Q4675877', 'http://www.wikidata.org/entity/Q4751927', 'http://www.wikidata.org/entity/Q4762991', 'http://www.wikidata.org/entity/Q4763003', 'http://www.wikidata.org/entity/Q4789952', 'http://www.wikidata.org/entity/Q4796489', 'http://www.wikidata.org/entity/Q48232422', 'http://www.wikidata.org/entity/Q48976256', 'http://www.wikidata.org/entity/Q5113522', 'http://www.wikidata.org/entity/Q52498604', 'http://www.wikidata.org/entity/Q52573880', 'http://www.wikidata.org/entity/Q5277663', 'http://www.wikidata.org/entity/Q535221', 'http://www.wikidata.org/entity/Q537976', 'http://www.wikidata.org/entity/Q53864990', 'http://www.wikidata.org/entity/Q541682', 'http://www.wikidata.org/entity/Q54803547', 'http://www.wikidata.org/entity/Q55078491', 'http://www.wikidata.org/entity/Q55351080', 'http://www.wikidata.org/entity/Q5546866', 'http://www.wikidata.org/entity/Q5548437', 'http://www.wikidata.org/entity/Q56021315', 'http://www.wikidata.org/entity/Q56628168', 'http://www.wikidata.org/entity/Q56852961', 'http://www.wikidata.org/entity/Q5802175', 'http://www.wikidata.org/entity/Q58198309', 'http://www.wikidata.org/entity/Q58503135', 'http://www.wikidata.org/entity/Q58755716', 'http://www.wikidata.org/entity/Q59512002', 'http://www.wikidata.org/entity/Q59614661', 'http://www.wikidata.org/entity/Q6001459', 'http://www.wikidata.org/entity/Q60286852', 'http://www.wikidata.org/entity/Q6038194', 'http://www.wikidata.org/entity/Q6038808', 'http://www.wikidata.org/entity/Q60582822', 'http://www.wikidata.org/entity/Q60583087', 'http://www.wikidata.org/entity/Q60677632', 'http://www.wikidata.org/entity/Q6081551', 'http://www.wikidata.org/entity/Q6084720', 'http://www.wikidata.org/entity/Q6155960', 'http://www.wikidata.org/entity/Q62591624', 'http://www.wikidata.org/entity/Q62603850', 'http://www.wikidata.org/entity/Q63254170', 'http://www.wikidata.org/entity/Q63982897', 'http://www.wikidata.org/entity/Q64615787', 'http://www.wikidata.org/entity/Q6467637', 'http://www.wikidata.org/entity/Q6517023', 'http://www.wikidata.org/entity/Q65273468', 'http://www.wikidata.org/entity/Q657600', 'http://www.wikidata.org/entity/Q65926208', 'http://www.wikidata.org/entity/Q65961421', 'http://www.wikidata.org/entity/Q6751216', 'http://www.wikidata.org/entity/Q6751217', 'http://www.wikidata.org/entity/Q6751225', 'http://www.wikidata.org/entity/Q6761479', 'http://www.wikidata.org/entity/Q6761597', 'http://www.wikidata.org/entity/Q6795819', 'http://www.wikidata.org/entity/Q6835691', 'http://www.wikidata.org/entity/Q6863224', 'http://www.wikidata.org/entity/Q68867937', 'http://www.wikidata.org/entity/Q704707', 'http://www.wikidata.org/entity/Q7067631', 'http://www.wikidata.org/entity/Q70843750', 'http://www.wikidata.org/entity/Q71013124', 'http://www.wikidata.org/entity/Q718276', 'http://www.wikidata.org/entity/Q719110', 'http://www.wikidata.org/entity/Q7312347', 'http://www.wikidata.org/entity/Q7363221', 'http://www.wikidata.org/entity/Q748140', 'http://www.wikidata.org/entity/Q767151', 'http://www.wikidata.org/entity/Q77038923', 'http://www.wikidata.org/entity/Q7781871', 'http://www.wikidata.org/entity/Q77846610', 'http://www.wikidata.org/entity/Q7925550', 'http://www.wikidata.org/entity/Q81217357', 'http://www.wikidata.org/entity/Q81678162', 'http://www.wikidata.org/entity/Q821985', 'http://www.wikidata.org/entity/Q82291289', 'http://www.wikidata.org/entity/Q84048201', 'http://www.wikidata.org/entity/Q87652519', 'http://www.wikidata.org/entity/Q88314564', 'http://www.wikidata.org/entity/Q88360684', 'http://www.wikidata.org/entity/Q88361390', 'http://www.wikidata.org/entity/Q88380768', 'http://www.wikidata.org/entity/Q88383715', 'http://www.wikidata.org/entity/Q88488624', 'http://www.wikidata.org/entity/Q88657263', 'http://www.wikidata.org/entity/Q88710225', 'http://www.wikidata.org/entity/Q88710463', 'http://www.wikidata.org/entity/Q88796507', 'http://www.wikidata.org/entity/Q89259891', 'http://www.wikidata.org/entity/Q90157181', 'http://www.wikidata.org/entity/Q9033451', 'http://www.wikidata.org/entity/Q91442809', 'http://www.wikidata.org/entity/Q92781', 'http://www.wikidata.org/entity/Q93233224', 'http://www.wikidata.org/entity/Q9340768', 'http://www.wikidata.org/entity/Q93737213', 'http://www.wikidata.org/entity/Q93785423', 'http://www.wikidata.org/entity/Q94329', 'http://www.wikidata.org/entity/Q95203707', 'http://www.wikidata.org/entity/Q95309443', 'http://www.wikidata.org/entity/Q95329588', 'http://www.wikidata.org/entity/Q95349620', 'http://www.wikidata.org/entity/Q96176197', 'http://www.wikidata.org/entity/Q96395743', 'http://www.wikidata.org/entity/Q969675', 'http://www.wikidata.org/entity/Q97486765', 'http://www.wikidata.org/entity/Q98216546', 'http://www.wikidata.org/entity/Q98792917', 'http://www.wikidata.org/entity/Q98831182', 'http://www.wikidata.org/entity/Q98836152', 'http://www.wikidata.org/entity/Q99167687']</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q1009788', 'http://www.wikidata.org/entity/Q1055332', 'http://www.wikidata.org/entity/Q107325', 'http://www.wikidata.org/entity/Q115175910', 'http://www.wikidata.org/entity/Q1185312', 'http://www.wikidata.org/entity/Q1198750', 'http://www.wikidata.org/entity/Q1199648', 'http://www.wikidata.org/entity/Q1307044', 'http://www.wikidata.org/entity/Q1421355', 'http://www.wikidata.org/entity/Q1471358', 'http://www.wikidata.org/entity/Q16207076', 'http://www.wikidata.org/entity/Q1749974', 'http://www.wikidata.org/entity/Q182692', 'http://www.wikidata.org/entity/Q184768', 'http://www.wikidata.org/entity/Q1968139', 'http://www.wikidata.org/entity/Q202326', 'http://www.wikidata.org/entity/Q2309964', 'http://www.wikidata.org/entity/Q2408534', 'http://www.wikidata.org/entity/Q2547631', 'http://www.wikidata.org/entity/Q28222734', 'http://www.wikidata.org/entity/Q3620669', 'http://www.wikidata.org/entity/Q3993102', 'http://www.wikidata.org/entity/Q4243278', 'http://www.wikidata.org/entity/Q47703', 'http://www.wikidata.org/entity/Q553194', 'http://www.wikidata.org/entity/Q639387', 'http://www.wikidata.org/entity/Q7716410', 'http://www.wikidata.org/entity/Q785351', 'http://www.wikidata.org/entity/Q845102', 'http://www.wikidata.org/entity/Q858584', 'http://www.wikidata.org/entity/Q903257', 'http://www.wikidata.org/entity/Q977372']</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q3876']</t>
   </si>
   <si>
     <t>None</t>
@@ -1520,12 +1280,17 @@
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: token recognition error at: \'`\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 0,\n        "query": "\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n`SELECT DISTINCT ?date WHERE {` ` ?event wdt:P31 wd:Q145243.` ` ?event wdt:P106 wd:Q53713.` ` ?event wdt:P580 ?date.` ` SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". }` `}`",\n        "startIndex": 298,\n        "stopIndex": 298\n    },\n    "query": "\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n`SELECT DISTINCT ?date WHERE {` ` ?event wdt:P31 wd:Q145243.` ` ?event wdt:P106 wd:Q53713.` ` ?event wdt:P580 ?date.` ` SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". }` `}`",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 26,\n        "query": "SELECT ?developer WHERE { wd:Q40984 wdt:P178 ?developer. }",\n        "startIndex": 26,\n        "stopIndex": 34\n    },\n    "query": "SELECT ?developer WHERE { wd:Q40984 wdt:P178 ?developer. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"UNION\\": mismatched input \'UNION\' expecting \'}\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 230,\n        "query": "\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri ?p ?o ; ?p &lt;http://www.wikidata.org/entity/P161&gt; ; ?o &lt;http://www.wikidata.org/entity/Q34851&gt; . FILTER (?p = &lt;http://www.wikidata.org/entity/P161&gt; &amp;&amp; ?o = &lt;http://www.wikidata.org/entity/Q34851&gt;) UNION ?uri ?p ?o ; ?p &lt;http://www.wikidata.org/entity/P161&gt; ; ?o &lt;http://www.wikidata.org/entity/Q151973&gt; . }",\n        "startIndex": 528,\n        "stopIndex": 532\n    },\n    "query": "\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri ?p ?o ; ?p &lt;http://www.wikidata.org/entity/P161&gt; ; ?o &lt;http://www.wikidata.org/entity/Q34851&gt; . FILTER (?p = &lt;http://www.wikidata.org/entity/P161&gt; &amp;&amp; ?o = &lt;http://www.wikidata.org/entity/Q34851&gt;) UNION ?uri ?p ?o ; ?p &lt;http://www.wikidata.org/entity/P161&gt; ; ?o &lt;http://www.wikidata.org/entity/Q151973&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: token recognition error at: \'`\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 0,\n        "query": "`SELECT DISTINCT ?date WHERE {` ` ?event wdt:P31 wd:Q145243.` ` ?event wdt:P106 wd:Q53713.` ` ?event wdt:P580 ?date.` ` SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". }` `}`",\n        "startIndex": 0,\n        "stopIndex": 0\n    },\n    "query": "`SELECT DISTINCT ?date WHERE {` ` ?event wdt:P31 wd:Q145243.` ` ?event wdt:P106 wd:Q53713.` ` ?event wdt:P580 ?date.` ` SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". }` `}`",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\"UNION\\": mismatched input \'UNION\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 230,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri ?p ?o ; ?p &lt;http://www.wikidata.org/entity/P161&gt; ; ?o &lt;http://www.wikidata.org/entity/Q34851&gt; . FILTER (?p = &lt;http://www.wikidata.org/entity/P161&gt; &amp;&amp; ?o = &lt;http://www.wikidata.org/entity/Q34851&gt;) UNION ?uri ?p ?o ; ?p &lt;http://www.wikidata.org/entity/P161&gt; ; ?o &lt;http://www.wikidata.org/entity/Q151973&gt; . }",\n        "startIndex": 230,\n        "stopIndex": 234\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri ?p ?o ; ?p &lt;http://www.wikidata.org/entity/P161&gt; ; ?o &lt;http://www.wikidata.org/entity/Q34851&gt; . FILTER (?p = &lt;http://www.wikidata.org/entity/P161&gt; &amp;&amp; ?o = &lt;http://www.wikidata.org/entity/Q34851&gt;) UNION ?uri ?p ?o ; ?p &lt;http://www.wikidata.org/entity/P161&gt; ; ?o &lt;http://www.wikidata.org/entity/Q151973&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
@@ -1540,7 +1305,7 @@
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"GROUP BY\\": missing \'}\' at \'GROUP BY\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 54,\n        "query": "\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\nSELECT DISTINCT ?item WHERE { ?item wdt:P509 ?cause . GROUP BY ?cause HAVING (COUNT(DISTINCT ?item) &gt; (SELECT MAX(COUNT(DISTINCT ?item)) AS max_count FROM { OPTIONAL { ?item wdt:P509 ?cause . } } GROUP BY ?cause)) ORDER BY DESC(COUNT(DISTINCT ?item)) OFFSET 0 LIMIT 1 }",\n        "startIndex": 352,\n        "stopIndex": 359\n    },\n    "query": "\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\nSELECT DISTINCT ?item WHERE { ?item wdt:P509 ?cause . GROUP BY ?cause HAVING (COUNT(DISTINCT ?item) &gt; (SELECT MAX(COUNT(DISTINCT ?item)) AS max_count FROM { OPTIONAL { ?item wdt:P509 ?cause . } } GROUP BY ?cause)) ORDER BY DESC(COUNT(DISTINCT ?item)) OFFSET 0 LIMIT 1 }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"GROUP BY\\": missing \'}\' at \'GROUP BY\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 54,\n        "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P509 ?cause . GROUP BY ?cause HAVING (COUNT(DISTINCT ?item) &gt; (SELECT MAX(COUNT(DISTINCT ?item)) AS max_count FROM { OPTIONAL { ?item wdt:P509 ?cause . } } GROUP BY ?cause)) ORDER BY DESC(COUNT(DISTINCT ?item)) OFFSET 0 LIMIT 1 }",\n        "startIndex": 54,\n        "stopIndex": 61\n    },\n    "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P509 ?cause . GROUP BY ?cause HAVING (COUNT(DISTINCT ?item) &gt; (SELECT MAX(COUNT(DISTINCT ?item)) AS max_count FROM { OPTIONAL { ?item wdt:P509 ?cause . } } GROUP BY ?cause)) ORDER BY DESC(COUNT(DISTINCT ?item)) OFFSET 0 LIMIT 1 }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
@@ -1550,7 +1315,7 @@
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 87,\n        "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q12205470 wdt:P38 ?uri }",\n        "startIndex": 87,\n        "stopIndex": 93\n    },\n    "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q12205470 wdt:P38 ?uri }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 87,\n        "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q12205470 wdt:P38 ?uri }",\n        "startIndex": 87,\n        "stopIndex": 93\n    },\n    "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q12205470 wdt:P38 ?uri }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
@@ -1560,7 +1325,7 @@
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": mismatched input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 124,\n        "query": "\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri rdfs:subClassOf ?class ; wdt:P448 wdt:P17 . ?class wdt:P31 wd:Q41291 . wdt:P17 wd:Q177477 . }",\n        "startIndex": 422,\n        "stopIndex": 422\n    },\n    "query": "\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri rdfs:subClassOf ?class ; wdt:P448 wdt:P17 . ?class wdt:P31 wd:Q41291 . wdt:P17 wd:Q177477 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": mismatched input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 124,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri rdfs:subClassOf ?class ; wdt:P448 wdt:P17 . ?class wdt:P31 wd:Q41291 . wdt:P17 wd:Q177477 . }",\n        "startIndex": 124,\n        "stopIndex": 124\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri rdfs:subClassOf ?class ; wdt:P448 wdt:P17 . ?class wdt:P31 wd:Q41291 . wdt:P17 wd:Q177477 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
@@ -1570,12 +1335,17 @@
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\",\\": extraneous input \',\' expecting {\'}\', \'true\', \'false\', UNDEF, IRI_REF, PNAME_NS, PNAME_LN, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2}",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 103,\n        "query": "\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\nSELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { VALUES ?industry { \\"http://www.wikidata.org/entity/Q854995\\", \\"http://www.wikidata.org/entity/Q37038\\", \\"http://www.wikidata.org/entity/Q1286627\\" } ?uri a &lt;http://www.wikidata.org/entity/Q4830453&gt; . ?uri &lt;http://www.wikidata.org/entity/P452&gt; ?industry . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } FILTER ( regex(?industry, \\"advertising\\", \\"i\\") ) }",\n        "startIndex": 401,\n        "stopIndex": 401\n    },\n    "query": "\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\nSELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { VALUES ?industry { \\"http://www.wikidata.org/entity/Q854995\\", \\"http://www.wikidata.org/entity/Q37038\\", \\"http://www.wikidata.org/entity/Q1286627\\" } ?uri a &lt;http://www.wikidata.org/entity/Q4830453&gt; . ?uri &lt;http://www.wikidata.org/entity/P452&gt; ?industry . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } FILTER ( regex(?industry, \\"advertising\\", \\"i\\") ) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\",\\": extraneous input \',\' expecting {\'}\', \'true\', \'false\', UNDEF, IRI_REF, PNAME_NS, PNAME_LN, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 103,\n        "query": "SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { VALUES ?industry { \\"http://www.wikidata.org/entity/Q854995\\", \\"http://www.wikidata.org/entity/Q37038\\", \\"http://www.wikidata.org/entity/Q1286627\\" } ?uri a &lt;http://www.wikidata.org/entity/Q4830453&gt; . ?uri &lt;http://www.wikidata.org/entity/P452&gt; ?industry . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } FILTER ( regex(?industry, \\"advertising\\", \\"i\\") ) }",\n        "startIndex": 103,\n        "stopIndex": 103\n    },\n    "query": "SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { VALUES ?industry { \\"http://www.wikidata.org/entity/Q854995\\", \\"http://www.wikidata.org/entity/Q37038\\", \\"http://www.wikidata.org/entity/Q1286627\\" } ?uri a &lt;http://www.wikidata.org/entity/Q4830453&gt; . ?uri &lt;http://www.wikidata.org/entity/P452&gt; ?industry . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } FILTER ( regex(?industry, \\"advertising\\", \\"i\\") ) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"/\\": mismatched input \'/\' expecting \'}\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 41,\n        "query": "\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri a http://www.wikidata.org/entity/Q10843402 ; P19 http://www.wikidata.org/entity/Q649 . }",\n        "startIndex": 339,\n        "stopIndex": 339\n    },\n    "query": "\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri a http://www.wikidata.org/entity/Q10843402 ; P19 http://www.wikidata.org/entity/Q649 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 36,\n        "query": "SELECT DISTINCT ?show WHERE { ?show wd:P161 wd:Q485310 }",\n        "startIndex": 36,\n        "stopIndex": 42\n    },\n    "query": "SELECT DISTINCT ?show WHERE { ?show wd:P161 wd:Q485310 }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\"/\\": mismatched input \'/\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 41,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri a http://www.wikidata.org/entity/Q10843402 ; P19 http://www.wikidata.org/entity/Q649 . }",\n        "startIndex": 41,\n        "stopIndex": 41\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri a http://www.wikidata.org/entity/Q10843402 ; P19 http://www.wikidata.org/entity/Q649 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
@@ -1585,12 +1355,12 @@
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": extraneous input \'&lt;\' expecting {\'(\', \'+\', \'!\', \'-\', \'true\', \'false\', GROUP_CONCAT, NOT, STR, LANG, LANGMATCHES, DATATYPE, BOUND, IRI, URI, BNODE, RAND, ABS, CEIL, FLOOR, ROUND, CONCAT, STRLEN, UCASE, LCASE, ENCODE_FOR_URI, CONTAINS, STRSTARTS, STRENDS, STRBEFORE, STRAFTER, YEAR, MONTH, DAY, HOURS, MINUTES, SECONDS, TIMEZONE, TZ, NOW, UUID, STRUUID, SHA1, SHA256, SHA384, SHA512, MD5, COALESCE, IF, STRLANG, STRDT, SAMETERM, ISIRI, ISURI, ISBLANK, ISLITERAL, ISNUMERIC, REGEX, SUBSTR, REPLACE, EXISTS, COUNT, SUM, MIN, MAX, AVG, SAMPLE, IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2}",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 151,\n        "query": "\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q8502&gt; ; &lt;http://www.wikidata.org/entity/P2044&gt; ?elevation . FILTER ( ?elevation &lt; &lt;http://dbpedia.org/resource/Mount Everest&gt;\'s elevation &gt; ) ORDER BY DESC(?elevation) OFFSET 1 LIMIT 1 }",\n        "startIndex": 449,\n        "stopIndex": 449\n    },\n    "query": "\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q8502&gt; ; &lt;http://www.wikidata.org/entity/P2044&gt; ?elevation . FILTER ( ?elevation &lt; &lt;http://dbpedia.org/resource/Mount Everest&gt;\'s elevation &gt; ) ORDER BY DESC(?elevation) OFFSET 1 LIMIT 1 }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": extraneous input \'&lt;\' expecting {\'(\', \'+\', \'!\', \'-\', \'true\', \'false\', GROUP_CONCAT, NOT, STR, LANG, LANGMATCHES, DATATYPE, BOUND, IRI, URI, BNODE, RAND, ABS, CEIL, FLOOR, ROUND, CONCAT, STRLEN, UCASE, LCASE, ENCODE_FOR_URI, CONTAINS, STRSTARTS, STRENDS, STRBEFORE, STRAFTER, YEAR, MONTH, DAY, HOURS, MINUTES, SECONDS, TIMEZONE, TZ, NOW, UUID, STRUUID, SHA1, SHA256, SHA384, SHA512, MD5, COALESCE, IF, STRLANG, STRDT, SAMETERM, ISIRI, ISURI, ISBLANK, ISLITERAL, ISNUMERIC, REGEX, SUBSTR, REPLACE, EXISTS, COUNT, SUM, MIN, MAX, AVG, SAMPLE, IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 151,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q8502&gt; ; &lt;http://www.wikidata.org/entity/P2044&gt; ?elevation . FILTER ( ?elevation &lt; &lt;http://dbpedia.org/resource/Mount Everest&gt;\'s elevation &gt; ) ORDER BY DESC(?elevation) OFFSET 1 LIMIT 1 }",\n        "startIndex": 151,\n        "stopIndex": 151\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q8502&gt; ; &lt;http://www.wikidata.org/entity/P2044&gt; ?elevation . FILTER ( ?elevation &lt; &lt;http://dbpedia.org/resource/Mount Everest&gt;\'s elevation &gt; ) ORDER BY DESC(?elevation) OFFSET 1 LIMIT 1 }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>EndPointInternalError: The endpoint returned the HTTP status code 500. 
 Response:
-b'{\n    "exception": "Tried to allocate 161.5 GB, but only 19.9 GB were available. Clear the cache or allow more memory for QLever during startup",\n    "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { wd:Q34969 wd:P40 ?uri. OPTIONAL { ?uri ?p ?o } }",\n    "resultsize": 0,\n    "runtimeInformation": {\n        "cache_status": "computed",\n        "children": [\n            {\n                "cache_status": "computed",\n                "children": [\n                    {\n                        "cache_status": "computed",\n                        "children": [],\n                        "column_names": [\n                            "?uri"\n                        ],\n                        "description": "IndexScan &lt;http://www.wikidata.org/entity/Q34969&gt; &lt;http://www.wikidata.org/entity/P40&gt; ?uri",\n                        "details": null,\n                        "estimated_column_multiplicities": [\n                            1.0\n                        ],\n                        "estimated_operation_cost": 0,\n                        "estimated_size": 0,\n                        "estimated_total_cost": 0,\n                        "operation_time": 0,\n                        "original_operation_time": 0,\n                        "original_total_time": 0,\n                        "result_cols": 1,\n                        "result_rows": 0,\n                        "status": "fully materialized",\n                        "total_time": 0\n                    },\n                    {\n                        "cache_status": "computed",\n                        "children": [],\n                        "column_names": [\n                            "?uri",\n                            "?p",\n                            "?o"\n                        ],\n                        "description": "IndexScan ?uri ?p ?o",\n                        "details": null,\n                        "estimated_column_multiplicities": [\n                            9.224080085754395,\n                            366843.5625,\n                            7.993105888366699\n                        ],\n                        "estimated_operation_cost": 29526504696,\n                        "estimated_size": 29526504696,\n                        "estimated_total_cost": 29526504696,\n                        "operation_time": 1,\n                        "original_operation_time": 0,\n                        "original_total_time": 0,\n                        "result_cols": 3,\n                        "result_rows": 0,\n                        "status": "failed",\n                        "total_time": 1\n                    }\n                ],\n                "column_names": [\n                    "?uri",\n                    "?p (U)",\n                    "?o (U)"\n                ],\n                "description": "OptionalJoin on ?uri ",\n                "details": null,\n                "estimated_column_multiplicities": [\n                    9.224080085754395,\n                    366843.5625,\n                    7.993105888366699\n                ],\n                "estimated_operation_cost": 118106018788,\n                "estimated_size": 1,\n                "estimated_total_cost": 147632523484,\n                "operation_time": 1,\n                "original_operation_time": 0,\n                "original_total_time": 0,\n                "result_cols": 3,\n                "result_rows": 0,\n                "status": "failed because child failed",\n                "total_time": 2\n            }\n        ],\n        "column_names": [\n            "?c (U)"\n        ],\n        "description": "GroupBy (implicit)",\n        "details": null,\n        "estimated_column_multiplicities": [\n            1.0\n        ],\n        "estimated_operation_cost": 0,\n        "estimated_size": 1,\n        "estimated_total_cost": 147632523484,\n        "operation_time": 0,\n        "original_operation_time": 0,\n        "original_total_time": 0,\n        "result_cols": 1,\n        "result_rows": 0,\n        "status": "failed because child failed",\n        "total_time": 2\n    },\n    "status": "ERROR",\n    "time": {\n        "computeResult": 4,\n        "total": 4\n    }\n}'</t>
+b'{\n    "exception": "Tried to allocate 161.5 GB, but only 19.9 GB were available. Clear the cache or allow more memory for QLever during startup",\n    "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { wd:Q34969 wd:P40 ?uri. OPTIONAL { ?uri ?p ?o } }",\n    "resultsize": 0,\n    "runtimeInformation": {\n        "cache_status": "computed",\n        "children": [\n            {\n                "cache_status": "computed",\n                "children": [\n                    {\n                        "cache_status": "computed",\n                        "children": [],\n                        "column_names": [\n                            "?uri"\n                        ],\n                        "description": "IndexScan &lt;http://www.wikidata.org/entity/Q34969&gt; &lt;http://www.wikidata.org/entity/P40&gt; ?uri",\n                        "details": null,\n                        "estimated_column_multiplicities": [\n                            1.0\n                        ],\n                        "estimated_operation_cost": 0,\n                        "estimated_size": 0,\n                        "estimated_total_cost": 0,\n                        "operation_time": 0,\n                        "original_operation_time": 0,\n                        "original_total_time": 0,\n                        "result_cols": 1,\n                        "result_rows": 0,\n                        "status": "fully materialized",\n                        "total_time": 0\n                    },\n                    {\n                        "cache_status": "computed",\n                        "children": [],\n                        "column_names": [\n                            "?uri",\n                            "?p",\n                            "?o"\n                        ],\n                        "description": "IndexScan ?uri ?p ?o",\n                        "details": null,\n                        "estimated_column_multiplicities": [\n                            9.224080085754395,\n                            366843.5625,\n                            7.993105888366699\n                        ],\n                        "estimated_operation_cost": 29526504696,\n                        "estimated_size": 29526504696,\n                        "estimated_total_cost": 29526504696,\n                        "operation_time": 41,\n                        "original_operation_time": 0,\n                        "original_total_time": 0,\n                        "result_cols": 3,\n                        "result_rows": 0,\n                        "status": "failed",\n                        "total_time": 41\n                    }\n                ],\n                "column_names": [\n                    "?uri",\n                    "?p (U)",\n                    "?o (U)"\n                ],\n                "description": "OptionalJoin on ?uri ",\n                "details": null,\n                "estimated_column_multiplicities": [\n                    9.224080085754395,\n                    366843.5625,\n                    7.993105888366699\n                ],\n                "estimated_operation_cost": 118106018788,\n                "estimated_size": 1,\n                "estimated_total_cost": 147632523484,\n                "operation_time": 1,\n                "original_operation_time": 0,\n                "original_total_time": 0,\n                "result_cols": 3,\n                "result_rows": 0,\n                "status": "failed because child failed",\n                "total_time": 42\n            }\n        ],\n        "column_names": [\n            "?c (U)"\n        ],\n        "description": "GroupBy (implicit)",\n        "details": null,\n        "estimated_column_multiplicities": [\n            1.0\n        ],\n        "estimated_operation_cost": 0,\n        "estimated_size": 1,\n        "estimated_total_cost": 147632523484,\n        "operation_time": 0,\n        "original_operation_time": 0,\n        "original_total_time": 0,\n        "result_cols": 1,\n        "result_rows": 0,\n        "status": "failed because child failed",\n        "total_time": 42\n    },\n    "status": "ERROR",\n    "time": {\n        "computeResult": 43,\n        "total": 43\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
@@ -1600,7 +1370,12 @@
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"/\\": mismatched input \'/\' expecting \'}\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 41,\n        "query": "\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri a http://www.wikidata.org/entity/Q1445650 ; http://www.wikidata.org/entity/P17 http://www.wikidata.org/entity/Q34 . }",\n        "startIndex": 339,\n        "stopIndex": 339\n    },\n    "query": "\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri a http://www.wikidata.org/entity/Q1445650 ; http://www.wikidata.org/entity/P17 http://www.wikidata.org/entity/Q34 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 32,\n        "query": "SELECT DISTINCT ?height WHERE { wd:Q76717 wdt:P2048 ?height . }",\n        "startIndex": 32,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?height WHERE { wd:Q76717 wdt:P2048 ?height . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\"/\\": mismatched input \'/\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 41,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri a http://www.wikidata.org/entity/Q1445650 ; http://www.wikidata.org/entity/P17 http://www.wikidata.org/entity/Q34 . }",\n        "startIndex": 41,\n        "stopIndex": 41\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri a http://www.wikidata.org/entity/Q1445650 ; http://www.wikidata.org/entity/P17 http://www.wikidata.org/entity/Q34 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
@@ -1610,12 +1385,12 @@
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": mismatched input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 158,\n        "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?num WHERE { ?s wdt:P2048 ?num . ?s wd:Q41421 . }",\n        "startIndex": 158,\n        "stopIndex": 158\n    },\n    "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?num WHERE { ?s wdt:P2048 ?num . ?s wd:Q41421 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": mismatched input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 158,\n        "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?num WHERE { ?s wdt:P2048 ?num . ?s wd:Q41421 . }",\n        "startIndex": 158,\n        "stopIndex": 158\n    },\n    "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?num WHERE { ?s wdt:P2048 ?num . ?s wd:Q41421 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"UNION\\": mismatched input \'UNION\' expecting \'}\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 226,\n        "query": "\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q33999&gt; . ?uri &lt;http://www.wikidata.org/entity/P19&gt; ?place . OPTIONAL { ?place &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q43287&gt; } UNION ?uri &lt;http://www.wikidata.org/entity/P19&gt; ?place . ?place &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q43287&gt; . }",\n        "startIndex": 524,\n        "stopIndex": 528\n    },\n    "query": "\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q33999&gt; . ?uri &lt;http://www.wikidata.org/entity/P19&gt; ?place . OPTIONAL { ?place &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q43287&gt; } UNION ?uri &lt;http://www.wikidata.org/entity/P19&gt; ?place . ?place &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q43287&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"UNION\\": mismatched input \'UNION\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 226,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q33999&gt; . ?uri &lt;http://www.wikidata.org/entity/P19&gt; ?place . OPTIONAL { ?place &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q43287&gt; } UNION ?uri &lt;http://www.wikidata.org/entity/P19&gt; ?place . ?place &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q43287&gt; . }",\n        "startIndex": 226,\n        "stopIndex": 230\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q33999&gt; . ?uri &lt;http://www.wikidata.org/entity/P19&gt; ?place . OPTIONAL { ?place &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q43287&gt; } UNION ?uri &lt;http://www.wikidata.org/entity/P19&gt; ?place . ?place &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q43287&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
@@ -1625,12 +1400,12 @@
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 93,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q482994 ; wdt:P175 wd:Q15862 ; wdt:P577 ?d } ORDER BY ASC(?d) OFFSET 0 LIMIT 1",\n        "startIndex": 93,\n        "stopIndex": 102\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q482994 ; wdt:P175 wd:Q15862 ; wdt:P577 ?d } ORDER BY ASC(?d) OFFSET 0 LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 93,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q482994 ; wdt:P175 wd:Q15862 ; wdt:P577 ?d } ORDER BY ASC(?d) OFFSET 0 LIMIT 1",\n        "startIndex": 93,\n        "stopIndex": 102\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q482994 ; wdt:P175 wd:Q15862 ; wdt:P577 ?d } ORDER BY ASC(?d) OFFSET 0 LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>EndPointInternalError: The endpoint returned the HTTP status code 500. 
 Response:
-b'{\n    "exception": "Assertion `it != inputs.end()` failed. Please report this to the developers. In file \\"/app/src/engine/sparqlExpressions/AggregateExpression.h \\" at line 128",\n    "query": "\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P106&gt; ?x . ?x &lt;http://www.wikidata.org/entity/P50&gt; ?uri . ?x &lt;http://www.wikidata.org/entity/P577&gt; ?y . ?y &lt;http://www.wikidata.org/entity/P31&gt; &lt;http://www.wikidata.org/entity/Q571&gt; . } ORDER BY DESC(COUNT(?x)) OFFSET 0 LIMIT 1",\n    "resultsize": 0,\n    "runtimeInformation": {\n        "cache_status": "computed",\n        "children": [\n            {\n                "cache_status": "computed",\n                "children": [\n                    {\n                        "cache_status": "computed",\n                        "children": [\n                            {\n                                "cache_status": "computed",\n                                "children": [\n                                    {\n                                        "cache_status": "computed",\n                                        "children": [\n                                            {\n                                                "cache_status": "computed",\n                                                "children": [\n                                                    {\n                                                        "cache_status": "computed",\n                                                        "children": [\n                                                            {\n                                                                "cache_status": "computed",\n                                                                "children": [\n                                                                    {\n                                                                        "cache_status": "computed",\n                                                                        "children": [],\n                                                                        "column_names": [\n                                                                            "?x",\n                                                                            "?uri"\n                                                                        ],\n                                                                        "description": "IndexScan ?uri &lt;http://www.wikidata.org/entity/P106&gt; ?x",\n                                                                        "details": null,\n                                                                        "estimated_column_multiplicities": [\n                                                                            1.0,\n                                                                            1.0\n                                                                        ],\n                                                                        "estimated_operation_cost": 0,\n                                                                        "estimated_size": 0,\n                                                                        "estimated_total_cost": 0,\n                                                                        "operation_time": 0,\n                                                                        "original_operation_time": 0,\n                                                                        "original_total_time": 0,\n                                                                        "result_cols": 2,\n                                                                        "result_rows": 0,\n                                                                        "status": "optimized out",\n                                                                        "total_time": 0\n                                                                    },\n                                                                    {\n                                                                        "cache_status": "computed",\n                                                                        "children": [],\n                                                                        "column_names": [\n                                                                            "?x",\n                                                                            "?uri"\n                                                                        ],\n                                                                        "description": "IndexScan ?x &lt;http://www.wikidata.org/entity/P50&gt; ?uri",\n                                                                        "details": null,\n                                                                        "estimated_column_multiplicities": [\n                                                                            1.0,\n                                                                            1.0\n                                                                        ],\n                                                                        "estimated_operation_cost": 0,\n                                                                        "estimated_size": 0,\n                                                                        "estimated_total_cost": 0,\n                                                                        "operation_time": 0,\n                                                                        "original_operation_time": 0,\n                                                                        "original_total_time": 0,\n                                                                        "result_cols": 2,\n                                                                        "result_rows": 0,\n                                                                        "status": "optimized out",\n                                                                        "total_time": 0\n                                                                    }\n                                                                ],\n                                                                "column_names": [\n                                                                    "?x",\n                                                                    "?uri"\n                                                                ],\n                                                                "description": "MultiColumnJoin on ?x ?uri ",\n                                                                "details": null,\n                                                                "estimated_column_multiplicities": [\n                                                                    1.0,\n                                                                    1.0\n                                                                ],\n                                                                "estimated_operation_cost": 4,\n                                                                "estimated_size": 2,\n                                                                "estimated_total_cost": 4,\n                                                                "operation_time": 0,\n                                                                "original_operation_time": 0,\n                                                                "original_total_time": 0,\n                                                                "result_cols": 2,\n                                                                "result_rows": 0,\n                                                                "status": "optimized out",\n                                                                "total_time": 0\n                                                            },\n                                                            {\n                                                                "cache_status": "computed",\n                                                                "children": [],\n                                                                "column_names": [\n                                                                    "?x",\n                                                                    "?y"\n                                                                ],\n                                                                "description": "IndexScan ?x &lt;http://www.wikidata.org/entity/P577&gt; ?y",\n                                                                "details": null,\n                                                                "estimated_column_multiplicities": [\n                                                                    1.0,\n                                                                    1.0\n                                                                ],\n                                                                "estimated_operation_cost": 0,\n                                                                "estimated_size": 0,\n                                                                "estimated_total_cost": 0,\n                                                                "operation_time": 0,\n                                                                "original_operation_time": 0,\n                                                                "original_total_time": 0,\n                                                                "result_cols": 2,\n                                                                "result_rows": 0,\n                                                                "status": "optimized out",\n                                                                "total_time": 0\n                                                            }\n                                                        ],\n                                                        "column_names": [\n                                                            "?x",\n                                                            "?uri",\n                                                            "?y"\n                                                        ],\n                                                        "description": "Join on ?x",\n                                                        "details": null,\n                                                        "estimated_column_multiplicities": [\n                                                            1.0,\n                                                            1.0,\n                                                            1.0\n                                                        ],\n                                                        "estimated_operation_cost": 2,\n                                                        "estimated_size": 0,\n                                                        "estimated_total_cost": 6,\n                                                        "operation_time": 0,\n                                                        "original_operation_time": 0,\n                                                        "original_total_time": 0,\n                                                        "result_cols": 3,\n                                                        "result_rows": 0,\n                                                        "status": "optimized out",\n                                                        "total_time": 0\n                                                    }\n                                                ],\n                                                "column_names": [\n                                                    "?x",\n                                                    "?uri",\n                                                    "?y"\n                                                ],\n                                                "description": "Sort (internal order) on ?y",\n                                                "details": null,\n                                                "estimated_column_multiplicities": [\n                                                    1.0,\n                                                    1.0,\n                                                    1.0\n                                                ],\n                                                "estimated_operation_cost": 0,\n                                                "estimated_size": 0,\n                                                "estimated_total_cost": 6,\n                                                "operation_time": 0,\n                                                "original_operation_time": 0,\n                                                "original_total_time": 0,\n                                                "result_cols": 3,\n                                                "result_rows": 0,\n                                                "status": "optimized out",\n                                                "total_time": 0\n                                            },\n                                            {\n                                                "cache_status": "computed",\n                                                "children": [],\n                                                "column_names": [\n                                                    "?y"\n                                                ],\n                                                "description": "IndexScan ?y &lt;http://www.wikidata.org/entity/P31&gt; &lt;http://www.wikidata.org/entity/Q571&gt;",\n                                                "details": null,\n                                                "estimated_column_multiplicities": [\n                                                    1.0\n                                                ],\n                                                "estimated_operation_cost": 0,\n                                                "estimated_size": 0,\n                                                "estimated_total_cost": 0,\n                                                "operation_time": 0,\n                                                "original_operation_time": 0,\n                                                "original_total_time": 0,\n                                                "result_cols": 1,\n                                                "result_rows": 0,\n                                                "status": "optimized out",\n                                                "total_time": 0\n                                            }\n                                        ],\n                                        "column_names": [\n                                            "?x",\n                                            "?uri",\n                                            "?y"\n                                        ],\n                                        "description": "Join on ?y",\n                                        "details": null,\n                                        "estimated_column_multiplicities": [\n                                            1.0,\n                                            1.0,\n                                            1.0\n                                        ],\n                                        "estimated_operation_cost": 0,\n                                        "estimated_size": 0,\n                                        "estimated_total_cost": 6,\n                                        "operation_time": 0,\n                                        "original_operation_time": 0,\n                                        "original_total_time": 0,\n                                        "result_cols": 3,\n                                        "result_rows": 0,\n                                        "status": "fully materialized",\n                                        "total_time": 0\n                                    }\n                                ],\n                                "column_names": [\n                                    "?x",\n                                    "?uri",\n                                    "?y",\n                                    "?_QLever_internal_variable_0 (U)"\n                                ],\n                                "description": "BIND ((COUNT(?x)) AS ?_QLever_internal_variable_0)",\n                                "details": null,\n                                "estimated_column_multiplicities": [\n                                    1.0,\n                                    1.0,\n                                    1.0,\n                                    1.0\n                                ],\n                                "estimated_operation_cost": 0,\n                                "estimated_size": 0,\n                                "estimated_total_cost": 6,\n                                "operation_time": 1,\n                                "original_operation_time": 0,\n                                "original_total_time": 0,\n                                "result_cols": 4,\n                                "result_rows": 0,\n                                "status": "failed",\n                                "total_time": 1\n                            }\n                        ],\n                        "column_names": [\n                            "?x",\n                            "?uri",\n                            "?y",\n                            "?_QLever_internal_variable_0 (U)"\n                        ],\n                        "description": "Sort (internal order) on ?uri",\n                        "details": null,\n                        "estimated_column_multiplicities": [\n                            1.0,\n                            1.0,\n                            1.0,\n                            1.0\n                        ],\n                        "estimated_operation_cost": 0,\n                        "estimated_size": 0,\n                        "estimated_total_cost": 6,\n                        "operation_time": 0,\n                        "original_operation_time": 0,\n                        "original_total_time": 0,\n                        "result_cols": 4,\n                        "result_rows": 0,\n                        "status": "failed because child failed",\n                        "total_time": 1\n                    }\n                ],\n                "column_names": [\n                    "?x",\n                    "?uri",\n                    "?y",\n                    "?_QLever_internal_variable_0 (U)"\n                ],\n                "description": "Distinct",\n                "details": null,\n                "estimated_column_multiplicities": [\n                    1.0,\n                    1.0,\n                    1.0,\n                    1.0\n                ],\n                "estimated_operation_cost": 0,\n                "estimated_size": 0,\n                "estimated_total_cost": 6,\n                "operation_time": 0,\n                "original_operation_time": 0,\n                "original_total_time": 0,\n                "result_cols": 4,\n                "result_rows": 0,\n                "status": "failed because child failed",\n                "total_time": 1\n            }\n        ],\n        "column_names": [\n            "?x",\n            "?uri",\n            "?y",\n            "?_QLever_internal_variable_0 (U)"\n        ],\n        "description": "OrderBy on DESC(?_QLever_internal_variable_0)",\n        "details": null,\n        "estimated_column_multiplicities": [\n            1.0,\n            1.0,\n            1.0,\n            1.0\n        ],\n        "estimated_operation_cost": 0,\n        "estimated_size": 0,\n        "estimated_total_cost": 6,\n        "operation_time": 1,\n        "original_operation_time": 0,\n        "original_total_time": 0,\n        "result_cols": 4,\n        "result_rows": 0,\n        "status": "failed because child failed",\n        "total_time": 2\n    },\n    "status": "ERROR",\n    "time": {\n        "computeResult": 6,\n        "total": 6\n    }\n}'</t>
+b'{\n    "exception": "Assertion `it != inputs.end()` failed. Please report this to the developers. In file \\"/app/src/engine/sparqlExpressions/AggregateExpression.h \\" at line 128",\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P106&gt; ?x . ?x &lt;http://www.wikidata.org/entity/P50&gt; ?uri . ?x &lt;http://www.wikidata.org/entity/P577&gt; ?y . ?y &lt;http://www.wikidata.org/entity/P31&gt; &lt;http://www.wikidata.org/entity/Q571&gt; . } ORDER BY DESC(COUNT(?x)) OFFSET 0 LIMIT 1",\n    "resultsize": 0,\n    "runtimeInformation": {\n        "cache_status": "computed",\n        "children": [\n            {\n                "cache_status": "computed",\n                "children": [\n                    {\n                        "cache_status": "computed",\n                        "children": [\n                            {\n                                "cache_status": "computed",\n                                "children": [\n                                    {\n                                        "cache_status": "computed",\n                                        "children": [\n                                            {\n                                                "cache_status": "computed",\n                                                "children": [\n                                                    {\n                                                        "cache_status": "computed",\n                                                        "children": [\n                                                            {\n                                                                "cache_status": "computed",\n                                                                "children": [\n                                                                    {\n                                                                        "cache_status": "computed",\n                                                                        "children": [],\n                                                                        "column_names": [\n                                                                            "?x",\n                                                                            "?uri"\n                                                                        ],\n                                                                        "description": "IndexScan ?uri &lt;http://www.wikidata.org/entity/P106&gt; ?x",\n                                                                        "details": null,\n                                                                        "estimated_column_multiplicities": [\n                                                                            1.0,\n                                                                            1.0\n                                                                        ],\n                                                                        "estimated_operation_cost": 0,\n                                                                        "estimated_size": 0,\n                                                                        "estimated_total_cost": 0,\n                                                                        "operation_time": 0,\n                                                                        "original_operation_time": 0,\n                                                                        "original_total_time": 0,\n                                                                        "result_cols": 2,\n                                                                        "result_rows": 0,\n                                                                        "status": "optimized out",\n                                                                        "total_time": 0\n                                                                    },\n                                                                    {\n                                                                        "cache_status": "computed",\n                                                                        "children": [],\n                                                                        "column_names": [\n                                                                            "?x",\n                                                                            "?uri"\n                                                                        ],\n                                                                        "description": "IndexScan ?x &lt;http://www.wikidata.org/entity/P50&gt; ?uri",\n                                                                        "details": null,\n                                                                        "estimated_column_multiplicities": [\n                                                                            1.0,\n                                                                            1.0\n                                                                        ],\n                                                                        "estimated_operation_cost": 0,\n                                                                        "estimated_size": 0,\n                                                                        "estimated_total_cost": 0,\n                                                                        "operation_time": 0,\n                                                                        "original_operation_time": 0,\n                                                                        "original_total_time": 0,\n                                                                        "result_cols": 2,\n                                                                        "result_rows": 0,\n                                                                        "status": "optimized out",\n                                                                        "total_time": 0\n                                                                    }\n                                                                ],\n                                                                "column_names": [\n                                                                    "?x",\n                                                                    "?uri"\n                                                                ],\n                                                                "description": "MultiColumnJoin on ?x ?uri ",\n                                                                "details": null,\n                                                                "estimated_column_multiplicities": [\n                                                                    1.0,\n                                                                    1.0\n                                                                ],\n                                                                "estimated_operation_cost": 4,\n                                                                "estimated_size": 2,\n                                                                "estimated_total_cost": 4,\n                                                                "operation_time": 0,\n                                                                "original_operation_time": 0,\n                                                                "original_total_time": 0,\n                                                                "result_cols": 2,\n                                                                "result_rows": 0,\n                                                                "status": "optimized out",\n                                                                "total_time": 0\n                                                            },\n                                                            {\n                                                                "cache_status": "computed",\n                                                                "children": [],\n                                                                "column_names": [\n                                                                    "?x",\n                                                                    "?y"\n                                                                ],\n                                                                "description": "IndexScan ?x &lt;http://www.wikidata.org/entity/P577&gt; ?y",\n                                                                "details": null,\n                                                                "estimated_column_multiplicities": [\n                                                                    1.0,\n                                                                    1.0\n                                                                ],\n                                                                "estimated_operation_cost": 0,\n                                                                "estimated_size": 0,\n                                                                "estimated_total_cost": 0,\n                                                                "operation_time": 0,\n                                                                "original_operation_time": 0,\n                                                                "original_total_time": 0,\n                                                                "result_cols": 2,\n                                                                "result_rows": 0,\n                                                                "status": "optimized out",\n                                                                "total_time": 0\n                                                            }\n                                                        ],\n                                                        "column_names": [\n                                                            "?x",\n                                                            "?uri",\n                                                            "?y"\n                                                        ],\n                                                        "description": "Join on ?x",\n                                                        "details": null,\n                                                        "estimated_column_multiplicities": [\n                                                            1.0,\n                                                            1.0,\n                                                            1.0\n                                                        ],\n                                                        "estimated_operation_cost": 2,\n                                                        "estimated_size": 0,\n                                                        "estimated_total_cost": 6,\n                                                        "operation_time": 0,\n                                                        "original_operation_time": 0,\n                                                        "original_total_time": 0,\n                                                        "result_cols": 3,\n                                                        "result_rows": 0,\n                                                        "status": "optimized out",\n                                                        "total_time": 0\n                                                    }\n                                                ],\n                                                "column_names": [\n                                                    "?x",\n                                                    "?uri",\n                                                    "?y"\n                                                ],\n                                                "description": "Sort (internal order) on ?y",\n                                                "details": null,\n                                                "estimated_column_multiplicities": [\n                                                    1.0,\n                                                    1.0,\n                                                    1.0\n                                                ],\n                                                "estimated_operation_cost": 0,\n                                                "estimated_size": 0,\n                                                "estimated_total_cost": 6,\n                                                "operation_time": 0,\n                                                "original_operation_time": 0,\n                                                "original_total_time": 0,\n                                                "result_cols": 3,\n                                                "result_rows": 0,\n                                                "status": "optimized out",\n                                                "total_time": 0\n                                            },\n                                            {\n                                                "cache_status": "computed",\n                                                "children": [],\n                                                "column_names": [\n                                                    "?y"\n                                                ],\n                                                "description": "IndexScan ?y &lt;http://www.wikidata.org/entity/P31&gt; &lt;http://www.wikidata.org/entity/Q571&gt;",\n                                                "details": null,\n                                                "estimated_column_multiplicities": [\n                                                    1.0\n                                                ],\n                                                "estimated_operation_cost": 0,\n                                                "estimated_size": 0,\n                                                "estimated_total_cost": 0,\n                                                "operation_time": 0,\n                                                "original_operation_time": 0,\n                                                "original_total_time": 0,\n                                                "result_cols": 1,\n                                                "result_rows": 0,\n                                                "status": "optimized out",\n                                                "total_time": 0\n                                            }\n                                        ],\n                                        "column_names": [\n                                            "?x",\n                                            "?uri",\n                                            "?y"\n                                        ],\n                                        "description": "Join on ?y",\n                                        "details": null,\n                                        "estimated_column_multiplicities": [\n                                            1.0,\n                                            1.0,\n                                            1.0\n                                        ],\n                                        "estimated_operation_cost": 0,\n                                        "estimated_size": 0,\n                                        "estimated_total_cost": 6,\n                                        "operation_time": 0,\n                                        "original_operation_time": 0,\n                                        "original_total_time": 0,\n                                        "result_cols": 3,\n                                        "result_rows": 0,\n                                        "status": "fully materialized",\n                                        "total_time": 0\n                                    }\n                                ],\n                                "column_names": [\n                                    "?x",\n                                    "?uri",\n                                    "?y",\n                                    "?_QLever_internal_variable_0 (U)"\n                                ],\n                                "description": "BIND ((COUNT(?x)) AS ?_QLever_internal_variable_0)",\n                                "details": null,\n                                "estimated_column_multiplicities": [\n                                    1.0,\n                                    1.0,\n                                    1.0,\n                                    1.0\n                                ],\n                                "estimated_operation_cost": 0,\n                                "estimated_size": 0,\n                                "estimated_total_cost": 6,\n                                "operation_time": 1,\n                                "original_operation_time": 0,\n                                "original_total_time": 0,\n                                "result_cols": 4,\n                                "result_rows": 0,\n                                "status": "failed",\n                                "total_time": 1\n                            }\n                        ],\n                        "column_names": [\n                            "?x",\n                            "?uri",\n                            "?y",\n                            "?_QLever_internal_variable_0 (U)"\n                        ],\n                        "description": "Sort (internal order) on ?uri",\n                        "details": null,\n                        "estimated_column_multiplicities": [\n                            1.0,\n                            1.0,\n                            1.0,\n                            1.0\n                        ],\n                        "estimated_operation_cost": 0,\n                        "estimated_size": 0,\n                        "estimated_total_cost": 6,\n                        "operation_time": 0,\n                        "original_operation_time": 0,\n                        "original_total_time": 0,\n                        "result_cols": 4,\n                        "result_rows": 0,\n                        "status": "failed because child failed",\n                        "total_time": 1\n                    }\n                ],\n                "column_names": [\n                    "?x",\n                    "?uri",\n                    "?y",\n                    "?_QLever_internal_variable_0 (U)"\n                ],\n                "description": "Distinct",\n                "details": null,\n                "estimated_column_multiplicities": [\n                    1.0,\n                    1.0,\n                    1.0,\n                    1.0\n                ],\n                "estimated_operation_cost": 0,\n                "estimated_size": 0,\n                "estimated_total_cost": 6,\n                "operation_time": 0,\n                "original_operation_time": 0,\n                "original_total_time": 0,\n                "result_cols": 4,\n                "result_rows": 0,\n                "status": "failed because child failed",\n                "total_time": 1\n            }\n        ],\n        "column_names": [\n            "?x",\n            "?uri",\n            "?y",\n            "?_QLever_internal_variable_0 (U)"\n        ],\n        "description": "OrderBy on DESC(?_QLever_internal_variable_0)",\n        "details": null,\n        "estimated_column_multiplicities": [\n            1.0,\n            1.0,\n            1.0,\n            1.0\n        ],\n        "estimated_operation_cost": 0,\n        "estimated_size": 0,\n        "estimated_total_cost": 6,\n        "operation_time": 2,\n        "original_operation_time": 0,\n        "original_total_time": 0,\n        "result_cols": 4,\n        "result_rows": 0,\n        "status": "failed because child failed",\n        "total_time": 3\n    },\n    "status": "ERROR",\n    "time": {\n        "computeResult": 6,\n        "total": 6\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
@@ -1640,49 +1415,85 @@
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 95,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?film wdt:P161 wd:Q40523 ; wdt:P161 wd:Q48410 . FILTER (?film = ?film) }",\n        "startIndex": 95,\n        "stopIndex": 103\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?film wdt:P161 wd:Q40523 ; wdt:P161 wd:Q48410 . FILTER (?film = ?film) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 wd:Q5280538 . ?uri wdt:P106 wd:Q806349 . ?uri wdt:P1303 wd:Q119621 . ?uri wdt:P1303 wd:Q8338 . }",\n        "startIndex": 34,\n        "stopIndex": 41\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 wd:Q5280538 . ?uri wdt:P106 wd:Q806349 . ?uri wdt:P1303 wd:Q119621 . ?uri wdt:P1303 wd:Q8338 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 87,\n        "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?capital WHERE { wd:Q1009 wdt:P36 ?capital }",\n        "startIndex": 87,\n        "stopIndex": 93\n    },\n    "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?capital WHERE { wd:Q1009 wdt:P36 ?capital }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 95,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?film wdt:P161 wd:Q40523 ; wdt:P161 wd:Q48410 . FILTER (?film = ?film) }",\n        "startIndex": 95,\n        "stopIndex": 103\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?film wdt:P161 wd:Q40523 ; wdt:P161 wd:Q48410 . FILTER (?film = ?film) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 68,\n        "query": "\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\nSELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri wdt:P373 [] . ?uri wikibase:sourceId ?dbpediaSource . ?dbpediaSource wdt:P31 &lt;http://www.wikidata.org/entity/Q9143&gt; . }",\n        "startIndex": 366,\n        "stopIndex": 382\n    },\n    "query": "\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\nSELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri wdt:P373 [] . ?uri wikibase:sourceId ?dbpediaSource . ?dbpediaSource wdt:P31 &lt;http://www.wikidata.org/entity/Q9143&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 87,\n        "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?capital WHERE { wd:Q1009 wdt:P36 ?capital }",\n        "startIndex": 87,\n        "stopIndex": 93\n    },\n    "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?capital WHERE { wd:Q1009 wdt:P36 ?capital }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"UNION\\": mismatched input \'UNION\' expecting \'}\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 171,\n        "query": "\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/statement/Q11631&gt; . ?uri &lt;http://www.wikidata.org/entity/P27&gt; &lt;http://www.wikidata.org/entity/Q2184&gt; . UNION ?uri &lt;http://www.wikidata.org/entity/P27&gt; &lt;http://www.wikidata.org/entity/Q15180&gt; . }",\n        "startIndex": 469,\n        "stopIndex": 473\n    },\n    "query": "\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/statement/Q11631&gt; . ?uri &lt;http://www.wikidata.org/entity/P27&gt; &lt;http://www.wikidata.org/entity/Q2184&gt; . UNION ?uri &lt;http://www.wikidata.org/entity/P27&gt; &lt;http://www.wikidata.org/entity/Q15180&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 49,\n        "query": "SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri wdt:P373 [] . ?uri wikibase:sourceId ?dbpediaSource . ?dbpediaSource wdt:P31 &lt;http://www.wikidata.org/entity/Q9143&gt; . }",\n        "startIndex": 49,\n        "stopIndex": 56\n    },\n    "query": "SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri wdt:P373 [] . ?uri wikibase:sourceId ?dbpediaSource . ?dbpediaSource wdt:P31 &lt;http://www.wikidata.org/entity/Q9143&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"isNumber\\": extraneous input \'isNumber\' expecting {\'(\', \'+\', \'!\', \'-\', \'true\', \'false\', GROUP_CONCAT, NOT, STR, LANG, LANGMATCHES, DATATYPE, BOUND, IRI, URI, BNODE, RAND, ABS, CEIL, FLOOR, ROUND, CONCAT, STRLEN, UCASE, LCASE, ENCODE_FOR_URI, CONTAINS, STRSTARTS, STRENDS, STRBEFORE, STRAFTER, YEAR, MONTH, DAY, HOURS, MINUTES, SECONDS, TIMEZONE, TZ, NOW, UUID, STRUUID, SHA1, SHA256, SHA384, SHA512, MD5, COALESCE, IF, STRLANG, STRDT, SAMETERM, ISIRI, ISURI, ISBLANK, ISLITERAL, ISNUMERIC, REGEX, SUBSTR, REPLACE, EXISTS, COUNT, SUM, MIN, MAX, AVG, SAMPLE, IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2}",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 131,\n        "query": "\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\nSELECT DISTINCT ?number WHERE { &lt;http://www.wikidata.org/entity/Q70096636&gt; &lt;http://www.wikidata.org/entity/P1128&gt; ?number. FILTER (isNumber(?number)) }",\n        "startIndex": 429,\n        "stopIndex": 436\n    },\n    "query": "\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\nSELECT DISTINCT ?number WHERE { &lt;http://www.wikidata.org/entity/Q70096636&gt; &lt;http://www.wikidata.org/entity/P1128&gt; ?number. FILTER (isNumber(?number)) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"UNION\\": mismatched input \'UNION\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 171,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/statement/Q11631&gt; . ?uri &lt;http://www.wikidata.org/entity/P27&gt; &lt;http://www.wikidata.org/entity/Q2184&gt; . UNION ?uri &lt;http://www.wikidata.org/entity/P27&gt; &lt;http://www.wikidata.org/entity/Q15180&gt; . }",\n        "startIndex": 171,\n        "stopIndex": 175\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/statement/Q11631&gt; . ?uri &lt;http://www.wikidata.org/entity/P27&gt; &lt;http://www.wikidata.org/entity/Q2184&gt; . UNION ?uri &lt;http://www.wikidata.org/entity/P27&gt; &lt;http://www.wikidata.org/entity/Q15180&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbo was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 30,\n        "query": "\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\nSELECT DISTINCT ?n WHERE { ?s dbo:wikiPageID ?pgid. ?s dbo:wikiPageID/ dbo:serviceLink ?wikidataid. FILTER(?wikidataid = \\"http://www.wikidata.org/entity/Q104123\\"). ?s wdt:P2769 ?n. }",\n        "startIndex": 328,\n        "stopIndex": 341\n    },\n    "query": "\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\nSELECT DISTINCT ?n WHERE { ?s dbo:wikiPageID ?pgid. ?s dbo:wikiPageID/ dbo:serviceLink ?wikidataid. FILTER(?wikidataid = \\"http://www.wikidata.org/entity/Q104123\\"). ?s wdt:P2769 ?n. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 20,\n        "query": "SELECT ?uri WHERE { wd:Q5930 wdt:P170 ?uri }",\n        "startIndex": 20,\n        "stopIndex": 27\n    },\n    "query": "SELECT ?uri WHERE { wd:Q5930 wdt:P170 ?uri }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 124,\n        "query": "\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\nSELECT ?country WHERE { &lt;http://www.wikidata.org/entity/Q105981852&gt; &lt;http://www.wikidata.org/entity/P17&gt; ?country . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } }",\n        "startIndex": 422,\n        "stopIndex": 435\n    },\n    "query": "\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\nSELECT ?country WHERE { &lt;http://www.wikidata.org/entity/Q105981852&gt; &lt;http://www.wikidata.org/entity/P17&gt; ?country . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"isNumber\\": extraneous input \'isNumber\' expecting {\'(\', \'+\', \'!\', \'-\', \'true\', \'false\', GROUP_CONCAT, NOT, STR, LANG, LANGMATCHES, DATATYPE, BOUND, IRI, URI, BNODE, RAND, ABS, CEIL, FLOOR, ROUND, CONCAT, STRLEN, UCASE, LCASE, ENCODE_FOR_URI, CONTAINS, STRSTARTS, STRENDS, STRBEFORE, STRAFTER, YEAR, MONTH, DAY, HOURS, MINUTES, SECONDS, TIMEZONE, TZ, NOW, UUID, STRUUID, SHA1, SHA256, SHA384, SHA512, MD5, COALESCE, IF, STRLANG, STRDT, SAMETERM, ISIRI, ISURI, ISBLANK, ISLITERAL, ISNUMERIC, REGEX, SUBSTR, REPLACE, EXISTS, COUNT, SUM, MIN, MAX, AVG, SAMPLE, IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 131,\n        "query": "SELECT DISTINCT ?number WHERE { &lt;http://www.wikidata.org/entity/Q70096636&gt; &lt;http://www.wikidata.org/entity/P1128&gt; ?number. FILTER (isNumber(?number)) }",\n        "startIndex": 131,\n        "stopIndex": 138\n    },\n    "query": "SELECT DISTINCT ?number WHERE { &lt;http://www.wikidata.org/entity/Q70096636&gt; &lt;http://www.wikidata.org/entity/P1128&gt; ?number. FILTER (isNumber(?number)) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"ORDER BY\\": missing \'}\' at \'ORDER BY\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 195,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type wdt:Q6256 ; wdt:P2046 ?n . FILTER (?n &gt; 0) ORDER BY DESC(?n) LIMIT 1 }",\n        "startIndex": 195,\n        "stopIndex": 202\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type wdt:Q6256 ; wdt:P2046 ?n . FILTER (?n &gt; 0) ORDER BY DESC(?n) LIMIT 1 }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix dbo was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 30,\n        "query": "SELECT DISTINCT ?n WHERE { ?s dbo:wikiPageID ?pgid. ?s dbo:wikiPageID/ dbo:serviceLink ?wikidataid. FILTER(?wikidataid = \\"http://www.wikidata.org/entity/Q104123\\"). ?s wdt:P2769 ?n. }",\n        "startIndex": 30,\n        "stopIndex": 43\n    },\n    "query": "SELECT DISTINCT ?n WHERE { ?s dbo:wikiPageID ?pgid. ?s dbo:wikiPageID/ dbo:serviceLink ?wikidataid. FILTER(?wikidataid = \\"http://www.wikidata.org/entity/Q104123\\"). ?s wdt:P2769 ?n. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 124,\n        "query": "SELECT ?country WHERE { &lt;http://www.wikidata.org/entity/Q105981852&gt; &lt;http://www.wikidata.org/entity/P17&gt; ?country . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } }",\n        "startIndex": 124,\n        "stopIndex": 137\n    },\n    "query": "SELECT ?country WHERE { &lt;http://www.wikidata.org/entity/Q105981852&gt; &lt;http://www.wikidata.org/entity/P17&gt; ?country . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\"ORDER BY\\": missing \'}\' at \'ORDER BY\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 195,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type wdt:Q6256 ; wdt:P2046 ?n . FILTER (?n &gt; 0) ORDER BY DESC(?n) LIMIT 1 }",\n        "startIndex": 195,\n        "stopIndex": 202\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type wdt:Q6256 ; wdt:P2046 ?n . FILTER (?n &gt; 0) ORDER BY DESC(?n) LIMIT 1 }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 33,\n        "query": "SELECT DISTINCT ?creator WHERE { wd:Q111135 wdt:P170 ?creator }",\n        "startIndex": 33,\n        "stopIndex": 42\n    },\n    "query": "SELECT DISTINCT ?creator WHERE { wd:Q111135 wdt:P170 ?creator }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>Query Bad Formed</t>
+  </si>
+  <si>
+    <t>Missing P31</t>
+  </si>
+  <si>
+    <t>Entity treated as Property</t>
+  </si>
+  <si>
+    <t>Wrong Property</t>
+  </si>
+  <si>
+    <t>Wrong Entity</t>
+  </si>
+  <si>
+    <t>Structural Error</t>
+  </si>
+  <si>
+    <t>Property treated as Entity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1741,17 +1552,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1789,7 +1608,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1823,6 +1642,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1857,9 +1677,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2032,14 +1853,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H102" sqref="H102"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2061,2308 +1884,2612 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E3" t="s">
-        <v>407</v>
+        <v>331</v>
       </c>
       <c r="F3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E4" t="s">
+        <v>332</v>
+      </c>
+      <c r="F4" t="s">
+        <v>415</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" t="s">
         <v>309</v>
       </c>
-      <c r="E4" t="s">
-        <v>408</v>
-      </c>
-      <c r="F4" t="s">
-        <v>414</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>333</v>
+      </c>
+      <c r="F5" t="s">
+        <v>417</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D6" t="s">
         <v>310</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
+        <v>334</v>
+      </c>
+      <c r="F6" t="s">
+        <v>415</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D7" t="s">
+        <v>311</v>
+      </c>
+      <c r="E7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F7" t="s">
+        <v>415</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" t="s">
         <v>310</v>
       </c>
-      <c r="F5" t="s">
-        <v>414</v>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" t="s">
-        <v>211</v>
-      </c>
-      <c r="D6" t="s">
-        <v>311</v>
-      </c>
-      <c r="E6" t="s">
-        <v>408</v>
-      </c>
-      <c r="F6" t="s">
-        <v>414</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" t="s">
-        <v>212</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E8" t="s">
+        <v>336</v>
+      </c>
+      <c r="F8" t="s">
+        <v>415</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" t="s">
+        <v>215</v>
+      </c>
+      <c r="D9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E9" t="s">
+        <v>337</v>
+      </c>
+      <c r="F9" t="s">
+        <v>415</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D10" t="s">
+        <v>309</v>
+      </c>
+      <c r="E10" t="s">
+        <v>338</v>
+      </c>
+      <c r="F10" t="s">
+        <v>418</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D11" t="s">
+        <v>309</v>
+      </c>
+      <c r="E11" t="s">
+        <v>339</v>
+      </c>
+      <c r="F11" t="s">
+        <v>419</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" t="s">
+        <v>310</v>
+      </c>
+      <c r="E12" t="s">
+        <v>340</v>
+      </c>
+      <c r="F12" t="s">
+        <v>415</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" t="s">
+        <v>219</v>
+      </c>
+      <c r="D13" t="s">
+        <v>310</v>
+      </c>
+      <c r="E13" t="s">
+        <v>341</v>
+      </c>
+      <c r="F13" t="s">
+        <v>415</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" t="s">
+        <v>220</v>
+      </c>
+      <c r="D14" t="s">
+        <v>309</v>
+      </c>
+      <c r="E14" t="s">
+        <v>342</v>
+      </c>
+      <c r="F14" t="s">
+        <v>420</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" t="s">
+        <v>221</v>
+      </c>
+      <c r="D15" t="s">
+        <v>310</v>
+      </c>
+      <c r="E15" t="s">
+        <v>343</v>
+      </c>
+      <c r="F15" t="s">
+        <v>415</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" t="s">
+        <v>222</v>
+      </c>
+      <c r="D16" t="s">
+        <v>310</v>
+      </c>
+      <c r="E16" t="s">
+        <v>344</v>
+      </c>
+      <c r="F16" t="s">
+        <v>415</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" t="s">
+        <v>223</v>
+      </c>
+      <c r="D17" t="s">
+        <v>310</v>
+      </c>
+      <c r="E17" t="s">
+        <v>345</v>
+      </c>
+      <c r="F17" t="s">
+        <v>415</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" t="s">
+        <v>224</v>
+      </c>
+      <c r="D18" t="s">
+        <v>309</v>
+      </c>
+      <c r="E18" t="s">
+        <v>346</v>
+      </c>
+      <c r="F18" t="s">
+        <v>421</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" t="s">
+        <v>225</v>
+      </c>
+      <c r="D19" t="s">
+        <v>309</v>
+      </c>
+      <c r="E19" t="s">
+        <v>347</v>
+      </c>
+      <c r="F19" t="s">
+        <v>422</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" t="s">
+        <v>226</v>
+      </c>
+      <c r="D20" t="s">
         <v>312</v>
       </c>
-      <c r="E7" t="s">
-        <v>409</v>
-      </c>
-      <c r="F7" t="s">
-        <v>414</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D8" t="s">
-        <v>313</v>
-      </c>
-      <c r="E8" t="s">
-        <v>408</v>
-      </c>
-      <c r="F8" t="s">
-        <v>414</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" t="s">
-        <v>214</v>
-      </c>
-      <c r="D9" t="s">
-        <v>314</v>
-      </c>
-      <c r="E9" t="s">
-        <v>408</v>
-      </c>
-      <c r="F9" t="s">
-        <v>414</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" t="s">
-        <v>215</v>
-      </c>
-      <c r="D10" t="s">
-        <v>315</v>
-      </c>
-      <c r="E10" t="s">
-        <v>407</v>
-      </c>
-      <c r="F10" t="s">
-        <v>416</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" t="s">
-        <v>216</v>
-      </c>
-      <c r="D11" t="s">
-        <v>316</v>
-      </c>
-      <c r="E11" t="s">
-        <v>407</v>
-      </c>
-      <c r="F11" t="s">
-        <v>417</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" t="s">
-        <v>217</v>
-      </c>
-      <c r="D12" t="s">
-        <v>317</v>
-      </c>
-      <c r="E12" t="s">
-        <v>408</v>
-      </c>
-      <c r="F12" t="s">
-        <v>414</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" t="s">
-        <v>218</v>
-      </c>
-      <c r="D13" t="s">
-        <v>318</v>
-      </c>
-      <c r="E13" t="s">
-        <v>408</v>
-      </c>
-      <c r="F13" t="s">
-        <v>414</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" t="s">
-        <v>219</v>
-      </c>
-      <c r="D14" t="s">
-        <v>319</v>
-      </c>
-      <c r="E14" t="s">
-        <v>407</v>
-      </c>
-      <c r="F14" t="s">
-        <v>418</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" t="s">
-        <v>220</v>
-      </c>
-      <c r="D15" t="s">
-        <v>320</v>
-      </c>
-      <c r="E15" t="s">
-        <v>408</v>
-      </c>
-      <c r="F15" t="s">
-        <v>414</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C16" t="s">
-        <v>221</v>
-      </c>
-      <c r="D16" t="s">
-        <v>321</v>
-      </c>
-      <c r="E16" t="s">
-        <v>408</v>
-      </c>
-      <c r="F16" t="s">
-        <v>414</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" t="s">
-        <v>222</v>
-      </c>
-      <c r="D17" t="s">
-        <v>322</v>
-      </c>
-      <c r="E17" t="s">
-        <v>408</v>
-      </c>
-      <c r="F17" t="s">
-        <v>414</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C18" t="s">
-        <v>223</v>
-      </c>
-      <c r="D18" t="s">
-        <v>323</v>
-      </c>
-      <c r="E18" t="s">
-        <v>407</v>
-      </c>
-      <c r="F18" t="s">
-        <v>419</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>124</v>
-      </c>
-      <c r="C19" t="s">
-        <v>224</v>
-      </c>
-      <c r="D19" t="s">
-        <v>324</v>
-      </c>
-      <c r="E19" t="s">
-        <v>407</v>
-      </c>
-      <c r="F19" t="s">
-        <v>420</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C20" t="s">
-        <v>225</v>
-      </c>
-      <c r="D20" t="s">
-        <v>325</v>
-      </c>
       <c r="E20" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="F20" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D21" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="E21" t="s">
-        <v>408</v>
+        <v>348</v>
       </c>
       <c r="F21" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C22" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D22" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="E22" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="F22" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C23" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D23" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="E23" t="s">
-        <v>407</v>
+        <v>349</v>
       </c>
       <c r="F23" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D24" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="E24" t="s">
-        <v>408</v>
+        <v>350</v>
       </c>
       <c r="F24" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C25" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D25" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="E25" t="s">
-        <v>408</v>
+        <v>351</v>
       </c>
       <c r="F25" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C26" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D26" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="E26" t="s">
-        <v>408</v>
+        <v>352</v>
       </c>
       <c r="F26" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C27" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D27" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="E27" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="F27" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C28" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D28" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="E28" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="F28" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C29" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D29" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="E29" t="s">
-        <v>407</v>
+        <v>353</v>
       </c>
       <c r="F29" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C30" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D30" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="E30" t="s">
-        <v>407</v>
+        <v>354</v>
       </c>
       <c r="F30" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C31" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D31" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="E31" t="s">
-        <v>407</v>
+        <v>355</v>
       </c>
       <c r="F31" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D32" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="E32" t="s">
-        <v>408</v>
+        <v>356</v>
       </c>
       <c r="F32" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C33" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D33" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="E33" t="s">
-        <v>407</v>
+        <v>357</v>
       </c>
       <c r="F33" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C34" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D34" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="E34" t="s">
-        <v>407</v>
+        <v>358</v>
       </c>
       <c r="F34" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C35" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D35" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="E35" t="s">
-        <v>410</v>
+        <v>359</v>
       </c>
       <c r="F35" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D36" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="E36" t="s">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="F36" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C37" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D37" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="E37" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="F37" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C38" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D38" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="E38" t="s">
-        <v>408</v>
+        <v>361</v>
       </c>
       <c r="F38" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D39" t="s">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="E39" t="s">
-        <v>408</v>
+        <v>362</v>
       </c>
       <c r="F39" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C40" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D40" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="E40" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="F40" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C41" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D41" t="s">
-        <v>346</v>
+        <v>309</v>
       </c>
       <c r="E41" t="s">
-        <v>407</v>
+        <v>363</v>
       </c>
       <c r="F41" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C42" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D42" t="s">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="E42" t="s">
-        <v>407</v>
+        <v>364</v>
       </c>
       <c r="F42" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D43" t="s">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="E43" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
       <c r="F43" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C44" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D44" t="s">
-        <v>349</v>
+        <v>319</v>
       </c>
       <c r="E44" t="s">
-        <v>349</v>
+        <v>319</v>
       </c>
       <c r="F44" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C45" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D45" t="s">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="E45" t="s">
-        <v>411</v>
+        <v>366</v>
       </c>
       <c r="F45" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C46" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D46" t="s">
-        <v>351</v>
+        <v>309</v>
       </c>
       <c r="E46" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="F46" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C47" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D47" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="E47" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="F47" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C48" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D48" t="s">
-        <v>353</v>
+        <v>309</v>
       </c>
       <c r="E48" t="s">
-        <v>407</v>
+        <v>369</v>
       </c>
       <c r="F48" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C49" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D49" t="s">
-        <v>354</v>
+        <v>309</v>
       </c>
       <c r="E49" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="F49" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C50" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D50" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="E50" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="F50" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C51" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D51" t="s">
-        <v>356</v>
+        <v>310</v>
       </c>
       <c r="E51" t="s">
-        <v>408</v>
+        <v>371</v>
       </c>
       <c r="F51" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C52" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D52" t="s">
-        <v>357</v>
+        <v>310</v>
       </c>
       <c r="E52" t="s">
-        <v>408</v>
+        <v>372</v>
       </c>
       <c r="F52" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C53" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D53" t="s">
-        <v>358</v>
+        <v>310</v>
       </c>
       <c r="E53" t="s">
-        <v>408</v>
+        <v>373</v>
       </c>
       <c r="F53" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C54" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D54" t="s">
-        <v>359</v>
+        <v>310</v>
       </c>
       <c r="E54" t="s">
-        <v>408</v>
+        <v>374</v>
       </c>
       <c r="F54" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C55" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D55" t="s">
-        <v>360</v>
+        <v>309</v>
       </c>
       <c r="E55" t="s">
-        <v>407</v>
+        <v>375</v>
       </c>
       <c r="F55" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C56" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D56" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
       <c r="E56" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
       <c r="F56" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C57" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D57" t="s">
-        <v>362</v>
+        <v>323</v>
       </c>
       <c r="E57" t="s">
-        <v>362</v>
+        <v>323</v>
       </c>
       <c r="F57" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C58" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D58" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="E58" t="s">
-        <v>407</v>
+        <v>376</v>
       </c>
       <c r="F58" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C59" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D59" t="s">
-        <v>364</v>
+        <v>324</v>
       </c>
       <c r="E59" t="s">
-        <v>364</v>
+        <v>324</v>
       </c>
       <c r="F59" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C60" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D60" t="s">
-        <v>365</v>
+        <v>309</v>
       </c>
       <c r="E60" t="s">
-        <v>407</v>
+        <v>377</v>
       </c>
       <c r="F60" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C61" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D61" t="s">
-        <v>366</v>
+        <v>310</v>
       </c>
       <c r="E61" t="s">
-        <v>408</v>
+        <v>378</v>
       </c>
       <c r="F61" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C62" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D62" t="s">
-        <v>367</v>
+        <v>310</v>
       </c>
       <c r="E62" t="s">
-        <v>408</v>
+        <v>379</v>
       </c>
       <c r="F62" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C63" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D63" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="E63" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="F63" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="H63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C64" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D64" t="s">
-        <v>369</v>
+        <v>310</v>
       </c>
       <c r="E64" t="s">
-        <v>408</v>
+        <v>380</v>
       </c>
       <c r="F64" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="H64" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C65" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D65" t="s">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="E65" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="F65" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="H65" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C66" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D66" t="s">
-        <v>371</v>
+        <v>310</v>
       </c>
       <c r="E66" t="s">
-        <v>408</v>
+        <v>382</v>
       </c>
       <c r="F66" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="H66" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C67" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D67" t="s">
-        <v>372</v>
+        <v>310</v>
       </c>
       <c r="E67" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="F67" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="H67" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C68" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D68" t="s">
-        <v>373</v>
+        <v>309</v>
       </c>
       <c r="E68" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="F68" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="H68" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C69" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D69" t="s">
-        <v>374</v>
+        <v>326</v>
       </c>
       <c r="E69" t="s">
-        <v>374</v>
+        <v>326</v>
       </c>
       <c r="F69" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="H69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C70" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D70" t="s">
-        <v>375</v>
+        <v>309</v>
       </c>
       <c r="E70" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="F70" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C71" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D71" t="s">
-        <v>376</v>
+        <v>327</v>
       </c>
       <c r="E71" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="F71" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="H71" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C72" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D72" t="s">
-        <v>377</v>
+        <v>310</v>
       </c>
       <c r="E72" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="F72" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="H72" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C73" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D73" t="s">
-        <v>378</v>
+        <v>309</v>
       </c>
       <c r="E73" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="F73" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="H73" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C74" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D74" t="s">
-        <v>379</v>
+        <v>310</v>
       </c>
       <c r="E74" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="F74" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="H74" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C75" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D75" t="s">
-        <v>380</v>
+        <v>310</v>
       </c>
       <c r="E75" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="F75" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="H75" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C76" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D76" t="s">
-        <v>381</v>
+        <v>310</v>
       </c>
       <c r="E76" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="F76" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="H76" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C77" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D77" t="s">
-        <v>382</v>
+        <v>309</v>
       </c>
       <c r="E77" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="F77" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="H77" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C78" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D78" t="s">
-        <v>383</v>
+        <v>310</v>
       </c>
       <c r="E78" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="F78" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="H78" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C79" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D79" t="s">
-        <v>384</v>
+        <v>309</v>
       </c>
       <c r="E79" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="F79" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C80" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D80" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="E80" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="F80" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="H80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C81" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D81" t="s">
-        <v>386</v>
+        <v>309</v>
       </c>
       <c r="E81" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="F81" t="s">
-        <v>414</v>
+        <v>444</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="H81" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C82" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D82" t="s">
-        <v>387</v>
+        <v>310</v>
       </c>
       <c r="E82" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="F82" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C83" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D83" t="s">
-        <v>388</v>
+        <v>309</v>
       </c>
       <c r="E83" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="F83" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="H83" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C84" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D84" t="s">
-        <v>389</v>
+        <v>329</v>
       </c>
       <c r="E84" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="F84" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C85" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D85" t="s">
-        <v>390</v>
+        <v>310</v>
       </c>
       <c r="E85" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="F85" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="H85" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C86" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D86" t="s">
-        <v>391</v>
+        <v>309</v>
       </c>
       <c r="E86" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F86" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="H86" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C87" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D87" t="s">
-        <v>392</v>
+        <v>309</v>
       </c>
       <c r="E87" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F87" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="H87" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C88" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D88" t="s">
-        <v>393</v>
+        <v>309</v>
       </c>
       <c r="E88" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F88" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="H88" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B89" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C89" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D89" t="s">
-        <v>394</v>
+        <v>309</v>
       </c>
       <c r="E89" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="F89" t="s">
-        <v>414</v>
+        <v>449</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H89" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C90" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D90" t="s">
-        <v>395</v>
+        <v>310</v>
       </c>
       <c r="E90" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F90" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="H90" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C91" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D91" t="s">
-        <v>396</v>
+        <v>330</v>
       </c>
       <c r="E91" t="s">
-        <v>396</v>
+        <v>330</v>
       </c>
       <c r="F91" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="H91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C92" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D92" t="s">
-        <v>397</v>
+        <v>310</v>
       </c>
       <c r="E92" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F92" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="H92" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C93" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D93" t="s">
-        <v>398</v>
+        <v>310</v>
       </c>
       <c r="E93" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F93" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="H93" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C94" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D94" t="s">
-        <v>399</v>
+        <v>309</v>
       </c>
       <c r="E94" t="s">
         <v>407</v>
       </c>
       <c r="F94" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="H94" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C95" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D95" t="s">
-        <v>400</v>
+        <v>309</v>
       </c>
       <c r="E95" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F95" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="H95" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C96" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D96" t="s">
-        <v>401</v>
+        <v>310</v>
       </c>
       <c r="E96" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F96" t="s">
+        <v>415</v>
+      </c>
+      <c r="G96" t="b">
+        <v>0</v>
+      </c>
+      <c r="H96" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>103</v>
+      </c>
+      <c r="B97" t="s">
+        <v>203</v>
+      </c>
+      <c r="C97" t="s">
+        <v>303</v>
+      </c>
+      <c r="D97" t="s">
+        <v>310</v>
+      </c>
+      <c r="E97" t="s">
+        <v>410</v>
+      </c>
+      <c r="F97" t="s">
+        <v>415</v>
+      </c>
+      <c r="G97" t="b">
+        <v>0</v>
+      </c>
+      <c r="H97" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>104</v>
+      </c>
+      <c r="B98" t="s">
+        <v>204</v>
+      </c>
+      <c r="C98" t="s">
+        <v>304</v>
+      </c>
+      <c r="D98" t="s">
+        <v>309</v>
+      </c>
+      <c r="E98" t="s">
+        <v>411</v>
+      </c>
+      <c r="F98" t="s">
+        <v>452</v>
+      </c>
+      <c r="G98" t="b">
+        <v>0</v>
+      </c>
+      <c r="H98" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99" t="s">
+        <v>205</v>
+      </c>
+      <c r="C99" t="s">
+        <v>305</v>
+      </c>
+      <c r="D99" t="s">
+        <v>309</v>
+      </c>
+      <c r="E99" t="s">
+        <v>412</v>
+      </c>
+      <c r="F99" t="s">
+        <v>453</v>
+      </c>
+      <c r="G99" t="b">
+        <v>0</v>
+      </c>
+      <c r="H99" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>106</v>
+      </c>
+      <c r="B100" t="s">
+        <v>206</v>
+      </c>
+      <c r="C100" t="s">
+        <v>306</v>
+      </c>
+      <c r="D100" t="s">
+        <v>316</v>
+      </c>
+      <c r="E100" t="s">
+        <v>413</v>
+      </c>
+      <c r="F100" t="s">
+        <v>415</v>
+      </c>
+      <c r="G100" t="b">
+        <v>0</v>
+      </c>
+      <c r="H100" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101" t="s">
+        <v>207</v>
+      </c>
+      <c r="C101" t="s">
+        <v>307</v>
+      </c>
+      <c r="D101" t="s">
+        <v>309</v>
+      </c>
+      <c r="E101" t="s">
         <v>414</v>
       </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" t="s">
-        <v>102</v>
-      </c>
-      <c r="B97" t="s">
-        <v>202</v>
-      </c>
-      <c r="C97" t="s">
-        <v>302</v>
-      </c>
-      <c r="D97" t="s">
-        <v>402</v>
-      </c>
-      <c r="E97" t="s">
-        <v>408</v>
-      </c>
-      <c r="F97" t="s">
-        <v>414</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" t="s">
-        <v>103</v>
-      </c>
-      <c r="B98" t="s">
-        <v>203</v>
-      </c>
-      <c r="C98" t="s">
-        <v>303</v>
-      </c>
-      <c r="D98" t="s">
-        <v>403</v>
-      </c>
-      <c r="E98" t="s">
-        <v>407</v>
-      </c>
-      <c r="F98" t="s">
-        <v>446</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99" t="s">
-        <v>104</v>
-      </c>
-      <c r="B99" t="s">
-        <v>204</v>
-      </c>
-      <c r="C99" t="s">
-        <v>304</v>
-      </c>
-      <c r="D99" t="s">
-        <v>404</v>
-      </c>
-      <c r="E99" t="s">
-        <v>407</v>
-      </c>
-      <c r="F99" t="s">
-        <v>447</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" t="s">
-        <v>105</v>
-      </c>
-      <c r="B100" t="s">
-        <v>205</v>
-      </c>
-      <c r="C100" t="s">
-        <v>305</v>
-      </c>
-      <c r="D100" t="s">
-        <v>405</v>
-      </c>
-      <c r="E100" t="s">
-        <v>410</v>
-      </c>
-      <c r="F100" t="s">
-        <v>414</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101" t="s">
-        <v>106</v>
-      </c>
-      <c r="B101" t="s">
-        <v>206</v>
-      </c>
-      <c r="C101" t="s">
-        <v>306</v>
-      </c>
-      <c r="D101" t="s">
-        <v>406</v>
-      </c>
-      <c r="E101" t="s">
-        <v>406</v>
-      </c>
       <c r="F101" t="s">
-        <v>414</v>
+        <v>454</v>
       </c>
       <c r="G101" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H101" t="s">
+        <v>455</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H101" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/QALD9-Plus-testing/CoT-entity-aligned/CoT-dbpedia-wikidata/CoT_llama_wikidata_results_analysis.xlsx
+++ b/QALD9-Plus-testing/CoT-entity-aligned/CoT-dbpedia-wikidata/CoT_llama_wikidata_results_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Master Thesis\SPARQL-Query-Translation-QALD9\QALD9-Plus-testing\CoT-entity-aligned\CoT-dbpedia-wikidata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD75331A-F9D7-497D-BAEF-B7B8653AEBB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343FA642-58A1-41B7-A120-0D0490DA5A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="452">
   <si>
     <t>Question</t>
   </si>
@@ -349,306 +349,6 @@
     <t>Who created Goofy?</t>
   </si>
   <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?uri WHERE { wd:Q1336200 wdt:P112 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P57 q:Q2001. }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P86 wd:Q2808. ?uri rdf:type wdt:Q2743. }</t>
-  </si>
-  <si>
-    <t>SELECT ?developer WHERE { wd:Q40984 wdt:P178 ?developer. }</t>
-  </si>
-  <si>
-    <t>PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri a wikidata:Q476028 ; wikidata:P118 wikidata:Q82595 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wdp: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?x wdt:P57 wdp:Q16297 . ?x wdt:P161 ?uri . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q8502&gt; ; &lt;http://www.wikidata.org/entity/P2044&gt; ?elevation . } ORDER BY DESC(?elevation) OFFSET 0 LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT (COUNT(DISTINCT ?film) AS ?c) WHERE { ?film a &lt;http://www.wikidata.org/entity/Q11424&gt; ; &lt;http://www.wikidata.org/entity/P161&gt; &lt;http://www.wikidata.org/entity/Q38111&gt; . }</t>
-  </si>
-  <si>
-    <t>`SELECT DISTINCT ?date WHERE {` ` ?event wdt:P31 wd:Q145243.` ` ?event wdt:P106 wd:Q53713.` ` ?event wdt:P580 ?date.` ` SERVICE wikibase:label { bd:serviceParam wikibase:language "en". }` `}`</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri ?p ?o ; ?p &lt;http://www.wikidata.org/entity/P161&gt; ; ?o &lt;http://www.wikidata.org/entity/Q34851&gt; . FILTER (?p = &lt;http://www.wikidata.org/entity/P161&gt; &amp;&amp; ?o = &lt;http://www.wikidata.org/entity/Q34851&gt;) UNION ?uri ?p ?o ; ?p &lt;http://www.wikidata.org/entity/P161&gt; ; ?o &lt;http://www.wikidata.org/entity/Q151973&gt; . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q49740&gt; &lt;http://www.wikidata.org/entity/P178&gt; ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?n WHERE { wdt:Q2608065 wdt:P2769 ?n . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?x rdf:type dbo:Q482994 ; wikidata:P175 wikidata:Q303 ; wikidata:P577 ?y ; wikidata:P264 ?label_uri FILTER (lang(?label_uri) = 'en') FILTER NOT EXISTS { ?label_uri wikidata:P31 ?skos_concept . ?skos_concept wikidata:P1702 ?status . FILTER (strstarts(?status, 'deprecated@en')) } FILTER (!bound(?label_uri)) } ORDER BY ASC(?y) OFFSET 0 LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?runtime WHERE { wdt:Q171048 wdt:P2047 ?runtime }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/entity/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 wdt:Q5280538 ; wdt:P1303 wdt:Q119621 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?uri WHERE { ?uri a wdt:P11424. ?uri wdt:P161 wd:Q40523. ?uri wdt:P57 wd:Q315087. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q241665 wdt:P569 ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?item WHERE { ?item wdt:P509 ?cause . GROUP BY ?cause HAVING (COUNT(DISTINCT ?item) &gt; (SELECT MAX(COUNT(DISTINCT ?item)) AS max_count FROM { OPTIONAL { ?item wdt:P509 ?cause . } } GROUP BY ?cause)) ORDER BY DESC(COUNT(DISTINCT ?item)) OFFSET 0 LIMIT 1 }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?num WHERE { wd:Q1207989 wdt:P2048 ?num . }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wdt:Q8502 ; wdt:P131 wdt:Q38 ; wdt:P2044 ?elevation . } ORDER BY DESC(?elevation) OFFSET 0 LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wds: &lt;http://www.wikidata.org/entity/statement/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?uri WHERE { wd:Q937 wdt:P184 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?owner WHERE { wdt:P127 wd:Q22686 ?owner . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P26&gt; &lt;http://www.wikidata.org/entity/Q37079&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?population WHERE { wdt:Q5401 wdt:P1082 ?population . }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?Author WHERE { wdt:Q726382 wdt:P50 ?Author }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?date WHERE { wd:Q11806 wdt:P569 ?date }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?europop WHERE { wd:Q458 wdt:P1082 ?europop . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q12205470 wdt:P38 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?x WHERE { wd:Q692 P570 ?x } LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri rdfs:subClassOf ?class ; wdt:P448 wdt:P17 . ?class wdt:P31 wd:Q41291 . wdt:P17 wd:Q177477 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q23442&gt; ; &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q17&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q131007 wdt:P178 ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { VALUES ?industry { "http://www.wikidata.org/entity/Q854995", "http://www.wikidata.org/entity/Q37038", "http://www.wikidata.org/entity/Q1286627" } ?uri a &lt;http://www.wikidata.org/entity/Q4830453&gt; . ?uri &lt;http://www.wikidata.org/entity/P452&gt; ?industry . SERVICE wikibase:label { bd:serviceParam wikibase:language "en". } FILTER ( regex(?industry, "advertising", "i") ) }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?university WHERE { wd:Q567 wdt:P69 ?university . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?show WHERE { ?show wd:P161 wd:Q485310 }</t>
-  </si>
-  <si>
-    <t>PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; PREFIX wikidata-prop: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wikidata-prop:P161 wikidata:Q37079 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q513 wdt:P131 ?uri . ?uri wdt:P31 wd:Q6256 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q9696&gt; &lt;http://www.wikidata.org/entity/P20&gt; ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q125006 wdt:P177 ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a http://www.wikidata.org/entity/Q10843402 ; P19 http://www.wikidata.org/entity/Q649 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type wd:Film ; wdt:P161 wd:Q103894 ; wdt:P577 ?date . } ORDER BY DESC(?date) LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q8502&gt; ; &lt;http://www.wikidata.org/entity/P2044&gt; ?elevation . FILTER ( ?elevation &lt; &lt;http://dbpedia.org/resource/Mount Everest&gt;'s elevation &gt; ) ORDER BY DESC(?elevation) OFFSET 1 LIMIT 1 }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?pop WHERE { wd:Q85 wdt:P1082 ?pop }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q5 ; wdt:P19 wd:Q160544. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { wd:Q34969 wd:P40 ?uri. OPTIONAL { ?uri ?p ?o } }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?ele WHERE { wdt:Q58226 wdt:P2044 ?ele } LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { wd:Q5806 wdt:P17 ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?height WHERE { wd:Q76717 wdt:P2048 ?height . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q1163227 wdt:P50 ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?genre WHERE { &lt;http://www.wikidata.org/entity/Q189080&gt; &lt;http://www.wikidata.org/entity/P136&gt; ?genre }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?place WHERE { wdt:Q40912 wdt:P19 ?place }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { ?uri a wd:Q515 ; wd:P1082 ?pop . } ORDER BY ASC(?pop) OFFSET 0 LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wikidata:type wikidata:Q15416 . ?uri wikidata:P170 wikidata:Q8704 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a http://www.wikidata.org/entity/Q1445650 ; http://www.wikidata.org/entity/P17 http://www.wikidata.org/entity/Q34 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?ni WHERE { wd:Q312 wdt:P2295 ?ni . }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q91 wdt:P20 ?uri. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?uri WHERE { wd:Q105981852 wdt:P17 ?country. ?country wdt:P36 ?uri. SERVICE wikibase:service { bd:serviceParam wikibase:expandEntities ?uri. } }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q6386177 wdt:P17 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?num WHERE { ?s wdt:P2048 ?num . ?s wd:Q41421 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P57&gt; &lt;http://www.wikidata.org/entity/Q43203&gt; ; &lt;http://www.wikidata.org/entity/P161&gt; &lt;http://www.wikidata.org/entity/Q43203&gt; . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P38&gt; &lt;http://www.wikidata.org/entity/Q861690&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?pIraq WHERE { wd:Q796 wdt:P1082 ?pIraq }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdfs:type wd:Q1445650 }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri a wd:Q7278. ?uri wdt:P17 wd:Q41. ?uri wdt:P1142 wd:Q3781399. }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?date WHERE { ?actor wdt:P161 wd:Q162371 . ?actor wdt:P569 ?date }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q3235867 (wd:P50 / wd:P50) ?person . ?person (wd:P135 / wd:P135) ?uri . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q33999&gt; . ?uri &lt;http://www.wikidata.org/entity/P19&gt; ?place . OPTIONAL { ?place &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q43287&gt; } UNION ?uri &lt;http://www.wikidata.org/entity/P19&gt; ?place . ?place &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q43287&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?uri WHERE { wd:Q125006 wdt:P84 ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?composer WHERE { wd:Q23572 wdt:P86 ?composer }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?uri WHERE { ?uri wdt:P31 wd:Q11424. ?uri wdt:P57 wd:Q56094. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?bn WHERE { wd:Q23215 wd:P1477 ?bn }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q482994 ; wdt:P175 wd:Q15862 ; wdt:P577 ?d } ORDER BY ASC(?d) OFFSET 0 LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q213 wd:P38 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wikibase: &lt;http://wikiba.se/ontology#&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wikibase:birthPlace wd:Q1741 . ?uri wikibase:deathPlace wd:Q64 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q12280&gt; ; &lt;http://www.wikidata.org/entity/P177&gt; &lt;http://www.wikidata.org/entity/Q1142326&gt; . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P106&gt; ?x . ?x &lt;http://www.wikidata.org/entity/P50&gt; ?uri . ?x &lt;http://www.wikidata.org/entity/P577&gt; ?y . ?y &lt;http://www.wikidata.org/entity/P31&gt; &lt;http://www.wikidata.org/entity/Q571&gt; . } ORDER BY DESC(COUNT(?x)) OFFSET 0 LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q15416&gt; ; &lt;http://www.wikidata.org/entity/P170&gt; ?creator . FILTER ( ?creator = &lt;http://www.wikidata.org/entity/Q25014&gt; ) }</t>
-  </si>
-  <si>
-    <t>PREFIX wikibase: &lt;http://wikiba.se/ontology#&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?writer WHERE { ?writer wikibase:entityType wd:Q36180 ; ?award wikibase:statementProperty wd:P166 ; ?award wikibase:statementSubject wd:Q37922 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?discoverer WHERE { wd:Q596 wdt:P61 ?discoverer . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 wd:Q5280538 . ?uri wdt:P106 wd:Q806349 . ?uri wdt:P1303 wd:Q119621 . ?uri wdt:P1303 wd:Q8338 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q3665646&gt; ; &lt;http://www.wikidata.org/entity/P2048&gt; ?n FILTER ( ?n &gt; 2.0 ) }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?film wdt:P161 wd:Q40523 ; wdt:P161 wd:Q48410 . FILTER (?film = ?film) }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?uri WHERE { wd:Q1020 wdt:P36 ?uri . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q937857&gt; ; &lt;http://www.wikidata.org/entity/P19&gt; &lt;http://www.wikidata.org/entity/Q233&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?capital WHERE { wd:Q1009 wdt:P36 ?capital }</t>
-  </si>
-  <si>
-    <t>SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri wdt:P373 [] . ?uri wikibase:sourceId ?dbpediaSource . ?dbpediaSource wdt:P31 &lt;http://www.wikidata.org/entity/Q9143&gt; . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/statement/Q11631&gt; . ?uri &lt;http://www.wikidata.org/entity/P27&gt; &lt;http://www.wikidata.org/entity/Q2184&gt; . UNION ?uri &lt;http://www.wikidata.org/entity/P27&gt; &lt;http://www.wikidata.org/entity/Q15180&gt; . }</t>
-  </si>
-  <si>
-    <t>SELECT ?uri WHERE { wd:Q5930 wdt:P170 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?population WHERE { wd:Q1489 ?population wdt:P1082 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdp: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?creator WHERE { wd:Q2695156 wdp:P170 ?creator }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?num WHERE { wd:Q25907685 wdt:P36 ?capital . ?capital wdt:P1082 ?num }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?tarea WHERE { wd:Q1198 wd:P2046 ?tarea . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?number WHERE { &lt;http://www.wikidata.org/entity/Q70096636&gt; &lt;http://www.wikidata.org/entity/P1128&gt; ?number. FILTER (isNumber(?number)) }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?n WHERE { ?s dbo:wikiPageID ?pgid. ?s dbo:wikiPageID/ dbo:serviceLink ?wikidataid. FILTER(?wikidataid = "http://www.wikidata.org/entity/Q104123"). ?s wdt:P2769 ?n. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q11424&gt; ; &lt;http://www.wikidata.org/entity/P161&gt; ?movie . }</t>
-  </si>
-  <si>
-    <t>SELECT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q11424&gt; ; &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q5257925&gt; . }</t>
-  </si>
-  <si>
-    <t>SELECT ?country WHERE { &lt;http://www.wikidata.org/entity/Q105981852&gt; &lt;http://www.wikidata.org/entity/P17&gt; ?country . SERVICE wikibase:label { bd:serviceParam wikibase:language "en". } }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type wdt:Q6256 ; wdt:P2046 ?n . FILTER (?n &gt; 0) ORDER BY DESC(?n) LIMIT 1 }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?Almamater WHERE { wd:Q567 wdt:P69 ?Almamater }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?creator WHERE { wd:Q111135 wdt:P170 ?creator }</t>
-  </si>
-  <si>
     <t>SELECT ?o1 WHERE { &lt;http://www.wikidata.org/entity/Q1336200&gt;  &lt;http://www.wikidata.org/prop/direct/P112&gt;  ?o1 .  }</t>
   </si>
   <si>
@@ -1271,222 +971,1062 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>Query Bad Formed</t>
+  </si>
+  <si>
+    <t>Missing P31</t>
+  </si>
+  <si>
+    <t>Entity treated as Property</t>
+  </si>
+  <si>
+    <t>Wrong Property</t>
+  </si>
+  <si>
+    <t>Wrong Entity</t>
+  </si>
+  <si>
+    <t>Structural Error</t>
+  </si>
+  <si>
+    <t>Property treated as Entity</t>
+  </si>
+  <si>
+    <t>Error Category 2</t>
+  </si>
+  <si>
+    <t>Error Category 3</t>
+  </si>
+  <si>
+    <t>Error Category 4</t>
+  </si>
+  <si>
+    <t>Unadapted Dataset Patterns</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?uri WHERE { wd:Q1336200 wdt:P112 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P57 q:Q2001. }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix q was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 93,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P57 q:Q2001. }",\n        "startIndex": 93,\n        "stopIndex": 99\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P57 q:Q2001. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix q was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 93,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P57 q:Q2001. }",\n        "startIndex": 391,\n        "stopIndex": 397\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P57 q:Q2001. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P86 wd:Q2808. ?uri rdf:type wdt:Q2743. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT ?developer WHERE { wd:Q40984 wdt:P178 ?developer. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri a wikidata:Q476028 ; wikidata:P118 wikidata:Q82595 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wdp: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?x wdt:P57 wdp:Q16297 . ?x wdt:P161 ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q8502&gt; ; &lt;http://www.wikidata.org/entity/P2044&gt; ?elevation . } ORDER BY DESC(?elevation) OFFSET 0 LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT (COUNT(DISTINCT ?film) AS ?c) WHERE { ?film a &lt;http://www.wikidata.org/entity/Q11424&gt; ; &lt;http://www.wikidata.org/entity/P161&gt; &lt;http://www.wikidata.org/entity/Q38111&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+`SELECT DISTINCT ?date WHERE {` ` ?event wdt:P31 wd:Q145243.` ` ?event wdt:P106 wd:Q53713.` ` ?event wdt:P580 ?date.` ` SERVICE wikibase:label { bd:serviceParam wikibase:language "en". }` `}`</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 26,\n        "query": "SELECT ?developer WHERE { wd:Q40984 wdt:P178 ?developer. }",\n        "startIndex": 26,\n        "stopIndex": 34\n    },\n    "query": "SELECT ?developer WHERE { wd:Q40984 wdt:P178 ?developer. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: token recognition error at: \'`\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 0,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\n`SELECT DISTINCT ?date WHERE {` ` ?event wdt:P31 wd:Q145243.` ` ?event wdt:P106 wd:Q53713.` ` ?event wdt:P580 ?date.` ` SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". }` `}`",\n        "startIndex": 298,\n        "stopIndex": 298\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\n`SELECT DISTINCT ?date WHERE {` ` ?event wdt:P31 wd:Q145243.` ` ?event wdt:P106 wd:Q53713.` ` ?event wdt:P580 ?date.` ` SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". }` `}`",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri ?p ?o ; ?p &lt;http://www.wikidata.org/entity/P161&gt; ; ?o &lt;http://www.wikidata.org/entity/Q34851&gt; . FILTER (?p = &lt;http://www.wikidata.org/entity/P161&gt; &amp;&amp; ?o = &lt;http://www.wikidata.org/entity/Q34851&gt;) UNION ?uri ?p ?o ; ?p &lt;http://www.wikidata.org/entity/P161&gt; ; ?o &lt;http://www.wikidata.org/entity/Q151973&gt; . }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: token recognition error at: \'`\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 0,\n        "query": "`SELECT DISTINCT ?date WHERE {` ` ?event wdt:P31 wd:Q145243.` ` ?event wdt:P106 wd:Q53713.` ` ?event wdt:P580 ?date.` ` SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". }` `}`",\n        "startIndex": 0,\n        "stopIndex": 0\n    },\n    "query": "`SELECT DISTINCT ?date WHERE {` ` ?event wdt:P31 wd:Q145243.` ` ?event wdt:P106 wd:Q53713.` ` ?event wdt:P580 ?date.` ` SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". }` `}`",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"UNION\\": mismatched input \'UNION\' expecting \'}\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 230,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?uri ?p ?o ; ?p &lt;http://www.wikidata.org/entity/P161&gt; ; ?o &lt;http://www.wikidata.org/entity/Q34851&gt; . FILTER (?p = &lt;http://www.wikidata.org/entity/P161&gt; &amp;&amp; ?o = &lt;http://www.wikidata.org/entity/Q34851&gt;) UNION ?uri ?p ?o ; ?p &lt;http://www.wikidata.org/entity/P161&gt; ; ?o &lt;http://www.wikidata.org/entity/Q151973&gt; . }",\n        "startIndex": 528,\n        "stopIndex": 532\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?uri ?p ?o ; ?p &lt;http://www.wikidata.org/entity/P161&gt; ; ?o &lt;http://www.wikidata.org/entity/Q34851&gt; . FILTER (?p = &lt;http://www.wikidata.org/entity/P161&gt; &amp;&amp; ?o = &lt;http://www.wikidata.org/entity/Q34851&gt;) UNION ?uri ?p ?o ; ?p &lt;http://www.wikidata.org/entity/P161&gt; ; ?o &lt;http://www.wikidata.org/entity/Q151973&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q49740&gt; &lt;http://www.wikidata.org/entity/P178&gt; ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?n WHERE { wdt:Q2608065 wdt:P2769 ?n . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?x rdf:type dbo:Q482994 ; wikidata:P175 wikidata:Q303 ; wikidata:P577 ?y ; wikidata:P264 ?label_uri FILTER (lang(?label_uri) = 'en') FILTER NOT EXISTS { ?label_uri wikidata:P31 ?skos_concept . ?skos_concept wikidata:P1702 ?status . FILTER (strstarts(?status, 'deprecated@en')) } FILTER (!bound(?label_uri)) } ORDER BY ASC(?y) OFFSET 0 LIMIT 1</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"UNION\\": mismatched input \'UNION\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 230,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri ?p ?o ; ?p &lt;http://www.wikidata.org/entity/P161&gt; ; ?o &lt;http://www.wikidata.org/entity/Q34851&gt; . FILTER (?p = &lt;http://www.wikidata.org/entity/P161&gt; &amp;&amp; ?o = &lt;http://www.wikidata.org/entity/Q34851&gt;) UNION ?uri ?p ?o ; ?p &lt;http://www.wikidata.org/entity/P161&gt; ; ?o &lt;http://www.wikidata.org/entity/Q151973&gt; . }",\n        "startIndex": 230,\n        "stopIndex": 234\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri ?p ?o ; ?p &lt;http://www.wikidata.org/entity/P161&gt; ; ?o &lt;http://www.wikidata.org/entity/Q34851&gt; . FILTER (?p = &lt;http://www.wikidata.org/entity/P161&gt; &amp;&amp; ?o = &lt;http://www.wikidata.org/entity/Q34851&gt;) UNION ?uri ?p ?o ; ?p &lt;http://www.wikidata.org/entity/P161&gt; ; ?o &lt;http://www.wikidata.org/entity/Q151973&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Built-in function \\"notexists{?label_uriwikidata:p31?skos_concept.?skos_conceptwikidata:p1702?status.filter(strstarts(?status,\'deprecated@en\'))}\\"  not yet implemented; if you need it, just add it to SparqlQleverVisitor.cpp::visitTypesafe(Parser::BuiltInCallContext following the already implemented functions there",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 321,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?x rdf:type dbo:Q482994 ; wikidata:P175 wikidata:Q303 ; wikidata:P577 ?y ; wikidata:P264 ?label_uri FILTER (lang(?label_uri) = \'en\') FILTER NOT EXISTS { ?label_uri wikidata:P31 ?skos_concept . ?skos_concept wikidata:P1702 ?status . FILTER (strstarts(?status, \'deprecated@en\')) } FILTER (!bound(?label_uri)) } ORDER BY ASC(?y) OFFSET 0 LIMIT 1",\n        "startIndex": 619,\n        "stopIndex": 756\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?x rdf:type dbo:Q482994 ; wikidata:P175 wikidata:Q303 ; wikidata:P577 ?y ; wikidata:P264 ?label_uri FILTER (lang(?label_uri) = \'en\') FILTER NOT EXISTS { ?label_uri wikidata:P31 ?skos_concept . ?skos_concept wikidata:P1702 ?status . FILTER (strstarts(?status, \'deprecated@en\')) } FILTER (!bound(?label_uri)) } ORDER BY ASC(?y) OFFSET 0 LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?runtime WHERE { wdt:Q171048 wdt:P2047 ?runtime }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/entity/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 wdt:Q5280538 ; wdt:P1303 wdt:Q119621 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?uri WHERE { ?uri a wdt:P11424. ?uri wdt:P161 wd:Q40523. ?uri wdt:P57 wd:Q315087. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q241665 wdt:P569 ?uri }</t>
+  </si>
+  <si>
+    <t>['1978-04-09T00:00:00Z']</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?item WHERE { ?item wdt:P509 ?cause . GROUP BY ?cause HAVING (COUNT(DISTINCT ?item) &gt; (SELECT MAX(COUNT(DISTINCT ?item)) AS max_count FROM { OPTIONAL { ?item wdt:P509 ?cause . } } GROUP BY ?cause)) ORDER BY DESC(COUNT(DISTINCT ?item)) OFFSET 0 LIMIT 1 }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Built-in function \\"notexists{?label_uriwikidata:p31?skos_concept.?skos_conceptwikidata:p1702?status.filter(strstarts(?status,\'deprecated@en\'))}\\"  not yet implemented; if you need it, just add it to SparqlQleverVisitor.cpp::visitTypesafe(Parser::BuiltInCallContext following the already implemented functions there",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 321,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?x rdf:type dbo:Q482994 ; wikidata:P175 wikidata:Q303 ; wikidata:P577 ?y ; wikidata:P264 ?label_uri FILTER (lang(?label_uri) = \'en\') FILTER NOT EXISTS { ?label_uri wikidata:P31 ?skos_concept . ?skos_concept wikidata:P1702 ?status . FILTER (strstarts(?status, \'deprecated@en\')) } FILTER (!bound(?label_uri)) } ORDER BY ASC(?y) OFFSET 0 LIMIT 1",\n        "startIndex": 321,\n        "stopIndex": 458\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?x rdf:type dbo:Q482994 ; wikidata:P175 wikidata:Q303 ; wikidata:P577 ?y ; wikidata:P264 ?label_uri FILTER (lang(?label_uri) = \'en\') FILTER NOT EXISTS { ?label_uri wikidata:P31 ?skos_concept . ?skos_concept wikidata:P1702 ?status . FILTER (strstarts(?status, \'deprecated@en\')) } FILTER (!bound(?label_uri)) } ORDER BY ASC(?y) OFFSET 0 LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"GROUP BY\\": missing \'}\' at \'GROUP BY\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 54,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?item WHERE { ?item wdt:P509 ?cause . GROUP BY ?cause HAVING (COUNT(DISTINCT ?item) &gt; (SELECT MAX(COUNT(DISTINCT ?item)) AS max_count FROM { OPTIONAL { ?item wdt:P509 ?cause . } } GROUP BY ?cause)) ORDER BY DESC(COUNT(DISTINCT ?item)) OFFSET 0 LIMIT 1 }",\n        "startIndex": 352,\n        "stopIndex": 359\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?item WHERE { ?item wdt:P509 ?cause . GROUP BY ?cause HAVING (COUNT(DISTINCT ?item) &gt; (SELECT MAX(COUNT(DISTINCT ?item)) AS max_count FROM { OPTIONAL { ?item wdt:P509 ?cause . } } GROUP BY ?cause)) ORDER BY DESC(COUNT(DISTINCT ?item)) OFFSET 0 LIMIT 1 }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?num WHERE { wd:Q1207989 wdt:P2048 ?num . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wdt:Q8502 ; wdt:P131 wdt:Q38 ; wdt:P2044 ?elevation . } ORDER BY DESC(?elevation) OFFSET 0 LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wds: &lt;http://www.wikidata.org/entity/statement/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?uri WHERE { wd:Q937 wdt:P184 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?owner WHERE { wdt:P127 wd:Q22686 ?owner . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P26&gt; &lt;http://www.wikidata.org/entity/Q37079&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?population WHERE { wdt:Q5401 wdt:P1082 ?population . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?Author WHERE { wdt:Q726382 wdt:P50 ?Author }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?date WHERE { wd:Q11806 wdt:P569 ?date }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?europop WHERE { wd:Q458 wdt:P1082 ?europop . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q12205470 wdt:P38 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?x WHERE { wd:Q692 P570 ?x } LIMIT 1</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 85,\n        "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q241665 wdt:P569 ?uri }",\n        "startIndex": 85,\n        "stopIndex": 92\n    },\n    "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q241665 wdt:P569 ?uri }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"P570\\": extraneous input \'P570\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 71,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?x WHERE { wd:Q692 P570 ?x } LIMIT 1",\n        "startIndex": 369,\n        "stopIndex": 372\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?x WHERE { wd:Q692 P570 ?x } LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri rdfs:subClassOf ?class ; wdt:P448 wdt:P17 . ?class wdt:P31 wd:Q41291 . wdt:P17 wd:Q177477 . }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"GROUP BY\\": missing \'}\' at \'GROUP BY\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 54,\n        "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P509 ?cause . GROUP BY ?cause HAVING (COUNT(DISTINCT ?item) &gt; (SELECT MAX(COUNT(DISTINCT ?item)) AS max_count FROM { OPTIONAL { ?item wdt:P509 ?cause . } } GROUP BY ?cause)) ORDER BY DESC(COUNT(DISTINCT ?item)) OFFSET 0 LIMIT 1 }",\n        "startIndex": 54,\n        "stopIndex": 61\n    },\n    "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P509 ?cause . GROUP BY ?cause HAVING (COUNT(DISTINCT ?item) &gt; (SELECT MAX(COUNT(DISTINCT ?item)) AS max_count FROM { OPTIONAL { ?item wdt:P509 ?cause . } } GROUP BY ?cause)) ORDER BY DESC(COUNT(DISTINCT ?item)) OFFSET 0 LIMIT 1 }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": mismatched input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 124,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?uri rdfs:subClassOf ?class ; wdt:P448 wdt:P17 . ?class wdt:P31 wd:Q41291 . wdt:P17 wd:Q177477 . }",\n        "startIndex": 422,\n        "stopIndex": 422\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?uri rdfs:subClassOf ?class ; wdt:P448 wdt:P17 . ?class wdt:P31 wd:Q41291 . wdt:P17 wd:Q177477 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q23442&gt; ; &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q17&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q131007 wdt:P178 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { VALUES ?industry { "http://www.wikidata.org/entity/Q854995", "http://www.wikidata.org/entity/Q37038", "http://www.wikidata.org/entity/Q1286627" } ?uri a &lt;http://www.wikidata.org/entity/Q4830453&gt; . ?uri &lt;http://www.wikidata.org/entity/P452&gt; ?industry . SERVICE wikibase:label { bd:serviceParam wikibase:language "en". } FILTER ( regex(?industry, "advertising", "i") ) }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 82,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?owner WHERE { wdt:P127 wd:Q22686 ?owner . }",\n        "startIndex": 82,\n        "stopIndex": 90\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?owner WHERE { wdt:P127 wd:Q22686 ?owner . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\",\\": extraneous input \',\' expecting {\'}\', \'true\', \'false\', UNDEF, IRI_REF, PNAME_NS, PNAME_LN, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2}",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 103,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { VALUES ?industry { \\"http://www.wikidata.org/entity/Q854995\\", \\"http://www.wikidata.org/entity/Q37038\\", \\"http://www.wikidata.org/entity/Q1286627\\" } ?uri a &lt;http://www.wikidata.org/entity/Q4830453&gt; . ?uri &lt;http://www.wikidata.org/entity/P452&gt; ?industry . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } FILTER ( regex(?industry, \\"advertising\\", \\"i\\") ) }",\n        "startIndex": 401,\n        "stopIndex": 401\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { VALUES ?industry { \\"http://www.wikidata.org/entity/Q854995\\", \\"http://www.wikidata.org/entity/Q37038\\", \\"http://www.wikidata.org/entity/Q1286627\\" } ?uri a &lt;http://www.wikidata.org/entity/Q4830453&gt; . ?uri &lt;http://www.wikidata.org/entity/P452&gt; ?industry . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } FILTER ( regex(?industry, \\"advertising\\", \\"i\\") ) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?university WHERE { wd:Q567 wdt:P69 ?university . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?show WHERE { ?show wd:P161 wd:Q485310 }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; PREFIX wikidata-prop: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wikidata-prop:P161 wikidata:Q37079 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q513 wdt:P131 ?uri . ?uri wdt:P31 wd:Q6256 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q9696&gt; &lt;http://www.wikidata.org/entity/P20&gt; ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q125006 wdt:P177 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri a http://www.wikidata.org/entity/Q10843402 ; P19 http://www.wikidata.org/entity/Q649 . }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 87,\n        "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q12205470 wdt:P38 ?uri }",\n        "startIndex": 87,\n        "stopIndex": 93\n    },\n    "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q12205470 wdt:P38 ?uri }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"/\\": mismatched input \'/\' expecting \'}\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 41,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?uri a http://www.wikidata.org/entity/Q10843402 ; P19 http://www.wikidata.org/entity/Q649 . }",\n        "startIndex": 339,\n        "stopIndex": 339\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?uri a http://www.wikidata.org/entity/Q10843402 ; P19 http://www.wikidata.org/entity/Q649 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 3,\n        "total": 3\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type wd:Film ; wdt:P161 wd:Q103894 ; wdt:P577 ?date . } ORDER BY DESC(?date) LIMIT 1</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"P570\\": extraneous input \'P570\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 71,\n        "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?x WHERE { wd:Q692 P570 ?x } LIMIT 1",\n        "startIndex": 71,\n        "stopIndex": 74\n    },\n    "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?x WHERE { wd:Q692 P570 ?x } LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 130,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type wd:Film ; wdt:P161 wd:Q103894 ; wdt:P577 ?date . } ORDER BY DESC(?date) LIMIT 1",\n        "startIndex": 428,\n        "stopIndex": 435\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type wd:Film ; wdt:P161 wd:Q103894 ; wdt:P577 ?date . } ORDER BY DESC(?date) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 4,\n        "total": 4\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q8502&gt; ; &lt;http://www.wikidata.org/entity/P2044&gt; ?elevation . FILTER ( ?elevation &lt; &lt;http://dbpedia.org/resource/Mount Everest&gt;'s elevation &gt; ) ORDER BY DESC(?elevation) OFFSET 1 LIMIT 1 }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": mismatched input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 124,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri rdfs:subClassOf ?class ; wdt:P448 wdt:P17 . ?class wdt:P31 wd:Q41291 . wdt:P17 wd:Q177477 . }",\n        "startIndex": 124,\n        "stopIndex": 124\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri rdfs:subClassOf ?class ; wdt:P448 wdt:P17 . ?class wdt:P31 wd:Q41291 . wdt:P17 wd:Q177477 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": extraneous input \'&lt;\' expecting {\'(\', \'+\', \'!\', \'-\', \'true\', \'false\', GROUP_CONCAT, NOT, STR, LANG, LANGMATCHES, DATATYPE, BOUND, IRI, URI, BNODE, RAND, ABS, CEIL, FLOOR, ROUND, CONCAT, STRLEN, UCASE, LCASE, ENCODE_FOR_URI, CONTAINS, STRSTARTS, STRENDS, STRBEFORE, STRAFTER, YEAR, MONTH, DAY, HOURS, MINUTES, SECONDS, TIMEZONE, TZ, NOW, UUID, STRUUID, SHA1, SHA256, SHA384, SHA512, MD5, COALESCE, IF, STRLANG, STRDT, SAMETERM, ISIRI, ISURI, ISBLANK, ISLITERAL, ISNUMERIC, REGEX, SUBSTR, REPLACE, EXISTS, COUNT, SUM, MIN, MAX, AVG, SAMPLE, IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2}",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 151,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q8502&gt; ; &lt;http://www.wikidata.org/entity/P2044&gt; ?elevation . FILTER ( ?elevation &lt; &lt;http://dbpedia.org/resource/Mount Everest&gt;\'s elevation &gt; ) ORDER BY DESC(?elevation) OFFSET 1 LIMIT 1 }",\n        "startIndex": 449,\n        "stopIndex": 449\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q8502&gt; ; &lt;http://www.wikidata.org/entity/P2044&gt; ?elevation . FILTER ( ?elevation &lt; &lt;http://dbpedia.org/resource/Mount Everest&gt;\'s elevation &gt; ) ORDER BY DESC(?elevation) OFFSET 1 LIMIT 1 }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 5,\n        "total": 5\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?pop WHERE { wd:Q85 wdt:P1082 ?pop }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q5 ; wdt:P19 wd:Q160544. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { wd:Q34969 wd:P40 ?uri. OPTIONAL { ?uri ?p ?o } }</t>
+  </si>
+  <si>
+    <t>EndPointInternalError: The endpoint returned the HTTP status code 500. 
+Response:
+b'{\n    "exception": "Tried to allocate 161.5 GB, but only 19.9 GB were available. Clear the cache or allow more memory for QLever during startup",\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { wd:Q34969 wd:P40 ?uri. OPTIONAL { ?uri ?p ?o } }",\n    "resultsize": 0,\n    "runtimeInformation": {\n        "cache_status": "computed",\n        "children": [\n            {\n                "cache_status": "computed",\n                "children": [\n                    {\n                        "cache_status": "computed",\n                        "children": [],\n                        "column_names": [\n                            "?uri"\n                        ],\n                        "description": "IndexScan &lt;http://www.wikidata.org/entity/Q34969&gt; &lt;http://www.wikidata.org/entity/P40&gt; ?uri",\n                        "details": null,\n                        "estimated_column_multiplicities": [\n                            1.0\n                        ],\n                        "estimated_operation_cost": 0,\n                        "estimated_size": 0,\n                        "estimated_total_cost": 0,\n                        "operation_time": 0,\n                        "original_operation_time": 0,\n                        "original_total_time": 0,\n                        "result_cols": 1,\n                        "result_rows": 0,\n                        "status": "fully materialized",\n                        "total_time": 0\n                    },\n                    {\n                        "cache_status": "computed",\n                        "children": [],\n                        "column_names": [\n                            "?uri",\n                            "?p",\n                            "?o"\n                        ],\n                        "description": "IndexScan ?uri ?p ?o",\n                        "details": null,\n                        "estimated_column_multiplicities": [\n                            9.224080085754395,\n                            366843.5625,\n                            7.993105888366699\n                        ],\n                        "estimated_operation_cost": 29526504696,\n                        "estimated_size": 29526504696,\n                        "estimated_total_cost": 29526504696,\n                        "operation_time": 0,\n                        "original_operation_time": 0,\n                        "original_total_time": 0,\n                        "result_cols": 3,\n                        "result_rows": 0,\n                        "status": "failed",\n                        "total_time": 0\n                    }\n                ],\n                "column_names": [\n                    "?uri",\n                    "?p (U)",\n                    "?o (U)"\n                ],\n                "description": "OptionalJoin on ?uri ",\n                "details": null,\n                "estimated_column_multiplicities": [\n                    9.224080085754395,\n                    366843.5625,\n                    7.993105888366699\n                ],\n                "estimated_operation_cost": 118106018788,\n                "estimated_size": 1,\n                "estimated_total_cost": 147632523484,\n                "operation_time": 1,\n                "original_operation_time": 0,\n                "original_total_time": 0,\n                "result_cols": 3,\n                "result_rows": 0,\n                "status": "failed because child failed",\n                "total_time": 1\n            }\n        ],\n        "column_names": [\n            "?c (U)"\n        ],\n        "description": "GroupBy (implicit)",\n        "details": null,\n        "estimated_column_multiplicities": [\n            1.0\n        ],\n        "estimated_operation_cost": 0,\n        "estimated_size": 1,\n        "estimated_total_cost": 147632523484,\n        "operation_time": 0,\n        "original_operation_time": 0,\n        "original_total_time": 0,\n        "result_cols": 1,\n        "result_rows": 0,\n        "status": "failed because child failed",\n        "total_time": 1\n    },\n    "status": "ERROR",\n    "time": {\n        "computeResult": 3,\n        "total": 3\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?ele WHERE { wdt:Q58226 wdt:P2044 ?ele } LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { wd:Q5806 wdt:P17 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?height WHERE { wd:Q76717 wdt:P2048 ?height . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q1163227 wdt:P50 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?genre WHERE { &lt;http://www.wikidata.org/entity/Q189080&gt; &lt;http://www.wikidata.org/entity/P136&gt; ?genre }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?place WHERE { wdt:Q40912 wdt:P19 ?place }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { ?uri a wd:Q515 ; wd:P1082 ?pop . } ORDER BY ASC(?pop) OFFSET 0 LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wikidata:type wikidata:Q15416 . ?uri wikidata:P170 wikidata:Q8704 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri a http://www.wikidata.org/entity/Q1445650 ; http://www.wikidata.org/entity/P17 http://www.wikidata.org/entity/Q34 . }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 80,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q131007 wdt:P178 ?uri }",\n        "startIndex": 80,\n        "stopIndex": 89\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q131007 wdt:P178 ?uri }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"/\\": mismatched input \'/\' expecting \'}\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 41,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?uri a http://www.wikidata.org/entity/Q1445650 ; http://www.wikidata.org/entity/P17 http://www.wikidata.org/entity/Q34 . }",\n        "startIndex": 339,\n        "stopIndex": 339\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?uri a http://www.wikidata.org/entity/Q1445650 ; http://www.wikidata.org/entity/P17 http://www.wikidata.org/entity/Q34 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?ni WHERE { wd:Q312 wdt:P2295 ?ni . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q91 wdt:P20 ?uri. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?uri WHERE { wd:Q105981852 wdt:P17 ?country. ?country wdt:P36 ?uri. SERVICE wikibase:service { bd:serviceParam wikibase:expandEntities ?uri. } }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\",\\": extraneous input \',\' expecting {\'}\', \'true\', \'false\', UNDEF, IRI_REF, PNAME_NS, PNAME_LN, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 103,\n        "query": "SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { VALUES ?industry { \\"http://www.wikidata.org/entity/Q854995\\", \\"http://www.wikidata.org/entity/Q37038\\", \\"http://www.wikidata.org/entity/Q1286627\\" } ?uri a &lt;http://www.wikidata.org/entity/Q4830453&gt; . ?uri &lt;http://www.wikidata.org/entity/P452&gt; ?industry . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } FILTER ( regex(?industry, \\"advertising\\", \\"i\\") ) }",\n        "startIndex": 103,\n        "stopIndex": 103\n    },\n    "query": "SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { VALUES ?industry { \\"http://www.wikidata.org/entity/Q854995\\", \\"http://www.wikidata.org/entity/Q37038\\", \\"http://www.wikidata.org/entity/Q1286627\\" } ?uri a &lt;http://www.wikidata.org/entity/Q4830453&gt; . ?uri &lt;http://www.wikidata.org/entity/P452&gt; ?industry . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } FILTER ( regex(?industry, \\"advertising\\", \\"i\\") ) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 128,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?uri WHERE { wd:Q105981852 wdt:P17 ?country. ?country wdt:P36 ?uri. SERVICE wikibase:service { bd:serviceParam wikibase:expandEntities ?uri. } }",\n        "startIndex": 426,\n        "stopIndex": 441\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?uri WHERE { wd:Q105981852 wdt:P17 ?country. ?country wdt:P36 ?uri. SERVICE wikibase:service { bd:serviceParam wikibase:expandEntities ?uri. } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q6386177 wdt:P17 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?num WHERE { ?s wdt:P2048 ?num . ?s wd:Q41421 . }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 36,\n        "query": "SELECT DISTINCT ?show WHERE { ?show wd:P161 wd:Q485310 }",\n        "startIndex": 36,\n        "stopIndex": 42\n    },\n    "query": "SELECT DISTINCT ?show WHERE { ?show wd:P161 wd:Q485310 }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": mismatched input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 158,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?num WHERE { ?s wdt:P2048 ?num . ?s wd:Q41421 . }",\n        "startIndex": 456,\n        "stopIndex": 456\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?num WHERE { ?s wdt:P2048 ?num . ?s wd:Q41421 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P57&gt; &lt;http://www.wikidata.org/entity/Q43203&gt; ; &lt;http://www.wikidata.org/entity/P161&gt; &lt;http://www.wikidata.org/entity/Q43203&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P38&gt; &lt;http://www.wikidata.org/entity/Q861690&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?pIraq WHERE { wd:Q796 wdt:P1082 ?pIraq }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdfs:type wd:Q1445650 }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri a wd:Q7278. ?uri wdt:P17 wd:Q41. ?uri wdt:P1142 wd:Q3781399. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?date WHERE { ?actor wdt:P161 wd:Q162371 . ?actor wdt:P569 ?date }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q3235867 (wd:P50 / wd:P50) ?person . ?person (wd:P135 / wd:P135) ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q33999&gt; . ?uri &lt;http://www.wikidata.org/entity/P19&gt; ?place . OPTIONAL { ?place &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q43287&gt; } UNION ?uri &lt;http://www.wikidata.org/entity/P19&gt; ?place . ?place &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q43287&gt; . }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"/\\": mismatched input \'/\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 41,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri a http://www.wikidata.org/entity/Q10843402 ; P19 http://www.wikidata.org/entity/Q649 . }",\n        "startIndex": 41,\n        "stopIndex": 41\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri a http://www.wikidata.org/entity/Q10843402 ; P19 http://www.wikidata.org/entity/Q649 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"UNION\\": mismatched input \'UNION\' expecting \'}\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 226,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q33999&gt; . ?uri &lt;http://www.wikidata.org/entity/P19&gt; ?place . OPTIONAL { ?place &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q43287&gt; } UNION ?uri &lt;http://www.wikidata.org/entity/P19&gt; ?place . ?place &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q43287&gt; . }",\n        "startIndex": 524,\n        "stopIndex": 528\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q33999&gt; . ?uri &lt;http://www.wikidata.org/entity/P19&gt; ?place . OPTIONAL { ?place &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q43287&gt; } UNION ?uri &lt;http://www.wikidata.org/entity/P19&gt; ?place . ?place &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q43287&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?uri WHERE { wd:Q125006 wdt:P84 ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?composer WHERE { wd:Q23572 wdt:P86 ?composer }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?uri WHERE { ?uri wdt:P31 wd:Q11424. ?uri wdt:P57 wd:Q56094. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?bn WHERE { wd:Q23215 wd:P1477 ?bn }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q482994 ; wdt:P175 wd:Q15862 ; wdt:P577 ?d } ORDER BY ASC(?d) OFFSET 0 LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q213 wd:P38 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wikibase: &lt;http://wikiba.se/ontology#&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wikibase:birthPlace wd:Q1741 . ?uri wikibase:deathPlace wd:Q64 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q12280&gt; ; &lt;http://www.wikidata.org/entity/P177&gt; &lt;http://www.wikidata.org/entity/Q1142326&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P106&gt; ?x . ?x &lt;http://www.wikidata.org/entity/P50&gt; ?uri . ?x &lt;http://www.wikidata.org/entity/P577&gt; ?y . ?y &lt;http://www.wikidata.org/entity/P31&gt; &lt;http://www.wikidata.org/entity/Q571&gt; . } ORDER BY DESC(COUNT(?x)) OFFSET 0 LIMIT 1</t>
+  </si>
+  <si>
+    <t>EndPointInternalError: The endpoint returned the HTTP status code 500. 
+Response:
+b'{\n    "exception": "Assertion `it != inputs.end()` failed. Please report this to the developers. In file \\"/app/src/engine/sparqlExpressions/AggregateExpression.h \\" at line 128",\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P106&gt; ?x . ?x &lt;http://www.wikidata.org/entity/P50&gt; ?uri . ?x &lt;http://www.wikidata.org/entity/P577&gt; ?y . ?y &lt;http://www.wikidata.org/entity/P31&gt; &lt;http://www.wikidata.org/entity/Q571&gt; . } ORDER BY DESC(COUNT(?x)) OFFSET 0 LIMIT 1",\n    "resultsize": 0,\n    "runtimeInformation": {\n        "cache_status": "computed",\n        "children": [\n            {\n                "cache_status": "computed",\n                "children": [\n                    {\n                        "cache_status": "computed",\n                        "children": [\n                            {\n                                "cache_status": "computed",\n                                "children": [\n                                    {\n                                        "cache_status": "computed",\n                                        "children": [\n                                            {\n                                                "cache_status": "computed",\n                                                "children": [\n                                                    {\n                                                        "cache_status": "computed",\n                                                        "children": [\n                                                            {\n                                                                "cache_status": "computed",\n                                                                "children": [\n                                                                    {\n                                                                        "cache_status": "computed",\n                                                                        "children": [],\n                                                                        "column_names": [\n                                                                            "?x",\n                                                                            "?uri"\n                                                                        ],\n                                                                        "description": "IndexScan ?uri &lt;http://www.wikidata.org/entity/P106&gt; ?x",\n                                                                        "details": null,\n                                                                        "estimated_column_multiplicities": [\n                                                                            1.0,\n                                                                            1.0\n                                                                        ],\n                                                                        "estimated_operation_cost": 0,\n                                                                        "estimated_size": 0,\n                                                                        "estimated_total_cost": 0,\n                                                                        "operation_time": 0,\n                                                                        "original_operation_time": 0,\n                                                                        "original_total_time": 0,\n                                                                        "result_cols": 2,\n                                                                        "result_rows": 0,\n                                                                        "status": "optimized out",\n                                                                        "total_time": 0\n                                                                    },\n                                                                    {\n                                                                        "cache_status": "computed",\n                                                                        "children": [],\n                                                                        "column_names": [\n                                                                            "?x",\n                                                                            "?uri"\n                                                                        ],\n                                                                        "description": "IndexScan ?x &lt;http://www.wikidata.org/entity/P50&gt; ?uri",\n                                                                        "details": null,\n                                                                        "estimated_column_multiplicities": [\n                                                                            1.0,\n                                                                            1.0\n                                                                        ],\n                                                                        "estimated_operation_cost": 0,\n                                                                        "estimated_size": 0,\n                                                                        "estimated_total_cost": 0,\n                                                                        "operation_time": 0,\n                                                                        "original_operation_time": 0,\n                                                                        "original_total_time": 0,\n                                                                        "result_cols": 2,\n                                                                        "result_rows": 0,\n                                                                        "status": "optimized out",\n                                                                        "total_time": 0\n                                                                    }\n                                                                ],\n                                                                "column_names": [\n                                                                    "?x",\n                                                                    "?uri"\n                                                                ],\n                                                                "description": "MultiColumnJoin on ?uri ?x ",\n                                                                "details": null,\n                                                                "estimated_column_multiplicities": [\n                                                                    1.0,\n                                                                    1.0\n                                                                ],\n                                                                "estimated_operation_cost": 4,\n                                                                "estimated_size": 2,\n                                                                "estimated_total_cost": 4,\n                                                                "operation_time": 0,\n                                                                "original_operation_time": 0,\n                                                                "original_total_time": 0,\n                                                                "result_cols": 2,\n                                                                "result_rows": 0,\n                                                                "status": "optimized out",\n                                                                "total_time": 0\n                                                            },\n                                                            {\n                                                                "cache_status": "computed",\n                                                                "children": [],\n                                                                "column_names": [\n                                                                    "?x",\n                                                                    "?y"\n                                                                ],\n                                                                "description": "IndexScan ?x &lt;http://www.wikidata.org/entity/P577&gt; ?y",\n                                                                "details": null,\n                                                                "estimated_column_multiplicities": [\n                                                                    1.0,\n                                                                    1.0\n                                                                ],\n                                                                "estimated_operation_cost": 0,\n                                                                "estimated_size": 0,\n                                                                "estimated_total_cost": 0,\n                                                                "operation_time": 0,\n                                                                "original_operation_time": 0,\n                                                                "original_total_time": 0,\n                                                                "result_cols": 2,\n                                                                "result_rows": 0,\n                                                                "status": "optimized out",\n                                                                "total_time": 0\n                                                            }\n                                                        ],\n                                                        "column_names": [\n                                                            "?x",\n                                                            "?uri",\n                                                            "?y"\n                                                        ],\n                                                        "description": "Join on ?x",\n                                                        "details": null,\n                                                        "estimated_column_multiplicities": [\n                                                            1.0,\n                                                            1.0,\n                                                            1.0\n                                                        ],\n                                                        "estimated_operation_cost": 2,\n                                                        "estimated_size": 0,\n                                                        "estimated_total_cost": 6,\n                                                        "operation_time": 0,\n                                                        "original_operation_time": 0,\n                                                        "original_total_time": 0,\n                                                        "result_cols": 3,\n                                                        "result_rows": 0,\n                                                        "status": "optimized out",\n                                                        "total_time": 0\n                                                    }\n                                                ],\n                                                "column_names": [\n                                                    "?x",\n                                                    "?uri",\n                                                    "?y"\n                                                ],\n                                                "description": "Sort (internal order) on ?y",\n                                                "details": null,\n                                                "estimated_column_multiplicities": [\n                                                    1.0,\n                                                    1.0,\n                                                    1.0\n                                                ],\n                                                "estimated_operation_cost": 0,\n                                                "estimated_size": 0,\n                                                "estimated_total_cost": 6,\n                                                "operation_time": 0,\n                                                "original_operation_time": 0,\n                                                "original_total_time": 0,\n                                                "result_cols": 3,\n                                                "result_rows": 0,\n                                                "status": "optimized out",\n                                                "total_time": 0\n                                            },\n                                            {\n                                                "cache_status": "computed",\n                                                "children": [],\n                                                "column_names": [\n                                                    "?y"\n                                                ],\n                                                "description": "IndexScan ?y &lt;http://www.wikidata.org/entity/P31&gt; &lt;http://www.wikidata.org/entity/Q571&gt;",\n                                                "details": null,\n                                                "estimated_column_multiplicities": [\n                                                    1.0\n                                                ],\n                                                "estimated_operation_cost": 0,\n                                                "estimated_size": 0,\n                                                "estimated_total_cost": 0,\n                                                "operation_time": 0,\n                                                "original_operation_time": 0,\n                                                "original_total_time": 0,\n                                                "result_cols": 1,\n                                                "result_rows": 0,\n                                                "status": "optimized out",\n                                                "total_time": 0\n                                            }\n                                        ],\n                                        "column_names": [\n                                            "?x",\n                                            "?uri",\n                                            "?y"\n                                        ],\n                                        "description": "Join on ?y",\n                                        "details": null,\n                                        "estimated_column_multiplicities": [\n                                            1.0,\n                                            1.0,\n                                            1.0\n                                        ],\n                                        "estimated_operation_cost": 0,\n                                        "estimated_size": 0,\n                                        "estimated_total_cost": 6,\n                                        "operation_time": 0,\n                                        "original_operation_time": 0,\n                                        "original_total_time": 0,\n                                        "result_cols": 3,\n                                        "result_rows": 0,\n                                        "status": "fully materialized",\n                                        "total_time": 0\n                                    }\n                                ],\n                                "column_names": [\n                                    "?x",\n                                    "?uri",\n                                    "?y",\n                                    "?_QLever_internal_variable_0 (U)"\n                                ],\n                                "description": "BIND ((COUNT(?x)) AS ?_QLever_internal_variable_0)",\n                                "details": null,\n                                "estimated_column_multiplicities": [\n                                    1.0,\n                                    1.0,\n                                    1.0,\n                                    1.0\n                                ],\n                                "estimated_operation_cost": 0,\n                                "estimated_size": 0,\n                                "estimated_total_cost": 6,\n                                "operation_time": 0,\n                                "original_operation_time": 0,\n                                "original_total_time": 0,\n                                "result_cols": 4,\n                                "result_rows": 0,\n                                "status": "failed",\n                                "total_time": 0\n                            }\n                        ],\n                        "column_names": [\n                            "?x",\n                            "?uri",\n                            "?y",\n                            "?_QLever_internal_variable_0 (U)"\n                        ],\n                        "description": "Sort (internal order) on ?uri",\n                        "details": null,\n                        "estimated_column_multiplicities": [\n                            1.0,\n                            1.0,\n                            1.0,\n                            1.0\n                        ],\n                        "estimated_operation_cost": 0,\n                        "estimated_size": 0,\n                        "estimated_total_cost": 6,\n                        "operation_time": 0,\n                        "original_operation_time": 0,\n                        "original_total_time": 0,\n                        "result_cols": 4,\n                        "result_rows": 0,\n                        "status": "failed because child failed",\n                        "total_time": 0\n                    }\n                ],\n                "column_names": [\n                    "?x",\n                    "?uri",\n                    "?y",\n                    "?_QLever_internal_variable_0 (U)"\n                ],\n                "description": "Distinct",\n                "details": null,\n                "estimated_column_multiplicities": [\n                    1.0,\n                    1.0,\n                    1.0,\n                    1.0\n                ],\n                "estimated_operation_cost": 0,\n                "estimated_size": 0,\n                "estimated_total_cost": 6,\n                "operation_time": 0,\n                "original_operation_time": 0,\n                "original_total_time": 0,\n                "result_cols": 4,\n                "result_rows": 0,\n                "status": "failed because child failed",\n                "total_time": 0\n            }\n        ],\n        "column_names": [\n            "?x",\n            "?uri",\n            "?y",\n            "?_QLever_internal_variable_0 (U)"\n        ],\n        "description": "OrderBy on DESC(?_QLever_internal_variable_0)",\n        "details": null,\n        "estimated_column_multiplicities": [\n            1.0,\n            1.0,\n            1.0,\n            1.0\n        ],\n        "estimated_operation_cost": 0,\n        "estimated_size": 0,\n        "estimated_total_cost": 6,\n        "operation_time": 1,\n        "original_operation_time": 0,\n        "original_total_time": 0,\n        "result_cols": 4,\n        "result_rows": 0,\n        "status": "failed because child failed",\n        "total_time": 1\n    },\n    "status": "ERROR",\n    "time": {\n        "computeResult": 2,\n        "total": 2\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q15416&gt; ; &lt;http://www.wikidata.org/entity/P170&gt; ?creator . FILTER ( ?creator = &lt;http://www.wikidata.org/entity/Q25014&gt; ) }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wikibase: &lt;http://wikiba.se/ontology#&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?writer WHERE { ?writer wikibase:entityType wd:Q36180 ; ?award wikibase:statementProperty wd:P166 ; ?award wikibase:statementSubject wd:Q37922 . }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 130,\n        "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type wd:Film ; wdt:P161 wd:Q103894 ; wdt:P577 ?date . } ORDER BY DESC(?date) LIMIT 1",\n        "startIndex": 130,\n        "stopIndex": 137\n    },\n    "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type wd:Film ; wdt:P161 wd:Q103894 ; wdt:P577 ?date . } ORDER BY DESC(?date) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"wd:P166\\": mismatched input \'wd:P166\' expecting \'}\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 197,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wikibase: &lt;http://wikiba.se/ontology#&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?writer WHERE { ?writer wikibase:entityType wd:Q36180 ; ?award wikibase:statementProperty wd:P166 ; ?award wikibase:statementSubject wd:Q37922 . }",\n        "startIndex": 495,\n        "stopIndex": 501\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wikibase: &lt;http://wikiba.se/ontology#&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?writer WHERE { ?writer wikibase:entityType wd:Q36180 ; ?award wikibase:statementProperty wd:P166 ; ?award wikibase:statementSubject wd:Q37922 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?discoverer WHERE { wd:Q596 wdt:P61 ?discoverer . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 wd:Q5280538 . ?uri wdt:P106 wd:Q806349 . ?uri wdt:P1303 wd:Q119621 . ?uri wdt:P1303 wd:Q8338 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q3665646&gt; ; &lt;http://www.wikidata.org/entity/P2048&gt; ?n FILTER ( ?n &gt; 2.0 ) }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?film wdt:P161 wd:Q40523 ; wdt:P161 wd:Q48410 . FILTER (?film = ?film) }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?uri WHERE { wd:Q1020 wdt:P36 ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q937857&gt; ; &lt;http://www.wikidata.org/entity/P19&gt; &lt;http://www.wikidata.org/entity/Q233&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?capital WHERE { wd:Q1009 wdt:P36 ?capital }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri wdt:P373 [] . ?uri wikibase:sourceId ?dbpediaSource . ?dbpediaSource wdt:P31 &lt;http://www.wikidata.org/entity/Q9143&gt; . }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": extraneous input \'&lt;\' expecting {\'(\', \'+\', \'!\', \'-\', \'true\', \'false\', GROUP_CONCAT, NOT, STR, LANG, LANGMATCHES, DATATYPE, BOUND, IRI, URI, BNODE, RAND, ABS, CEIL, FLOOR, ROUND, CONCAT, STRLEN, UCASE, LCASE, ENCODE_FOR_URI, CONTAINS, STRSTARTS, STRENDS, STRBEFORE, STRAFTER, YEAR, MONTH, DAY, HOURS, MINUTES, SECONDS, TIMEZONE, TZ, NOW, UUID, STRUUID, SHA1, SHA256, SHA384, SHA512, MD5, COALESCE, IF, STRLANG, STRDT, SAMETERM, ISIRI, ISURI, ISBLANK, ISLITERAL, ISNUMERIC, REGEX, SUBSTR, REPLACE, EXISTS, COUNT, SUM, MIN, MAX, AVG, SAMPLE, IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 151,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q8502&gt; ; &lt;http://www.wikidata.org/entity/P2044&gt; ?elevation . FILTER ( ?elevation &lt; &lt;http://dbpedia.org/resource/Mount Everest&gt;\'s elevation &gt; ) ORDER BY DESC(?elevation) OFFSET 1 LIMIT 1 }",\n        "startIndex": 151,\n        "stopIndex": 151\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q8502&gt; ; &lt;http://www.wikidata.org/entity/P2044&gt; ?elevation . FILTER ( ?elevation &lt; &lt;http://dbpedia.org/resource/Mount Everest&gt;\'s elevation &gt; ) ORDER BY DESC(?elevation) OFFSET 1 LIMIT 1 }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>EndPointInternalError: The endpoint returned the HTTP status code 500. 
-Response:
-b'{\n    "exception": "Tried to allocate 161.5 GB, but only 19.9 GB were available. Clear the cache or allow more memory for QLever during startup",\n    "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { wd:Q34969 wd:P40 ?uri. OPTIONAL { ?uri ?p ?o } }",\n    "resultsize": 0,\n    "runtimeInformation": {\n        "cache_status": "computed",\n        "children": [\n            {\n                "cache_status": "computed",\n                "children": [\n                    {\n                        "cache_status": "computed",\n                        "children": [],\n                        "column_names": [\n                            "?uri"\n                        ],\n                        "description": "IndexScan &lt;http://www.wikidata.org/entity/Q34969&gt; &lt;http://www.wikidata.org/entity/P40&gt; ?uri",\n                        "details": null,\n                        "estimated_column_multiplicities": [\n                            1.0\n                        ],\n                        "estimated_operation_cost": 0,\n                        "estimated_size": 0,\n                        "estimated_total_cost": 0,\n                        "operation_time": 0,\n                        "original_operation_time": 0,\n                        "original_total_time": 0,\n                        "result_cols": 1,\n                        "result_rows": 0,\n                        "status": "fully materialized",\n                        "total_time": 0\n                    },\n                    {\n                        "cache_status": "computed",\n                        "children": [],\n                        "column_names": [\n                            "?uri",\n                            "?p",\n                            "?o"\n                        ],\n                        "description": "IndexScan ?uri ?p ?o",\n                        "details": null,\n                        "estimated_column_multiplicities": [\n                            9.224080085754395,\n                            366843.5625,\n                            7.993105888366699\n                        ],\n                        "estimated_operation_cost": 29526504696,\n                        "estimated_size": 29526504696,\n                        "estimated_total_cost": 29526504696,\n                        "operation_time": 41,\n                        "original_operation_time": 0,\n                        "original_total_time": 0,\n                        "result_cols": 3,\n                        "result_rows": 0,\n                        "status": "failed",\n                        "total_time": 41\n                    }\n                ],\n                "column_names": [\n                    "?uri",\n                    "?p (U)",\n                    "?o (U)"\n                ],\n                "description": "OptionalJoin on ?uri ",\n                "details": null,\n                "estimated_column_multiplicities": [\n                    9.224080085754395,\n                    366843.5625,\n                    7.993105888366699\n                ],\n                "estimated_operation_cost": 118106018788,\n                "estimated_size": 1,\n                "estimated_total_cost": 147632523484,\n                "operation_time": 1,\n                "original_operation_time": 0,\n                "original_total_time": 0,\n                "result_cols": 3,\n                "result_rows": 0,\n                "status": "failed because child failed",\n                "total_time": 42\n            }\n        ],\n        "column_names": [\n            "?c (U)"\n        ],\n        "description": "GroupBy (implicit)",\n        "details": null,\n        "estimated_column_multiplicities": [\n            1.0\n        ],\n        "estimated_operation_cost": 0,\n        "estimated_size": 1,\n        "estimated_total_cost": 147632523484,\n        "operation_time": 0,\n        "original_operation_time": 0,\n        "original_total_time": 0,\n        "result_cols": 1,\n        "result_rows": 0,\n        "status": "failed because child failed",\n        "total_time": 42\n    },\n    "status": "ERROR",\n    "time": {\n        "computeResult": 43,\n        "total": 43\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 68,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri wdt:P373 [] . ?uri wikibase:sourceId ?dbpediaSource . ?dbpediaSource wdt:P31 &lt;http://www.wikidata.org/entity/Q9143&gt; . }",\n        "startIndex": 366,\n        "stopIndex": 382\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri wdt:P373 [] . ?uri wikibase:sourceId ?dbpediaSource . ?dbpediaSource wdt:P31 &lt;http://www.wikidata.org/entity/Q9143&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/statement/Q11631&gt; . ?uri &lt;http://www.wikidata.org/entity/P27&gt; &lt;http://www.wikidata.org/entity/Q2184&gt; . UNION ?uri &lt;http://www.wikidata.org/entity/P27&gt; &lt;http://www.wikidata.org/entity/Q15180&gt; . }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 106,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { wd:Q5806 wdt:P17 ?uri }",\n        "startIndex": 106,\n        "stopIndex": 113\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { wd:Q5806 wdt:P17 ?uri }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"UNION\\": mismatched input \'UNION\' expecting \'}\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 171,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/statement/Q11631&gt; . ?uri &lt;http://www.wikidata.org/entity/P27&gt; &lt;http://www.wikidata.org/entity/Q2184&gt; . UNION ?uri &lt;http://www.wikidata.org/entity/P27&gt; &lt;http://www.wikidata.org/entity/Q15180&gt; . }",\n        "startIndex": 469,\n        "stopIndex": 473\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/statement/Q11631&gt; . ?uri &lt;http://www.wikidata.org/entity/P27&gt; &lt;http://www.wikidata.org/entity/Q2184&gt; . UNION ?uri &lt;http://www.wikidata.org/entity/P27&gt; &lt;http://www.wikidata.org/entity/Q15180&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT ?uri WHERE { wd:Q5930 wdt:P170 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?population WHERE { wd:Q1489 ?population wdt:P1082 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdp: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?creator WHERE { wd:Q2695156 wdp:P170 ?creator }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?num WHERE { wd:Q25907685 wdt:P36 ?capital . ?capital wdt:P1082 ?num }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?tarea WHERE { wd:Q1198 wd:P2046 ?tarea . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?number WHERE { &lt;http://www.wikidata.org/entity/Q70096636&gt; &lt;http://www.wikidata.org/entity/P1128&gt; ?number. FILTER (isNumber(?number)) }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 32,\n        "query": "SELECT DISTINCT ?height WHERE { wd:Q76717 wdt:P2048 ?height . }",\n        "startIndex": 32,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?height WHERE { wd:Q76717 wdt:P2048 ?height . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"isNumber\\": extraneous input \'isNumber\' expecting {\'(\', \'+\', \'!\', \'-\', \'true\', \'false\', GROUP_CONCAT, NOT, STR, LANG, LANGMATCHES, DATATYPE, BOUND, IRI, URI, BNODE, RAND, ABS, CEIL, FLOOR, ROUND, CONCAT, STRLEN, UCASE, LCASE, ENCODE_FOR_URI, CONTAINS, STRSTARTS, STRENDS, STRBEFORE, STRAFTER, YEAR, MONTH, DAY, HOURS, MINUTES, SECONDS, TIMEZONE, TZ, NOW, UUID, STRUUID, SHA1, SHA256, SHA384, SHA512, MD5, COALESCE, IF, STRLANG, STRDT, SAMETERM, ISIRI, ISURI, ISBLANK, ISLITERAL, ISNUMERIC, REGEX, SUBSTR, REPLACE, EXISTS, COUNT, SUM, MIN, MAX, AVG, SAMPLE, IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2}",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 131,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?number WHERE { &lt;http://www.wikidata.org/entity/Q70096636&gt; &lt;http://www.wikidata.org/entity/P1128&gt; ?number. FILTER (isNumber(?number)) }",\n        "startIndex": 429,\n        "stopIndex": 436\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?number WHERE { &lt;http://www.wikidata.org/entity/Q70096636&gt; &lt;http://www.wikidata.org/entity/P1128&gt; ?number. FILTER (isNumber(?number)) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?n WHERE { ?s dbo:wikiPageID ?pgid. ?s dbo:wikiPageID/ dbo:serviceLink ?wikidataid. FILTER(?wikidataid = "http://www.wikidata.org/entity/Q104123"). ?s wdt:P2769 ?n. }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"/\\": mismatched input \'/\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 41,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri a http://www.wikidata.org/entity/Q1445650 ; http://www.wikidata.org/entity/P17 http://www.wikidata.org/entity/Q34 . }",\n        "startIndex": 41,\n        "stopIndex": 41\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri a http://www.wikidata.org/entity/Q1445650 ; http://www.wikidata.org/entity/P17 http://www.wikidata.org/entity/Q34 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix dbo was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 30,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?n WHERE { ?s dbo:wikiPageID ?pgid. ?s dbo:wikiPageID/ dbo:serviceLink ?wikidataid. FILTER(?wikidataid = \\"http://www.wikidata.org/entity/Q104123\\"). ?s wdt:P2769 ?n. }",\n        "startIndex": 328,\n        "stopIndex": 341\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?n WHERE { ?s dbo:wikiPageID ?pgid. ?s dbo:wikiPageID/ dbo:serviceLink ?wikidataid. FILTER(?wikidataid = \\"http://www.wikidata.org/entity/Q104123\\"). ?s wdt:P2769 ?n. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q11424&gt; ; &lt;http://www.wikidata.org/entity/P161&gt; ?movie . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q11424&gt; ; &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q5257925&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT ?country WHERE { &lt;http://www.wikidata.org/entity/Q105981852&gt; &lt;http://www.wikidata.org/entity/P17&gt; ?country . SERVICE wikibase:label { bd:serviceParam wikibase:language "en". } }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 79,\n        "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?uri WHERE { wd:Q105981852 wdt:P17 ?country. ?country wdt:P36 ?uri. SERVICE wikibase:service { bd:serviceParam wikibase:expandEntities ?uri. } }",\n        "startIndex": 79,\n        "stopIndex": 85\n    },\n    "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?uri WHERE { wd:Q105981852 wdt:P17 ?country. ?country wdt:P36 ?uri. SERVICE wikibase:service { bd:serviceParam wikibase:expandEntities ?uri. } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 124,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT ?country WHERE { &lt;http://www.wikidata.org/entity/Q105981852&gt; &lt;http://www.wikidata.org/entity/P17&gt; ?country . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } }",\n        "startIndex": 422,\n        "stopIndex": 435\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT ?country WHERE { &lt;http://www.wikidata.org/entity/Q105981852&gt; &lt;http://www.wikidata.org/entity/P17&gt; ?country . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type wdt:Q6256 ; wdt:P2046 ?n . FILTER (?n &gt; 0) ORDER BY DESC(?n) LIMIT 1 }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": mismatched input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 158,\n        "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?num WHERE { ?s wdt:P2048 ?num . ?s wd:Q41421 . }",\n        "startIndex": 158,\n        "stopIndex": 158\n    },\n    "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?num WHERE { ?s wdt:P2048 ?num . ?s wd:Q41421 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"UNION\\": mismatched input \'UNION\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 226,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q33999&gt; . ?uri &lt;http://www.wikidata.org/entity/P19&gt; ?place . OPTIONAL { ?place &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q43287&gt; } UNION ?uri &lt;http://www.wikidata.org/entity/P19&gt; ?place . ?place &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q43287&gt; . }",\n        "startIndex": 226,\n        "stopIndex": 230\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q33999&gt; . ?uri &lt;http://www.wikidata.org/entity/P19&gt; ?place . OPTIONAL { ?place &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q43287&gt; } UNION ?uri &lt;http://www.wikidata.org/entity/P19&gt; ?place . ?place &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q43287&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 89,\n        "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?composer WHERE { wd:Q23572 wdt:P86 ?composer }",\n        "startIndex": 89,\n        "stopIndex": 95\n    },\n    "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?composer WHERE { wd:Q23572 wdt:P86 ?composer }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 93,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q482994 ; wdt:P175 wd:Q15862 ; wdt:P577 ?d } ORDER BY ASC(?d) OFFSET 0 LIMIT 1",\n        "startIndex": 93,\n        "stopIndex": 102\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q482994 ; wdt:P175 wd:Q15862 ; wdt:P577 ?d } ORDER BY ASC(?d) OFFSET 0 LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>EndPointInternalError: The endpoint returned the HTTP status code 500. 
-Response:
-b'{\n    "exception": "Assertion `it != inputs.end()` failed. Please report this to the developers. In file \\"/app/src/engine/sparqlExpressions/AggregateExpression.h \\" at line 128",\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P106&gt; ?x . ?x &lt;http://www.wikidata.org/entity/P50&gt; ?uri . ?x &lt;http://www.wikidata.org/entity/P577&gt; ?y . ?y &lt;http://www.wikidata.org/entity/P31&gt; &lt;http://www.wikidata.org/entity/Q571&gt; . } ORDER BY DESC(COUNT(?x)) OFFSET 0 LIMIT 1",\n    "resultsize": 0,\n    "runtimeInformation": {\n        "cache_status": "computed",\n        "children": [\n            {\n                "cache_status": "computed",\n                "children": [\n                    {\n                        "cache_status": "computed",\n                        "children": [\n                            {\n                                "cache_status": "computed",\n                                "children": [\n                                    {\n                                        "cache_status": "computed",\n                                        "children": [\n                                            {\n                                                "cache_status": "computed",\n                                                "children": [\n                                                    {\n                                                        "cache_status": "computed",\n                                                        "children": [\n                                                            {\n                                                                "cache_status": "computed",\n                                                                "children": [\n                                                                    {\n                                                                        "cache_status": "computed",\n                                                                        "children": [],\n                                                                        "column_names": [\n                                                                            "?x",\n                                                                            "?uri"\n                                                                        ],\n                                                                        "description": "IndexScan ?uri &lt;http://www.wikidata.org/entity/P106&gt; ?x",\n                                                                        "details": null,\n                                                                        "estimated_column_multiplicities": [\n                                                                            1.0,\n                                                                            1.0\n                                                                        ],\n                                                                        "estimated_operation_cost": 0,\n                                                                        "estimated_size": 0,\n                                                                        "estimated_total_cost": 0,\n                                                                        "operation_time": 0,\n                                                                        "original_operation_time": 0,\n                                                                        "original_total_time": 0,\n                                                                        "result_cols": 2,\n                                                                        "result_rows": 0,\n                                                                        "status": "optimized out",\n                                                                        "total_time": 0\n                                                                    },\n                                                                    {\n                                                                        "cache_status": "computed",\n                                                                        "children": [],\n                                                                        "column_names": [\n                                                                            "?x",\n                                                                            "?uri"\n                                                                        ],\n                                                                        "description": "IndexScan ?x &lt;http://www.wikidata.org/entity/P50&gt; ?uri",\n                                                                        "details": null,\n                                                                        "estimated_column_multiplicities": [\n                                                                            1.0,\n                                                                            1.0\n                                                                        ],\n                                                                        "estimated_operation_cost": 0,\n                                                                        "estimated_size": 0,\n                                                                        "estimated_total_cost": 0,\n                                                                        "operation_time": 0,\n                                                                        "original_operation_time": 0,\n                                                                        "original_total_time": 0,\n                                                                        "result_cols": 2,\n                                                                        "result_rows": 0,\n                                                                        "status": "optimized out",\n                                                                        "total_time": 0\n                                                                    }\n                                                                ],\n                                                                "column_names": [\n                                                                    "?x",\n                                                                    "?uri"\n                                                                ],\n                                                                "description": "MultiColumnJoin on ?x ?uri ",\n                                                                "details": null,\n                                                                "estimated_column_multiplicities": [\n                                                                    1.0,\n                                                                    1.0\n                                                                ],\n                                                                "estimated_operation_cost": 4,\n                                                                "estimated_size": 2,\n                                                                "estimated_total_cost": 4,\n                                                                "operation_time": 0,\n                                                                "original_operation_time": 0,\n                                                                "original_total_time": 0,\n                                                                "result_cols": 2,\n                                                                "result_rows": 0,\n                                                                "status": "optimized out",\n                                                                "total_time": 0\n                                                            },\n                                                            {\n                                                                "cache_status": "computed",\n                                                                "children": [],\n                                                                "column_names": [\n                                                                    "?x",\n                                                                    "?y"\n                                                                ],\n                                                                "description": "IndexScan ?x &lt;http://www.wikidata.org/entity/P577&gt; ?y",\n                                                                "details": null,\n                                                                "estimated_column_multiplicities": [\n                                                                    1.0,\n                                                                    1.0\n                                                                ],\n                                                                "estimated_operation_cost": 0,\n                                                                "estimated_size": 0,\n                                                                "estimated_total_cost": 0,\n                                                                "operation_time": 0,\n                                                                "original_operation_time": 0,\n                                                                "original_total_time": 0,\n                                                                "result_cols": 2,\n                                                                "result_rows": 0,\n                                                                "status": "optimized out",\n                                                                "total_time": 0\n                                                            }\n                                                        ],\n                                                        "column_names": [\n                                                            "?x",\n                                                            "?uri",\n                                                            "?y"\n                                                        ],\n                                                        "description": "Join on ?x",\n                                                        "details": null,\n                                                        "estimated_column_multiplicities": [\n                                                            1.0,\n                                                            1.0,\n                                                            1.0\n                                                        ],\n                                                        "estimated_operation_cost": 2,\n                                                        "estimated_size": 0,\n                                                        "estimated_total_cost": 6,\n                                                        "operation_time": 0,\n                                                        "original_operation_time": 0,\n                                                        "original_total_time": 0,\n                                                        "result_cols": 3,\n                                                        "result_rows": 0,\n                                                        "status": "optimized out",\n                                                        "total_time": 0\n                                                    }\n                                                ],\n                                                "column_names": [\n                                                    "?x",\n                                                    "?uri",\n                                                    "?y"\n                                                ],\n                                                "description": "Sort (internal order) on ?y",\n                                                "details": null,\n                                                "estimated_column_multiplicities": [\n                                                    1.0,\n                                                    1.0,\n                                                    1.0\n                                                ],\n                                                "estimated_operation_cost": 0,\n                                                "estimated_size": 0,\n                                                "estimated_total_cost": 6,\n                                                "operation_time": 0,\n                                                "original_operation_time": 0,\n                                                "original_total_time": 0,\n                                                "result_cols": 3,\n                                                "result_rows": 0,\n                                                "status": "optimized out",\n                                                "total_time": 0\n                                            },\n                                            {\n                                                "cache_status": "computed",\n                                                "children": [],\n                                                "column_names": [\n                                                    "?y"\n                                                ],\n                                                "description": "IndexScan ?y &lt;http://www.wikidata.org/entity/P31&gt; &lt;http://www.wikidata.org/entity/Q571&gt;",\n                                                "details": null,\n                                                "estimated_column_multiplicities": [\n                                                    1.0\n                                                ],\n                                                "estimated_operation_cost": 0,\n                                                "estimated_size": 0,\n                                                "estimated_total_cost": 0,\n                                                "operation_time": 0,\n                                                "original_operation_time": 0,\n                                                "original_total_time": 0,\n                                                "result_cols": 1,\n                                                "result_rows": 0,\n                                                "status": "optimized out",\n                                                "total_time": 0\n                                            }\n                                        ],\n                                        "column_names": [\n                                            "?x",\n                                            "?uri",\n                                            "?y"\n                                        ],\n                                        "description": "Join on ?y",\n                                        "details": null,\n                                        "estimated_column_multiplicities": [\n                                            1.0,\n                                            1.0,\n                                            1.0\n                                        ],\n                                        "estimated_operation_cost": 0,\n                                        "estimated_size": 0,\n                                        "estimated_total_cost": 6,\n                                        "operation_time": 0,\n                                        "original_operation_time": 0,\n                                        "original_total_time": 0,\n                                        "result_cols": 3,\n                                        "result_rows": 0,\n                                        "status": "fully materialized",\n                                        "total_time": 0\n                                    }\n                                ],\n                                "column_names": [\n                                    "?x",\n                                    "?uri",\n                                    "?y",\n                                    "?_QLever_internal_variable_0 (U)"\n                                ],\n                                "description": "BIND ((COUNT(?x)) AS ?_QLever_internal_variable_0)",\n                                "details": null,\n                                "estimated_column_multiplicities": [\n                                    1.0,\n                                    1.0,\n                                    1.0,\n                                    1.0\n                                ],\n                                "estimated_operation_cost": 0,\n                                "estimated_size": 0,\n                                "estimated_total_cost": 6,\n                                "operation_time": 1,\n                                "original_operation_time": 0,\n                                "original_total_time": 0,\n                                "result_cols": 4,\n                                "result_rows": 0,\n                                "status": "failed",\n                                "total_time": 1\n                            }\n                        ],\n                        "column_names": [\n                            "?x",\n                            "?uri",\n                            "?y",\n                            "?_QLever_internal_variable_0 (U)"\n                        ],\n                        "description": "Sort (internal order) on ?uri",\n                        "details": null,\n                        "estimated_column_multiplicities": [\n                            1.0,\n                            1.0,\n                            1.0,\n                            1.0\n                        ],\n                        "estimated_operation_cost": 0,\n                        "estimated_size": 0,\n                        "estimated_total_cost": 6,\n                        "operation_time": 0,\n                        "original_operation_time": 0,\n                        "original_total_time": 0,\n                        "result_cols": 4,\n                        "result_rows": 0,\n                        "status": "failed because child failed",\n                        "total_time": 1\n                    }\n                ],\n                "column_names": [\n                    "?x",\n                    "?uri",\n                    "?y",\n                    "?_QLever_internal_variable_0 (U)"\n                ],\n                "description": "Distinct",\n                "details": null,\n                "estimated_column_multiplicities": [\n                    1.0,\n                    1.0,\n                    1.0,\n                    1.0\n                ],\n                "estimated_operation_cost": 0,\n                "estimated_size": 0,\n                "estimated_total_cost": 6,\n                "operation_time": 0,\n                "original_operation_time": 0,\n                "original_total_time": 0,\n                "result_cols": 4,\n                "result_rows": 0,\n                "status": "failed because child failed",\n                "total_time": 1\n            }\n        ],\n        "column_names": [\n            "?x",\n            "?uri",\n            "?y",\n            "?_QLever_internal_variable_0 (U)"\n        ],\n        "description": "OrderBy on DESC(?_QLever_internal_variable_0)",\n        "details": null,\n        "estimated_column_multiplicities": [\n            1.0,\n            1.0,\n            1.0,\n            1.0\n        ],\n        "estimated_operation_cost": 0,\n        "estimated_size": 0,\n        "estimated_total_cost": 6,\n        "operation_time": 2,\n        "original_operation_time": 0,\n        "original_total_time": 0,\n        "result_cols": 4,\n        "result_rows": 0,\n        "status": "failed because child failed",\n        "total_time": 3\n    },\n    "status": "ERROR",\n    "time": {\n        "computeResult": 6,\n        "total": 6\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"wd:P166\\": mismatched input \'wd:P166\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 197,\n        "query": "PREFIX wikibase: &lt;http://wikiba.se/ontology#&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?writer WHERE { ?writer wikibase:entityType wd:Q36180 ; ?award wikibase:statementProperty wd:P166 ; ?award wikibase:statementSubject wd:Q37922 . }",\n        "startIndex": 197,\n        "stopIndex": 203\n    },\n    "query": "PREFIX wikibase: &lt;http://wikiba.se/ontology#&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?writer WHERE { ?writer wikibase:entityType wd:Q36180 ; ?award wikibase:statementProperty wd:P166 ; ?award wikibase:statementSubject wd:Q37922 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 wd:Q5280538 . ?uri wdt:P106 wd:Q806349 . ?uri wdt:P1303 wd:Q119621 . ?uri wdt:P1303 wd:Q8338 . }",\n        "startIndex": 34,\n        "stopIndex": 41\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 wd:Q5280538 . ?uri wdt:P106 wd:Q806349 . ?uri wdt:P1303 wd:Q119621 . ?uri wdt:P1303 wd:Q8338 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 95,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?film wdt:P161 wd:Q40523 ; wdt:P161 wd:Q48410 . FILTER (?film = ?film) }",\n        "startIndex": 95,\n        "stopIndex": 103\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?film wdt:P161 wd:Q40523 ; wdt:P161 wd:Q48410 . FILTER (?film = ?film) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 87,\n        "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?capital WHERE { wd:Q1009 wdt:P36 ?capital }",\n        "startIndex": 87,\n        "stopIndex": 93\n    },\n    "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?capital WHERE { wd:Q1009 wdt:P36 ?capital }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 49,\n        "query": "SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri wdt:P373 [] . ?uri wikibase:sourceId ?dbpediaSource . ?dbpediaSource wdt:P31 &lt;http://www.wikidata.org/entity/Q9143&gt; . }",\n        "startIndex": 49,\n        "stopIndex": 56\n    },\n    "query": "SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri wdt:P373 [] . ?uri wikibase:sourceId ?dbpediaSource . ?dbpediaSource wdt:P31 &lt;http://www.wikidata.org/entity/Q9143&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"UNION\\": mismatched input \'UNION\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 171,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/statement/Q11631&gt; . ?uri &lt;http://www.wikidata.org/entity/P27&gt; &lt;http://www.wikidata.org/entity/Q2184&gt; . UNION ?uri &lt;http://www.wikidata.org/entity/P27&gt; &lt;http://www.wikidata.org/entity/Q15180&gt; . }",\n        "startIndex": 171,\n        "stopIndex": 175\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/statement/Q11631&gt; . ?uri &lt;http://www.wikidata.org/entity/P27&gt; &lt;http://www.wikidata.org/entity/Q2184&gt; . UNION ?uri &lt;http://www.wikidata.org/entity/P27&gt; &lt;http://www.wikidata.org/entity/Q15180&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 20,\n        "query": "SELECT ?uri WHERE { wd:Q5930 wdt:P170 ?uri }",\n        "startIndex": 20,\n        "stopIndex": 27\n    },\n    "query": "SELECT ?uri WHERE { wd:Q5930 wdt:P170 ?uri }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"isNumber\\": extraneous input \'isNumber\' expecting {\'(\', \'+\', \'!\', \'-\', \'true\', \'false\', GROUP_CONCAT, NOT, STR, LANG, LANGMATCHES, DATATYPE, BOUND, IRI, URI, BNODE, RAND, ABS, CEIL, FLOOR, ROUND, CONCAT, STRLEN, UCASE, LCASE, ENCODE_FOR_URI, CONTAINS, STRSTARTS, STRENDS, STRBEFORE, STRAFTER, YEAR, MONTH, DAY, HOURS, MINUTES, SECONDS, TIMEZONE, TZ, NOW, UUID, STRUUID, SHA1, SHA256, SHA384, SHA512, MD5, COALESCE, IF, STRLANG, STRDT, SAMETERM, ISIRI, ISURI, ISBLANK, ISLITERAL, ISNUMERIC, REGEX, SUBSTR, REPLACE, EXISTS, COUNT, SUM, MIN, MAX, AVG, SAMPLE, IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 131,\n        "query": "SELECT DISTINCT ?number WHERE { &lt;http://www.wikidata.org/entity/Q70096636&gt; &lt;http://www.wikidata.org/entity/P1128&gt; ?number. FILTER (isNumber(?number)) }",\n        "startIndex": 131,\n        "stopIndex": 138\n    },\n    "query": "SELECT DISTINCT ?number WHERE { &lt;http://www.wikidata.org/entity/Q70096636&gt; &lt;http://www.wikidata.org/entity/P1128&gt; ?number. FILTER (isNumber(?number)) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbo was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 30,\n        "query": "SELECT DISTINCT ?n WHERE { ?s dbo:wikiPageID ?pgid. ?s dbo:wikiPageID/ dbo:serviceLink ?wikidataid. FILTER(?wikidataid = \\"http://www.wikidata.org/entity/Q104123\\"). ?s wdt:P2769 ?n. }",\n        "startIndex": 30,\n        "stopIndex": 43\n    },\n    "query": "SELECT DISTINCT ?n WHERE { ?s dbo:wikiPageID ?pgid. ?s dbo:wikiPageID/ dbo:serviceLink ?wikidataid. FILTER(?wikidataid = \\"http://www.wikidata.org/entity/Q104123\\"). ?s wdt:P2769 ?n. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 124,\n        "query": "SELECT ?country WHERE { &lt;http://www.wikidata.org/entity/Q105981852&gt; &lt;http://www.wikidata.org/entity/P17&gt; ?country . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } }",\n        "startIndex": 124,\n        "stopIndex": 137\n    },\n    "query": "SELECT ?country WHERE { &lt;http://www.wikidata.org/entity/Q105981852&gt; &lt;http://www.wikidata.org/entity/P17&gt; ?country . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"ORDER BY\\": missing \'}\' at \'ORDER BY\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 195,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type wdt:Q6256 ; wdt:P2046 ?n . FILTER (?n &gt; 0) ORDER BY DESC(?n) LIMIT 1 }",\n        "startIndex": 195,\n        "stopIndex": 202\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type wdt:Q6256 ; wdt:P2046 ?n . FILTER (?n &gt; 0) ORDER BY DESC(?n) LIMIT 1 }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 33,\n        "query": "SELECT DISTINCT ?creator WHERE { wd:Q111135 wdt:P170 ?creator }",\n        "startIndex": 33,\n        "stopIndex": 42\n    },\n    "query": "SELECT DISTINCT ?creator WHERE { wd:Q111135 wdt:P170 ?creator }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>Query Bad Formed</t>
-  </si>
-  <si>
-    <t>Missing P31</t>
-  </si>
-  <si>
-    <t>Entity treated as Property</t>
-  </si>
-  <si>
-    <t>Wrong Property</t>
-  </si>
-  <si>
-    <t>Wrong Entity</t>
-  </si>
-  <si>
-    <t>Structural Error</t>
-  </si>
-  <si>
-    <t>Property treated as Entity</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"ORDER BY\\": missing \'}\' at \'ORDER BY\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 195,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type wdt:Q6256 ; wdt:P2046 ?n . FILTER (?n &gt; 0) ORDER BY DESC(?n) LIMIT 1 }",\n        "startIndex": 493,\n        "stopIndex": 500\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type wdt:Q6256 ; wdt:P2046 ?n . FILTER (?n &gt; 0) ORDER BY DESC(?n) LIMIT 1 }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?Almamater WHERE { wd:Q567 wdt:P69 ?Almamater }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?creator WHERE { wd:Q111135 wdt:P170 ?creator }</t>
   </si>
 </sst>
 </file>
@@ -1854,15 +2394,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H102" sqref="H102"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1887,25 +2425,34 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C2" t="s">
         <v>108</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>208</v>
       </c>
-      <c r="D2" t="s">
-        <v>308</v>
-      </c>
       <c r="E2" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="F2" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -1914,466 +2461,520 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C3" t="s">
         <v>109</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>209</v>
       </c>
-      <c r="D3" t="s">
-        <v>309</v>
-      </c>
       <c r="E3" t="s">
-        <v>331</v>
+        <v>231</v>
       </c>
       <c r="F3" t="s">
-        <v>416</v>
+        <v>329</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C4" t="s">
         <v>110</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>210</v>
       </c>
-      <c r="D4" t="s">
-        <v>310</v>
-      </c>
       <c r="E4" t="s">
-        <v>332</v>
+        <v>232</v>
       </c>
       <c r="F4" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I4" t="s">
+        <v>320</v>
+      </c>
+      <c r="J4" t="s">
+        <v>319</v>
+      </c>
+      <c r="K4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C5" t="s">
         <v>111</v>
       </c>
-      <c r="C5" t="s">
-        <v>211</v>
-      </c>
       <c r="D5" t="s">
-        <v>309</v>
+        <v>233</v>
       </c>
       <c r="E5" t="s">
-        <v>333</v>
+        <v>233</v>
       </c>
       <c r="F5" t="s">
-        <v>417</v>
+        <v>315</v>
       </c>
       <c r="G5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C6" t="s">
         <v>112</v>
       </c>
-      <c r="C6" t="s">
-        <v>212</v>
-      </c>
       <c r="D6" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E6" t="s">
-        <v>334</v>
+        <v>234</v>
       </c>
       <c r="F6" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C7" t="s">
         <v>113</v>
       </c>
-      <c r="C7" t="s">
-        <v>213</v>
-      </c>
       <c r="D7" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="E7" t="s">
-        <v>335</v>
+        <v>235</v>
       </c>
       <c r="F7" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C8" t="s">
         <v>114</v>
       </c>
-      <c r="C8" t="s">
-        <v>214</v>
-      </c>
       <c r="D8" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E8" t="s">
-        <v>336</v>
+        <v>236</v>
       </c>
       <c r="F8" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
+        <v>335</v>
+      </c>
+      <c r="C9" t="s">
         <v>115</v>
       </c>
-      <c r="C9" t="s">
-        <v>215</v>
-      </c>
       <c r="D9" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E9" t="s">
-        <v>337</v>
+        <v>237</v>
       </c>
       <c r="F9" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C10" t="s">
         <v>116</v>
       </c>
-      <c r="C10" t="s">
-        <v>216</v>
-      </c>
       <c r="D10" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E10" t="s">
-        <v>338</v>
+        <v>238</v>
       </c>
       <c r="F10" t="s">
-        <v>418</v>
+        <v>337</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I10" t="s">
+        <v>320</v>
+      </c>
+      <c r="J10" t="s">
+        <v>319</v>
+      </c>
+      <c r="K10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
+        <v>338</v>
+      </c>
+      <c r="C11" t="s">
         <v>117</v>
       </c>
-      <c r="C11" t="s">
-        <v>217</v>
-      </c>
       <c r="D11" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E11" t="s">
+        <v>239</v>
+      </c>
+      <c r="F11" t="s">
         <v>339</v>
       </c>
-      <c r="F11" t="s">
-        <v>419</v>
-      </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I11" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
+        <v>340</v>
+      </c>
+      <c r="C12" t="s">
         <v>118</v>
       </c>
-      <c r="C12" t="s">
-        <v>218</v>
-      </c>
       <c r="D12" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E12" t="s">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="F12" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
+        <v>341</v>
+      </c>
+      <c r="C13" t="s">
         <v>119</v>
       </c>
-      <c r="C13" t="s">
-        <v>219</v>
-      </c>
       <c r="D13" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E13" t="s">
-        <v>341</v>
+        <v>241</v>
       </c>
       <c r="F13" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
+        <v>342</v>
+      </c>
+      <c r="C14" t="s">
         <v>120</v>
       </c>
-      <c r="C14" t="s">
-        <v>220</v>
-      </c>
       <c r="D14" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E14" t="s">
-        <v>342</v>
+        <v>242</v>
       </c>
       <c r="F14" t="s">
-        <v>420</v>
+        <v>343</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I14" t="s">
+        <v>320</v>
+      </c>
+      <c r="J14" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15" t="s">
+        <v>344</v>
+      </c>
+      <c r="C15" t="s">
         <v>121</v>
       </c>
-      <c r="C15" t="s">
-        <v>221</v>
-      </c>
       <c r="D15" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E15" t="s">
-        <v>343</v>
+        <v>243</v>
       </c>
       <c r="F15" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+      <c r="I15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>345</v>
+      </c>
+      <c r="C16" t="s">
         <v>122</v>
       </c>
-      <c r="C16" t="s">
-        <v>222</v>
-      </c>
       <c r="D16" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E16" t="s">
-        <v>344</v>
+        <v>244</v>
       </c>
       <c r="F16" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+      <c r="I16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>346</v>
+      </c>
+      <c r="C17" t="s">
         <v>123</v>
       </c>
-      <c r="C17" t="s">
-        <v>223</v>
-      </c>
       <c r="D17" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E17" t="s">
-        <v>345</v>
+        <v>245</v>
       </c>
       <c r="F17" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I17" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" t="s">
+        <v>347</v>
+      </c>
+      <c r="C18" t="s">
         <v>124</v>
       </c>
-      <c r="C18" t="s">
-        <v>224</v>
-      </c>
       <c r="D18" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="E18" t="s">
-        <v>346</v>
+        <v>246</v>
       </c>
       <c r="F18" t="s">
-        <v>421</v>
+        <v>315</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I18" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19" t="s">
+        <v>349</v>
+      </c>
+      <c r="C19" t="s">
         <v>125</v>
       </c>
-      <c r="C19" t="s">
-        <v>225</v>
-      </c>
       <c r="D19" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E19" t="s">
-        <v>347</v>
+        <v>247</v>
       </c>
       <c r="F19" t="s">
-        <v>422</v>
+        <v>350</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I19" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
       <c r="B20" t="s">
+        <v>351</v>
+      </c>
+      <c r="C20" t="s">
         <v>126</v>
       </c>
-      <c r="C20" t="s">
-        <v>226</v>
-      </c>
       <c r="D20" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E20" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="F20" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -2382,50 +2983,50 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
       <c r="B21" t="s">
+        <v>352</v>
+      </c>
+      <c r="C21" t="s">
         <v>127</v>
       </c>
-      <c r="C21" t="s">
-        <v>227</v>
-      </c>
       <c r="D21" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E21" t="s">
-        <v>348</v>
+        <v>248</v>
       </c>
       <c r="F21" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
       <c r="B22" t="s">
+        <v>353</v>
+      </c>
+      <c r="C22" t="s">
         <v>128</v>
       </c>
-      <c r="C22" t="s">
-        <v>228</v>
-      </c>
       <c r="D22" t="s">
-        <v>313</v>
+        <v>213</v>
       </c>
       <c r="E22" t="s">
-        <v>313</v>
+        <v>213</v>
       </c>
       <c r="F22" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -2434,128 +3035,137 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
       <c r="B23" t="s">
+        <v>354</v>
+      </c>
+      <c r="C23" t="s">
         <v>129</v>
       </c>
-      <c r="C23" t="s">
-        <v>229</v>
-      </c>
       <c r="D23" t="s">
-        <v>309</v>
+        <v>210</v>
       </c>
       <c r="E23" t="s">
-        <v>349</v>
+        <v>249</v>
       </c>
       <c r="F23" t="s">
-        <v>423</v>
+        <v>315</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I23" t="s">
+        <v>317</v>
+      </c>
+      <c r="J23" t="s">
+        <v>321</v>
+      </c>
+      <c r="K23" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
       <c r="B24" t="s">
+        <v>355</v>
+      </c>
+      <c r="C24" t="s">
         <v>130</v>
       </c>
-      <c r="C24" t="s">
-        <v>230</v>
-      </c>
       <c r="D24" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E24" t="s">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="F24" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
       <c r="B25" t="s">
+        <v>356</v>
+      </c>
+      <c r="C25" t="s">
         <v>131</v>
       </c>
-      <c r="C25" t="s">
-        <v>231</v>
-      </c>
       <c r="D25" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E25" t="s">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="F25" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
       <c r="B26" t="s">
+        <v>357</v>
+      </c>
+      <c r="C26" t="s">
         <v>132</v>
       </c>
-      <c r="C26" t="s">
-        <v>232</v>
-      </c>
       <c r="D26" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E26" t="s">
-        <v>352</v>
+        <v>252</v>
       </c>
       <c r="F26" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
       <c r="B27" t="s">
+        <v>358</v>
+      </c>
+      <c r="C27" t="s">
         <v>133</v>
       </c>
-      <c r="C27" t="s">
-        <v>233</v>
-      </c>
       <c r="D27" t="s">
-        <v>314</v>
+        <v>214</v>
       </c>
       <c r="E27" t="s">
-        <v>314</v>
+        <v>214</v>
       </c>
       <c r="F27" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
@@ -2564,24 +3174,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
       <c r="B28" t="s">
+        <v>359</v>
+      </c>
+      <c r="C28" t="s">
         <v>134</v>
       </c>
-      <c r="C28" t="s">
-        <v>234</v>
-      </c>
       <c r="D28" t="s">
-        <v>315</v>
+        <v>215</v>
       </c>
       <c r="E28" t="s">
-        <v>315</v>
+        <v>215</v>
       </c>
       <c r="F28" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
@@ -2590,232 +3200,268 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
       <c r="B29" t="s">
+        <v>360</v>
+      </c>
+      <c r="C29" t="s">
         <v>135</v>
       </c>
-      <c r="C29" t="s">
-        <v>235</v>
-      </c>
       <c r="D29" t="s">
-        <v>309</v>
+        <v>210</v>
       </c>
       <c r="E29" t="s">
-        <v>353</v>
+        <v>253</v>
       </c>
       <c r="F29" t="s">
-        <v>424</v>
+        <v>315</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I29" t="s">
+        <v>320</v>
+      </c>
+      <c r="J29" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
       <c r="B30" t="s">
+        <v>361</v>
+      </c>
+      <c r="C30" t="s">
         <v>136</v>
       </c>
-      <c r="C30" t="s">
-        <v>236</v>
-      </c>
       <c r="D30" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E30" t="s">
-        <v>354</v>
+        <v>254</v>
       </c>
       <c r="F30" t="s">
-        <v>425</v>
+        <v>362</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I30" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
       <c r="B31" t="s">
+        <v>363</v>
+      </c>
+      <c r="C31" t="s">
         <v>137</v>
       </c>
-      <c r="C31" t="s">
-        <v>237</v>
-      </c>
       <c r="D31" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E31" t="s">
-        <v>355</v>
+        <v>255</v>
       </c>
       <c r="F31" t="s">
-        <v>426</v>
+        <v>364</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I31" t="s">
+        <v>319</v>
+      </c>
+      <c r="J31" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
       <c r="B32" t="s">
+        <v>365</v>
+      </c>
+      <c r="C32" t="s">
         <v>138</v>
       </c>
-      <c r="C32" t="s">
-        <v>238</v>
-      </c>
       <c r="D32" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E32" t="s">
-        <v>356</v>
+        <v>256</v>
       </c>
       <c r="F32" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I32" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
       <c r="B33" t="s">
+        <v>366</v>
+      </c>
+      <c r="C33" t="s">
         <v>139</v>
       </c>
-      <c r="C33" t="s">
-        <v>239</v>
-      </c>
       <c r="D33" t="s">
-        <v>309</v>
+        <v>257</v>
       </c>
       <c r="E33" t="s">
-        <v>357</v>
+        <v>257</v>
       </c>
       <c r="F33" t="s">
-        <v>427</v>
+        <v>315</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
       <c r="B34" t="s">
+        <v>367</v>
+      </c>
+      <c r="C34" t="s">
         <v>140</v>
       </c>
-      <c r="C34" t="s">
-        <v>240</v>
-      </c>
       <c r="D34" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E34" t="s">
-        <v>358</v>
+        <v>258</v>
       </c>
       <c r="F34" t="s">
-        <v>428</v>
+        <v>368</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I34" t="s">
+        <v>317</v>
+      </c>
+      <c r="J34" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
       <c r="B35" t="s">
+        <v>369</v>
+      </c>
+      <c r="C35" t="s">
         <v>141</v>
       </c>
-      <c r="C35" t="s">
-        <v>241</v>
-      </c>
       <c r="D35" t="s">
-        <v>316</v>
+        <v>216</v>
       </c>
       <c r="E35" t="s">
-        <v>359</v>
+        <v>259</v>
       </c>
       <c r="F35" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I35" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
       <c r="B36" t="s">
+        <v>370</v>
+      </c>
+      <c r="C36" t="s">
         <v>142</v>
       </c>
-      <c r="C36" t="s">
-        <v>242</v>
-      </c>
       <c r="D36" t="s">
-        <v>309</v>
+        <v>210</v>
       </c>
       <c r="E36" t="s">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="F36" t="s">
-        <v>429</v>
+        <v>315</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I36" t="s">
+        <v>317</v>
+      </c>
+      <c r="J36" t="s">
+        <v>321</v>
+      </c>
+      <c r="K36" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
       <c r="B37" t="s">
+        <v>371</v>
+      </c>
+      <c r="C37" t="s">
         <v>143</v>
       </c>
-      <c r="C37" t="s">
-        <v>243</v>
-      </c>
       <c r="D37" t="s">
-        <v>317</v>
+        <v>217</v>
       </c>
       <c r="E37" t="s">
-        <v>317</v>
+        <v>217</v>
       </c>
       <c r="F37" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
@@ -2824,76 +3470,79 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
       <c r="B38" t="s">
+        <v>372</v>
+      </c>
+      <c r="C38" t="s">
         <v>144</v>
       </c>
-      <c r="C38" t="s">
-        <v>244</v>
-      </c>
       <c r="D38" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E38" t="s">
-        <v>361</v>
+        <v>261</v>
       </c>
       <c r="F38" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+      <c r="I38" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
       <c r="B39" t="s">
+        <v>373</v>
+      </c>
+      <c r="C39" t="s">
         <v>145</v>
       </c>
-      <c r="C39" t="s">
-        <v>245</v>
-      </c>
       <c r="D39" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E39" t="s">
-        <v>362</v>
+        <v>262</v>
       </c>
       <c r="F39" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>46</v>
       </c>
       <c r="B40" t="s">
+        <v>374</v>
+      </c>
+      <c r="C40" t="s">
         <v>146</v>
       </c>
-      <c r="C40" t="s">
-        <v>246</v>
-      </c>
       <c r="D40" t="s">
-        <v>318</v>
+        <v>218</v>
       </c>
       <c r="E40" t="s">
-        <v>318</v>
+        <v>218</v>
       </c>
       <c r="F40" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
@@ -2902,102 +3551,111 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
       <c r="B41" t="s">
+        <v>375</v>
+      </c>
+      <c r="C41" t="s">
         <v>147</v>
       </c>
-      <c r="C41" t="s">
-        <v>247</v>
-      </c>
       <c r="D41" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E41" t="s">
-        <v>363</v>
+        <v>263</v>
       </c>
       <c r="F41" t="s">
-        <v>430</v>
+        <v>376</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I41" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
       <c r="B42" t="s">
+        <v>377</v>
+      </c>
+      <c r="C42" t="s">
         <v>148</v>
       </c>
-      <c r="C42" t="s">
-        <v>248</v>
-      </c>
       <c r="D42" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E42" t="s">
-        <v>364</v>
+        <v>264</v>
       </c>
       <c r="F42" t="s">
-        <v>431</v>
+        <v>378</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I42" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
       <c r="B43" t="s">
+        <v>379</v>
+      </c>
+      <c r="C43" t="s">
         <v>149</v>
       </c>
-      <c r="C43" t="s">
-        <v>249</v>
-      </c>
       <c r="D43" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E43" t="s">
-        <v>365</v>
+        <v>265</v>
       </c>
       <c r="F43" t="s">
-        <v>432</v>
+        <v>380</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I43" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>50</v>
       </c>
       <c r="B44" t="s">
+        <v>381</v>
+      </c>
+      <c r="C44" t="s">
         <v>150</v>
       </c>
-      <c r="C44" t="s">
-        <v>250</v>
-      </c>
       <c r="D44" t="s">
-        <v>319</v>
+        <v>219</v>
       </c>
       <c r="E44" t="s">
-        <v>319</v>
+        <v>219</v>
       </c>
       <c r="F44" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
@@ -3006,154 +3664,160 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>51</v>
       </c>
       <c r="B45" t="s">
+        <v>382</v>
+      </c>
+      <c r="C45" t="s">
         <v>151</v>
       </c>
-      <c r="C45" t="s">
-        <v>251</v>
-      </c>
       <c r="D45" t="s">
+        <v>220</v>
+      </c>
+      <c r="E45" t="s">
+        <v>266</v>
+      </c>
+      <c r="F45" t="s">
+        <v>315</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
         <v>320</v>
       </c>
-      <c r="E45" t="s">
-        <v>366</v>
-      </c>
-      <c r="F45" t="s">
-        <v>415</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I45" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>52</v>
       </c>
       <c r="B46" t="s">
+        <v>383</v>
+      </c>
+      <c r="C46" t="s">
         <v>152</v>
       </c>
-      <c r="C46" t="s">
-        <v>252</v>
-      </c>
       <c r="D46" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E46" t="s">
-        <v>367</v>
+        <v>267</v>
       </c>
       <c r="F46" t="s">
-        <v>433</v>
+        <v>384</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>53</v>
       </c>
       <c r="B47" t="s">
+        <v>385</v>
+      </c>
+      <c r="C47" t="s">
         <v>153</v>
       </c>
-      <c r="C47" t="s">
-        <v>253</v>
-      </c>
       <c r="D47" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E47" t="s">
-        <v>368</v>
+        <v>268</v>
       </c>
       <c r="F47" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+      <c r="I47" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>54</v>
       </c>
       <c r="B48" t="s">
+        <v>386</v>
+      </c>
+      <c r="C48" t="s">
         <v>154</v>
       </c>
-      <c r="C48" t="s">
-        <v>254</v>
-      </c>
       <c r="D48" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="E48" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="F48" t="s">
-        <v>434</v>
+        <v>315</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>55</v>
       </c>
       <c r="B49" t="s">
+        <v>387</v>
+      </c>
+      <c r="C49" t="s">
         <v>155</v>
       </c>
-      <c r="C49" t="s">
-        <v>255</v>
-      </c>
       <c r="D49" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="E49" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="F49" t="s">
-        <v>435</v>
+        <v>315</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>56</v>
       </c>
       <c r="B50" t="s">
+        <v>388</v>
+      </c>
+      <c r="C50" t="s">
         <v>156</v>
       </c>
-      <c r="C50" t="s">
-        <v>256</v>
-      </c>
       <c r="D50" t="s">
-        <v>321</v>
+        <v>221</v>
       </c>
       <c r="E50" t="s">
-        <v>321</v>
+        <v>221</v>
       </c>
       <c r="F50" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
@@ -3162,154 +3826,178 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>57</v>
       </c>
       <c r="B51" t="s">
+        <v>389</v>
+      </c>
+      <c r="C51" t="s">
         <v>157</v>
       </c>
-      <c r="C51" t="s">
-        <v>257</v>
-      </c>
       <c r="D51" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E51" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="F51" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>58</v>
       </c>
       <c r="B52" t="s">
+        <v>390</v>
+      </c>
+      <c r="C52" t="s">
         <v>158</v>
       </c>
-      <c r="C52" t="s">
-        <v>258</v>
-      </c>
       <c r="D52" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E52" t="s">
-        <v>372</v>
+        <v>272</v>
       </c>
       <c r="F52" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+      <c r="I52" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>59</v>
       </c>
       <c r="B53" t="s">
+        <v>391</v>
+      </c>
+      <c r="C53" t="s">
         <v>159</v>
       </c>
-      <c r="C53" t="s">
-        <v>259</v>
-      </c>
       <c r="D53" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E53" t="s">
-        <v>373</v>
+        <v>273</v>
       </c>
       <c r="F53" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I53" t="s">
+        <v>317</v>
+      </c>
+      <c r="J53" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
       <c r="B54" t="s">
+        <v>392</v>
+      </c>
+      <c r="C54" t="s">
         <v>160</v>
       </c>
-      <c r="C54" t="s">
-        <v>260</v>
-      </c>
       <c r="D54" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E54" t="s">
-        <v>374</v>
+        <v>274</v>
       </c>
       <c r="F54" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I54" t="s">
+        <v>320</v>
+      </c>
+      <c r="J54" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>61</v>
       </c>
       <c r="B55" t="s">
+        <v>393</v>
+      </c>
+      <c r="C55" t="s">
         <v>161</v>
       </c>
-      <c r="C55" t="s">
-        <v>261</v>
-      </c>
       <c r="D55" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E55" t="s">
-        <v>375</v>
+        <v>275</v>
       </c>
       <c r="F55" t="s">
-        <v>436</v>
+        <v>394</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I55" t="s">
+        <v>317</v>
+      </c>
+      <c r="J55" t="s">
+        <v>319</v>
+      </c>
+      <c r="K55" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>62</v>
       </c>
       <c r="B56" t="s">
+        <v>395</v>
+      </c>
+      <c r="C56" t="s">
         <v>162</v>
       </c>
-      <c r="C56" t="s">
-        <v>262</v>
-      </c>
       <c r="D56" t="s">
-        <v>322</v>
+        <v>222</v>
       </c>
       <c r="E56" t="s">
-        <v>322</v>
+        <v>222</v>
       </c>
       <c r="F56" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
@@ -3318,24 +4006,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>63</v>
       </c>
       <c r="B57" t="s">
+        <v>396</v>
+      </c>
+      <c r="C57" t="s">
         <v>163</v>
       </c>
-      <c r="C57" t="s">
-        <v>263</v>
-      </c>
       <c r="D57" t="s">
-        <v>323</v>
+        <v>223</v>
       </c>
       <c r="E57" t="s">
-        <v>323</v>
+        <v>223</v>
       </c>
       <c r="F57" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
@@ -3344,50 +4032,56 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>64</v>
       </c>
       <c r="B58" t="s">
+        <v>397</v>
+      </c>
+      <c r="C58" t="s">
         <v>164</v>
       </c>
-      <c r="C58" t="s">
-        <v>264</v>
-      </c>
       <c r="D58" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E58" t="s">
-        <v>376</v>
+        <v>276</v>
       </c>
       <c r="F58" t="s">
-        <v>437</v>
+        <v>398</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I58" t="s">
+        <v>319</v>
+      </c>
+      <c r="J58" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>65</v>
       </c>
       <c r="B59" t="s">
+        <v>399</v>
+      </c>
+      <c r="C59" t="s">
         <v>165</v>
       </c>
-      <c r="C59" t="s">
-        <v>265</v>
-      </c>
       <c r="D59" t="s">
-        <v>324</v>
+        <v>224</v>
       </c>
       <c r="E59" t="s">
-        <v>324</v>
+        <v>224</v>
       </c>
       <c r="F59" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
@@ -3396,102 +4090,105 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>66</v>
       </c>
       <c r="B60" t="s">
+        <v>400</v>
+      </c>
+      <c r="C60" t="s">
         <v>166</v>
       </c>
-      <c r="C60" t="s">
-        <v>266</v>
-      </c>
       <c r="D60" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E60" t="s">
-        <v>377</v>
+        <v>277</v>
       </c>
       <c r="F60" t="s">
-        <v>438</v>
+        <v>401</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I60" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>67</v>
       </c>
       <c r="B61" t="s">
+        <v>402</v>
+      </c>
+      <c r="C61" t="s">
         <v>167</v>
       </c>
-      <c r="C61" t="s">
-        <v>267</v>
-      </c>
       <c r="D61" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E61" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="F61" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>68</v>
       </c>
       <c r="B62" t="s">
+        <v>403</v>
+      </c>
+      <c r="C62" t="s">
         <v>168</v>
       </c>
-      <c r="C62" t="s">
-        <v>268</v>
-      </c>
       <c r="D62" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E62" t="s">
-        <v>379</v>
+        <v>279</v>
       </c>
       <c r="F62" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>69</v>
       </c>
       <c r="B63" t="s">
+        <v>404</v>
+      </c>
+      <c r="C63" t="s">
         <v>169</v>
       </c>
-      <c r="C63" t="s">
-        <v>269</v>
-      </c>
       <c r="D63" t="s">
-        <v>325</v>
+        <v>225</v>
       </c>
       <c r="E63" t="s">
-        <v>325</v>
+        <v>225</v>
       </c>
       <c r="F63" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
@@ -3500,154 +4197,175 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>70</v>
       </c>
       <c r="B64" t="s">
+        <v>405</v>
+      </c>
+      <c r="C64" t="s">
         <v>170</v>
       </c>
-      <c r="C64" t="s">
-        <v>270</v>
-      </c>
       <c r="D64" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E64" t="s">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="F64" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I64" t="s">
+        <v>317</v>
+      </c>
+      <c r="J64" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>71</v>
       </c>
       <c r="B65" t="s">
+        <v>406</v>
+      </c>
+      <c r="C65" t="s">
         <v>171</v>
       </c>
-      <c r="C65" t="s">
-        <v>271</v>
-      </c>
       <c r="D65" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E65" t="s">
-        <v>381</v>
+        <v>281</v>
       </c>
       <c r="F65" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I65" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>72</v>
       </c>
       <c r="B66" t="s">
+        <v>407</v>
+      </c>
+      <c r="C66" t="s">
         <v>172</v>
       </c>
-      <c r="C66" t="s">
-        <v>272</v>
-      </c>
       <c r="D66" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E66" t="s">
-        <v>382</v>
+        <v>282</v>
       </c>
       <c r="F66" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>73</v>
       </c>
       <c r="B67" t="s">
+        <v>408</v>
+      </c>
+      <c r="C67" t="s">
         <v>173</v>
       </c>
-      <c r="C67" t="s">
-        <v>273</v>
-      </c>
       <c r="D67" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E67" t="s">
-        <v>383</v>
+        <v>283</v>
       </c>
       <c r="F67" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I67" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>74</v>
       </c>
       <c r="B68" t="s">
+        <v>409</v>
+      </c>
+      <c r="C68" t="s">
         <v>174</v>
       </c>
-      <c r="C68" t="s">
-        <v>274</v>
-      </c>
       <c r="D68" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E68" t="s">
-        <v>384</v>
+        <v>284</v>
       </c>
       <c r="F68" t="s">
-        <v>439</v>
+        <v>410</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I68" t="s">
+        <v>319</v>
+      </c>
+      <c r="J68" t="s">
+        <v>320</v>
+      </c>
+      <c r="K68" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>75</v>
       </c>
       <c r="B69" t="s">
+        <v>411</v>
+      </c>
+      <c r="C69" t="s">
         <v>175</v>
       </c>
-      <c r="C69" t="s">
-        <v>275</v>
-      </c>
       <c r="D69" t="s">
-        <v>326</v>
+        <v>226</v>
       </c>
       <c r="E69" t="s">
-        <v>326</v>
+        <v>226</v>
       </c>
       <c r="F69" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
@@ -3656,284 +4374,302 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>76</v>
       </c>
       <c r="B70" t="s">
+        <v>412</v>
+      </c>
+      <c r="C70" t="s">
         <v>176</v>
       </c>
-      <c r="C70" t="s">
-        <v>276</v>
-      </c>
       <c r="D70" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="E70" t="s">
-        <v>385</v>
+        <v>285</v>
       </c>
       <c r="F70" t="s">
-        <v>440</v>
+        <v>315</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>77</v>
       </c>
       <c r="B71" t="s">
+        <v>413</v>
+      </c>
+      <c r="C71" t="s">
         <v>177</v>
       </c>
-      <c r="C71" t="s">
-        <v>277</v>
-      </c>
       <c r="D71" t="s">
-        <v>327</v>
+        <v>227</v>
       </c>
       <c r="E71" t="s">
-        <v>386</v>
+        <v>286</v>
       </c>
       <c r="F71" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>78</v>
       </c>
       <c r="B72" t="s">
+        <v>414</v>
+      </c>
+      <c r="C72" t="s">
         <v>178</v>
       </c>
-      <c r="C72" t="s">
-        <v>278</v>
-      </c>
       <c r="D72" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E72" t="s">
-        <v>387</v>
+        <v>287</v>
       </c>
       <c r="F72" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I72" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>79</v>
       </c>
       <c r="B73" t="s">
+        <v>415</v>
+      </c>
+      <c r="C73" t="s">
         <v>179</v>
       </c>
-      <c r="C73" t="s">
-        <v>279</v>
-      </c>
       <c r="D73" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="E73" t="s">
-        <v>388</v>
+        <v>288</v>
       </c>
       <c r="F73" t="s">
-        <v>441</v>
+        <v>315</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>80</v>
       </c>
       <c r="B74" t="s">
+        <v>416</v>
+      </c>
+      <c r="C74" t="s">
         <v>180</v>
       </c>
-      <c r="C74" t="s">
-        <v>280</v>
-      </c>
       <c r="D74" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E74" t="s">
-        <v>389</v>
+        <v>289</v>
       </c>
       <c r="F74" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>81</v>
       </c>
       <c r="B75" t="s">
+        <v>417</v>
+      </c>
+      <c r="C75" t="s">
         <v>181</v>
       </c>
-      <c r="C75" t="s">
-        <v>281</v>
-      </c>
       <c r="D75" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E75" t="s">
-        <v>390</v>
+        <v>290</v>
       </c>
       <c r="F75" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>82</v>
       </c>
       <c r="B76" t="s">
+        <v>418</v>
+      </c>
+      <c r="C76" t="s">
         <v>182</v>
       </c>
-      <c r="C76" t="s">
-        <v>282</v>
-      </c>
       <c r="D76" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E76" t="s">
-        <v>391</v>
+        <v>291</v>
       </c>
       <c r="F76" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I76" t="s">
+        <v>320</v>
+      </c>
+      <c r="J76" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>83</v>
       </c>
       <c r="B77" t="s">
+        <v>419</v>
+      </c>
+      <c r="C77" t="s">
         <v>183</v>
       </c>
-      <c r="C77" t="s">
-        <v>283</v>
-      </c>
       <c r="D77" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E77" t="s">
-        <v>392</v>
+        <v>292</v>
       </c>
       <c r="F77" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I77" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>84</v>
       </c>
       <c r="B78" t="s">
+        <v>421</v>
+      </c>
+      <c r="C78" t="s">
         <v>184</v>
       </c>
-      <c r="C78" t="s">
-        <v>284</v>
-      </c>
       <c r="D78" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E78" t="s">
-        <v>393</v>
+        <v>293</v>
       </c>
       <c r="F78" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+      <c r="I78" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>85</v>
       </c>
       <c r="B79" t="s">
+        <v>422</v>
+      </c>
+      <c r="C79" t="s">
         <v>185</v>
       </c>
-      <c r="C79" t="s">
-        <v>285</v>
-      </c>
       <c r="D79" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E79" t="s">
-        <v>394</v>
+        <v>294</v>
       </c>
       <c r="F79" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I79" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>86</v>
       </c>
       <c r="B80" t="s">
+        <v>424</v>
+      </c>
+      <c r="C80" t="s">
         <v>186</v>
       </c>
-      <c r="C80" t="s">
-        <v>286</v>
-      </c>
       <c r="D80" t="s">
-        <v>328</v>
+        <v>228</v>
       </c>
       <c r="E80" t="s">
-        <v>328</v>
+        <v>228</v>
       </c>
       <c r="F80" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
@@ -3942,284 +4678,323 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>87</v>
       </c>
       <c r="B81" t="s">
+        <v>425</v>
+      </c>
+      <c r="C81" t="s">
         <v>187</v>
       </c>
-      <c r="C81" t="s">
-        <v>287</v>
-      </c>
       <c r="D81" t="s">
-        <v>309</v>
+        <v>210</v>
       </c>
       <c r="E81" t="s">
-        <v>395</v>
+        <v>295</v>
       </c>
       <c r="F81" t="s">
-        <v>444</v>
+        <v>315</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I81" t="s">
+        <v>320</v>
+      </c>
+      <c r="J81" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>88</v>
       </c>
       <c r="B82" t="s">
+        <v>426</v>
+      </c>
+      <c r="C82" t="s">
         <v>188</v>
       </c>
-      <c r="C82" t="s">
-        <v>288</v>
-      </c>
       <c r="D82" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E82" t="s">
-        <v>396</v>
+        <v>296</v>
       </c>
       <c r="F82" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+      <c r="I82" t="s">
+        <v>318</v>
+      </c>
+      <c r="J82" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>89</v>
       </c>
       <c r="B83" t="s">
+        <v>427</v>
+      </c>
+      <c r="C83" t="s">
         <v>189</v>
       </c>
-      <c r="C83" t="s">
-        <v>289</v>
-      </c>
       <c r="D83" t="s">
-        <v>309</v>
+        <v>210</v>
       </c>
       <c r="E83" t="s">
-        <v>397</v>
+        <v>297</v>
       </c>
       <c r="F83" t="s">
-        <v>445</v>
+        <v>315</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I83" t="s">
+        <v>317</v>
+      </c>
+      <c r="J83" t="s">
+        <v>320</v>
+      </c>
+      <c r="K83" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>90</v>
       </c>
       <c r="B84" t="s">
+        <v>428</v>
+      </c>
+      <c r="C84" t="s">
         <v>190</v>
       </c>
-      <c r="C84" t="s">
-        <v>290</v>
-      </c>
       <c r="D84" t="s">
-        <v>329</v>
+        <v>229</v>
       </c>
       <c r="E84" t="s">
-        <v>398</v>
+        <v>298</v>
       </c>
       <c r="F84" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+      <c r="I84" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>91</v>
       </c>
       <c r="B85" t="s">
+        <v>429</v>
+      </c>
+      <c r="C85" t="s">
         <v>191</v>
       </c>
-      <c r="C85" t="s">
-        <v>291</v>
-      </c>
       <c r="D85" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E85" t="s">
-        <v>399</v>
+        <v>299</v>
       </c>
       <c r="F85" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+      <c r="I85" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>92</v>
       </c>
       <c r="B86" t="s">
+        <v>430</v>
+      </c>
+      <c r="C86" t="s">
         <v>192</v>
       </c>
-      <c r="C86" t="s">
-        <v>292</v>
-      </c>
       <c r="D86" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="E86" t="s">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F86" t="s">
-        <v>446</v>
+        <v>315</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>93</v>
       </c>
       <c r="B87" t="s">
+        <v>431</v>
+      </c>
+      <c r="C87" t="s">
         <v>193</v>
       </c>
-      <c r="C87" t="s">
-        <v>293</v>
-      </c>
       <c r="D87" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E87" t="s">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="F87" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I87" t="s">
+        <v>319</v>
+      </c>
+      <c r="J87" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>94</v>
       </c>
       <c r="B88" t="s">
+        <v>433</v>
+      </c>
+      <c r="C88" t="s">
         <v>194</v>
       </c>
-      <c r="C88" t="s">
-        <v>294</v>
-      </c>
       <c r="D88" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E88" t="s">
-        <v>402</v>
+        <v>302</v>
       </c>
       <c r="F88" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I88" t="s">
+        <v>319</v>
+      </c>
+      <c r="J88" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>95</v>
       </c>
       <c r="B89" t="s">
+        <v>435</v>
+      </c>
+      <c r="C89" t="s">
         <v>195</v>
       </c>
-      <c r="C89" t="s">
-        <v>295</v>
-      </c>
       <c r="D89" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E89" t="s">
-        <v>403</v>
+        <v>303</v>
       </c>
       <c r="F89" t="s">
-        <v>449</v>
+        <v>315</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>96</v>
       </c>
       <c r="B90" t="s">
+        <v>436</v>
+      </c>
+      <c r="C90" t="s">
         <v>196</v>
       </c>
-      <c r="C90" t="s">
-        <v>296</v>
-      </c>
       <c r="D90" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E90" t="s">
-        <v>404</v>
+        <v>304</v>
       </c>
       <c r="F90" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>97</v>
       </c>
       <c r="B91" t="s">
+        <v>437</v>
+      </c>
+      <c r="C91" t="s">
         <v>197</v>
       </c>
-      <c r="C91" t="s">
-        <v>297</v>
-      </c>
       <c r="D91" t="s">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="E91" t="s">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="F91" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
@@ -4228,264 +5003,306 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>98</v>
       </c>
       <c r="B92" t="s">
+        <v>438</v>
+      </c>
+      <c r="C92" t="s">
         <v>198</v>
       </c>
-      <c r="C92" t="s">
-        <v>298</v>
-      </c>
       <c r="D92" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E92" t="s">
-        <v>405</v>
+        <v>305</v>
       </c>
       <c r="F92" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+      <c r="I92" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>99</v>
       </c>
       <c r="B93" t="s">
+        <v>439</v>
+      </c>
+      <c r="C93" t="s">
         <v>199</v>
       </c>
-      <c r="C93" t="s">
-        <v>299</v>
-      </c>
       <c r="D93" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E93" t="s">
-        <v>406</v>
+        <v>306</v>
       </c>
       <c r="F93" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I93" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>100</v>
       </c>
       <c r="B94" t="s">
+        <v>440</v>
+      </c>
+      <c r="C94" t="s">
         <v>200</v>
       </c>
-      <c r="C94" t="s">
-        <v>300</v>
-      </c>
       <c r="D94" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E94" t="s">
-        <v>407</v>
+        <v>307</v>
       </c>
       <c r="F94" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I94" t="s">
+        <v>322</v>
+      </c>
+      <c r="J94" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>101</v>
       </c>
       <c r="B95" t="s">
+        <v>442</v>
+      </c>
+      <c r="C95" t="s">
         <v>201</v>
       </c>
-      <c r="C95" t="s">
-        <v>301</v>
-      </c>
       <c r="D95" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E95" t="s">
-        <v>408</v>
+        <v>308</v>
       </c>
       <c r="F95" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I95" t="s">
+        <v>319</v>
+      </c>
+      <c r="J95" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>102</v>
       </c>
       <c r="B96" t="s">
+        <v>444</v>
+      </c>
+      <c r="C96" t="s">
         <v>202</v>
       </c>
-      <c r="C96" t="s">
-        <v>302</v>
-      </c>
       <c r="D96" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E96" t="s">
-        <v>409</v>
+        <v>309</v>
       </c>
       <c r="F96" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I96" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>103</v>
       </c>
       <c r="B97" t="s">
+        <v>445</v>
+      </c>
+      <c r="C97" t="s">
         <v>203</v>
       </c>
-      <c r="C97" t="s">
-        <v>303</v>
-      </c>
       <c r="D97" t="s">
+        <v>210</v>
+      </c>
+      <c r="E97" t="s">
         <v>310</v>
       </c>
-      <c r="E97" t="s">
-        <v>410</v>
-      </c>
       <c r="F97" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I97" t="s">
+        <v>319</v>
+      </c>
+      <c r="J97" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>104</v>
       </c>
       <c r="B98" t="s">
+        <v>446</v>
+      </c>
+      <c r="C98" t="s">
         <v>204</v>
       </c>
-      <c r="C98" t="s">
-        <v>304</v>
-      </c>
       <c r="D98" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E98" t="s">
-        <v>411</v>
+        <v>311</v>
       </c>
       <c r="F98" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I98" t="s">
+        <v>320</v>
+      </c>
+      <c r="J98" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>105</v>
       </c>
       <c r="B99" t="s">
+        <v>448</v>
+      </c>
+      <c r="C99" t="s">
         <v>205</v>
       </c>
-      <c r="C99" t="s">
-        <v>305</v>
-      </c>
       <c r="D99" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E99" t="s">
-        <v>412</v>
+        <v>312</v>
       </c>
       <c r="F99" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I99" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>106</v>
       </c>
       <c r="B100" t="s">
+        <v>450</v>
+      </c>
+      <c r="C100" t="s">
         <v>206</v>
       </c>
-      <c r="C100" t="s">
-        <v>306</v>
-      </c>
       <c r="D100" t="s">
-        <v>316</v>
+        <v>216</v>
       </c>
       <c r="E100" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="F100" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I100" t="s">
+        <v>321</v>
+      </c>
+      <c r="J100" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>107</v>
       </c>
       <c r="B101" t="s">
+        <v>451</v>
+      </c>
+      <c r="C101" t="s">
         <v>207</v>
       </c>
-      <c r="C101" t="s">
-        <v>307</v>
-      </c>
       <c r="D101" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E101" t="s">
-        <v>414</v>
+        <v>314</v>
       </c>
       <c r="F101" t="s">
-        <v>454</v>
+        <v>315</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>455</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
